--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="experiment_timings.txt" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Graphs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -427,7 +427,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Graphs!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -439,7 +439,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>Graphs!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -492,7 +492,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:f>Graphs!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -550,7 +550,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Graphs!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -562,7 +562,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>Graphs!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -615,7 +615,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:f>Graphs!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -826,7 +826,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$51</c:f>
+              <c:f>Graphs!$B$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -847,7 +847,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$52:$A$66</c:f>
+              <c:f>Graphs!$A$52:$A$66</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -900,7 +900,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$52:$B$66</c:f>
+              <c:f>Graphs!$B$52:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1099,7 +1099,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$89</c:f>
+              <c:f>Graphs!$B$89</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1111,7 +1111,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$90:$A$104</c:f>
+              <c:f>Graphs!$A$90:$A$104</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1164,7 +1164,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$90:$B$104</c:f>
+              <c:f>Graphs!$B$90:$B$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -6216,7 +6216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>

--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="600" windowWidth="34140" windowHeight="19940" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3120" yWindow="940" windowWidth="34140" windowHeight="19940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_timings.txt" sheetId="1" r:id="rId1"/>
     <sheet name="Graphs OMP_NUM_THREADS=20" sheetId="2" r:id="rId2"/>
-    <sheet name="Thread Mappings" sheetId="3" r:id="rId3"/>
+    <sheet name="Graphs OMP_NUM_THREADS=10" sheetId="4" r:id="rId3"/>
+    <sheet name="Thread Mappings" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="thread_mapping_experiments" localSheetId="2">'Thread Mappings'!$A$1:$B$5205</definedName>
+    <definedName name="thread_mapping_experiments" localSheetId="3">'Thread Mappings'!$A$1:$B$5205</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10565" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10617" uniqueCount="370">
   <si>
     <t>----------------------</t>
   </si>
@@ -1119,6 +1120,9 @@
     <t>(master, threads) = All threads execute in CPUID=0</t>
   </si>
   <si>
+    <t>Notes:</t>
+  </si>
+  <si>
     <t>(master, cores) = All threads execute in the same core as the master. In this case the first core which contains CPUID=0-7. Threads are distributed to 8 CPUIDs</t>
   </si>
   <si>
@@ -1141,6 +1145,9 @@
   </si>
   <si>
     <t>(false, *) threads can migrate and are not binded to a specific thread, core or socket. This migration makes it less impactful on data placement, but suffers from performance.</t>
+  </si>
+  <si>
+    <t>(true, threads) seems to be equivalent to (close,threads) according to the thread mappings</t>
   </si>
 </sst>
 </file>
@@ -1196,8 +1203,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1297,7 +1334,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="123">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1344,6 +1381,21 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1390,6 +1442,21 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2194,7 +2261,7 @@
             <c:numRef>
               <c:f>'Graphs OMP_NUM_THREADS=20'!$B$90:$B$104</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>8.99248098299722</c:v>
@@ -2320,7 +2387,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2346,20 +2413,987 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time for Affine and Non Affine Accesses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graphs OMP_NUM_THREADS=10'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Affine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Graphs OMP_NUM_THREADS=10'!$J$2:$J$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(true, threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(master, threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(master, cores)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(master, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(close, threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(close, cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(true, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(false, cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(true, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(false, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(close, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(false, threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graphs OMP_NUM_THREADS=10'!$K$2:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>15.967569817003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.3149772839969</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.8796826359757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.74924854998243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.9599736139934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.92893046300741</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.32121792400721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.97052923101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.33048951800446</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.01099709700793</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.03875824500573</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.12055050898925</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.98585961700882</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.95102254601079</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.11385154200252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graphs OMP_NUM_THREADS=10'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Non-affine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Graphs OMP_NUM_THREADS=10'!$J$2:$J$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(true, threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(master, threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(master, cores)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(master, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(close, threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(close, cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(true, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(false, cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(true, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(false, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(close, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(false, threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graphs OMP_NUM_THREADS=10'!$L$2:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>15.9634523389977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.2745326239964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.7783720720035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.68555049001588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.9650519969873</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.45411046300432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.94314495899016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.54107747599482</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.97303582201129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.73803968401625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.80434663599589</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.97387528698891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8228360240173</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.85941002299659</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.60011122998548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2035570424"/>
+        <c:axId val="-2052007512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2035570424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>OpenMP Affinity</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (OMP_PROC_BIND, OMP_PLACES)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2052007512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2052007512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2035570424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Improvement of Affine vs. Non-Affine Accesses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graphs OMP_NUM_THREADS=10'!$K$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Improvement %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Graphs OMP_NUM_THREADS=10'!$J$38:$J$52</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(true, threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(master, threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(master, cores)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(master, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(close, threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(close, cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(true, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(false, cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(true, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(false, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(close, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(false, threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graphs OMP_NUM_THREADS=10'!$K$38:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000318194949235261</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17930777347908</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.187258725327052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.192069560881187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.192928487098745</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.241462400522004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.251941197444194</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.273453281894179</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.280313381861853</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.307821259520285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.477305892055196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2051231192"/>
+        <c:axId val="-2036030888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2051231192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>OpenMP Affinity (OMP_PROC_BIND, OMP_PLACES)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2036030888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2036030888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Improvement (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2051231192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Performance with Affine Accesses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graphs OMP_NUM_THREADS=10'!$K$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Affine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Graphs OMP_NUM_THREADS=10'!$J$72:$J$86</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(true, threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(master, threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(master, cores)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(master, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(close, threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(close, cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(true, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(false, cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(true, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(false, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(close, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(false, threads)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graphs OMP_NUM_THREADS=10'!$K$72:$K$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>15.967569817003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.3149772839969</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.8796826359757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.74924854998243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.9599736139934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.92893046300741</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.32121792400721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.97052923101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.33048951800446</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.01099709700793</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.03875824500573</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.12055050898925</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.98585961700882</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.95102254601079</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.11385154200252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2045126280"/>
+        <c:axId val="-2045971160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2045126280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>OpenMP Affinity (OMP_PROC_BIND, OMP_PLACES)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2045971160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2045971160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (Seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2045126280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2424,6 +3458,101 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2070100</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2362200</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2769,8 +3898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H720"/>
   <sheetViews>
-    <sheetView topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="N343" sqref="N343"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7248,14 +8377,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="72.5" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7536,7 +8666,7 @@
         <v>1.7828911239283866E-3</v>
       </c>
       <c r="E56" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -7558,7 +8688,7 @@
         <v>0.41455599694980522</v>
       </c>
       <c r="E58" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -7569,7 +8699,7 @@
         <v>0.4671148487428996</v>
       </c>
       <c r="E59" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -7580,7 +8710,7 @@
         <v>0.58262659045645404</v>
       </c>
       <c r="E60" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -7591,7 +8721,7 @@
         <v>0.60125267953439354</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -7610,7 +8740,7 @@
         <v>0.61863525724807433</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -7621,18 +8751,21 @@
         <v>0.63514208985572995</v>
       </c>
       <c r="E64" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>32</v>
       </c>
       <c r="B65" s="1">
         <v>0.65541422208192057</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="E65" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -7640,9 +8773,14 @@
         <v>0.70749910817936301</v>
       </c>
     </row>
+    <row r="83" spans="1:5">
+      <c r="E83" t="s">
+        <v>360</v>
+      </c>
+    </row>
     <row r="84" spans="1:5">
       <c r="E84" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -7835,10 +8973,509 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="J1:M86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="10" max="10" width="36.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="10:13">
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="10:13">
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2">
+        <v>15.967569817003</v>
+      </c>
+      <c r="L2">
+        <v>15.963452338997699</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="10:13">
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>28.3149772839969</v>
+      </c>
+      <c r="L3">
+        <v>28.2745326239964</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="10:13">
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4">
+        <v>19.879682635975701</v>
+      </c>
+      <c r="L4">
+        <v>19.778372072003499</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="10:13">
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5">
+        <v>6.74924854998243</v>
+      </c>
+      <c r="L5">
+        <v>6.6855504900158804</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="10:13">
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>15.9599736139934</v>
+      </c>
+      <c r="L6">
+        <v>15.965051996987301</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3.1819494923526081E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="10:13">
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>2.92893046300741</v>
+      </c>
+      <c r="L7">
+        <v>3.4541104630043198</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.17930777347908008</v>
+      </c>
+    </row>
+    <row r="8" spans="10:13">
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8">
+        <v>3.3212179240072102</v>
+      </c>
+      <c r="L8">
+        <v>3.9431449589901599</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.18725872532705251</v>
+      </c>
+    </row>
+    <row r="9" spans="10:13">
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9">
+        <v>2.97052923101</v>
+      </c>
+      <c r="L9">
+        <v>3.54107747599482</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.19206956088118673</v>
+      </c>
+    </row>
+    <row r="10" spans="10:13">
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <v>3.3304895180044598</v>
+      </c>
+      <c r="L10">
+        <v>3.97303582201129</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.19292848709874541</v>
+      </c>
+    </row>
+    <row r="11" spans="10:13">
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>3.0109970970079298</v>
+      </c>
+      <c r="L11">
+        <v>3.73803968401625</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.24146240052200402</v>
+      </c>
+    </row>
+    <row r="12" spans="10:13">
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12">
+        <v>3.03875824500573</v>
+      </c>
+      <c r="L12">
+        <v>3.80434663599589</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.25194119744419363</v>
+      </c>
+    </row>
+    <row r="13" spans="10:13">
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>3.12055050898925</v>
+      </c>
+      <c r="L13">
+        <v>3.97387528698891</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.27345328189417861</v>
+      </c>
+    </row>
+    <row r="14" spans="10:13">
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>2.9858596170088201</v>
+      </c>
+      <c r="L14">
+        <v>3.8228360240172998</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.28031338186185306</v>
+      </c>
+    </row>
+    <row r="15" spans="10:13">
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>2.9510225460107899</v>
+      </c>
+      <c r="L15">
+        <v>3.85941002299659</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.30782125952028516</v>
+      </c>
+    </row>
+    <row r="16" spans="10:13">
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>3.1138515420025201</v>
+      </c>
+      <c r="L16">
+        <v>4.6001112299854796</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.47730589205519569</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11">
+      <c r="K37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11">
+      <c r="J38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="J39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11">
+      <c r="J40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11">
+      <c r="J41" t="s">
+        <v>34</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="10:11">
+      <c r="J42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="1">
+        <v>3.1819494923526081E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="10:11">
+      <c r="J43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.17930777347908008</v>
+      </c>
+    </row>
+    <row r="44" spans="10:11">
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.18725872532705251</v>
+      </c>
+    </row>
+    <row r="45" spans="10:11">
+      <c r="J45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.19206956088118673</v>
+      </c>
+    </row>
+    <row r="46" spans="10:11">
+      <c r="J46" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.19292848709874541</v>
+      </c>
+    </row>
+    <row r="47" spans="10:11">
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.24146240052200402</v>
+      </c>
+    </row>
+    <row r="48" spans="10:11">
+      <c r="J48" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.25194119744419363</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11">
+      <c r="J49" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.27345328189417861</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11">
+      <c r="J50" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.28031338186185306</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11">
+      <c r="J51" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.30782125952028516</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11">
+      <c r="J52" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.47730589205519569</v>
+      </c>
+    </row>
+    <row r="71" spans="10:11">
+      <c r="K71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="10:11">
+      <c r="J72" t="s">
+        <v>36</v>
+      </c>
+      <c r="K72">
+        <v>15.967569817003</v>
+      </c>
+    </row>
+    <row r="73" spans="10:11">
+      <c r="J73" t="s">
+        <v>24</v>
+      </c>
+      <c r="K73">
+        <v>28.3149772839969</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11">
+      <c r="J74" t="s">
+        <v>29</v>
+      </c>
+      <c r="K74">
+        <v>19.879682635975701</v>
+      </c>
+    </row>
+    <row r="75" spans="10:11">
+      <c r="J75" t="s">
+        <v>34</v>
+      </c>
+      <c r="K75">
+        <v>6.74924854998243</v>
+      </c>
+    </row>
+    <row r="76" spans="10:11">
+      <c r="J76" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76">
+        <v>15.9599736139934</v>
+      </c>
+    </row>
+    <row r="77" spans="10:11">
+      <c r="J77" t="s">
+        <v>23</v>
+      </c>
+      <c r="K77">
+        <v>2.92893046300741</v>
+      </c>
+    </row>
+    <row r="78" spans="10:11">
+      <c r="J78" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78">
+        <v>3.3212179240072102</v>
+      </c>
+    </row>
+    <row r="79" spans="10:11">
+      <c r="J79" t="s">
+        <v>28</v>
+      </c>
+      <c r="K79">
+        <v>2.97052923101</v>
+      </c>
+    </row>
+    <row r="80" spans="10:11">
+      <c r="J80" t="s">
+        <v>26</v>
+      </c>
+      <c r="K80">
+        <v>3.3304895180044598</v>
+      </c>
+    </row>
+    <row r="81" spans="10:11">
+      <c r="J81" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81">
+        <v>3.0109970970079298</v>
+      </c>
+    </row>
+    <row r="82" spans="10:11">
+      <c r="J82" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82">
+        <v>3.03875824500573</v>
+      </c>
+    </row>
+    <row r="83" spans="10:11">
+      <c r="J83" t="s">
+        <v>30</v>
+      </c>
+      <c r="K83">
+        <v>3.12055050898925</v>
+      </c>
+    </row>
+    <row r="84" spans="10:11">
+      <c r="J84" t="s">
+        <v>33</v>
+      </c>
+      <c r="K84">
+        <v>2.9858596170088201</v>
+      </c>
+    </row>
+    <row r="85" spans="10:11">
+      <c r="J85" t="s">
+        <v>32</v>
+      </c>
+      <c r="K85">
+        <v>2.9510225460107899</v>
+      </c>
+    </row>
+    <row r="86" spans="10:11">
+      <c r="J86" t="s">
+        <v>37</v>
+      </c>
+      <c r="K86">
+        <v>3.1138515420025201</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="J2:M16">
+    <sortCondition ref="M2:M16"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="G707" sqref="G707"/>
+    <sheetView topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="A374" sqref="A374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="940" windowWidth="34140" windowHeight="19940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="280" yWindow="120" windowWidth="29000" windowHeight="14340" tabRatio="644" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_timings.txt" sheetId="1" r:id="rId1"/>
     <sheet name="Graphs OMP_NUM_THREADS=20" sheetId="2" r:id="rId2"/>
     <sheet name="Graphs OMP_NUM_THREADS=10" sheetId="4" r:id="rId3"/>
     <sheet name="Thread Mappings" sheetId="3" r:id="rId4"/>
+    <sheet name="Comparing 10 and 20 THREADS" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="thread_mapping_experiments" localSheetId="3">'Thread Mappings'!$A$1:$B$5205</definedName>
@@ -27,7 +28,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="thread_mapping_experiments.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:oh7:OpenMP_paper01:Data:thread_mapping_experiments.txt" tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:oh7:OpenMP_paper01:Data:thread_mapping_experiments.txt" tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10617" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10692" uniqueCount="377">
   <si>
     <t>----------------------</t>
   </si>
@@ -1149,17 +1150,39 @@
   <si>
     <t>(true, threads) seems to be equivalent to (close,threads) according to the thread mappings</t>
   </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>20 Threads</t>
+  </si>
+  <si>
+    <t>10 Threads</t>
+  </si>
+  <si>
+    <t>OpenMP Affinity</t>
+  </si>
+  <si>
+    <t>Locality = True</t>
+  </si>
+  <si>
+    <t>Locality = False</t>
+  </si>
+  <si>
+    <t>Notes for improvements:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1185,6 +1208,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1203,7 +1235,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="123">
+  <cellStyleXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1327,14 +1359,114 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="123">
+  <cellStyles count="219">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1396,6 +1528,54 @@
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1457,6 +1637,54 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1772,11 +2000,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2051459000"/>
-        <c:axId val="-2047688840"/>
+        <c:axId val="2080105416"/>
+        <c:axId val="2080110904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2051459000"/>
+        <c:axId val="2080105416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,7 +2039,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2047688840"/>
+        <c:crossAx val="2080110904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1819,7 +2047,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2047688840"/>
+        <c:axId val="2080110904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,7 +2077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2051459000"/>
+        <c:crossAx val="2080105416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1867,6 +2095,403 @@
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(true, threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(close, threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(master, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(master, cores)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master, threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(false, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(false, cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(false, threads)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(true, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(close, cores)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(true, cores)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(close, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000318194949235261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17930777347908</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.273453281894179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.241462400522004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.477305892055196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.251941197444194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.192069560881187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.187258725327052</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.192928487098745</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.307821259520285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.280313381861853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(true, threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(close, threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(master, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(master, cores)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master, threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(false, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(false, cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(false, threads)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(true, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(close, cores)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(true, cores)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(close, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000728873528646939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00178289112392839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.377096545185983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.414555996949805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4671148487429</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.582626590456454</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.601252679534393</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60479320761319</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.618635257248074</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63514208985573</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65541422208192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.707499108179363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2095269464"/>
+        <c:axId val="2096070808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2095269464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>OpenMP Affinity (OMP_PROC_BIND, OMP_PLACES)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2096070808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2096070808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Improvement (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2095269464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2057,11 +2682,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2052604792"/>
-        <c:axId val="-2052333736"/>
+        <c:axId val="2080226376"/>
+        <c:axId val="2079696712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2052604792"/>
+        <c:axId val="2080226376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,7 +2714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2052333736"/>
+        <c:crossAx val="2079696712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2097,7 +2722,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2052333736"/>
+        <c:axId val="2079696712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2132,7 +2757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2052604792"/>
+        <c:crossAx val="2080226376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2321,11 +2946,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2047185832"/>
-        <c:axId val="-2051788536"/>
+        <c:axId val="2079726472"/>
+        <c:axId val="2079678440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2047185832"/>
+        <c:axId val="2079726472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2353,7 +2978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2051788536"/>
+        <c:crossAx val="2079678440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2361,7 +2986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2051788536"/>
+        <c:axId val="2079678440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +3016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2047185832"/>
+        <c:crossAx val="2079726472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2427,55 +3052,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Time for Affine and Non Affine Accesses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2737,11 +3314,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2035570424"/>
-        <c:axId val="-2052007512"/>
+        <c:axId val="2079613240"/>
+        <c:axId val="2079618920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2035570424"/>
+        <c:axId val="2079613240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2773,7 +3350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2052007512"/>
+        <c:crossAx val="2079618920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2781,7 +3358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2052007512"/>
+        <c:axId val="2079618920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2816,7 +3393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2035570424"/>
+        <c:crossAx val="2079613240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3024,11 +3601,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2051231192"/>
-        <c:axId val="-2036030888"/>
+        <c:axId val="2080146776"/>
+        <c:axId val="2080221976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2051231192"/>
+        <c:axId val="2080146776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3056,7 +3633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2036030888"/>
+        <c:crossAx val="2080221976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3064,7 +3641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2036030888"/>
+        <c:axId val="2080221976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3094,7 +3671,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2051231192"/>
+        <c:crossAx val="2080146776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3288,11 +3865,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2045126280"/>
-        <c:axId val="-2045971160"/>
+        <c:axId val="2079806968"/>
+        <c:axId val="2079812472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2045126280"/>
+        <c:axId val="2079806968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3320,7 +3897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2045971160"/>
+        <c:crossAx val="2079812472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3328,7 +3905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2045971160"/>
+        <c:axId val="2079812472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3358,7 +3935,1153 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2045126280"/>
+        <c:crossAx val="2079806968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(true, threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(close, threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(master, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(master, cores)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master, threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(false, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(false, cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(false, threads)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(true, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(close, cores)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(true, cores)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(close, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000728873528646939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00178289112392839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.377096545185983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.414555996949805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4671148487429</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.582626590456454</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.601252679534393</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60479320761319</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.618635257248074</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63514208985573</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65541422208192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.707499108179363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(true, threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(close, threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(master, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(master, cores)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master, threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(false, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(false, cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(false, threads)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(true, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(close, cores)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(true, cores)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(close, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000318194949235261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17930777347908</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.273453281894179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.241462400522004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.477305892055196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.251941197444194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.192069560881187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.187258725327052</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.192928487098745</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.307821259520285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.280313381861853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2080438888"/>
+        <c:axId val="2080440632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2080438888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>OpenMP Affinity (OMP_PROC_BIND, OMP_PLACES)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2080440632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2080440632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Improvement (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2080438888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Locality = True</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$25:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(true, threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(close, threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(master, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(master, cores)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master, threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(false, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(false, cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(false, threads)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(true, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(close, cores)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(true, cores)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(close, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$B$25:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>15.967569817003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.9599736139934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.74924854998243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.8796826359757</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.3149772839969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.92893046300741</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.12055050898925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.01099709700793</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.11385154200252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.03875824500573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.97052923101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.32121792400721</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.33048951800446</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.95102254601079</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.98585961700882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Locality = False</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$25:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(true, threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(close, threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(master, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(master, cores)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master, threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(false, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(false, cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(false, threads)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(true, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(close, cores)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(true, cores)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(close, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$C$25:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>15.9634523389977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.9650519969873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.68555049001588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.7783720720035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.2745326239964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.45411046300432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.97387528698891</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.73803968401625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.60011122998548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.80434663599589</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.54107747599482</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.94314495899016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.97303582201129</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.85941002299659</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8228360240173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2085574872"/>
+        <c:axId val="2090367320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2085574872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>OpenMP Affinity (OMP_PROC_BIND, OMP_PLACES)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2090367320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2090367320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2085574872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Locality = True</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$46:$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(true, threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(close, threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(master, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(master, cores)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master, threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(false, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(false, cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(false, threads)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(true, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(close, cores)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(true, cores)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(close, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$B$46:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8.99248098299722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.85723074100678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.38375211699167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.7378645910066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.9612906910188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.65174325500265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.39007953400141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.51770502299768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.33963019598741</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.67791789598413</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.66886687101214</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.65570222999667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.65830750600434</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.65563546901103</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6611759130028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Locality = False</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$46:$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(true, threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(close, threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(master, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(master, cores)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master, threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(false, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(false, cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(false, threads)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(true, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(close, cores)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(true, cores)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(close, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$C$46:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8.8366083370056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8345967940113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.14678106599603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.752250998019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.0111426280054</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2746099299984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.38090133800869</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.69376242399448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.70276096000452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6867705269833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.67818621901096</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.67997800497687</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.71156840099138</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.74076250198413</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.83645638998132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2078408040"/>
+        <c:axId val="2122438168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2078408040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>OpenMP Affinity (OMP_PROC_BIND, OMP_PLACES)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2122438168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2122438168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2078408040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3562,6 +5285,131 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3898,8 +5746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H720"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:B240"/>
+    <sheetView topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="D108" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8377,8 +10225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8452,7 +10300,7 @@
         <v>19.752250998019001</v>
       </c>
       <c r="D5">
-        <f>+(C5-B5)/B5</f>
+        <f t="shared" ref="D5:D16" si="0">+(C5-B5)/B5</f>
         <v>7.2887352864693937E-4</v>
       </c>
     </row>
@@ -8467,7 +10315,7 @@
         <v>28.011142628005398</v>
       </c>
       <c r="D6">
-        <f>+(C6-B6)/B6</f>
+        <f t="shared" si="0"/>
         <v>1.7828911239283866E-3</v>
       </c>
     </row>
@@ -8482,7 +10330,7 @@
         <v>2.2746099299983999</v>
       </c>
       <c r="D7">
-        <f>+(C7-B7)/B7</f>
+        <f t="shared" si="0"/>
         <v>0.37709654518598323</v>
       </c>
     </row>
@@ -8497,7 +10345,7 @@
         <v>3.3809013380086901</v>
       </c>
       <c r="D8">
-        <f>+(C8-B8)/B8</f>
+        <f t="shared" si="0"/>
         <v>0.41455599694980522</v>
       </c>
     </row>
@@ -8512,7 +10360,7 @@
         <v>3.69376242399448</v>
       </c>
       <c r="D9">
-        <f>+(C9-B9)/B9</f>
+        <f t="shared" si="0"/>
         <v>0.4671148487428996</v>
       </c>
     </row>
@@ -8527,7 +10375,7 @@
         <v>3.7027609600045199</v>
       </c>
       <c r="D10">
-        <f>+(C10-B10)/B10</f>
+        <f t="shared" si="0"/>
         <v>0.58262659045645404</v>
       </c>
     </row>
@@ -8542,7 +10390,7 @@
         <v>2.6867705269833002</v>
       </c>
       <c r="D11">
-        <f>+(C11-B11)/B11</f>
+        <f t="shared" si="0"/>
         <v>0.60125267953439354</v>
       </c>
     </row>
@@ -8557,7 +10405,7 @@
         <v>2.6781862190109602</v>
       </c>
       <c r="D12">
-        <f>+(C12-B12)/B12</f>
+        <f t="shared" si="0"/>
         <v>0.60479320761319022</v>
       </c>
     </row>
@@ -8572,7 +10420,7 @@
         <v>2.6799780049768702</v>
       </c>
       <c r="D13">
-        <f>+(C13-B13)/B13</f>
+        <f t="shared" si="0"/>
         <v>0.61863525724807433</v>
       </c>
     </row>
@@ -8587,7 +10435,7 @@
         <v>2.7115684009913799</v>
       </c>
       <c r="D14">
-        <f>+(C14-B14)/B14</f>
+        <f t="shared" si="0"/>
         <v>0.63514208985572995</v>
       </c>
     </row>
@@ -8602,7 +10450,7 @@
         <v>2.74076250198413</v>
       </c>
       <c r="D15">
-        <f>+(C15-B15)/B15</f>
+        <f t="shared" si="0"/>
         <v>0.65541422208192057</v>
       </c>
     </row>
@@ -8617,7 +10465,7 @@
         <v>2.8364563899813202</v>
       </c>
       <c r="D16">
-        <f>+(C16-B16)/B16</f>
+        <f t="shared" si="0"/>
         <v>0.70749910817936301</v>
       </c>
     </row>
@@ -8975,8 +10823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J1:M86"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9474,8 +11322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5204"/>
   <sheetViews>
-    <sheetView topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="A374" sqref="A374"/>
+    <sheetView topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="A738" sqref="A738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -49062,4 +50910,634 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="N1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.1819494923526081E-4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.2887352864693937E-4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.7828911239283866E-3</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.17930777347908008</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.37709654518598323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.27345328189417861</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.41455599694980522</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.24146240052200402</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.4671148487428996</v>
+      </c>
+      <c r="N9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.47730589205519569</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.58262659045645404</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.25194119744419363</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.60125267953439354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.19206956088118673</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.60479320761319022</v>
+      </c>
+      <c r="N12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.18725872532705251</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.61863525724807433</v>
+      </c>
+      <c r="N13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.19292848709874541</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.63514208985572995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.30782125952028516</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.65541422208192057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.28031338186185306</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.70749910817936301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>373</v>
+      </c>
+      <c r="B24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>15.967569817003</v>
+      </c>
+      <c r="C25">
+        <v>15.963452338997699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>15.9599736139934</v>
+      </c>
+      <c r="C26">
+        <v>15.965051996987301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>6.74924854998243</v>
+      </c>
+      <c r="C27">
+        <v>6.6855504900158804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>19.879682635975701</v>
+      </c>
+      <c r="C28">
+        <v>19.778372072003499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>28.3149772839969</v>
+      </c>
+      <c r="C29">
+        <v>28.2745326239964</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>2.92893046300741</v>
+      </c>
+      <c r="C30">
+        <v>3.4541104630043198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3.12055050898925</v>
+      </c>
+      <c r="C31">
+        <v>3.97387528698891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>3.0109970970079298</v>
+      </c>
+      <c r="C32">
+        <v>3.73803968401625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>3.1138515420025201</v>
+      </c>
+      <c r="C33">
+        <v>4.6001112299854796</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>3.03875824500573</v>
+      </c>
+      <c r="C34">
+        <v>3.80434663599589</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>2.97052923101</v>
+      </c>
+      <c r="C35">
+        <v>3.54107747599482</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>3.3212179240072102</v>
+      </c>
+      <c r="C36">
+        <v>3.9431449589901599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>3.3304895180044598</v>
+      </c>
+      <c r="C37">
+        <v>3.97303582201129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>2.9510225460107899</v>
+      </c>
+      <c r="C38">
+        <v>3.85941002299659</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>2.9858596170088201</v>
+      </c>
+      <c r="C39">
+        <v>3.8228360240172998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="B44" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="N44" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" t="s">
+        <v>374</v>
+      </c>
+      <c r="C45" t="s">
+        <v>375</v>
+      </c>
+      <c r="N45" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46">
+        <v>8.9924809829972201</v>
+      </c>
+      <c r="C46">
+        <v>8.8366083370056003</v>
+      </c>
+      <c r="N46" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>8.8572307410067808</v>
+      </c>
+      <c r="C47">
+        <v>8.8345967940113006</v>
+      </c>
+      <c r="N47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48">
+        <v>6.38375211699167</v>
+      </c>
+      <c r="C48">
+        <v>6.1467810659960298</v>
+      </c>
+      <c r="N48" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49">
+        <v>19.737864591006598</v>
+      </c>
+      <c r="C49">
+        <v>19.752250998019001</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>27.961290691018799</v>
+      </c>
+      <c r="C50">
+        <v>28.011142628005398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51">
+        <v>1.6517432550026501</v>
+      </c>
+      <c r="C51">
+        <v>2.2746099299983999</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>2.3900795340014098</v>
+      </c>
+      <c r="C52">
+        <v>3.3809013380086901</v>
+      </c>
+      <c r="N52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>2.5177050229976801</v>
+      </c>
+      <c r="C53">
+        <v>3.69376242399448</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54">
+        <v>2.33963019598741</v>
+      </c>
+      <c r="C54">
+        <v>3.7027609600045199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55">
+        <v>1.6779178959841301</v>
+      </c>
+      <c r="C55">
+        <v>2.6867705269833002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56">
+        <v>1.6688668710121399</v>
+      </c>
+      <c r="C56">
+        <v>2.6781862190109602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57">
+        <v>1.6557022299966699</v>
+      </c>
+      <c r="C57">
+        <v>2.6799780049768702</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58">
+        <v>1.65830750600434</v>
+      </c>
+      <c r="C58">
+        <v>2.7115684009913799</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59">
+        <v>1.65563546901103</v>
+      </c>
+      <c r="C59">
+        <v>2.74076250198413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60">
+        <v>1.6611759130028001</v>
+      </c>
+      <c r="C60">
+        <v>2.8364563899813202</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B23:C23"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="120" windowWidth="29000" windowHeight="14340" tabRatio="644" activeTab="4"/>
+    <workbookView xWindow="40" yWindow="20" windowWidth="27320" windowHeight="14340" tabRatio="798" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_timings.txt" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Graphs OMP_NUM_THREADS=10" sheetId="4" r:id="rId3"/>
     <sheet name="Thread Mappings" sheetId="3" r:id="rId4"/>
     <sheet name="Comparing 10 and 20 THREADS" sheetId="5" r:id="rId5"/>
+    <sheet name="HW 20 Analysis" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="thread_mapping_experiments" localSheetId="3">'Thread Mappings'!$A$1:$B$5205</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10692" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10720" uniqueCount="387">
   <si>
     <t>----------------------</t>
   </si>
@@ -1171,6 +1172,36 @@
   <si>
     <t>Notes for improvements:</t>
   </si>
+  <si>
+    <t>PM_CMPLU_STALL_DCACHE_MISS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	</t>
+  </si>
+  <si>
+    <t>\_PM_CMPLU_STALL_DMISS_L2L3</t>
+  </si>
+  <si>
+    <t>\_PM_CMPLU_STALL_DMISS_L2L3_CONFLICT</t>
+  </si>
+  <si>
+    <t>\_PM_CMPLU_STALL_DMISS_L2L3_NO_CONFLICT</t>
+  </si>
+  <si>
+    <t>\_PM_CMPLU_STALL_DMISS_L3MISS</t>
+  </si>
+  <si>
+    <t>\_PM_CMPLU_STALL_DMISS_LMEM</t>
+  </si>
+  <si>
+    <t>\_PM_CMPLU_STALL_DMISS_L21_L31</t>
+  </si>
+  <si>
+    <t>\_PM_CMPLU_STALL_DMISS_REMOTE</t>
+  </si>
+  <si>
+    <t>\_PM_CMPLU_STALL_DMISS_DISTANT</t>
+  </si>
 </sst>
 </file>
 
@@ -1235,7 +1266,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="219">
+  <cellStyleXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1455,8 +1486,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1465,8 +1512,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="219">
+  <cellStyles count="235">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1576,6 +1632,14 @@
     <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1685,6 +1749,14 @@
     <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2095,403 +2167,6 @@
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparing 10 and 20 THREADS'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10 Threads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Comparing 10 and 20 THREADS'!$A$2:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>(true, threads)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>(close, threads)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>(master, sockets)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>(master, cores)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(master, threads)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>(spread, threads)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>(false, sockets)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>(false, cores)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>(false, threads)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>(true, sockets)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>(spread, cores)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>(close, cores)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>(true, cores)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>(close, sockets)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>(spread, sockets)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparing 10 and 20 THREADS'!$B$2:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.000318194949235261</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17930777347908</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.273453281894179</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.241462400522004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.477305892055196</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.251941197444194</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.192069560881187</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.187258725327052</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.192928487098745</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.307821259520285</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.280313381861853</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparing 10 and 20 THREADS'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>20 Threads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Comparing 10 and 20 THREADS'!$A$2:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>(true, threads)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>(close, threads)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>(master, sockets)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>(master, cores)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(master, threads)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>(spread, threads)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>(false, sockets)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>(false, cores)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>(false, threads)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>(true, sockets)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>(spread, cores)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>(close, cores)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>(true, cores)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>(close, sockets)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>(spread, sockets)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparing 10 and 20 THREADS'!$C$2:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000728873528646939</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.00178289112392839</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.377096545185983</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.414555996949805</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4671148487429</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.582626590456454</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.601252679534393</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.60479320761319</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.618635257248074</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.63514208985573</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.65541422208192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.707499108179363</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2095269464"/>
-        <c:axId val="2096070808"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2095269464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>OpenMP Affinity (OMP_PROC_BIND, OMP_PLACES)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096070808"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2096070808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Improvement (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095269464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3983,432 +3658,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparing 10 and 20 THREADS'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>20 Threads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Comparing 10 and 20 THREADS'!$A$2:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>(true, threads)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>(close, threads)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>(master, sockets)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>(master, cores)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(master, threads)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>(spread, threads)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>(false, sockets)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>(false, cores)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>(false, threads)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>(true, sockets)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>(spread, cores)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>(close, cores)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>(true, cores)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>(close, sockets)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>(spread, sockets)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparing 10 and 20 THREADS'!$C$2:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.000728873528646939</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.00178289112392839</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.377096545185983</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.414555996949805</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4671148487429</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.582626590456454</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.601252679534393</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.60479320761319</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.618635257248074</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.63514208985573</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.65541422208192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.707499108179363</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparing 10 and 20 THREADS'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10 Threads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Comparing 10 and 20 THREADS'!$A$2:$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>(true, threads)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>(close, threads)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>(master, sockets)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>(master, cores)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>(master, threads)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>(spread, threads)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>(false, sockets)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>(false, cores)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>(false, threads)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>(true, sockets)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>(spread, cores)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>(close, cores)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>(true, cores)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>(close, sockets)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>(spread, sockets)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparing 10 and 20 THREADS'!$B$2:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.000318194949235261</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17930777347908</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.273453281894179</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.241462400522004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.477305892055196</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.251941197444194</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.192069560881187</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.187258725327052</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.192928487098745</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.307821259520285</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.280313381861853</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2080438888"/>
-        <c:axId val="2080440632"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2080438888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>OpenMP Affinity (OMP_PROC_BIND, OMP_PLACES)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080440632"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2080440632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Improvement (%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080438888"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>'Comparing 10 and 20 THREADS'!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -4751,7 +4000,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5103,6 +4352,403 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(true, threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(close, threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(master, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(master, cores)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master, threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(false, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(false, cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(false, threads)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(true, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(close, cores)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(true, cores)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(close, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000318194949235261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17930777347908</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.273453281894179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.241462400522004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.477305892055196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.251941197444194</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.192069560881187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.187258725327052</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.192928487098745</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.307821259520285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.280313381861853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(true, threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(close, threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(master, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(master, cores)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master, threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(false, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(false, cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(false, threads)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(true, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(close, cores)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(true, cores)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(close, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000728873528646939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00178289112392839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.377096545185983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.414555996949805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4671148487429</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.582626590456454</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.601252679534393</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60479320761319</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.618635257248074</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63514208985573</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65541422208192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.707499108179363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2095269464"/>
+        <c:axId val="2096070808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2095269464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>OpenMP Affinity (OMP_PROC_BIND, OMP_PLACES)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2096070808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2096070808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Improvement (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2095269464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5297,36 +4943,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -5349,7 +4965,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5379,7 +4995,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5409,7 +5025,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10823,8 +10439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J1:M86"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L16"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -50916,8 +50532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -51139,10 +50755,10 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
@@ -51321,10 +50937,10 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="C44" s="6"/>
       <c r="N44" t="s">
         <v>367</v>
       </c>
@@ -51540,4 +51156,173 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="48.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="5">
+        <v>98550789721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" s="5">
+        <v>80824433794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44859484877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" s="7">
+        <v>35964948917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1695754759</v>
+      </c>
+      <c r="C8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="5">
+        <v>493965751</v>
+      </c>
+      <c r="C9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="5">
+        <v>446101625</v>
+      </c>
+      <c r="C10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="5">
+        <v>325890614</v>
+      </c>
+      <c r="C11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B12" s="7">
+        <v>429796769</v>
+      </c>
+      <c r="C12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="20" windowWidth="27320" windowHeight="14340" tabRatio="798" activeTab="5"/>
+    <workbookView xWindow="40" yWindow="20" windowWidth="27320" windowHeight="14340" tabRatio="798" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_timings.txt" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="Graphs OMP_NUM_THREADS=10" sheetId="4" r:id="rId3"/>
     <sheet name="Thread Mappings" sheetId="3" r:id="rId4"/>
     <sheet name="Comparing 10 and 20 THREADS" sheetId="5" r:id="rId5"/>
-    <sheet name="HW 20 Analysis" sheetId="6" r:id="rId6"/>
+    <sheet name="HW_20_Analysis" sheetId="7" r:id="rId6"/>
+    <sheet name="HW_20_Final" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="thread_mapping_experiments" localSheetId="3">'Thread Mappings'!$A$1:$B$5205</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10720" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11554" uniqueCount="406">
   <si>
     <t>----------------------</t>
   </si>
@@ -1173,34 +1174,91 @@
     <t>Notes for improvements:</t>
   </si>
   <si>
-    <t>PM_CMPLU_STALL_DCACHE_MISS</t>
+    <t>Locality</t>
   </si>
   <si>
-    <t xml:space="preserve">	</t>
+    <t>No Locality</t>
   </si>
   <si>
-    <t>\_PM_CMPLU_STALL_DMISS_L2L3</t>
+    <t>_PM_CMPLU_STALL_DCACHE_MISS</t>
   </si>
   <si>
-    <t>\_PM_CMPLU_STALL_DMISS_L2L3_CONFLICT</t>
+    <t>_PM_CMPLU_STALL_DMISS_L2L3</t>
   </si>
   <si>
-    <t>\_PM_CMPLU_STALL_DMISS_L2L3_NO_CONFLICT</t>
+    <t>_PM_CMPLU_STALL_DMISS_L2L3_CONFLICT</t>
   </si>
   <si>
-    <t>\_PM_CMPLU_STALL_DMISS_L3MISS</t>
+    <t>_PM_CMPLU_STALL_DMISS_L2L3_NO_CONFLICT</t>
   </si>
   <si>
-    <t>\_PM_CMPLU_STALL_DMISS_LMEM</t>
+    <t>_PM_CMPLU_STALL_DMISS_L3MISS</t>
   </si>
   <si>
-    <t>\_PM_CMPLU_STALL_DMISS_L21_L31</t>
+    <t>_PM_CMPLU_STALL_DMISS_LMEM</t>
   </si>
   <si>
-    <t>\_PM_CMPLU_STALL_DMISS_REMOTE</t>
+    <t>_PM_CMPLU_STALL_DMISS_L21_L31</t>
   </si>
   <si>
-    <t>\_PM_CMPLU_STALL_DMISS_DISTANT</t>
+    <t>_PM_CMPLU_STALL_DMISS_REMOTE</t>
+  </si>
+  <si>
+    <t>_PM_CMPLU_STALL_DMISS_DISTANT</t>
+  </si>
+  <si>
+    <t>Computation Times</t>
+  </si>
+  <si>
+    <t>INIT</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Computation Times Value only</t>
+  </si>
+  <si>
+    <t>HW_Counters</t>
+  </si>
+  <si>
+    <t>(false,threads)</t>
+  </si>
+  <si>
+    <t>(true,threads)</t>
+  </si>
+  <si>
+    <t>(close,threads)</t>
+  </si>
+  <si>
+    <t>(master,threads)</t>
+  </si>
+  <si>
+    <t>(false,cores)</t>
+  </si>
+  <si>
+    <t>(true,cores)</t>
+  </si>
+  <si>
+    <t>(close,cores)</t>
+  </si>
+  <si>
+    <t>(master,cores)</t>
+  </si>
+  <si>
+    <t>(false,sockets)</t>
+  </si>
+  <si>
+    <t>(true,sockets)</t>
+  </si>
+  <si>
+    <t>(close,sockets)</t>
+  </si>
+  <si>
+    <t>(master,sockets)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1324,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="235">
+  <cellStyleXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1502,8 +1560,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1512,17 +1648,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="235">
+  <cellStyles count="313">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1640,6 +1768,45 @@
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1757,6 +1924,45 @@
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10439,7 +10645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J1:M86"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -50755,10 +50961,10 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
@@ -50937,10 +51143,10 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C44" s="6"/>
+      <c r="C44" s="5"/>
       <c r="N44" t="s">
         <v>367</v>
       </c>
@@ -51160,161 +51366,8715 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E646"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="48.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="D1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6">
+        <v>98550789721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7">
+        <v>80824433794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8">
+        <v>44859484877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B9" s="6">
+        <v>35964948917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10">
+        <v>1695754759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11">
+        <v>493965751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12">
+        <v>446101625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13">
+        <v>325890614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" s="6">
+        <v>429796769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>379</v>
+      </c>
+      <c r="B16">
+        <v>1727342723</v>
+      </c>
+      <c r="D16">
+        <f>B6-B16</f>
+        <v>96823446998</v>
+      </c>
+      <c r="E16">
+        <v>96823446998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>380</v>
+      </c>
+      <c r="B17">
+        <v>1045701909</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D24" si="0">B7-B17</f>
+        <v>79778731885</v>
+      </c>
+      <c r="E17">
+        <v>79778731885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>381</v>
+      </c>
+      <c r="B18">
+        <v>207614629</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>44651870248</v>
+      </c>
+      <c r="E18">
+        <v>44651870248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>382</v>
+      </c>
+      <c r="B19" s="6">
+        <v>838087280</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>35126861637</v>
+      </c>
+      <c r="E19">
+        <v>35126861637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B20">
+        <v>726224448</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>969530311</v>
+      </c>
+      <c r="E20">
+        <v>969530311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>384</v>
+      </c>
+      <c r="B21">
+        <v>297054128</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>196911623</v>
+      </c>
+      <c r="E21">
+        <v>196911623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>385</v>
+      </c>
+      <c r="B22">
+        <v>169432520</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>276669105</v>
+      </c>
+      <c r="E22">
+        <v>276669105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>386</v>
+      </c>
+      <c r="B23">
+        <v>88222716</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>237667898</v>
+      </c>
+      <c r="E23">
+        <v>237667898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>387</v>
+      </c>
+      <c r="B24" s="6">
+        <v>171515084</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>258281685</v>
+      </c>
+      <c r="E24">
+        <v>258281685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>390</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>379</v>
+      </c>
+      <c r="B26">
+        <v>60022621370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>380</v>
+      </c>
+      <c r="B27">
+        <v>65635608946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>381</v>
+      </c>
+      <c r="B28">
+        <v>21947110765</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>382</v>
+      </c>
+      <c r="B29" s="6">
+        <v>43688498181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B30">
+        <v>1938805327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B31">
+        <v>486846500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>385</v>
+      </c>
+      <c r="B32">
+        <v>312328808</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>386</v>
+      </c>
+      <c r="B33">
+        <v>495034066</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>387</v>
+      </c>
+      <c r="B34" s="6">
+        <v>644595953</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>390</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>379</v>
+      </c>
+      <c r="B36">
+        <v>367063893</v>
+      </c>
+      <c r="D36">
+        <f>B26-B36</f>
+        <v>59655557477</v>
+      </c>
+      <c r="E36">
+        <v>59655557477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>380</v>
+      </c>
+      <c r="B37">
+        <v>120356503</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:D44" si="1">B27-B37</f>
+        <v>65515252443</v>
+      </c>
+      <c r="E37">
+        <v>65515252443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>381</v>
+      </c>
+      <c r="B38">
+        <v>24760881</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>21922349884</v>
+      </c>
+      <c r="E38">
+        <v>21922349884</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>382</v>
+      </c>
+      <c r="B39" s="6">
+        <v>95595622</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>43592902559</v>
+      </c>
+      <c r="E39">
+        <v>43592902559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>383</v>
+      </c>
+      <c r="B40">
+        <v>282157773</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>1656647554</v>
+      </c>
+      <c r="E40">
+        <v>1656647554</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>384</v>
+      </c>
+      <c r="B41">
+        <v>246186095</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>240660405</v>
+      </c>
+      <c r="E41">
+        <v>240660405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>385</v>
+      </c>
+      <c r="B42">
+        <v>7667204</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>304661604</v>
+      </c>
+      <c r="E42">
+        <v>304661604</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>386</v>
+      </c>
+      <c r="B43">
+        <v>24745848</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>470288218</v>
+      </c>
+      <c r="E43">
+        <v>470288218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>387</v>
+      </c>
+      <c r="B44">
+        <v>3558626</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>641037327</v>
+      </c>
+      <c r="E44">
+        <v>641037327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>379</v>
+      </c>
+      <c r="B49">
+        <v>17352141768</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>380</v>
+      </c>
+      <c r="B50">
+        <v>12572742465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>381</v>
+      </c>
+      <c r="B51">
+        <v>1086422819</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>382</v>
+      </c>
+      <c r="B52" s="6">
+        <v>11486319646</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>383</v>
+      </c>
+      <c r="B53">
+        <v>4966100229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>384</v>
+      </c>
+      <c r="B54">
+        <v>2752511975</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>385</v>
+      </c>
+      <c r="B55">
+        <v>458360835</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>386</v>
+      </c>
+      <c r="B56">
+        <v>136800008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>387</v>
+      </c>
+      <c r="B57" s="6">
+        <v>1618427411</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>379</v>
+      </c>
+      <c r="B59">
+        <v>2351353664</v>
+      </c>
+      <c r="D59">
+        <f>B49-B59</f>
+        <v>15000788104</v>
+      </c>
+      <c r="E59">
+        <v>15000788104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>380</v>
+      </c>
+      <c r="B60">
+        <v>766336327</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ref="D60:D67" si="2">B50-B60</f>
+        <v>11806406138</v>
+      </c>
+      <c r="E60">
+        <v>11806406138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>381</v>
+      </c>
+      <c r="B61">
+        <v>150859720</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>935563099</v>
+      </c>
+      <c r="E61">
+        <v>935563099</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>382</v>
+      </c>
+      <c r="B62" s="6">
+        <v>615476607</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>10870843039</v>
+      </c>
+      <c r="E62">
+        <v>10870843039</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>383</v>
+      </c>
+      <c r="B63">
+        <v>1587230858</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>3378869371</v>
+      </c>
+      <c r="E63">
+        <v>3378869371</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>384</v>
+      </c>
+      <c r="B64">
+        <v>1216294915</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>1536217060</v>
+      </c>
+      <c r="E64">
+        <v>1536217060</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>385</v>
+      </c>
+      <c r="B65">
+        <v>177098923</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>281261912</v>
+      </c>
+      <c r="E65">
+        <v>281261912</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>386</v>
+      </c>
+      <c r="B66">
+        <v>29428902</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>107371106</v>
+      </c>
+      <c r="E66">
+        <v>107371106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>387</v>
+      </c>
+      <c r="B67" s="6">
+        <v>164408118</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="2"/>
+        <v>1454019293</v>
+      </c>
+      <c r="E67">
+        <v>1454019293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>390</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>379</v>
+      </c>
+      <c r="B69">
+        <v>15354758031</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>380</v>
+      </c>
+      <c r="B70">
+        <v>11605190734</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>381</v>
+      </c>
+      <c r="B71">
+        <v>748178376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>382</v>
+      </c>
+      <c r="B72" s="6">
+        <v>10857012358</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>383</v>
+      </c>
+      <c r="B73">
+        <v>3553959798</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>384</v>
+      </c>
+      <c r="B74">
+        <v>1718433149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>385</v>
+      </c>
+      <c r="B75">
+        <v>308752622</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>386</v>
+      </c>
+      <c r="B76">
+        <v>243815582</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>387</v>
+      </c>
+      <c r="B77" s="6">
+        <v>1282958445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>390</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>379</v>
+      </c>
+      <c r="B79">
+        <v>389693114</v>
+      </c>
+      <c r="D79">
+        <f>B69-B79</f>
+        <v>14965064917</v>
+      </c>
+      <c r="E79">
+        <v>14965064917</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>380</v>
+      </c>
+      <c r="B80">
+        <v>122490609</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ref="D80:D87" si="3">B70-B80</f>
+        <v>11482700125</v>
+      </c>
+      <c r="E80">
+        <v>11482700125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>381</v>
+      </c>
+      <c r="B81">
+        <v>26024207</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>722154169</v>
+      </c>
+      <c r="E81">
+        <v>722154169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>382</v>
+      </c>
+      <c r="B82" s="6">
+        <v>96466402</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>10760545956</v>
+      </c>
+      <c r="E82">
+        <v>10760545956</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>383</v>
+      </c>
+      <c r="B83">
+        <v>278545009</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>3275414789</v>
+      </c>
+      <c r="E83">
+        <v>3275414789</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>384</v>
+      </c>
+      <c r="B84">
+        <v>221554628</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>1496878521</v>
+      </c>
+      <c r="E84">
+        <v>1496878521</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>385</v>
+      </c>
+      <c r="B85">
+        <v>5174639</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>303577983</v>
+      </c>
+      <c r="E85">
+        <v>303577983</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>386</v>
+      </c>
+      <c r="B86">
+        <v>30047382</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>213768200</v>
+      </c>
+      <c r="E86">
+        <v>213768200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>387</v>
+      </c>
+      <c r="B87" s="6">
+        <v>21768360</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>1261190085</v>
+      </c>
+      <c r="E87">
+        <v>1261190085</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>379</v>
+      </c>
+      <c r="B92">
+        <v>17302704299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>380</v>
+      </c>
+      <c r="B93">
+        <v>12557391351</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>381</v>
+      </c>
+      <c r="B94">
+        <v>941645366</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>382</v>
+      </c>
+      <c r="B95" s="6">
+        <v>11615745985</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>383</v>
+      </c>
+      <c r="B96">
+        <v>4905704503</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>384</v>
+      </c>
+      <c r="B97">
+        <v>2764868951</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>385</v>
+      </c>
+      <c r="B98">
+        <v>459379205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>386</v>
+      </c>
+      <c r="B99">
+        <v>145592501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>387</v>
+      </c>
+      <c r="B100" s="6">
+        <v>1535863846</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>379</v>
+      </c>
+      <c r="B102">
+        <v>2346186004</v>
+      </c>
+      <c r="D102">
+        <f>B92-B102</f>
+        <v>14956518295</v>
+      </c>
+      <c r="E102">
+        <v>14956518295</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>380</v>
+      </c>
+      <c r="B103">
+        <v>758599361</v>
+      </c>
+      <c r="D103">
+        <f t="shared" ref="D103:D110" si="4">B93-B103</f>
+        <v>11798791990</v>
+      </c>
+      <c r="E103">
+        <v>11798791990</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>381</v>
+      </c>
+      <c r="B104">
+        <v>146834729</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="4"/>
+        <v>794810637</v>
+      </c>
+      <c r="E104">
+        <v>794810637</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>382</v>
+      </c>
+      <c r="B105" s="6">
+        <v>611764632</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="4"/>
+        <v>11003981353</v>
+      </c>
+      <c r="E105">
+        <v>11003981353</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>383</v>
+      </c>
+      <c r="B106">
+        <v>1587369644</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="4"/>
+        <v>3318334859</v>
+      </c>
+      <c r="E106">
+        <v>3318334859</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>384</v>
+      </c>
+      <c r="B107">
+        <v>1241439647</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="4"/>
+        <v>1523429304</v>
+      </c>
+      <c r="E107">
+        <v>1523429304</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>385</v>
+      </c>
+      <c r="B108">
+        <v>180577457</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="4"/>
+        <v>278801748</v>
+      </c>
+      <c r="E108">
+        <v>278801748</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>386</v>
+      </c>
+      <c r="B109">
+        <v>28629813</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="4"/>
+        <v>116962688</v>
+      </c>
+      <c r="E109">
+        <v>116962688</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>387</v>
+      </c>
+      <c r="B110" s="6">
+        <v>136722727</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="4"/>
+        <v>1399141119</v>
+      </c>
+      <c r="E110">
+        <v>1399141119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>390</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>379</v>
+      </c>
+      <c r="B112">
+        <v>15111539702</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>380</v>
+      </c>
+      <c r="B113">
+        <v>11771461807</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>381</v>
+      </c>
+      <c r="B114">
+        <v>736263608</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>382</v>
+      </c>
+      <c r="B115" s="6">
+        <v>11035198199</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>383</v>
+      </c>
+      <c r="B116">
+        <v>3460043490</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>384</v>
+      </c>
+      <c r="B117">
+        <v>1779469352</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>385</v>
+      </c>
+      <c r="B118">
+        <v>303704467</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>386</v>
+      </c>
+      <c r="B119">
+        <v>155322126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>387</v>
+      </c>
+      <c r="B120" s="6">
+        <v>1221547545</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>390</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>379</v>
+      </c>
+      <c r="B122">
+        <v>386550483</v>
+      </c>
+      <c r="D122">
+        <f>B112-B122</f>
+        <v>14724989219</v>
+      </c>
+      <c r="E122">
+        <v>14724989219</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>380</v>
+      </c>
+      <c r="B123">
+        <v>118206989</v>
+      </c>
+      <c r="D123">
+        <f t="shared" ref="D123:D130" si="5">B113-B123</f>
+        <v>11653254818</v>
+      </c>
+      <c r="E123">
+        <v>11653254818</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>381</v>
+      </c>
+      <c r="B124">
+        <v>25587943</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="5"/>
+        <v>710675665</v>
+      </c>
+      <c r="E124">
+        <v>710675665</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>382</v>
+      </c>
+      <c r="B125" s="6">
+        <v>92619046</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="5"/>
+        <v>10942579153</v>
+      </c>
+      <c r="E125">
+        <v>10942579153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>383</v>
+      </c>
+      <c r="B126">
+        <v>272827318</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="5"/>
+        <v>3187216172</v>
+      </c>
+      <c r="E126">
+        <v>3187216172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>384</v>
+      </c>
+      <c r="B127">
+        <v>215871405</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="5"/>
+        <v>1563597947</v>
+      </c>
+      <c r="E127">
+        <v>1563597947</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>385</v>
+      </c>
+      <c r="B128">
+        <v>5704862</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="5"/>
+        <v>297999605</v>
+      </c>
+      <c r="E128">
+        <v>297999605</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>386</v>
+      </c>
+      <c r="B129">
+        <v>31087969</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="5"/>
+        <v>124234157</v>
+      </c>
+      <c r="E129">
+        <v>124234157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>387</v>
+      </c>
+      <c r="B130" s="6">
+        <v>20163082</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="5"/>
+        <v>1201384463</v>
+      </c>
+      <c r="E130">
+        <v>1201384463</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>379</v>
+      </c>
+      <c r="B135">
+        <v>54548874987</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>380</v>
+      </c>
+      <c r="B136">
+        <v>53354699690</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>381</v>
+      </c>
+      <c r="B137">
+        <v>29042685353</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>382</v>
+      </c>
+      <c r="B138" s="6">
+        <v>24312014337</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>383</v>
+      </c>
+      <c r="B139">
+        <v>1311331774</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>384</v>
+      </c>
+      <c r="B140">
+        <v>189084316</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>385</v>
+      </c>
+      <c r="B141">
+        <v>410860309</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>386</v>
+      </c>
+      <c r="B142">
+        <v>228856492</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>387</v>
+      </c>
+      <c r="B143" s="6">
+        <v>482530657</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>379</v>
+      </c>
+      <c r="B145">
+        <v>1104866653</v>
+      </c>
+      <c r="D145">
+        <f>B135-B145</f>
+        <v>53444008334</v>
+      </c>
+      <c r="E145">
+        <v>53444008334</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>380</v>
+      </c>
+      <c r="B146">
+        <v>539621912</v>
+      </c>
+      <c r="D146">
+        <f t="shared" ref="D146:D153" si="6">B136-B146</f>
+        <v>52815077778</v>
+      </c>
+      <c r="E146">
+        <v>52815077778</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>381</v>
+      </c>
+      <c r="B147">
+        <v>192697777</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="6"/>
+        <v>28849987576</v>
+      </c>
+      <c r="E147">
+        <v>28849987576</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>382</v>
+      </c>
+      <c r="B148" s="6">
+        <v>346924135</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="6"/>
+        <v>23965090202</v>
+      </c>
+      <c r="E148">
+        <v>23965090202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>383</v>
+      </c>
+      <c r="B149">
+        <v>569080925</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="6"/>
+        <v>742250849</v>
+      </c>
+      <c r="E149">
+        <v>742250849</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>384</v>
+      </c>
+      <c r="B150">
+        <v>85407819</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="6"/>
+        <v>103676497</v>
+      </c>
+      <c r="E150">
+        <v>103676497</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>385</v>
+      </c>
+      <c r="B151">
+        <v>164343022</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="6"/>
+        <v>246517287</v>
+      </c>
+      <c r="E151">
+        <v>246517287</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>386</v>
+      </c>
+      <c r="B152">
+        <v>94739243</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="6"/>
+        <v>134117249</v>
+      </c>
+      <c r="E152">
+        <v>134117249</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>387</v>
+      </c>
+      <c r="B153" s="6">
+        <v>224590841</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="6"/>
+        <v>257939816</v>
+      </c>
+      <c r="E153">
+        <v>257939816</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>390</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>379</v>
+      </c>
+      <c r="B155">
+        <v>71370675837</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>380</v>
+      </c>
+      <c r="B156">
+        <v>69283251410</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>381</v>
+      </c>
+      <c r="B157">
+        <v>42992881090</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>382</v>
+      </c>
+      <c r="B158" s="6">
+        <v>26290370320</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>383</v>
+      </c>
+      <c r="B159">
+        <v>1578673248</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>384</v>
+      </c>
+      <c r="B160">
+        <v>284495742</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>385</v>
+      </c>
+      <c r="B161">
+        <v>334528484</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>386</v>
+      </c>
+      <c r="B162">
+        <v>222604367</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>387</v>
+      </c>
+      <c r="B163" s="6">
+        <v>737044655</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>390</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>379</v>
+      </c>
+      <c r="B165">
+        <v>388198256</v>
+      </c>
+      <c r="D165">
+        <f>B155-B165</f>
+        <v>70982477581</v>
+      </c>
+      <c r="E165">
+        <v>70982477581</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>380</v>
+      </c>
+      <c r="B166">
+        <v>114419835</v>
+      </c>
+      <c r="D166">
+        <f t="shared" ref="D166:D173" si="7">B156-B166</f>
+        <v>69168831575</v>
+      </c>
+      <c r="E166">
+        <v>69168831575</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>381</v>
+      </c>
+      <c r="B167">
+        <v>42256124</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="7"/>
+        <v>42950624966</v>
+      </c>
+      <c r="E167">
+        <v>42950624966</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>382</v>
+      </c>
+      <c r="B168" s="6">
+        <v>72163711</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="7"/>
+        <v>26218206609</v>
+      </c>
+      <c r="E168">
+        <v>26218206609</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>383</v>
+      </c>
+      <c r="B169">
+        <v>253301855</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="7"/>
+        <v>1325371393</v>
+      </c>
+      <c r="E169">
+        <v>1325371393</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>384</v>
+      </c>
+      <c r="B170">
+        <v>183683370</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="7"/>
+        <v>100812372</v>
+      </c>
+      <c r="E170">
+        <v>100812372</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>385</v>
+      </c>
+      <c r="B171">
+        <v>7330657</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="7"/>
+        <v>327197827</v>
+      </c>
+      <c r="E171">
+        <v>327197827</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>386</v>
+      </c>
+      <c r="B172">
+        <v>47282797</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="7"/>
+        <v>175321570</v>
+      </c>
+      <c r="E172">
+        <v>175321570</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>387</v>
+      </c>
+      <c r="B173" s="6">
+        <v>15005031</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="7"/>
+        <v>722039624</v>
+      </c>
+      <c r="E173">
+        <v>722039624</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>379</v>
+      </c>
+      <c r="B178">
+        <v>12021168157</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>380</v>
+      </c>
+      <c r="B179">
+        <v>11100657626</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>381</v>
+      </c>
+      <c r="B180">
+        <v>2199583878</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>382</v>
+      </c>
+      <c r="B181" s="6">
+        <v>8901073748</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>383</v>
+      </c>
+      <c r="B182">
+        <v>978498238</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>384</v>
+      </c>
+      <c r="B183">
+        <v>756908283</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>385</v>
+      </c>
+      <c r="B184">
+        <v>24197341</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>386</v>
+      </c>
+      <c r="B185">
+        <v>102951936</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>387</v>
+      </c>
+      <c r="B186" s="6">
+        <v>94440678</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>379</v>
+      </c>
+      <c r="B188">
+        <v>432033506</v>
+      </c>
+      <c r="D188">
+        <f>B178-B188</f>
+        <v>11589134651</v>
+      </c>
+      <c r="E188">
+        <v>11589134651</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>380</v>
+      </c>
+      <c r="B189">
+        <v>124033338</v>
+      </c>
+      <c r="D189">
+        <f t="shared" ref="D189:D196" si="8">B179-B189</f>
+        <v>10976624288</v>
+      </c>
+      <c r="E189">
+        <v>10976624288</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>381</v>
+      </c>
+      <c r="B190">
+        <v>26166856</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="8"/>
+        <v>2173417022</v>
+      </c>
+      <c r="E190">
+        <v>2173417022</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>382</v>
+      </c>
+      <c r="B191" s="6">
+        <v>97866482</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="8"/>
+        <v>8803207266</v>
+      </c>
+      <c r="E191">
+        <v>8803207266</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>383</v>
+      </c>
+      <c r="B192">
+        <v>323594148</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="8"/>
+        <v>654904090</v>
+      </c>
+      <c r="E192">
+        <v>654904090</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193">
+        <v>251215851</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="8"/>
+        <v>505692432</v>
+      </c>
+      <c r="E193">
+        <v>505692432</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>385</v>
+      </c>
+      <c r="B194">
+        <v>8137114</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="8"/>
+        <v>16060227</v>
+      </c>
+      <c r="E194">
+        <v>16060227</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>386</v>
+      </c>
+      <c r="B195">
+        <v>41085579</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="8"/>
+        <v>61866357</v>
+      </c>
+      <c r="E195">
+        <v>61866357</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>387</v>
+      </c>
+      <c r="B196" s="6">
+        <v>23155604</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="8"/>
+        <v>71285074</v>
+      </c>
+      <c r="E196">
+        <v>71285074</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>390</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>379</v>
+      </c>
+      <c r="B198">
+        <v>12143158995</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>380</v>
+      </c>
+      <c r="B199">
+        <v>11224288380</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>381</v>
+      </c>
+      <c r="B200">
+        <v>2346275206</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>382</v>
+      </c>
+      <c r="B201" s="6">
+        <v>8878013174</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>383</v>
+      </c>
+      <c r="B202">
+        <v>977178176</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>384</v>
+      </c>
+      <c r="B203">
+        <v>752374863</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>385</v>
+      </c>
+      <c r="B204">
+        <v>25865627</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>386</v>
+      </c>
+      <c r="B205">
+        <v>110219960</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>387</v>
+      </c>
+      <c r="B206" s="6">
+        <v>88717726</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>390</v>
+      </c>
+      <c r="B207" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>379</v>
+      </c>
+      <c r="B208">
+        <v>379845349</v>
+      </c>
+      <c r="D208">
+        <f>B198-B208</f>
+        <v>11763313646</v>
+      </c>
+      <c r="E208">
+        <v>11763313646</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>380</v>
+      </c>
+      <c r="B209">
+        <v>114928670</v>
+      </c>
+      <c r="D209">
+        <f t="shared" ref="D209:D216" si="9">B199-B209</f>
+        <v>11109359710</v>
+      </c>
+      <c r="E209">
+        <v>11109359710</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>381</v>
+      </c>
+      <c r="B210">
+        <v>27962656</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="9"/>
+        <v>2318312550</v>
+      </c>
+      <c r="E210">
+        <v>2318312550</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>382</v>
+      </c>
+      <c r="B211" s="6">
+        <v>86966014</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="9"/>
+        <v>8791047160</v>
+      </c>
+      <c r="E211">
+        <v>8791047160</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>383</v>
+      </c>
+      <c r="B212">
+        <v>255433819</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="9"/>
+        <v>721744357</v>
+      </c>
+      <c r="E212">
+        <v>721744357</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>384</v>
+      </c>
+      <c r="B213">
+        <v>186108551</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="9"/>
+        <v>566266312</v>
+      </c>
+      <c r="E213">
+        <v>566266312</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>385</v>
+      </c>
+      <c r="B214">
+        <v>6209225</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="9"/>
+        <v>19656402</v>
+      </c>
+      <c r="E214">
+        <v>19656402</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>386</v>
+      </c>
+      <c r="B215">
+        <v>49093244</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="9"/>
+        <v>61126716</v>
+      </c>
+      <c r="E215">
+        <v>61126716</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>387</v>
+      </c>
+      <c r="B216" s="6">
+        <v>14022799</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="9"/>
+        <v>74694927</v>
+      </c>
+      <c r="E216">
+        <v>74694927</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>379</v>
+      </c>
+      <c r="B221">
+        <v>86820607656</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>380</v>
+      </c>
+      <c r="B222">
+        <v>81550875578</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>381</v>
+      </c>
+      <c r="B223">
+        <v>39982917598</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>382</v>
+      </c>
+      <c r="B224" s="6">
+        <v>41567957980</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>383</v>
+      </c>
+      <c r="B225">
+        <v>1492683988</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>384</v>
+      </c>
+      <c r="B226">
+        <v>513753286</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>385</v>
+      </c>
+      <c r="B227">
+        <v>460137563</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>386</v>
+      </c>
+      <c r="B228">
+        <v>325316859</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>387</v>
+      </c>
+      <c r="B229" s="6">
+        <v>193476280</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>4</v>
+      </c>
+      <c r="B230" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>379</v>
+      </c>
+      <c r="B231">
+        <v>1847345210</v>
+      </c>
+      <c r="D231">
+        <f>B221-B231</f>
+        <v>84973262446</v>
+      </c>
+      <c r="E231">
+        <v>84973262446</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>380</v>
+      </c>
+      <c r="B232">
+        <v>1180130543</v>
+      </c>
+      <c r="D232">
+        <f t="shared" ref="D232:D239" si="10">B222-B232</f>
+        <v>80370745035</v>
+      </c>
+      <c r="E232">
+        <v>80370745035</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>381</v>
+      </c>
+      <c r="B233">
+        <v>213497197</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="10"/>
+        <v>39769420401</v>
+      </c>
+      <c r="E233">
+        <v>39769420401</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>382</v>
+      </c>
+      <c r="B234" s="6">
+        <v>966633346</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="10"/>
+        <v>40601324634</v>
+      </c>
+      <c r="E234">
+        <v>40601324634</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>383</v>
+      </c>
+      <c r="B235">
+        <v>700081242</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="10"/>
+        <v>792602746</v>
+      </c>
+      <c r="E235">
+        <v>792602746</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>384</v>
+      </c>
+      <c r="B236">
+        <v>330836284</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="10"/>
+        <v>182917002</v>
+      </c>
+      <c r="E236">
+        <v>182917002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>385</v>
+      </c>
+      <c r="B237">
+        <v>172800024</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="10"/>
+        <v>287337539</v>
+      </c>
+      <c r="E237">
+        <v>287337539</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>386</v>
+      </c>
+      <c r="B238">
+        <v>98319262</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="10"/>
+        <v>226997597</v>
+      </c>
+      <c r="E238">
+        <v>226997597</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>387</v>
+      </c>
+      <c r="B239" s="6">
+        <v>98125672</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="10"/>
+        <v>95350608</v>
+      </c>
+      <c r="E239">
+        <v>95350608</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>390</v>
+      </c>
+      <c r="B240" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>379</v>
+      </c>
+      <c r="B241">
+        <v>68645032867</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>380</v>
+      </c>
+      <c r="B242">
+        <v>84802817588</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>381</v>
+      </c>
+      <c r="B243">
+        <v>21983537351</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>382</v>
+      </c>
+      <c r="B244" s="6">
+        <v>62819280237</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>383</v>
+      </c>
+      <c r="B245">
+        <v>1978548407</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>384</v>
+      </c>
+      <c r="B246">
+        <v>301025573</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>385</v>
+      </c>
+      <c r="B247">
+        <v>305451334</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>386</v>
+      </c>
+      <c r="B248">
+        <v>612680522</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>387</v>
+      </c>
+      <c r="B249" s="6">
+        <v>759390978</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>390</v>
+      </c>
+      <c r="B250" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>379</v>
+      </c>
+      <c r="B251">
+        <v>348992881</v>
+      </c>
+      <c r="D251">
+        <f>B241-B251</f>
+        <v>68296039986</v>
+      </c>
+      <c r="E251">
+        <v>68296039986</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>380</v>
+      </c>
+      <c r="B252">
+        <v>125063097</v>
+      </c>
+      <c r="D252">
+        <f t="shared" ref="D252:D259" si="11">B242-B252</f>
+        <v>84677754491</v>
+      </c>
+      <c r="E252">
+        <v>84677754491</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>381</v>
+      </c>
+      <c r="B253">
+        <v>26969861</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="11"/>
+        <v>21956567490</v>
+      </c>
+      <c r="E253">
+        <v>21956567490</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>382</v>
+      </c>
+      <c r="B254" s="6">
+        <v>98093236</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="11"/>
+        <v>62721187001</v>
+      </c>
+      <c r="E254">
+        <v>62721187001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>383</v>
+      </c>
+      <c r="B255">
+        <v>274617120</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="11"/>
+        <v>1703931287</v>
+      </c>
+      <c r="E255">
+        <v>1703931287</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>384</v>
+      </c>
+      <c r="B256">
+        <v>195992784</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="11"/>
+        <v>105032789</v>
+      </c>
+      <c r="E256">
+        <v>105032789</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>385</v>
+      </c>
+      <c r="B257">
+        <v>5261706</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="11"/>
+        <v>300189628</v>
+      </c>
+      <c r="E257">
+        <v>300189628</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>386</v>
+      </c>
+      <c r="B258">
+        <v>25472830</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="11"/>
+        <v>587207692</v>
+      </c>
+      <c r="E258">
+        <v>587207692</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>387</v>
+      </c>
+      <c r="B259" s="6">
+        <v>47889800</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="11"/>
+        <v>711501178</v>
+      </c>
+      <c r="E259">
+        <v>711501178</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>379</v>
+      </c>
+      <c r="B264">
+        <v>52916982664</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>380</v>
+      </c>
+      <c r="B265">
+        <v>52006971598</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>381</v>
+      </c>
+      <c r="B266">
+        <v>27985751997</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>382</v>
+      </c>
+      <c r="B267" s="6">
+        <v>24021219601</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>383</v>
+      </c>
+      <c r="B268">
+        <v>1266204351</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>384</v>
+      </c>
+      <c r="B269">
+        <v>182512087</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>385</v>
+      </c>
+      <c r="B270">
+        <v>413450301</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>386</v>
+      </c>
+      <c r="B271">
+        <v>218335797</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>387</v>
+      </c>
+      <c r="B272" s="6">
+        <v>451906166</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>4</v>
+      </c>
+      <c r="B273" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>379</v>
+      </c>
+      <c r="B274">
+        <v>1100832599</v>
+      </c>
+      <c r="D274">
+        <f>B264-B274</f>
+        <v>51816150065</v>
+      </c>
+      <c r="E274">
+        <v>51816150065</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>380</v>
+      </c>
+      <c r="B275">
+        <v>535439056</v>
+      </c>
+      <c r="D275">
+        <f t="shared" ref="D275:D282" si="12">B265-B275</f>
+        <v>51471532542</v>
+      </c>
+      <c r="E275">
+        <v>51471532542</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>381</v>
+      </c>
+      <c r="B276">
+        <v>190368507</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="12"/>
+        <v>27795383490</v>
+      </c>
+      <c r="E276">
+        <v>27795383490</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>382</v>
+      </c>
+      <c r="B277" s="6">
+        <v>345070549</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="12"/>
+        <v>23676149052</v>
+      </c>
+      <c r="E277">
+        <v>23676149052</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>383</v>
+      </c>
+      <c r="B278">
+        <v>557550763</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="12"/>
+        <v>708653588</v>
+      </c>
+      <c r="E278">
+        <v>708653588</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>384</v>
+      </c>
+      <c r="B279">
+        <v>83834869</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="12"/>
+        <v>98677218</v>
+      </c>
+      <c r="E279">
+        <v>98677218</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>385</v>
+      </c>
+      <c r="B280">
+        <v>174522768</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="12"/>
+        <v>238927533</v>
+      </c>
+      <c r="E280">
+        <v>238927533</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>386</v>
+      </c>
+      <c r="B281">
+        <v>95386081</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="12"/>
+        <v>122949716</v>
+      </c>
+      <c r="E281">
+        <v>122949716</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>387</v>
+      </c>
+      <c r="B282" s="6">
+        <v>203807045</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="12"/>
+        <v>248099121</v>
+      </c>
+      <c r="E282">
+        <v>248099121</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>390</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>379</v>
+      </c>
+      <c r="B284">
+        <v>68131633346</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>380</v>
+      </c>
+      <c r="B285">
+        <v>66236780024</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>381</v>
+      </c>
+      <c r="B286">
+        <v>41409503886</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>382</v>
+      </c>
+      <c r="B287" s="6">
+        <v>24827276138</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>383</v>
+      </c>
+      <c r="B288">
+        <v>1393746950</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>384</v>
+      </c>
+      <c r="B289">
+        <v>316849271</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>385</v>
+      </c>
+      <c r="B290">
+        <v>304145221</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>386</v>
+      </c>
+      <c r="B291">
+        <v>161815845</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>387</v>
+      </c>
+      <c r="B292" s="6">
+        <v>610936613</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>390</v>
+      </c>
+      <c r="B293" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>379</v>
+      </c>
+      <c r="B294">
+        <v>376799823</v>
+      </c>
+      <c r="D294">
+        <f>B284-B294</f>
+        <v>67754833523</v>
+      </c>
+      <c r="E294">
+        <v>67754833523</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>380</v>
+      </c>
+      <c r="B295">
+        <v>120959619</v>
+      </c>
+      <c r="D295">
+        <f t="shared" ref="D295:D302" si="13">B285-B295</f>
+        <v>66115820405</v>
+      </c>
+      <c r="E295">
+        <v>66115820405</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>381</v>
+      </c>
+      <c r="B296">
+        <v>28545842</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="13"/>
+        <v>41380958044</v>
+      </c>
+      <c r="E296">
+        <v>41380958044</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>382</v>
+      </c>
+      <c r="B297" s="6">
+        <v>92413777</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="13"/>
+        <v>24734862361</v>
+      </c>
+      <c r="E297">
+        <v>24734862361</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>383</v>
+      </c>
+      <c r="B298">
+        <v>254006647</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="13"/>
+        <v>1139740303</v>
+      </c>
+      <c r="E298">
+        <v>1139740303</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>384</v>
+      </c>
+      <c r="B299">
+        <v>163222373</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="13"/>
+        <v>153626898</v>
+      </c>
+      <c r="E299">
+        <v>153626898</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>385</v>
+      </c>
+      <c r="B300">
+        <v>8108301</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="13"/>
+        <v>296036920</v>
+      </c>
+      <c r="E300">
+        <v>296036920</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>386</v>
+      </c>
+      <c r="B301">
+        <v>17854123</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="13"/>
+        <v>143961722</v>
+      </c>
+      <c r="E301">
+        <v>143961722</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
+        <v>387</v>
+      </c>
+      <c r="B302" s="6">
+        <v>64821850</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="13"/>
+        <v>546114763</v>
+      </c>
+      <c r="E302">
+        <v>546114763</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>379</v>
+      </c>
+      <c r="B307">
+        <v>54493927556</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>380</v>
+      </c>
+      <c r="B308">
+        <v>54110340266</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>381</v>
+      </c>
+      <c r="B309">
+        <v>29197635380</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>382</v>
+      </c>
+      <c r="B310" s="6">
+        <v>24912704886</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>383</v>
+      </c>
+      <c r="B311">
+        <v>1294834941</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>384</v>
+      </c>
+      <c r="B312">
+        <v>183618679</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
+        <v>385</v>
+      </c>
+      <c r="B313">
+        <v>407073882</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>386</v>
+      </c>
+      <c r="B314">
+        <v>225955265</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="s">
+        <v>387</v>
+      </c>
+      <c r="B315" s="6">
+        <v>478187115</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="s">
+        <v>4</v>
+      </c>
+      <c r="B316" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="s">
+        <v>379</v>
+      </c>
+      <c r="B317">
+        <v>1085546254</v>
+      </c>
+      <c r="D317">
+        <f>B307-B317</f>
+        <v>53408381302</v>
+      </c>
+      <c r="E317">
+        <v>53408381302</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="s">
+        <v>380</v>
+      </c>
+      <c r="B318">
+        <v>528747940</v>
+      </c>
+      <c r="D318">
+        <f t="shared" ref="D318:D325" si="14">B308-B318</f>
+        <v>53581592326</v>
+      </c>
+      <c r="E318">
+        <v>53581592326</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
+        <v>381</v>
+      </c>
+      <c r="B319">
+        <v>191022354</v>
+      </c>
+      <c r="D319">
+        <f t="shared" si="14"/>
+        <v>29006613026</v>
+      </c>
+      <c r="E319">
+        <v>29006613026</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="s">
+        <v>382</v>
+      </c>
+      <c r="B320" s="6">
+        <v>337725586</v>
+      </c>
+      <c r="D320">
+        <f t="shared" si="14"/>
+        <v>24574979300</v>
+      </c>
+      <c r="E320">
+        <v>24574979300</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>383</v>
+      </c>
+      <c r="B321">
+        <v>559127564</v>
+      </c>
+      <c r="D321">
+        <f t="shared" si="14"/>
+        <v>735707377</v>
+      </c>
+      <c r="E321">
+        <v>735707377</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>384</v>
+      </c>
+      <c r="B322">
+        <v>85424583</v>
+      </c>
+      <c r="D322">
+        <f t="shared" si="14"/>
+        <v>98194096</v>
+      </c>
+      <c r="E322">
+        <v>98194096</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" t="s">
+        <v>385</v>
+      </c>
+      <c r="B323">
+        <v>173693074</v>
+      </c>
+      <c r="D323">
+        <f t="shared" si="14"/>
+        <v>233380808</v>
+      </c>
+      <c r="E323">
+        <v>233380808</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" t="s">
+        <v>386</v>
+      </c>
+      <c r="B324">
+        <v>92161783</v>
+      </c>
+      <c r="D324">
+        <f t="shared" si="14"/>
+        <v>133793482</v>
+      </c>
+      <c r="E324">
+        <v>133793482</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" t="s">
+        <v>387</v>
+      </c>
+      <c r="B325" s="6">
+        <v>207848124</v>
+      </c>
+      <c r="D325">
+        <f t="shared" si="14"/>
+        <v>270338991</v>
+      </c>
+      <c r="E325">
+        <v>270338991</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" t="s">
+        <v>390</v>
+      </c>
+      <c r="B326" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" t="s">
+        <v>379</v>
+      </c>
+      <c r="B327">
+        <v>75184854377</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" t="s">
+        <v>380</v>
+      </c>
+      <c r="B328">
+        <v>75300180590</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" t="s">
+        <v>381</v>
+      </c>
+      <c r="B329">
+        <v>45939503703</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" t="s">
+        <v>382</v>
+      </c>
+      <c r="B330" s="6">
+        <v>29360676887</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" t="s">
+        <v>383</v>
+      </c>
+      <c r="B331">
+        <v>1578506839</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>384</v>
+      </c>
+      <c r="B332">
+        <v>326197546</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="s">
+        <v>385</v>
+      </c>
+      <c r="B333">
+        <v>336771562</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" t="s">
+        <v>386</v>
+      </c>
+      <c r="B334">
+        <v>225196994</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" t="s">
+        <v>387</v>
+      </c>
+      <c r="B335" s="6">
+        <v>690340737</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" t="s">
+        <v>390</v>
+      </c>
+      <c r="B336" t="s">
+        <v>4</v>
+      </c>
+      <c r="C336" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" t="s">
+        <v>379</v>
+      </c>
+      <c r="B337">
+        <v>393923826</v>
+      </c>
+      <c r="D337">
+        <f>B327-B337</f>
+        <v>74790930551</v>
+      </c>
+      <c r="E337">
+        <v>74790930551</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" t="s">
+        <v>380</v>
+      </c>
+      <c r="B338">
+        <v>122944414</v>
+      </c>
+      <c r="D338">
+        <f t="shared" ref="D338:D345" si="15">B328-B338</f>
+        <v>75177236176</v>
+      </c>
+      <c r="E338">
+        <v>75177236176</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" t="s">
+        <v>381</v>
+      </c>
+      <c r="B339">
+        <v>29363617</v>
+      </c>
+      <c r="D339">
+        <f t="shared" si="15"/>
+        <v>45910140086</v>
+      </c>
+      <c r="E339">
+        <v>45910140086</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" t="s">
+        <v>382</v>
+      </c>
+      <c r="B340" s="6">
+        <v>93580797</v>
+      </c>
+      <c r="D340">
+        <f t="shared" si="15"/>
+        <v>29267096090</v>
+      </c>
+      <c r="E340">
+        <v>29267096090</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" t="s">
+        <v>383</v>
+      </c>
+      <c r="B341">
+        <v>261631397</v>
+      </c>
+      <c r="D341">
+        <f t="shared" si="15"/>
+        <v>1316875442</v>
+      </c>
+      <c r="E341">
+        <v>1316875442</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" t="s">
+        <v>384</v>
+      </c>
+      <c r="B342">
+        <v>197774905</v>
+      </c>
+      <c r="D342">
+        <f t="shared" si="15"/>
+        <v>128422641</v>
+      </c>
+      <c r="E342">
+        <v>128422641</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" t="s">
+        <v>385</v>
+      </c>
+      <c r="B343">
+        <v>8285936</v>
+      </c>
+      <c r="D343">
+        <f t="shared" si="15"/>
+        <v>328485626</v>
+      </c>
+      <c r="E343">
+        <v>328485626</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" t="s">
+        <v>386</v>
+      </c>
+      <c r="B344">
+        <v>26981876</v>
+      </c>
+      <c r="D344">
+        <f t="shared" si="15"/>
+        <v>198215118</v>
+      </c>
+      <c r="E344">
+        <v>198215118</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" t="s">
+        <v>387</v>
+      </c>
+      <c r="B345" s="6">
+        <v>28588680</v>
+      </c>
+      <c r="D345">
+        <f t="shared" si="15"/>
+        <v>661752057</v>
+      </c>
+      <c r="E345">
+        <v>661752057</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" t="s">
+        <v>379</v>
+      </c>
+      <c r="B350">
+        <v>55047172800</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" t="s">
+        <v>380</v>
+      </c>
+      <c r="B351">
+        <v>52685532974</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" t="s">
+        <v>381</v>
+      </c>
+      <c r="B352">
+        <v>29160683095</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" t="s">
+        <v>382</v>
+      </c>
+      <c r="B353" s="6">
+        <v>23524849879</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" t="s">
+        <v>383</v>
+      </c>
+      <c r="B354">
+        <v>1281204714</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" t="s">
+        <v>384</v>
+      </c>
+      <c r="B355">
+        <v>183434711</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" t="s">
+        <v>385</v>
+      </c>
+      <c r="B356">
+        <v>410010414</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" t="s">
+        <v>386</v>
+      </c>
+      <c r="B357">
+        <v>223621972</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" t="s">
+        <v>387</v>
+      </c>
+      <c r="B358" s="6">
+        <v>464137617</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" t="s">
+        <v>4</v>
+      </c>
+      <c r="B359" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" t="s">
+        <v>379</v>
+      </c>
+      <c r="B360">
+        <v>1079301261</v>
+      </c>
+      <c r="D360">
+        <f>B350-B360</f>
+        <v>53967871539</v>
+      </c>
+      <c r="E360">
+        <v>53967871539</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" t="s">
+        <v>380</v>
+      </c>
+      <c r="B361">
+        <v>533256550</v>
+      </c>
+      <c r="D361">
+        <f t="shared" ref="D361:D368" si="16">B351-B361</f>
+        <v>52152276424</v>
+      </c>
+      <c r="E361">
+        <v>52152276424</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" t="s">
+        <v>381</v>
+      </c>
+      <c r="B362">
+        <v>185844853</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="16"/>
+        <v>28974838242</v>
+      </c>
+      <c r="E362">
+        <v>28974838242</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" t="s">
+        <v>382</v>
+      </c>
+      <c r="B363" s="6">
+        <v>347411697</v>
+      </c>
+      <c r="D363">
+        <f t="shared" si="16"/>
+        <v>23177438182</v>
+      </c>
+      <c r="E363">
+        <v>23177438182</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" t="s">
+        <v>383</v>
+      </c>
+      <c r="B364">
+        <v>558089305</v>
+      </c>
+      <c r="D364">
+        <f t="shared" si="16"/>
+        <v>723115409</v>
+      </c>
+      <c r="E364">
+        <v>723115409</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" t="s">
+        <v>384</v>
+      </c>
+      <c r="B365">
+        <v>84121326</v>
+      </c>
+      <c r="D365">
+        <f t="shared" si="16"/>
+        <v>99313385</v>
+      </c>
+      <c r="E365">
+        <v>99313385</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" t="s">
+        <v>385</v>
+      </c>
+      <c r="B366">
+        <v>176246948</v>
+      </c>
+      <c r="D366">
+        <f t="shared" si="16"/>
+        <v>233763466</v>
+      </c>
+      <c r="E366">
+        <v>233763466</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" t="s">
+        <v>386</v>
+      </c>
+      <c r="B367">
+        <v>90570526</v>
+      </c>
+      <c r="D367">
+        <f t="shared" si="16"/>
+        <v>133051446</v>
+      </c>
+      <c r="E367">
+        <v>133051446</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="s">
+        <v>387</v>
+      </c>
+      <c r="B368" s="6">
+        <v>207150505</v>
+      </c>
+      <c r="D368">
+        <f t="shared" si="16"/>
+        <v>256987112</v>
+      </c>
+      <c r="E368">
+        <v>256987112</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>390</v>
+      </c>
+      <c r="B369" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" t="s">
+        <v>379</v>
+      </c>
+      <c r="B370">
+        <v>78564792499</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="s">
+        <v>380</v>
+      </c>
+      <c r="B371">
+        <v>75723380766</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" t="s">
+        <v>381</v>
+      </c>
+      <c r="B372">
+        <v>47099124755</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" t="s">
+        <v>382</v>
+      </c>
+      <c r="B373" s="6">
+        <v>28624256011</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" t="s">
+        <v>383</v>
+      </c>
+      <c r="B374">
+        <v>1578274776</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" t="s">
+        <v>384</v>
+      </c>
+      <c r="B375">
+        <v>307688784</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" t="s">
+        <v>385</v>
+      </c>
+      <c r="B376">
+        <v>346271167</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" t="s">
+        <v>386</v>
+      </c>
+      <c r="B377">
+        <v>206937445</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" t="s">
+        <v>387</v>
+      </c>
+      <c r="B378" s="6">
+        <v>717377380</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" t="s">
+        <v>390</v>
+      </c>
+      <c r="B379" t="s">
+        <v>4</v>
+      </c>
+      <c r="C379" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>354831300</v>
+      </c>
+      <c r="D380">
+        <f>B370-B380</f>
+        <v>78209961199</v>
+      </c>
+      <c r="E380">
+        <v>78209961199</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>114541767</v>
+      </c>
+      <c r="D381">
+        <f t="shared" ref="D381:D388" si="17">B371-B381</f>
+        <v>75608838999</v>
+      </c>
+      <c r="E381">
+        <v>75608838999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>26338390</v>
+      </c>
+      <c r="D382">
+        <f t="shared" si="17"/>
+        <v>47072786365</v>
+      </c>
+      <c r="E382">
+        <v>47072786365</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+      <c r="B383" s="6">
+        <v>88203377</v>
+      </c>
+      <c r="D383">
+        <f t="shared" si="17"/>
+        <v>28536052634</v>
+      </c>
+      <c r="E383">
+        <v>28536052634</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>239060873</v>
+      </c>
+      <c r="D384">
+        <f t="shared" si="17"/>
+        <v>1339213903</v>
+      </c>
+      <c r="E384">
+        <v>1339213903</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>138937676</v>
+      </c>
+      <c r="D385">
+        <f t="shared" si="17"/>
+        <v>168751108</v>
+      </c>
+      <c r="E385">
+        <v>168751108</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>8053524</v>
+      </c>
+      <c r="D386">
+        <f t="shared" si="17"/>
+        <v>338217643</v>
+      </c>
+      <c r="E386">
+        <v>338217643</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>74962360</v>
+      </c>
+      <c r="D387">
+        <f t="shared" si="17"/>
+        <v>131975085</v>
+      </c>
+      <c r="E387">
+        <v>131975085</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+      <c r="B388" s="6">
+        <v>17107313</v>
+      </c>
+      <c r="D388">
+        <f t="shared" si="17"/>
+        <v>700270067</v>
+      </c>
+      <c r="E388">
+        <v>700270067</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" t="s">
+        <v>379</v>
+      </c>
+      <c r="B393">
+        <v>13177204304</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" t="s">
+        <v>380</v>
+      </c>
+      <c r="B394">
+        <v>9019079124</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" t="s">
+        <v>381</v>
+      </c>
+      <c r="B395">
+        <v>362941007</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" t="s">
+        <v>382</v>
+      </c>
+      <c r="B396" s="6">
+        <v>8656138117</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" t="s">
+        <v>383</v>
+      </c>
+      <c r="B397">
+        <v>4073718716</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" t="s">
+        <v>384</v>
+      </c>
+      <c r="B398">
+        <v>2535486601</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" t="s">
+        <v>385</v>
+      </c>
+      <c r="B399">
+        <v>173105376</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" t="s">
+        <v>386</v>
+      </c>
+      <c r="B400">
+        <v>293053127</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" t="s">
+        <v>387</v>
+      </c>
+      <c r="B401" s="6">
+        <v>1072073612</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" t="s">
+        <v>4</v>
+      </c>
+      <c r="B402" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>379</v>
+      </c>
+      <c r="B403">
+        <v>1340538564</v>
+      </c>
+      <c r="D403">
+        <f>B393-B403</f>
+        <v>11836665740</v>
+      </c>
+      <c r="E403">
+        <v>11836665740</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" t="s">
+        <v>380</v>
+      </c>
+      <c r="B404">
+        <v>434510272</v>
+      </c>
+      <c r="D404">
+        <f t="shared" ref="D404:D411" si="18">B394-B404</f>
+        <v>8584568852</v>
+      </c>
+      <c r="E404">
+        <v>8584568852</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" t="s">
+        <v>381</v>
+      </c>
+      <c r="B405">
+        <v>79031328</v>
+      </c>
+      <c r="D405">
+        <f t="shared" si="18"/>
+        <v>283909679</v>
+      </c>
+      <c r="E405">
+        <v>283909679</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>382</v>
+      </c>
+      <c r="B406" s="6">
+        <v>355478944</v>
+      </c>
+      <c r="D406">
+        <f t="shared" si="18"/>
+        <v>8300659173</v>
+      </c>
+      <c r="E406">
+        <v>8300659173</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
+        <v>383</v>
+      </c>
+      <c r="B407">
+        <v>927003845</v>
+      </c>
+      <c r="D407">
+        <f t="shared" si="18"/>
+        <v>3146714871</v>
+      </c>
+      <c r="E407">
+        <v>3146714871</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" t="s">
+        <v>384</v>
+      </c>
+      <c r="B408">
+        <v>741226249</v>
+      </c>
+      <c r="D408">
+        <f t="shared" si="18"/>
+        <v>1794260352</v>
+      </c>
+      <c r="E408">
+        <v>1794260352</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" t="s">
+        <v>385</v>
+      </c>
+      <c r="B409">
+        <v>58441648</v>
+      </c>
+      <c r="D409">
+        <f t="shared" si="18"/>
+        <v>114663728</v>
+      </c>
+      <c r="E409">
+        <v>114663728</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" t="s">
+        <v>386</v>
+      </c>
+      <c r="B410">
+        <v>88955108</v>
+      </c>
+      <c r="D410">
+        <f t="shared" si="18"/>
+        <v>204098019</v>
+      </c>
+      <c r="E410">
+        <v>204098019</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" t="s">
+        <v>387</v>
+      </c>
+      <c r="B411" s="6">
+        <v>38380840</v>
+      </c>
+      <c r="D411">
+        <f t="shared" si="18"/>
+        <v>1033692772</v>
+      </c>
+      <c r="E411">
+        <v>1033692772</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" t="s">
+        <v>390</v>
+      </c>
+      <c r="B412" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" t="s">
+        <v>379</v>
+      </c>
+      <c r="B413">
+        <v>12047459239</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" t="s">
+        <v>380</v>
+      </c>
+      <c r="B414">
+        <v>8751112621</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" t="s">
+        <v>381</v>
+      </c>
+      <c r="B415">
+        <v>304020217</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" t="s">
+        <v>382</v>
+      </c>
+      <c r="B416" s="6">
+        <v>8447092404</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" t="s">
+        <v>383</v>
+      </c>
+      <c r="B417">
+        <v>3364677402</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" t="s">
+        <v>384</v>
+      </c>
+      <c r="B418">
+        <v>1739565300</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" t="s">
+        <v>385</v>
+      </c>
+      <c r="B419">
+        <v>174960744</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" t="s">
+        <v>386</v>
+      </c>
+      <c r="B420">
+        <v>313189629</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" t="s">
+        <v>387</v>
+      </c>
+      <c r="B421" s="6">
+        <v>1136961729</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" t="s">
+        <v>390</v>
+      </c>
+      <c r="B422" t="s">
+        <v>4</v>
+      </c>
+      <c r="C422" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" t="s">
+        <v>379</v>
+      </c>
+      <c r="B423">
+        <v>370521100</v>
+      </c>
+      <c r="D423">
+        <f>B413-B423</f>
+        <v>11676938139</v>
+      </c>
+      <c r="E423">
+        <v>11676938139</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" t="s">
+        <v>380</v>
+      </c>
+      <c r="B424">
+        <v>118541711</v>
+      </c>
+      <c r="D424">
+        <f t="shared" ref="D424:D431" si="19">B414-B424</f>
+        <v>8632570910</v>
+      </c>
+      <c r="E424">
+        <v>8632570910</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" t="s">
+        <v>381</v>
+      </c>
+      <c r="B425">
+        <v>27601148</v>
+      </c>
+      <c r="D425">
+        <f t="shared" si="19"/>
+        <v>276419069</v>
+      </c>
+      <c r="E425">
+        <v>276419069</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" t="s">
+        <v>382</v>
+      </c>
+      <c r="B426" s="6">
+        <v>90940563</v>
+      </c>
+      <c r="D426">
+        <f t="shared" si="19"/>
+        <v>8356151841</v>
+      </c>
+      <c r="E426">
+        <v>8356151841</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" t="s">
+        <v>383</v>
+      </c>
+      <c r="B427">
+        <v>252085097</v>
+      </c>
+      <c r="D427">
+        <f t="shared" si="19"/>
+        <v>3112592305</v>
+      </c>
+      <c r="E427">
+        <v>3112592305</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" t="s">
+        <v>384</v>
+      </c>
+      <c r="B428">
+        <v>175535799</v>
+      </c>
+      <c r="D428">
+        <f t="shared" si="19"/>
+        <v>1564029501</v>
+      </c>
+      <c r="E428">
+        <v>1564029501</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" t="s">
+        <v>385</v>
+      </c>
+      <c r="B429">
+        <v>7930777</v>
+      </c>
+      <c r="D429">
+        <f t="shared" si="19"/>
+        <v>167029967</v>
+      </c>
+      <c r="E429">
+        <v>167029967</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" t="s">
+        <v>386</v>
+      </c>
+      <c r="B430">
+        <v>58111324</v>
+      </c>
+      <c r="D430">
+        <f t="shared" si="19"/>
+        <v>255078305</v>
+      </c>
+      <c r="E430">
+        <v>255078305</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" t="s">
+        <v>387</v>
+      </c>
+      <c r="B431" s="6">
+        <v>10507197</v>
+      </c>
+      <c r="D431">
+        <f t="shared" si="19"/>
+        <v>1126454532</v>
+      </c>
+      <c r="E431">
+        <v>1126454532</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" t="s">
+        <v>379</v>
+      </c>
+      <c r="B436">
+        <v>82439663962</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" t="s">
+        <v>380</v>
+      </c>
+      <c r="B437">
+        <v>85507637467</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" t="s">
+        <v>381</v>
+      </c>
+      <c r="B438">
+        <v>38968924310</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" t="s">
+        <v>382</v>
+      </c>
+      <c r="B439" s="6">
+        <v>46538713157</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" t="s">
+        <v>383</v>
+      </c>
+      <c r="B440">
+        <v>1673491996</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" t="s">
+        <v>384</v>
+      </c>
+      <c r="B441">
+        <v>465388562</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" t="s">
+        <v>385</v>
+      </c>
+      <c r="B442">
+        <v>447269060</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" t="s">
+        <v>386</v>
+      </c>
+      <c r="B443">
+        <v>352958418</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" t="s">
+        <v>387</v>
+      </c>
+      <c r="B444" s="6">
+        <v>407875956</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" t="s">
+        <v>4</v>
+      </c>
+      <c r="B445" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" t="s">
+        <v>379</v>
+      </c>
+      <c r="B446">
+        <v>2144682837</v>
+      </c>
+      <c r="D446">
+        <f>B436-B446</f>
+        <v>80294981125</v>
+      </c>
+      <c r="E446">
+        <v>80294981125</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" t="s">
+        <v>380</v>
+      </c>
+      <c r="B447">
+        <v>908647169</v>
+      </c>
+      <c r="D447">
+        <f t="shared" ref="D447:D454" si="20">B437-B447</f>
+        <v>84598990298</v>
+      </c>
+      <c r="E447">
+        <v>84598990298</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" t="s">
+        <v>381</v>
+      </c>
+      <c r="B448">
+        <v>235669289</v>
+      </c>
+      <c r="D448">
+        <f t="shared" si="20"/>
+        <v>38733255021</v>
+      </c>
+      <c r="E448">
+        <v>38733255021</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" t="s">
+        <v>382</v>
+      </c>
+      <c r="B449" s="6">
+        <v>672977880</v>
+      </c>
+      <c r="D449">
+        <f t="shared" si="20"/>
+        <v>45865735277</v>
+      </c>
+      <c r="E449">
+        <v>45865735277</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" t="s">
+        <v>383</v>
+      </c>
+      <c r="B450">
+        <v>712523840</v>
+      </c>
+      <c r="D450">
+        <f t="shared" si="20"/>
+        <v>960968156</v>
+      </c>
+      <c r="E450">
+        <v>960968156</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" t="s">
+        <v>384</v>
+      </c>
+      <c r="B451">
+        <v>299987598</v>
+      </c>
+      <c r="D451">
+        <f t="shared" si="20"/>
+        <v>165400964</v>
+      </c>
+      <c r="E451">
+        <v>165400964</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" t="s">
+        <v>385</v>
+      </c>
+      <c r="B452">
+        <v>170576271</v>
+      </c>
+      <c r="D452">
+        <f t="shared" si="20"/>
+        <v>276692789</v>
+      </c>
+      <c r="E452">
+        <v>276692789</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" t="s">
+        <v>386</v>
+      </c>
+      <c r="B453">
+        <v>113024162</v>
+      </c>
+      <c r="D453">
+        <f t="shared" si="20"/>
+        <v>239934256</v>
+      </c>
+      <c r="E453">
+        <v>239934256</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" t="s">
+        <v>387</v>
+      </c>
+      <c r="B454" s="6">
+        <v>128935809</v>
+      </c>
+      <c r="D454">
+        <f t="shared" si="20"/>
+        <v>278940147</v>
+      </c>
+      <c r="E454">
+        <v>278940147</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" t="s">
+        <v>390</v>
+      </c>
+      <c r="B455" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" t="s">
+        <v>379</v>
+      </c>
+      <c r="B456">
+        <v>68547004265</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" t="s">
+        <v>380</v>
+      </c>
+      <c r="B457">
+        <v>43554019205</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" t="s">
+        <v>381</v>
+      </c>
+      <c r="B458">
+        <v>32632505723</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" t="s">
+        <v>382</v>
+      </c>
+      <c r="B459" s="6">
+        <v>10921513482</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" t="s">
+        <v>383</v>
+      </c>
+      <c r="B460">
+        <v>1665619077</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" t="s">
+        <v>384</v>
+      </c>
+      <c r="B461">
+        <v>444911323</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" t="s">
+        <v>385</v>
+      </c>
+      <c r="B462">
+        <v>326215381</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" t="s">
+        <v>386</v>
+      </c>
+      <c r="B463">
+        <v>341361081</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" t="s">
+        <v>387</v>
+      </c>
+      <c r="B464" s="6">
+        <v>553131292</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" t="s">
+        <v>390</v>
+      </c>
+      <c r="B465" t="s">
+        <v>4</v>
+      </c>
+      <c r="C465" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" t="s">
+        <v>379</v>
+      </c>
+      <c r="B466">
+        <v>346359619</v>
+      </c>
+      <c r="D466">
+        <f>B456-B466</f>
+        <v>68200644646</v>
+      </c>
+      <c r="E466">
+        <v>68200644646</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" t="s">
+        <v>380</v>
+      </c>
+      <c r="B467">
+        <v>119313490</v>
+      </c>
+      <c r="D467">
+        <f t="shared" ref="D467:D474" si="21">B457-B467</f>
+        <v>43434705715</v>
+      </c>
+      <c r="E467">
+        <v>43434705715</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" t="s">
+        <v>381</v>
+      </c>
+      <c r="B468">
+        <v>26850164</v>
+      </c>
+      <c r="D468">
+        <f t="shared" si="21"/>
+        <v>32605655559</v>
+      </c>
+      <c r="E468">
+        <v>32605655559</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" t="s">
+        <v>382</v>
+      </c>
+      <c r="B469" s="6">
+        <v>92463326</v>
+      </c>
+      <c r="D469">
+        <f t="shared" si="21"/>
+        <v>10829050156</v>
+      </c>
+      <c r="E469">
+        <v>10829050156</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" t="s">
+        <v>383</v>
+      </c>
+      <c r="B470">
+        <v>279933784</v>
+      </c>
+      <c r="D470">
+        <f t="shared" si="21"/>
+        <v>1385685293</v>
+      </c>
+      <c r="E470">
+        <v>1385685293</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" t="s">
+        <v>384</v>
+      </c>
+      <c r="B471">
+        <v>217532266</v>
+      </c>
+      <c r="D471">
+        <f t="shared" si="21"/>
+        <v>227379057</v>
+      </c>
+      <c r="E471">
+        <v>227379057</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" t="s">
+        <v>385</v>
+      </c>
+      <c r="B472">
+        <v>7446734</v>
+      </c>
+      <c r="D472">
+        <f t="shared" si="21"/>
+        <v>318768647</v>
+      </c>
+      <c r="E472">
+        <v>318768647</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" t="s">
+        <v>386</v>
+      </c>
+      <c r="B473">
+        <v>31918123</v>
+      </c>
+      <c r="D473">
+        <f t="shared" si="21"/>
+        <v>309442958</v>
+      </c>
+      <c r="E473">
+        <v>309442958</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" t="s">
+        <v>387</v>
+      </c>
+      <c r="B474" s="6">
+        <v>23036661</v>
+      </c>
+      <c r="D474">
+        <f t="shared" si="21"/>
+        <v>530094631</v>
+      </c>
+      <c r="E474">
+        <v>530094631</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" t="s">
+        <v>379</v>
+      </c>
+      <c r="B479">
+        <v>54502590758</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" t="s">
+        <v>380</v>
+      </c>
+      <c r="B480">
+        <v>53669297042</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" t="s">
+        <v>381</v>
+      </c>
+      <c r="B481">
+        <v>28697451013</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" t="s">
+        <v>382</v>
+      </c>
+      <c r="B482" s="6">
+        <v>24971846029</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" t="s">
+        <v>383</v>
+      </c>
+      <c r="B483">
+        <v>1261418254</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" t="s">
+        <v>384</v>
+      </c>
+      <c r="B484">
+        <v>175804453</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" t="s">
+        <v>385</v>
+      </c>
+      <c r="B485">
+        <v>409225336</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" t="s">
+        <v>386</v>
+      </c>
+      <c r="B486">
+        <v>220848436</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" t="s">
+        <v>387</v>
+      </c>
+      <c r="B487" s="6">
+        <v>455540029</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" t="s">
+        <v>4</v>
+      </c>
+      <c r="B488" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" t="s">
+        <v>379</v>
+      </c>
+      <c r="B489">
+        <v>1068565499</v>
+      </c>
+      <c r="D489">
+        <f>B479-B489</f>
+        <v>53434025259</v>
+      </c>
+      <c r="E489">
+        <v>53434025259</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" t="s">
+        <v>380</v>
+      </c>
+      <c r="B490">
+        <v>513229905</v>
+      </c>
+      <c r="D490">
+        <f t="shared" ref="D490:D497" si="22">B480-B490</f>
+        <v>53156067137</v>
+      </c>
+      <c r="E490">
+        <v>53156067137</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" t="s">
+        <v>381</v>
+      </c>
+      <c r="B491">
+        <v>180685505</v>
+      </c>
+      <c r="D491">
+        <f t="shared" si="22"/>
+        <v>28516765508</v>
+      </c>
+      <c r="E491">
+        <v>28516765508</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" t="s">
+        <v>382</v>
+      </c>
+      <c r="B492" s="6">
+        <v>332544400</v>
+      </c>
+      <c r="D492">
+        <f t="shared" si="22"/>
+        <v>24639301629</v>
+      </c>
+      <c r="E492">
+        <v>24639301629</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" t="s">
+        <v>383</v>
+      </c>
+      <c r="B493">
+        <v>554411504</v>
+      </c>
+      <c r="D493">
+        <f t="shared" si="22"/>
+        <v>707006750</v>
+      </c>
+      <c r="E493">
+        <v>707006750</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" t="s">
+        <v>384</v>
+      </c>
+      <c r="B494">
+        <v>83746715</v>
+      </c>
+      <c r="D494">
+        <f t="shared" si="22"/>
+        <v>92057738</v>
+      </c>
+      <c r="E494">
+        <v>92057738</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" t="s">
+        <v>385</v>
+      </c>
+      <c r="B495">
+        <v>165809112</v>
+      </c>
+      <c r="D495">
+        <f t="shared" si="22"/>
+        <v>243416224</v>
+      </c>
+      <c r="E495">
+        <v>243416224</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" t="s">
+        <v>386</v>
+      </c>
+      <c r="B496">
+        <v>102048591</v>
+      </c>
+      <c r="D496">
+        <f t="shared" si="22"/>
+        <v>118799845</v>
+      </c>
+      <c r="E496">
+        <v>118799845</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" t="s">
+        <v>387</v>
+      </c>
+      <c r="B497" s="6">
+        <v>202807086</v>
+      </c>
+      <c r="D497">
+        <f t="shared" si="22"/>
+        <v>252732943</v>
+      </c>
+      <c r="E497">
+        <v>252732943</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" t="s">
+        <v>390</v>
+      </c>
+      <c r="B498" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" t="s">
+        <v>379</v>
+      </c>
+      <c r="B499">
+        <v>69767351475</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" t="s">
+        <v>380</v>
+      </c>
+      <c r="B500">
+        <v>69105267253</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" t="s">
+        <v>381</v>
+      </c>
+      <c r="B501">
+        <v>41238426794</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" t="s">
+        <v>382</v>
+      </c>
+      <c r="B502" s="6">
+        <v>27866840459</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" t="s">
+        <v>383</v>
+      </c>
+      <c r="B503">
+        <v>1545488973</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" t="s">
+        <v>384</v>
+      </c>
+      <c r="B504">
+        <v>346179857</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" t="s">
+        <v>385</v>
+      </c>
+      <c r="B505">
+        <v>326280139</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" t="s">
+        <v>386</v>
+      </c>
+      <c r="B506">
+        <v>217194398</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" t="s">
+        <v>387</v>
+      </c>
+      <c r="B507" s="6">
+        <v>655834579</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" t="s">
+        <v>390</v>
+      </c>
+      <c r="B508" t="s">
+        <v>4</v>
+      </c>
+      <c r="C508" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" t="s">
+        <v>379</v>
+      </c>
+      <c r="B509">
+        <v>401269776</v>
+      </c>
+      <c r="D509">
+        <f>B499-B509</f>
+        <v>69366081699</v>
+      </c>
+      <c r="E509">
+        <v>69366081699</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" t="s">
+        <v>380</v>
+      </c>
+      <c r="B510">
+        <v>119904190</v>
+      </c>
+      <c r="D510">
+        <f t="shared" ref="D510:D517" si="23">B500-B510</f>
+        <v>68985363063</v>
+      </c>
+      <c r="E510">
+        <v>68985363063</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" t="s">
+        <v>381</v>
+      </c>
+      <c r="B511">
+        <v>28629280</v>
+      </c>
+      <c r="D511">
+        <f t="shared" si="23"/>
+        <v>41209797514</v>
+      </c>
+      <c r="E511">
+        <v>41209797514</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" t="s">
+        <v>382</v>
+      </c>
+      <c r="B512" s="6">
+        <v>91274910</v>
+      </c>
+      <c r="D512">
+        <f t="shared" si="23"/>
+        <v>27775565549</v>
+      </c>
+      <c r="E512">
+        <v>27775565549</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" t="s">
+        <v>383</v>
+      </c>
+      <c r="B513">
+        <v>268297189</v>
+      </c>
+      <c r="D513">
+        <f t="shared" si="23"/>
+        <v>1277191784</v>
+      </c>
+      <c r="E513">
+        <v>1277191784</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" t="s">
+        <v>384</v>
+      </c>
+      <c r="B514">
+        <v>201259269</v>
+      </c>
+      <c r="D514">
+        <f t="shared" si="23"/>
+        <v>144920588</v>
+      </c>
+      <c r="E514">
+        <v>144920588</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" t="s">
+        <v>385</v>
+      </c>
+      <c r="B515">
+        <v>4924188</v>
+      </c>
+      <c r="D515">
+        <f t="shared" si="23"/>
+        <v>321355951</v>
+      </c>
+      <c r="E515">
+        <v>321355951</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" t="s">
+        <v>386</v>
+      </c>
+      <c r="B516">
+        <v>38998776</v>
+      </c>
+      <c r="D516">
+        <f t="shared" si="23"/>
+        <v>178195622</v>
+      </c>
+      <c r="E516">
+        <v>178195622</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" t="s">
+        <v>387</v>
+      </c>
+      <c r="B517" s="6">
+        <v>23114956</v>
+      </c>
+      <c r="D517">
+        <f t="shared" si="23"/>
+        <v>632719623</v>
+      </c>
+      <c r="E517">
+        <v>632719623</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" t="s">
+        <v>379</v>
+      </c>
+      <c r="B522">
+        <v>55203682962</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" t="s">
+        <v>380</v>
+      </c>
+      <c r="B523">
+        <v>54372930471</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" t="s">
+        <v>381</v>
+      </c>
+      <c r="B524">
+        <v>29431107457</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" t="s">
+        <v>382</v>
+      </c>
+      <c r="B525" s="6">
+        <v>24941823014</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" t="s">
+        <v>383</v>
+      </c>
+      <c r="B526">
+        <v>1244615428</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" t="s">
+        <v>384</v>
+      </c>
+      <c r="B527">
+        <v>190451013</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" t="s">
+        <v>385</v>
+      </c>
+      <c r="B528">
+        <v>403969647</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" t="s">
+        <v>386</v>
+      </c>
+      <c r="B529">
+        <v>222807174</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" t="s">
+        <v>387</v>
+      </c>
+      <c r="B530" s="6">
+        <v>427387594</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" t="s">
+        <v>4</v>
+      </c>
+      <c r="B531" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" t="s">
+        <v>379</v>
+      </c>
+      <c r="B532">
+        <v>1053206789</v>
+      </c>
+      <c r="D532">
+        <f>B522-B532</f>
+        <v>54150476173</v>
+      </c>
+      <c r="E532">
+        <v>54150476173</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" t="s">
+        <v>380</v>
+      </c>
+      <c r="B533">
+        <v>522011047</v>
+      </c>
+      <c r="D533">
+        <f t="shared" ref="D533:D540" si="24">B523-B533</f>
+        <v>53850919424</v>
+      </c>
+      <c r="E533">
+        <v>53850919424</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" t="s">
+        <v>381</v>
+      </c>
+      <c r="B534">
+        <v>173318526</v>
+      </c>
+      <c r="D534">
+        <f t="shared" si="24"/>
+        <v>29257788931</v>
+      </c>
+      <c r="E534">
+        <v>29257788931</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" t="s">
+        <v>382</v>
+      </c>
+      <c r="B535" s="6">
+        <v>348692521</v>
+      </c>
+      <c r="D535">
+        <f t="shared" si="24"/>
+        <v>24593130493</v>
+      </c>
+      <c r="E535">
+        <v>24593130493</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" t="s">
+        <v>383</v>
+      </c>
+      <c r="B536">
+        <v>554753848</v>
+      </c>
+      <c r="D536">
+        <f t="shared" si="24"/>
+        <v>689861580</v>
+      </c>
+      <c r="E536">
+        <v>689861580</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" t="s">
+        <v>384</v>
+      </c>
+      <c r="B537">
+        <v>84276672</v>
+      </c>
+      <c r="D537">
+        <f t="shared" si="24"/>
+        <v>106174341</v>
+      </c>
+      <c r="E537">
+        <v>106174341</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" t="s">
+        <v>385</v>
+      </c>
+      <c r="B538">
+        <v>168029049</v>
+      </c>
+      <c r="D538">
+        <f t="shared" si="24"/>
+        <v>235940598</v>
+      </c>
+      <c r="E538">
+        <v>235940598</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" t="s">
+        <v>386</v>
+      </c>
+      <c r="B539">
+        <v>101247042</v>
+      </c>
+      <c r="D539">
+        <f t="shared" si="24"/>
+        <v>121560132</v>
+      </c>
+      <c r="E539">
+        <v>121560132</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="A540" t="s">
+        <v>387</v>
+      </c>
+      <c r="B540" s="6">
+        <v>201201085</v>
+      </c>
+      <c r="D540">
+        <f t="shared" si="24"/>
+        <v>226186509</v>
+      </c>
+      <c r="E540">
+        <v>226186509</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" t="s">
+        <v>390</v>
+      </c>
+      <c r="B541" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="A542" t="s">
+        <v>379</v>
+      </c>
+      <c r="B542">
+        <v>71429926276</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543" t="s">
+        <v>380</v>
+      </c>
+      <c r="B543">
+        <v>68270270017</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="A544" t="s">
+        <v>381</v>
+      </c>
+      <c r="B544">
+        <v>42212231107</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5">
+      <c r="A545" t="s">
+        <v>382</v>
+      </c>
+      <c r="B545" s="6">
+        <v>26058038910</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="A546" t="s">
+        <v>383</v>
+      </c>
+      <c r="B546">
+        <v>1613596874</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="A547" t="s">
+        <v>384</v>
+      </c>
+      <c r="B547">
+        <v>329924447</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="A548" t="s">
+        <v>385</v>
+      </c>
+      <c r="B548">
+        <v>350092552</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="A549" t="s">
+        <v>386</v>
+      </c>
+      <c r="B549">
+        <v>212785621</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5">
+      <c r="A550" t="s">
+        <v>387</v>
+      </c>
+      <c r="B550" s="6">
+        <v>720794254</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="A551" t="s">
+        <v>390</v>
+      </c>
+      <c r="B551" t="s">
+        <v>4</v>
+      </c>
+      <c r="C551" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="A552" t="s">
+        <v>379</v>
+      </c>
+      <c r="B552">
+        <v>380715971</v>
+      </c>
+      <c r="D552">
+        <f>B542-B552</f>
+        <v>71049210305</v>
+      </c>
+      <c r="E552">
+        <v>71049210305</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5">
+      <c r="A553" t="s">
+        <v>380</v>
+      </c>
+      <c r="B553">
+        <v>122911164</v>
+      </c>
+      <c r="D553">
+        <f t="shared" ref="D553:D560" si="25">B543-B553</f>
+        <v>68147358853</v>
+      </c>
+      <c r="E553">
+        <v>68147358853</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="A554" t="s">
+        <v>381</v>
+      </c>
+      <c r="B554">
+        <v>27854877</v>
+      </c>
+      <c r="D554">
+        <f t="shared" si="25"/>
+        <v>42184376230</v>
+      </c>
+      <c r="E554">
+        <v>42184376230</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5">
+      <c r="A555" t="s">
+        <v>382</v>
+      </c>
+      <c r="B555" s="6">
+        <v>95056287</v>
+      </c>
+      <c r="D555">
+        <f t="shared" si="25"/>
+        <v>25962982623</v>
+      </c>
+      <c r="E555">
+        <v>25962982623</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5">
+      <c r="A556" t="s">
+        <v>383</v>
+      </c>
+      <c r="B556">
+        <v>258197163</v>
+      </c>
+      <c r="D556">
+        <f t="shared" si="25"/>
+        <v>1355399711</v>
+      </c>
+      <c r="E556">
+        <v>1355399711</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5">
+      <c r="A557" t="s">
+        <v>384</v>
+      </c>
+      <c r="B557">
+        <v>182637553</v>
+      </c>
+      <c r="D557">
+        <f t="shared" si="25"/>
+        <v>147286894</v>
+      </c>
+      <c r="E557">
+        <v>147286894</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="A558" t="s">
+        <v>385</v>
+      </c>
+      <c r="B558">
+        <v>5079182</v>
+      </c>
+      <c r="D558">
+        <f t="shared" si="25"/>
+        <v>345013370</v>
+      </c>
+      <c r="E558">
+        <v>345013370</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5">
+      <c r="A559" t="s">
+        <v>386</v>
+      </c>
+      <c r="B559">
+        <v>38062458</v>
+      </c>
+      <c r="D559">
+        <f t="shared" si="25"/>
+        <v>174723163</v>
+      </c>
+      <c r="E559">
+        <v>174723163</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" t="s">
+        <v>387</v>
+      </c>
+      <c r="B560" s="6">
+        <v>32417970</v>
+      </c>
+      <c r="D560">
+        <f t="shared" si="25"/>
+        <v>688376284</v>
+      </c>
+      <c r="E560">
+        <v>688376284</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5">
+      <c r="A561" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5">
+      <c r="A563" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5">
+      <c r="A565" t="s">
+        <v>379</v>
+      </c>
+      <c r="B565">
+        <v>55076939510</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="A566" t="s">
+        <v>380</v>
+      </c>
+      <c r="B566">
+        <v>51374805342</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" t="s">
+        <v>381</v>
+      </c>
+      <c r="B567">
+        <v>29370708173</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5">
+      <c r="A568" t="s">
+        <v>382</v>
+      </c>
+      <c r="B568" s="6">
+        <v>22004097169</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" t="s">
+        <v>383</v>
+      </c>
+      <c r="B569">
+        <v>1251247977</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" t="s">
+        <v>384</v>
+      </c>
+      <c r="B570">
+        <v>186243812</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="A571" t="s">
+        <v>385</v>
+      </c>
+      <c r="B571">
+        <v>402979639</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" t="s">
+        <v>386</v>
+      </c>
+      <c r="B572">
+        <v>225318196</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5">
+      <c r="A573" t="s">
+        <v>387</v>
+      </c>
+      <c r="B573" s="6">
+        <v>436706330</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5">
+      <c r="A574" t="s">
+        <v>4</v>
+      </c>
+      <c r="B574" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="A575" t="s">
+        <v>379</v>
+      </c>
+      <c r="B575">
+        <v>1075101708</v>
+      </c>
+      <c r="D575">
+        <f>B565-B575</f>
+        <v>54001837802</v>
+      </c>
+      <c r="E575">
+        <v>54001837802</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5">
+      <c r="A576" t="s">
+        <v>380</v>
+      </c>
+      <c r="B576">
+        <v>512316981</v>
+      </c>
+      <c r="D576">
+        <f t="shared" ref="D576:D583" si="26">B566-B576</f>
+        <v>50862488361</v>
+      </c>
+      <c r="E576">
+        <v>50862488361</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5">
+      <c r="A577" t="s">
+        <v>381</v>
+      </c>
+      <c r="B577">
+        <v>178521549</v>
+      </c>
+      <c r="D577">
+        <f t="shared" si="26"/>
+        <v>29192186624</v>
+      </c>
+      <c r="E577">
+        <v>29192186624</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5">
+      <c r="A578" t="s">
+        <v>382</v>
+      </c>
+      <c r="B578" s="6">
+        <v>333795432</v>
+      </c>
+      <c r="D578">
+        <f t="shared" si="26"/>
+        <v>21670301737</v>
+      </c>
+      <c r="E578">
+        <v>21670301737</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5">
+      <c r="A579" t="s">
+        <v>383</v>
+      </c>
+      <c r="B579">
+        <v>556437122</v>
+      </c>
+      <c r="D579">
+        <f t="shared" si="26"/>
+        <v>694810855</v>
+      </c>
+      <c r="E579">
+        <v>694810855</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5">
+      <c r="A580" t="s">
+        <v>384</v>
+      </c>
+      <c r="B580">
+        <v>86935063</v>
+      </c>
+      <c r="D580">
+        <f t="shared" si="26"/>
+        <v>99308749</v>
+      </c>
+      <c r="E580">
+        <v>99308749</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5">
+      <c r="A581" t="s">
+        <v>385</v>
+      </c>
+      <c r="B581">
+        <v>167170727</v>
+      </c>
+      <c r="D581">
+        <f t="shared" si="26"/>
+        <v>235808912</v>
+      </c>
+      <c r="E581">
+        <v>235808912</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5">
+      <c r="A582" t="s">
+        <v>386</v>
+      </c>
+      <c r="B582">
+        <v>95859698</v>
+      </c>
+      <c r="D582">
+        <f t="shared" si="26"/>
+        <v>129458498</v>
+      </c>
+      <c r="E582">
+        <v>129458498</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5">
+      <c r="A583" t="s">
+        <v>387</v>
+      </c>
+      <c r="B583" s="6">
+        <v>206471634</v>
+      </c>
+      <c r="D583">
+        <f t="shared" si="26"/>
+        <v>230234696</v>
+      </c>
+      <c r="E583">
+        <v>230234696</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5">
+      <c r="A584" t="s">
+        <v>390</v>
+      </c>
+      <c r="B584" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5">
+      <c r="A585" t="s">
+        <v>379</v>
+      </c>
+      <c r="B585">
+        <v>69883747441</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5">
+      <c r="A586" t="s">
+        <v>380</v>
+      </c>
+      <c r="B586">
+        <v>69548156285</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5">
+      <c r="A587" t="s">
+        <v>381</v>
+      </c>
+      <c r="B587">
+        <v>41763907932</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5">
+      <c r="A588" t="s">
+        <v>382</v>
+      </c>
+      <c r="B588" s="6">
+        <v>27784248353</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5">
+      <c r="A589" t="s">
+        <v>383</v>
+      </c>
+      <c r="B589">
+        <v>1583476261</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="A590" t="s">
+        <v>384</v>
+      </c>
+      <c r="B590">
+        <v>326967875</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5">
+      <c r="A591" t="s">
+        <v>385</v>
+      </c>
+      <c r="B591">
+        <v>306964426</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5">
+      <c r="A592" t="s">
+        <v>386</v>
+      </c>
+      <c r="B592">
+        <v>239767545</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5">
+      <c r="A593" t="s">
+        <v>387</v>
+      </c>
+      <c r="B593" s="6">
+        <v>709776415</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5">
+      <c r="A594" t="s">
+        <v>390</v>
+      </c>
+      <c r="B594" t="s">
+        <v>4</v>
+      </c>
+      <c r="C594" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5">
+      <c r="A595" t="s">
+        <v>379</v>
+      </c>
+      <c r="B595">
+        <v>370361620</v>
+      </c>
+      <c r="D595">
+        <f>B585-B595</f>
+        <v>69513385821</v>
+      </c>
+      <c r="E595">
+        <v>69513385821</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5">
+      <c r="A596" t="s">
+        <v>380</v>
+      </c>
+      <c r="B596">
+        <v>116283658</v>
+      </c>
+      <c r="D596">
+        <f t="shared" ref="D596:D603" si="27">B586-B596</f>
+        <v>69431872627</v>
+      </c>
+      <c r="E596">
+        <v>69431872627</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5">
+      <c r="A597" t="s">
+        <v>381</v>
+      </c>
+      <c r="B597">
+        <v>25012306</v>
+      </c>
+      <c r="D597">
+        <f t="shared" si="27"/>
+        <v>41738895626</v>
+      </c>
+      <c r="E597">
+        <v>41738895626</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5">
+      <c r="A598" t="s">
+        <v>382</v>
+      </c>
+      <c r="B598" s="6">
+        <v>91271352</v>
+      </c>
+      <c r="D598">
+        <f t="shared" si="27"/>
+        <v>27692977001</v>
+      </c>
+      <c r="E598">
+        <v>27692977001</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5">
+      <c r="A599" t="s">
+        <v>383</v>
+      </c>
+      <c r="B599">
+        <v>249772884</v>
+      </c>
+      <c r="D599">
+        <f t="shared" si="27"/>
+        <v>1333703377</v>
+      </c>
+      <c r="E599">
+        <v>1333703377</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5">
+      <c r="A600" t="s">
+        <v>384</v>
+      </c>
+      <c r="B600">
+        <v>186501043</v>
+      </c>
+      <c r="D600">
+        <f t="shared" si="27"/>
+        <v>140466832</v>
+      </c>
+      <c r="E600">
+        <v>140466832</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5">
+      <c r="A601" t="s">
+        <v>385</v>
+      </c>
+      <c r="B601">
+        <v>5451898</v>
+      </c>
+      <c r="D601">
+        <f t="shared" si="27"/>
+        <v>301512528</v>
+      </c>
+      <c r="E601">
+        <v>301512528</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5">
+      <c r="A602" t="s">
+        <v>386</v>
+      </c>
+      <c r="B602">
+        <v>42792897</v>
+      </c>
+      <c r="D602">
+        <f t="shared" si="27"/>
+        <v>196974648</v>
+      </c>
+      <c r="E602">
+        <v>196974648</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5">
+      <c r="A603" t="s">
+        <v>387</v>
+      </c>
+      <c r="B603" s="6">
+        <v>15027046</v>
+      </c>
+      <c r="D603">
+        <f t="shared" si="27"/>
+        <v>694749369</v>
+      </c>
+      <c r="E603">
+        <v>694749369</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5">
+      <c r="A604" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="A605" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="A606" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5">
+      <c r="A607" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5">
+      <c r="A608" t="s">
+        <v>379</v>
+      </c>
+      <c r="B608">
+        <v>66722865605</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5">
+      <c r="A609" t="s">
+        <v>380</v>
+      </c>
+      <c r="B609">
+        <v>63929153851</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5">
+      <c r="A610" t="s">
+        <v>381</v>
+      </c>
+      <c r="B610">
+        <v>14637477915</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5">
+      <c r="A611" t="s">
+        <v>382</v>
+      </c>
+      <c r="B611" s="6">
+        <v>49291675936</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5">
+      <c r="A612" t="s">
+        <v>383</v>
+      </c>
+      <c r="B612">
+        <v>4423080289</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5">
+      <c r="A613" t="s">
+        <v>384</v>
+      </c>
+      <c r="B613">
+        <v>2345828592</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5">
+      <c r="A614" t="s">
+        <v>385</v>
+      </c>
+      <c r="B614">
+        <v>802675266</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5">
+      <c r="A615" t="s">
+        <v>386</v>
+      </c>
+      <c r="B615">
+        <v>343654944</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5">
+      <c r="A616" t="s">
+        <v>387</v>
+      </c>
+      <c r="B616" s="6">
+        <v>930921487</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5">
+      <c r="A617" t="s">
+        <v>4</v>
+      </c>
+      <c r="B617" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5">
+      <c r="A618" t="s">
+        <v>379</v>
+      </c>
+      <c r="B618">
+        <v>2988450380</v>
+      </c>
+      <c r="D618">
+        <f>B608-B618</f>
+        <v>63734415225</v>
+      </c>
+      <c r="E618">
+        <v>63734415225</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5">
+      <c r="A619" t="s">
+        <v>380</v>
+      </c>
+      <c r="B619">
+        <v>1162904109</v>
+      </c>
+      <c r="D619">
+        <f t="shared" ref="D619:D626" si="28">B609-B619</f>
+        <v>62766249742</v>
+      </c>
+      <c r="E619">
+        <v>62766249742</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5">
+      <c r="A620" t="s">
+        <v>381</v>
+      </c>
+      <c r="B620">
+        <v>291722287</v>
+      </c>
+      <c r="D620">
+        <f t="shared" si="28"/>
+        <v>14345755628</v>
+      </c>
+      <c r="E620">
+        <v>14345755628</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
+      <c r="A621" t="s">
+        <v>382</v>
+      </c>
+      <c r="B621" s="6">
+        <v>871181822</v>
+      </c>
+      <c r="D621">
+        <f t="shared" si="28"/>
+        <v>48420494114</v>
+      </c>
+      <c r="E621">
+        <v>48420494114</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5">
+      <c r="A622" t="s">
+        <v>383</v>
+      </c>
+      <c r="B622">
+        <v>1844271056</v>
+      </c>
+      <c r="D622">
+        <f t="shared" si="28"/>
+        <v>2578809233</v>
+      </c>
+      <c r="E622">
+        <v>2578809233</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5">
+      <c r="A623" t="s">
+        <v>384</v>
+      </c>
+      <c r="B623">
+        <v>1342871484</v>
+      </c>
+      <c r="D623">
+        <f t="shared" si="28"/>
+        <v>1002957108</v>
+      </c>
+      <c r="E623">
+        <v>1002957108</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5">
+      <c r="A624" t="s">
+        <v>385</v>
+      </c>
+      <c r="B624">
+        <v>364959687</v>
+      </c>
+      <c r="D624">
+        <f t="shared" si="28"/>
+        <v>437715579</v>
+      </c>
+      <c r="E624">
+        <v>437715579</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5">
+      <c r="A625" t="s">
+        <v>386</v>
+      </c>
+      <c r="B625">
+        <v>88638078</v>
+      </c>
+      <c r="D625">
+        <f t="shared" si="28"/>
+        <v>255016866</v>
+      </c>
+      <c r="E625">
+        <v>255016866</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5">
+      <c r="A626" t="s">
+        <v>387</v>
+      </c>
+      <c r="B626" s="6">
+        <v>47801807</v>
+      </c>
+      <c r="D626">
+        <f t="shared" si="28"/>
+        <v>883119680</v>
+      </c>
+      <c r="E626">
+        <v>883119680</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5">
+      <c r="A627" t="s">
+        <v>390</v>
+      </c>
+      <c r="B627" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5">
+      <c r="A628" t="s">
+        <v>379</v>
+      </c>
+      <c r="B628">
+        <v>45176177461</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="A629" t="s">
+        <v>380</v>
+      </c>
+      <c r="B629">
+        <v>45221912238</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="A630" t="s">
+        <v>381</v>
+      </c>
+      <c r="B630">
+        <v>2919408785</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5">
+      <c r="A631" t="s">
+        <v>382</v>
+      </c>
+      <c r="B631" s="6">
+        <v>42302503453</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="A632" t="s">
+        <v>383</v>
+      </c>
+      <c r="B632">
+        <v>1923486769</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="A633" t="s">
+        <v>384</v>
+      </c>
+      <c r="B633">
+        <v>1130616744</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5">
+      <c r="A634" t="s">
+        <v>385</v>
+      </c>
+      <c r="B634">
+        <v>430729040</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5">
+      <c r="A635" t="s">
+        <v>386</v>
+      </c>
+      <c r="B635">
+        <v>180560020</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5">
+      <c r="A636" t="s">
+        <v>387</v>
+      </c>
+      <c r="B636" s="6">
+        <v>181580965</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="A637" t="s">
+        <v>390</v>
+      </c>
+      <c r="B637" t="s">
+        <v>4</v>
+      </c>
+      <c r="C637" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5">
+      <c r="A638" t="s">
+        <v>379</v>
+      </c>
+      <c r="B638">
+        <v>399511351</v>
+      </c>
+      <c r="D638">
+        <f>B628-B638</f>
+        <v>44776666110</v>
+      </c>
+      <c r="E638">
+        <v>44776666110</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="A639" t="s">
+        <v>380</v>
+      </c>
+      <c r="B639">
+        <v>118178169</v>
+      </c>
+      <c r="D639">
+        <f t="shared" ref="D639:D646" si="29">B629-B639</f>
+        <v>45103734069</v>
+      </c>
+      <c r="E639">
+        <v>45103734069</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="A640" t="s">
+        <v>381</v>
+      </c>
+      <c r="B640">
+        <v>29251072</v>
+      </c>
+      <c r="D640">
+        <f t="shared" si="29"/>
+        <v>2890157713</v>
+      </c>
+      <c r="E640">
+        <v>2890157713</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5">
+      <c r="A641" t="s">
+        <v>382</v>
+      </c>
+      <c r="B641" s="6">
+        <v>88927097</v>
+      </c>
+      <c r="D641">
+        <f t="shared" si="29"/>
+        <v>42213576356</v>
+      </c>
+      <c r="E641">
+        <v>42213576356</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5">
+      <c r="A642" t="s">
+        <v>383</v>
+      </c>
+      <c r="B642">
+        <v>289484063</v>
+      </c>
+      <c r="D642">
+        <f t="shared" si="29"/>
+        <v>1634002706</v>
+      </c>
+      <c r="E642">
+        <v>1634002706</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5">
+      <c r="A643" t="s">
+        <v>384</v>
+      </c>
+      <c r="B643">
+        <v>222843872</v>
+      </c>
+      <c r="D643">
+        <f t="shared" si="29"/>
+        <v>907772872</v>
+      </c>
+      <c r="E643">
+        <v>907772872</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5">
+      <c r="A644" t="s">
+        <v>385</v>
+      </c>
+      <c r="B644">
+        <v>5238339</v>
+      </c>
+      <c r="D644">
+        <f t="shared" si="29"/>
+        <v>425490701</v>
+      </c>
+      <c r="E644">
+        <v>425490701</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5">
+      <c r="A645" t="s">
+        <v>386</v>
+      </c>
+      <c r="B645">
+        <v>26512635</v>
+      </c>
+      <c r="D645">
+        <f t="shared" si="29"/>
+        <v>154047385</v>
+      </c>
+      <c r="E645">
+        <v>154047385</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5">
+      <c r="A646" t="s">
+        <v>387</v>
+      </c>
+      <c r="B646" s="6">
+        <v>34889217</v>
+      </c>
+      <c r="D646">
+        <f t="shared" si="29"/>
+        <v>146691748</v>
+      </c>
+      <c r="E646">
+        <v>146691748</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="50.5" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>370</v>
+      </c>
+      <c r="B1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>393</v>
+      </c>
+      <c r="B2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2">
+        <v>96823446998</v>
+      </c>
+      <c r="D2">
+        <v>59655557477</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="8" t="s">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3">
+        <v>79778731885</v>
+      </c>
+      <c r="D3">
+        <v>65515252443</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4" s="5">
-        <v>98550789721</v>
+      <c r="B4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4">
+        <v>44651870248</v>
+      </c>
+      <c r="D4">
+        <v>21922349884</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>379</v>
-      </c>
-      <c r="B5" s="5">
-        <v>80824433794</v>
+      <c r="B5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5">
+        <v>35126861637</v>
+      </c>
+      <c r="D5">
+        <v>43592902559</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B6" s="5">
-        <v>44859484877</v>
+      <c r="B6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6">
+        <v>969530311</v>
+      </c>
+      <c r="D6">
+        <v>1656647554</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B7" s="7">
-        <v>35964948917</v>
+      <c r="B7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7">
+        <v>196911623</v>
+      </c>
+      <c r="D7">
+        <v>240660405</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1695754759</v>
-      </c>
-      <c r="C8" t="s">
-        <v>378</v>
-      </c>
-      <c r="D8" t="s">
-        <v>378</v>
+      <c r="B8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8">
+        <v>276669105</v>
+      </c>
+      <c r="D8">
+        <v>304661604</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>383</v>
-      </c>
-      <c r="B9" s="5">
-        <v>493965751</v>
-      </c>
-      <c r="C9" t="s">
-        <v>378</v>
-      </c>
-      <c r="D9" t="s">
-        <v>378</v>
+      <c r="B9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9">
+        <v>237667898</v>
+      </c>
+      <c r="D9">
+        <v>470288218</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>384</v>
-      </c>
-      <c r="B10" s="5">
-        <v>446101625</v>
-      </c>
-      <c r="C10" t="s">
-        <v>378</v>
-      </c>
-      <c r="D10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>385</v>
-      </c>
-      <c r="B11" s="5">
-        <v>325890614</v>
-      </c>
-      <c r="C11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D11" t="s">
-        <v>378</v>
+      <c r="B10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10">
+        <v>258281685</v>
+      </c>
+      <c r="D10">
+        <v>641037327</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>394</v>
+      </c>
+      <c r="B12" t="s">
+        <v>379</v>
+      </c>
+      <c r="C12">
+        <v>15000788104</v>
+      </c>
+      <c r="D12">
+        <v>14965064917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13">
+        <v>11806406138</v>
+      </c>
+      <c r="D13">
+        <v>11482700125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14">
+        <v>935563099</v>
+      </c>
+      <c r="D14">
+        <v>722154169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15">
+        <v>10870843039</v>
+      </c>
+      <c r="D15">
+        <v>10760545956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16">
+        <v>3378869371</v>
+      </c>
+      <c r="D16">
+        <v>3275414789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C17">
+        <v>1536217060</v>
+      </c>
+      <c r="D17">
+        <v>1496878521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18">
+        <v>281261912</v>
+      </c>
+      <c r="D18">
+        <v>303577983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" t="s">
         <v>386</v>
       </c>
-      <c r="B12" s="7">
-        <v>429796769</v>
-      </c>
-      <c r="C12" t="s">
-        <v>378</v>
-      </c>
-      <c r="D12" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13" t="s">
-        <v>378</v>
-      </c>
-      <c r="D13" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" t="s">
-        <v>378</v>
-      </c>
-      <c r="D14" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="C15" t="s">
-        <v>378</v>
-      </c>
-      <c r="D15" t="s">
-        <v>378</v>
-      </c>
+      <c r="C19">
+        <v>107371106</v>
+      </c>
+      <c r="D19">
+        <v>213768200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" t="s">
+        <v>387</v>
+      </c>
+      <c r="C20">
+        <v>1454019293</v>
+      </c>
+      <c r="D20">
+        <v>1261190085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>395</v>
+      </c>
+      <c r="B22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22">
+        <v>14956518295</v>
+      </c>
+      <c r="D22">
+        <v>14724989219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
+        <v>380</v>
+      </c>
+      <c r="C23">
+        <v>11798791990</v>
+      </c>
+      <c r="D23">
+        <v>11653254818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24">
+        <v>794810637</v>
+      </c>
+      <c r="D24">
+        <v>710675665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" t="s">
+        <v>382</v>
+      </c>
+      <c r="C25">
+        <v>11003981353</v>
+      </c>
+      <c r="D25">
+        <v>10942579153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C26">
+        <v>3318334859</v>
+      </c>
+      <c r="D26">
+        <v>3187216172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" t="s">
+        <v>384</v>
+      </c>
+      <c r="C27">
+        <v>1523429304</v>
+      </c>
+      <c r="D27">
+        <v>1563597947</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C28">
+        <v>278801748</v>
+      </c>
+      <c r="D28">
+        <v>297999605</v>
+      </c>
+      <c r="H28" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" t="s">
+        <v>386</v>
+      </c>
+      <c r="C29">
+        <v>116962688</v>
+      </c>
+      <c r="D29">
+        <v>124234157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" t="s">
+        <v>387</v>
+      </c>
+      <c r="C30">
+        <v>1399141119</v>
+      </c>
+      <c r="D30">
+        <v>1201384463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C32">
+        <v>53444008334</v>
+      </c>
+      <c r="D32">
+        <v>70982477581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" t="s">
+        <v>380</v>
+      </c>
+      <c r="C33">
+        <v>52815077778</v>
+      </c>
+      <c r="D33">
+        <v>69168831575</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" t="s">
+        <v>381</v>
+      </c>
+      <c r="C34">
+        <v>28849987576</v>
+      </c>
+      <c r="D34">
+        <v>42950624966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" t="s">
+        <v>382</v>
+      </c>
+      <c r="C35">
+        <v>23965090202</v>
+      </c>
+      <c r="D35">
+        <v>26218206609</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" t="s">
+        <v>383</v>
+      </c>
+      <c r="C36">
+        <v>742250849</v>
+      </c>
+      <c r="D36">
+        <v>1325371393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" t="s">
+        <v>384</v>
+      </c>
+      <c r="C37">
+        <v>103676497</v>
+      </c>
+      <c r="D37">
+        <v>100812372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" t="s">
+        <v>385</v>
+      </c>
+      <c r="C38">
+        <v>246517287</v>
+      </c>
+      <c r="D38">
+        <v>327197827</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" t="s">
+        <v>386</v>
+      </c>
+      <c r="C39">
+        <v>134117249</v>
+      </c>
+      <c r="D39">
+        <v>175321570</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" t="s">
+        <v>387</v>
+      </c>
+      <c r="C40">
+        <v>257939816</v>
+      </c>
+      <c r="D40">
+        <v>722039624</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>396</v>
+      </c>
+      <c r="B42" t="s">
+        <v>379</v>
+      </c>
+      <c r="C42">
+        <v>11589134651</v>
+      </c>
+      <c r="D42">
+        <v>11763313646</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" t="s">
+        <v>380</v>
+      </c>
+      <c r="C43">
+        <v>10976624288</v>
+      </c>
+      <c r="D43">
+        <v>11109359710</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" t="s">
+        <v>381</v>
+      </c>
+      <c r="C44">
+        <v>2173417022</v>
+      </c>
+      <c r="D44">
+        <v>2318312550</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C45">
+        <v>8803207266</v>
+      </c>
+      <c r="D45">
+        <v>8791047160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="B46" t="s">
+        <v>383</v>
+      </c>
+      <c r="C46">
+        <v>654904090</v>
+      </c>
+      <c r="D46">
+        <v>721744357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" t="s">
+        <v>384</v>
+      </c>
+      <c r="C47">
+        <v>505692432</v>
+      </c>
+      <c r="D47">
+        <v>566266312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" t="s">
+        <v>385</v>
+      </c>
+      <c r="C48">
+        <v>16060227</v>
+      </c>
+      <c r="D48">
+        <v>19656402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="B49" t="s">
+        <v>386</v>
+      </c>
+      <c r="C49">
+        <v>61866357</v>
+      </c>
+      <c r="D49">
+        <v>61126716</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="B50" t="s">
+        <v>387</v>
+      </c>
+      <c r="C50">
+        <v>71285074</v>
+      </c>
+      <c r="D50">
+        <v>74694927</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>397</v>
+      </c>
+      <c r="B52" t="s">
+        <v>379</v>
+      </c>
+      <c r="C52">
+        <v>84973262446</v>
+      </c>
+      <c r="D52">
+        <v>68296039986</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" t="s">
+        <v>380</v>
+      </c>
+      <c r="C53">
+        <v>80370745035</v>
+      </c>
+      <c r="D53">
+        <v>84677754491</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" t="s">
+        <v>381</v>
+      </c>
+      <c r="C54">
+        <v>39769420401</v>
+      </c>
+      <c r="D54">
+        <v>21956567490</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" t="s">
+        <v>382</v>
+      </c>
+      <c r="C55">
+        <v>40601324634</v>
+      </c>
+      <c r="D55">
+        <v>62721187001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56" t="s">
+        <v>383</v>
+      </c>
+      <c r="C56">
+        <v>792602746</v>
+      </c>
+      <c r="D56">
+        <v>1703931287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" t="s">
+        <v>384</v>
+      </c>
+      <c r="C57">
+        <v>182917002</v>
+      </c>
+      <c r="D57">
+        <v>105032789</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" t="s">
+        <v>385</v>
+      </c>
+      <c r="C58">
+        <v>287337539</v>
+      </c>
+      <c r="D58">
+        <v>300189628</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="B59" t="s">
+        <v>386</v>
+      </c>
+      <c r="C59">
+        <v>226997597</v>
+      </c>
+      <c r="D59">
+        <v>587207692</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" t="s">
+        <v>387</v>
+      </c>
+      <c r="C60">
+        <v>95350608</v>
+      </c>
+      <c r="D60">
+        <v>711501178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>398</v>
+      </c>
+      <c r="B62" t="s">
+        <v>379</v>
+      </c>
+      <c r="C62">
+        <v>51816150065</v>
+      </c>
+      <c r="D62">
+        <v>67754833523</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="B63" t="s">
+        <v>380</v>
+      </c>
+      <c r="C63">
+        <v>51471532542</v>
+      </c>
+      <c r="D63">
+        <v>66115820405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" t="s">
+        <v>381</v>
+      </c>
+      <c r="C64">
+        <v>27795383490</v>
+      </c>
+      <c r="D64">
+        <v>41380958044</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="B65" t="s">
+        <v>382</v>
+      </c>
+      <c r="C65">
+        <v>23676149052</v>
+      </c>
+      <c r="D65">
+        <v>24734862361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="B66" t="s">
+        <v>383</v>
+      </c>
+      <c r="C66">
+        <v>708653588</v>
+      </c>
+      <c r="D66">
+        <v>1139740303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="B67" t="s">
+        <v>384</v>
+      </c>
+      <c r="C67">
+        <v>98677218</v>
+      </c>
+      <c r="D67">
+        <v>153626898</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="B68" t="s">
+        <v>385</v>
+      </c>
+      <c r="C68">
+        <v>238927533</v>
+      </c>
+      <c r="D68">
+        <v>296036920</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69" t="s">
+        <v>386</v>
+      </c>
+      <c r="C69">
+        <v>122949716</v>
+      </c>
+      <c r="D69">
+        <v>143961722</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="B70" t="s">
+        <v>387</v>
+      </c>
+      <c r="C70">
+        <v>248099121</v>
+      </c>
+      <c r="D70">
+        <v>546114763</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>399</v>
+      </c>
+      <c r="B72" t="s">
+        <v>379</v>
+      </c>
+      <c r="C72">
+        <v>53408381302</v>
+      </c>
+      <c r="D72">
+        <v>74790930551</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73" t="s">
+        <v>380</v>
+      </c>
+      <c r="C73">
+        <v>53581592326</v>
+      </c>
+      <c r="D73">
+        <v>75177236176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="B74" t="s">
+        <v>381</v>
+      </c>
+      <c r="C74">
+        <v>29006613026</v>
+      </c>
+      <c r="D74">
+        <v>45910140086</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="B75" t="s">
+        <v>382</v>
+      </c>
+      <c r="C75">
+        <v>24574979300</v>
+      </c>
+      <c r="D75">
+        <v>29267096090</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="B76" t="s">
+        <v>383</v>
+      </c>
+      <c r="C76">
+        <v>735707377</v>
+      </c>
+      <c r="D76">
+        <v>1316875442</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="B77" t="s">
+        <v>384</v>
+      </c>
+      <c r="C77">
+        <v>98194096</v>
+      </c>
+      <c r="D77">
+        <v>128422641</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" t="s">
+        <v>385</v>
+      </c>
+      <c r="C78">
+        <v>233380808</v>
+      </c>
+      <c r="D78">
+        <v>328485626</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="B79" t="s">
+        <v>386</v>
+      </c>
+      <c r="C79">
+        <v>133793482</v>
+      </c>
+      <c r="D79">
+        <v>198215118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="B80" t="s">
+        <v>387</v>
+      </c>
+      <c r="C80">
+        <v>270338991</v>
+      </c>
+      <c r="D80">
+        <v>661752057</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>379</v>
+      </c>
+      <c r="C82">
+        <v>53967871539</v>
+      </c>
+      <c r="D82">
+        <v>78209961199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="B83" t="s">
+        <v>380</v>
+      </c>
+      <c r="C83">
+        <v>52152276424</v>
+      </c>
+      <c r="D83">
+        <v>75608838999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="B84" t="s">
+        <v>381</v>
+      </c>
+      <c r="C84">
+        <v>28974838242</v>
+      </c>
+      <c r="D84">
+        <v>47072786365</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="B85" t="s">
+        <v>382</v>
+      </c>
+      <c r="C85">
+        <v>23177438182</v>
+      </c>
+      <c r="D85">
+        <v>28536052634</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="B86" t="s">
+        <v>383</v>
+      </c>
+      <c r="C86">
+        <v>723115409</v>
+      </c>
+      <c r="D86">
+        <v>1339213903</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="B87" t="s">
+        <v>384</v>
+      </c>
+      <c r="C87">
+        <v>99313385</v>
+      </c>
+      <c r="D87">
+        <v>168751108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88" t="s">
+        <v>385</v>
+      </c>
+      <c r="C88">
+        <v>233763466</v>
+      </c>
+      <c r="D88">
+        <v>338217643</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="B89" t="s">
+        <v>386</v>
+      </c>
+      <c r="C89">
+        <v>133051446</v>
+      </c>
+      <c r="D89">
+        <v>131975085</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="B90" t="s">
+        <v>387</v>
+      </c>
+      <c r="C90">
+        <v>256987112</v>
+      </c>
+      <c r="D90">
+        <v>700270067</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>400</v>
+      </c>
+      <c r="B92" t="s">
+        <v>379</v>
+      </c>
+      <c r="C92">
+        <v>11836665740</v>
+      </c>
+      <c r="D92">
+        <v>11676938139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="B93" t="s">
+        <v>380</v>
+      </c>
+      <c r="C93">
+        <v>8584568852</v>
+      </c>
+      <c r="D93">
+        <v>8632570910</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="B94" t="s">
+        <v>381</v>
+      </c>
+      <c r="C94">
+        <v>283909679</v>
+      </c>
+      <c r="D94">
+        <v>276419069</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="B95" t="s">
+        <v>382</v>
+      </c>
+      <c r="C95">
+        <v>8300659173</v>
+      </c>
+      <c r="D95">
+        <v>8356151841</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="B96" t="s">
+        <v>383</v>
+      </c>
+      <c r="C96">
+        <v>3146714871</v>
+      </c>
+      <c r="D96">
+        <v>3112592305</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="B97" t="s">
+        <v>384</v>
+      </c>
+      <c r="C97">
+        <v>1794260352</v>
+      </c>
+      <c r="D97">
+        <v>1564029501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="B98" t="s">
+        <v>385</v>
+      </c>
+      <c r="C98">
+        <v>114663728</v>
+      </c>
+      <c r="D98">
+        <v>167029967</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="B99" t="s">
+        <v>386</v>
+      </c>
+      <c r="C99">
+        <v>204098019</v>
+      </c>
+      <c r="D99">
+        <v>255078305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="B100" t="s">
+        <v>387</v>
+      </c>
+      <c r="C100">
+        <v>1033692772</v>
+      </c>
+      <c r="D100">
+        <v>1126454532</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B102" t="s">
+        <v>379</v>
+      </c>
+      <c r="C102">
+        <v>80294981125</v>
+      </c>
+      <c r="D102">
+        <v>68200644646</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="2"/>
+      <c r="B103" t="s">
+        <v>380</v>
+      </c>
+      <c r="C103">
+        <v>84598990298</v>
+      </c>
+      <c r="D103">
+        <v>43434705715</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2"/>
+      <c r="B104" t="s">
+        <v>381</v>
+      </c>
+      <c r="C104">
+        <v>38733255021</v>
+      </c>
+      <c r="D104">
+        <v>32605655559</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2"/>
+      <c r="B105" t="s">
+        <v>382</v>
+      </c>
+      <c r="C105">
+        <v>45865735277</v>
+      </c>
+      <c r="D105">
+        <v>10829050156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="2"/>
+      <c r="B106" t="s">
+        <v>383</v>
+      </c>
+      <c r="C106">
+        <v>960968156</v>
+      </c>
+      <c r="D106">
+        <v>1385685293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2"/>
+      <c r="B107" t="s">
+        <v>384</v>
+      </c>
+      <c r="C107">
+        <v>165400964</v>
+      </c>
+      <c r="D107">
+        <v>227379057</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2"/>
+      <c r="B108" t="s">
+        <v>385</v>
+      </c>
+      <c r="C108">
+        <v>276692789</v>
+      </c>
+      <c r="D108">
+        <v>318768647</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="2"/>
+      <c r="B109" t="s">
+        <v>386</v>
+      </c>
+      <c r="C109">
+        <v>239934256</v>
+      </c>
+      <c r="D109">
+        <v>309442958</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="2"/>
+      <c r="B110" t="s">
+        <v>387</v>
+      </c>
+      <c r="C110">
+        <v>278940147</v>
+      </c>
+      <c r="D110">
+        <v>530094631</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B112" t="s">
+        <v>379</v>
+      </c>
+      <c r="C112">
+        <v>53434025259</v>
+      </c>
+      <c r="D112">
+        <v>69366081699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="2"/>
+      <c r="B113" t="s">
+        <v>380</v>
+      </c>
+      <c r="C113">
+        <v>53156067137</v>
+      </c>
+      <c r="D113">
+        <v>68985363063</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2"/>
+      <c r="B114" t="s">
+        <v>381</v>
+      </c>
+      <c r="C114">
+        <v>28516765508</v>
+      </c>
+      <c r="D114">
+        <v>41209797514</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="2"/>
+      <c r="B115" t="s">
+        <v>382</v>
+      </c>
+      <c r="C115">
+        <v>24639301629</v>
+      </c>
+      <c r="D115">
+        <v>27775565549</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2"/>
+      <c r="B116" t="s">
+        <v>383</v>
+      </c>
+      <c r="C116">
+        <v>707006750</v>
+      </c>
+      <c r="D116">
+        <v>1277191784</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2"/>
+      <c r="B117" t="s">
+        <v>384</v>
+      </c>
+      <c r="C117">
+        <v>92057738</v>
+      </c>
+      <c r="D117">
+        <v>144920588</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2"/>
+      <c r="B118" t="s">
+        <v>385</v>
+      </c>
+      <c r="C118">
+        <v>243416224</v>
+      </c>
+      <c r="D118">
+        <v>321355951</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2"/>
+      <c r="B119" t="s">
+        <v>386</v>
+      </c>
+      <c r="C119">
+        <v>118799845</v>
+      </c>
+      <c r="D119">
+        <v>178195622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="2"/>
+      <c r="B120" t="s">
+        <v>387</v>
+      </c>
+      <c r="C120">
+        <v>252732943</v>
+      </c>
+      <c r="D120">
+        <v>632719623</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="2"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B122" t="s">
+        <v>379</v>
+      </c>
+      <c r="C122">
+        <v>54150476173</v>
+      </c>
+      <c r="D122">
+        <v>71049210305</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="2"/>
+      <c r="B123" t="s">
+        <v>380</v>
+      </c>
+      <c r="C123">
+        <v>53850919424</v>
+      </c>
+      <c r="D123">
+        <v>68147358853</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="2"/>
+      <c r="B124" t="s">
+        <v>381</v>
+      </c>
+      <c r="C124">
+        <v>29257788931</v>
+      </c>
+      <c r="D124">
+        <v>42184376230</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="2"/>
+      <c r="B125" t="s">
+        <v>382</v>
+      </c>
+      <c r="C125">
+        <v>24593130493</v>
+      </c>
+      <c r="D125">
+        <v>25962982623</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="2"/>
+      <c r="B126" t="s">
+        <v>383</v>
+      </c>
+      <c r="C126">
+        <v>689861580</v>
+      </c>
+      <c r="D126">
+        <v>1355399711</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2"/>
+      <c r="B127" t="s">
+        <v>384</v>
+      </c>
+      <c r="C127">
+        <v>106174341</v>
+      </c>
+      <c r="D127">
+        <v>147286894</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2"/>
+      <c r="B128" t="s">
+        <v>385</v>
+      </c>
+      <c r="C128">
+        <v>235940598</v>
+      </c>
+      <c r="D128">
+        <v>345013370</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2"/>
+      <c r="B129" t="s">
+        <v>386</v>
+      </c>
+      <c r="C129">
+        <v>121560132</v>
+      </c>
+      <c r="D129">
+        <v>174723163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2"/>
+      <c r="B130" t="s">
+        <v>387</v>
+      </c>
+      <c r="C130">
+        <v>226186509</v>
+      </c>
+      <c r="D130">
+        <v>688376284</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132" t="s">
+        <v>379</v>
+      </c>
+      <c r="C132">
+        <v>54001837802</v>
+      </c>
+      <c r="D132">
+        <v>69513385821</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="2"/>
+      <c r="B133" t="s">
+        <v>380</v>
+      </c>
+      <c r="C133">
+        <v>50862488361</v>
+      </c>
+      <c r="D133">
+        <v>69431872627</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="2"/>
+      <c r="B134" t="s">
+        <v>381</v>
+      </c>
+      <c r="C134">
+        <v>29192186624</v>
+      </c>
+      <c r="D134">
+        <v>41738895626</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="2"/>
+      <c r="B135" t="s">
+        <v>382</v>
+      </c>
+      <c r="C135">
+        <v>21670301737</v>
+      </c>
+      <c r="D135">
+        <v>27692977001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="2"/>
+      <c r="B136" t="s">
+        <v>383</v>
+      </c>
+      <c r="C136">
+        <v>694810855</v>
+      </c>
+      <c r="D136">
+        <v>1333703377</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="2"/>
+      <c r="B137" t="s">
+        <v>384</v>
+      </c>
+      <c r="C137">
+        <v>99308749</v>
+      </c>
+      <c r="D137">
+        <v>140466832</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="2"/>
+      <c r="B138" t="s">
+        <v>385</v>
+      </c>
+      <c r="C138">
+        <v>235808912</v>
+      </c>
+      <c r="D138">
+        <v>301512528</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="2"/>
+      <c r="B139" t="s">
+        <v>386</v>
+      </c>
+      <c r="C139">
+        <v>129458498</v>
+      </c>
+      <c r="D139">
+        <v>196974648</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2"/>
+      <c r="B140" t="s">
+        <v>387</v>
+      </c>
+      <c r="C140">
+        <v>230234696</v>
+      </c>
+      <c r="D140">
+        <v>694749369</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B142" t="s">
+        <v>379</v>
+      </c>
+      <c r="C142">
+        <v>63734415225</v>
+      </c>
+      <c r="D142">
+        <v>44776666110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2"/>
+      <c r="B143" t="s">
+        <v>380</v>
+      </c>
+      <c r="C143">
+        <v>62766249742</v>
+      </c>
+      <c r="D143">
+        <v>45103734069</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="2"/>
+      <c r="B144" t="s">
+        <v>381</v>
+      </c>
+      <c r="C144">
+        <v>14345755628</v>
+      </c>
+      <c r="D144">
+        <v>2890157713</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2"/>
+      <c r="B145" t="s">
+        <v>382</v>
+      </c>
+      <c r="C145">
+        <v>48420494114</v>
+      </c>
+      <c r="D145">
+        <v>42213576356</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2"/>
+      <c r="B146" t="s">
+        <v>383</v>
+      </c>
+      <c r="C146">
+        <v>2578809233</v>
+      </c>
+      <c r="D146">
+        <v>1634002706</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2"/>
+      <c r="B147" t="s">
+        <v>384</v>
+      </c>
+      <c r="C147">
+        <v>1002957108</v>
+      </c>
+      <c r="D147">
+        <v>907772872</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2"/>
+      <c r="B148" t="s">
+        <v>385</v>
+      </c>
+      <c r="C148">
+        <v>437715579</v>
+      </c>
+      <c r="D148">
+        <v>425490701</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2"/>
+      <c r="B149" t="s">
+        <v>386</v>
+      </c>
+      <c r="C149">
+        <v>255016866</v>
+      </c>
+      <c r="D149">
+        <v>154047385</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2"/>
+      <c r="B150" t="s">
+        <v>387</v>
+      </c>
+      <c r="C150">
+        <v>883119680</v>
+      </c>
+      <c r="D150">
+        <v>146691748</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="2"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="2"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="2"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="2"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="2"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="2"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="2"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="2"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="2"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="2"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="2"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="2"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="2"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="2"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="2"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="2"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="2"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="2"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="2"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="2"/>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="2"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="2"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="2"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="2"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="2"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="2"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="2"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="2"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="2"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="2"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="2"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="2"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="2"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="2"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="2"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="2"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="2"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="2"/>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="2"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="2"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="20" windowWidth="27320" windowHeight="14340" tabRatio="798" activeTab="6"/>
+    <workbookView xWindow="40" yWindow="20" windowWidth="32100" windowHeight="18040" tabRatio="798" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_timings.txt" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11554" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11555" uniqueCount="407">
   <si>
     <t>----------------------</t>
   </si>
@@ -1260,18 +1260,27 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Improvement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1324,333 +1333,347 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="313">
+  <cellStyleXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="313" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="313">
+  <cellStyles count="326">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1807,6 +1830,12 @@
     <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1963,7 +1992,14 @@
     <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="313" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2013,7 +2049,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2278,11 +2313,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2080105416"/>
-        <c:axId val="2080110904"/>
+        <c:axId val="-2128053976"/>
+        <c:axId val="-2128047048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2080105416"/>
+        <c:axId val="-2128053976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2317,7 +2352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080110904"/>
+        <c:crossAx val="-2128047048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2325,7 +2360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080110904"/>
+        <c:axId val="-2128047048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2348,21 +2383,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080105416"/>
+        <c:crossAx val="-2128053976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2412,7 +2445,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2563,11 +2595,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2080226376"/>
-        <c:axId val="2079696712"/>
+        <c:axId val="-2127974616"/>
+        <c:axId val="-2127969048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2080226376"/>
+        <c:axId val="-2127974616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,13 +2621,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079696712"/>
+        <c:crossAx val="-2127969048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2603,7 +2634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079696712"/>
+        <c:axId val="-2127969048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2631,14 +2662,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080226376"/>
+        <c:crossAx val="-2127974616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2685,7 +2715,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2827,11 +2856,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2079726472"/>
-        <c:axId val="2079678440"/>
+        <c:axId val="-2127939784"/>
+        <c:axId val="-2127934296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2079726472"/>
+        <c:axId val="-2127939784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2853,13 +2882,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079678440"/>
+        <c:crossAx val="-2127934296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2867,7 +2895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079678440"/>
+        <c:axId val="-2127934296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2890,21 +2918,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079726472"/>
+        <c:crossAx val="-2127939784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3195,11 +3221,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2079613240"/>
-        <c:axId val="2079618920"/>
+        <c:axId val="-2127887928"/>
+        <c:axId val="-2127882232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2079613240"/>
+        <c:axId val="-2127887928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3225,13 +3251,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079618920"/>
+        <c:crossAx val="-2127882232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3239,7 +3264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079618920"/>
+        <c:axId val="-2127882232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3267,21 +3292,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079613240"/>
+        <c:crossAx val="-2127887928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3331,7 +3354,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3482,11 +3504,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2080146776"/>
-        <c:axId val="2080221976"/>
+        <c:axId val="-2127851192"/>
+        <c:axId val="-2127845624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2080146776"/>
+        <c:axId val="-2127851192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3508,13 +3530,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080221976"/>
+        <c:crossAx val="-2127845624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3522,7 +3543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080221976"/>
+        <c:axId val="-2127845624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3545,14 +3566,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080146776"/>
+        <c:crossAx val="-2127851192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3604,7 +3624,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3746,11 +3765,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2079806968"/>
-        <c:axId val="2079812472"/>
+        <c:axId val="-2127816168"/>
+        <c:axId val="-2127810664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2079806968"/>
+        <c:axId val="-2127816168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3772,13 +3791,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079812472"/>
+        <c:crossAx val="-2127810664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3786,7 +3804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079812472"/>
+        <c:axId val="-2127810664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3809,21 +3827,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079806968"/>
+        <c:crossAx val="-2127816168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4114,11 +4130,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2085574872"/>
-        <c:axId val="2090367320"/>
+        <c:axId val="-2129619928"/>
+        <c:axId val="-2129625496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2085574872"/>
+        <c:axId val="-2129619928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4140,13 +4156,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090367320"/>
+        <c:crossAx val="-2129625496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4154,7 +4169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090367320"/>
+        <c:axId val="-2129625496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4177,21 +4192,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085574872"/>
+        <c:crossAx val="-2129619928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4466,11 +4479,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2078408040"/>
-        <c:axId val="2122438168"/>
+        <c:axId val="-2129657800"/>
+        <c:axId val="-2126236328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2078408040"/>
+        <c:axId val="-2129657800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4492,13 +4505,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122438168"/>
+        <c:crossAx val="-2126236328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4506,7 +4518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122438168"/>
+        <c:axId val="-2126236328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4529,21 +4541,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078408040"/>
+        <c:crossAx val="-2129657800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4834,11 +4844,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2095269464"/>
-        <c:axId val="2096070808"/>
+        <c:axId val="-2126203656"/>
+        <c:axId val="-2126197512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2095269464"/>
+        <c:axId val="-2126203656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4889,13 +4899,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096070808"/>
+        <c:crossAx val="-2126197512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4903,7 +4912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096070808"/>
+        <c:axId val="-2126197512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4926,21 +4935,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095269464"/>
+        <c:crossAx val="-2126203656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -50961,10 +50968,10 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
@@ -51143,10 +51150,10 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="C44" s="6"/>
       <c r="N44" t="s">
         <v>367</v>
       </c>
@@ -51436,7 +51443,7 @@
       <c r="A9" t="s">
         <v>382</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>35964948917</v>
       </c>
     </row>
@@ -51476,7 +51483,7 @@
       <c r="A14" t="s">
         <v>387</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>429796769</v>
       </c>
     </row>
@@ -51537,7 +51544,7 @@
       <c r="A19" t="s">
         <v>382</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>838087280</v>
       </c>
       <c r="D19">
@@ -51612,7 +51619,7 @@
       <c r="A24" t="s">
         <v>387</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>171515084</v>
       </c>
       <c r="D24">
@@ -51659,7 +51666,7 @@
       <c r="A29" t="s">
         <v>382</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>43688498181</v>
       </c>
     </row>
@@ -51699,7 +51706,7 @@
       <c r="A34" t="s">
         <v>387</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>644595953</v>
       </c>
     </row>
@@ -51763,7 +51770,7 @@
       <c r="A39" t="s">
         <v>382</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>95595622</v>
       </c>
       <c r="D39">
@@ -51897,7 +51904,7 @@
       <c r="A52" t="s">
         <v>382</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>11486319646</v>
       </c>
     </row>
@@ -51937,7 +51944,7 @@
       <c r="A57" t="s">
         <v>387</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>1618427411</v>
       </c>
     </row>
@@ -51998,7 +52005,7 @@
       <c r="A62" t="s">
         <v>382</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="5">
         <v>615476607</v>
       </c>
       <c r="D62">
@@ -52073,7 +52080,7 @@
       <c r="A67" t="s">
         <v>387</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="5">
         <v>164408118</v>
       </c>
       <c r="D67">
@@ -52120,7 +52127,7 @@
       <c r="A72" t="s">
         <v>382</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="5">
         <v>10857012358</v>
       </c>
     </row>
@@ -52160,7 +52167,7 @@
       <c r="A77" t="s">
         <v>387</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="5">
         <v>1282958445</v>
       </c>
     </row>
@@ -52224,7 +52231,7 @@
       <c r="A82" t="s">
         <v>382</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="5">
         <v>96466402</v>
       </c>
       <c r="D82">
@@ -52299,7 +52306,7 @@
       <c r="A87" t="s">
         <v>387</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="5">
         <v>21768360</v>
       </c>
       <c r="D87">
@@ -52358,7 +52365,7 @@
       <c r="A95" t="s">
         <v>382</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="5">
         <v>11615745985</v>
       </c>
     </row>
@@ -52398,7 +52405,7 @@
       <c r="A100" t="s">
         <v>387</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="5">
         <v>1535863846</v>
       </c>
     </row>
@@ -52459,7 +52466,7 @@
       <c r="A105" t="s">
         <v>382</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="5">
         <v>611764632</v>
       </c>
       <c r="D105">
@@ -52534,7 +52541,7 @@
       <c r="A110" t="s">
         <v>387</v>
       </c>
-      <c r="B110" s="6">
+      <c r="B110" s="5">
         <v>136722727</v>
       </c>
       <c r="D110">
@@ -52581,7 +52588,7 @@
       <c r="A115" t="s">
         <v>382</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="5">
         <v>11035198199</v>
       </c>
     </row>
@@ -52621,7 +52628,7 @@
       <c r="A120" t="s">
         <v>387</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="5">
         <v>1221547545</v>
       </c>
     </row>
@@ -52685,7 +52692,7 @@
       <c r="A125" t="s">
         <v>382</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B125" s="5">
         <v>92619046</v>
       </c>
       <c r="D125">
@@ -52760,7 +52767,7 @@
       <c r="A130" t="s">
         <v>387</v>
       </c>
-      <c r="B130" s="6">
+      <c r="B130" s="5">
         <v>20163082</v>
       </c>
       <c r="D130">
@@ -52819,7 +52826,7 @@
       <c r="A138" t="s">
         <v>382</v>
       </c>
-      <c r="B138" s="6">
+      <c r="B138" s="5">
         <v>24312014337</v>
       </c>
     </row>
@@ -52859,7 +52866,7 @@
       <c r="A143" t="s">
         <v>387</v>
       </c>
-      <c r="B143" s="6">
+      <c r="B143" s="5">
         <v>482530657</v>
       </c>
     </row>
@@ -52920,7 +52927,7 @@
       <c r="A148" t="s">
         <v>382</v>
       </c>
-      <c r="B148" s="6">
+      <c r="B148" s="5">
         <v>346924135</v>
       </c>
       <c r="D148">
@@ -52995,7 +53002,7 @@
       <c r="A153" t="s">
         <v>387</v>
       </c>
-      <c r="B153" s="6">
+      <c r="B153" s="5">
         <v>224590841</v>
       </c>
       <c r="D153">
@@ -53042,7 +53049,7 @@
       <c r="A158" t="s">
         <v>382</v>
       </c>
-      <c r="B158" s="6">
+      <c r="B158" s="5">
         <v>26290370320</v>
       </c>
     </row>
@@ -53082,7 +53089,7 @@
       <c r="A163" t="s">
         <v>387</v>
       </c>
-      <c r="B163" s="6">
+      <c r="B163" s="5">
         <v>737044655</v>
       </c>
     </row>
@@ -53146,7 +53153,7 @@
       <c r="A168" t="s">
         <v>382</v>
       </c>
-      <c r="B168" s="6">
+      <c r="B168" s="5">
         <v>72163711</v>
       </c>
       <c r="D168">
@@ -53221,7 +53228,7 @@
       <c r="A173" t="s">
         <v>387</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B173" s="5">
         <v>15005031</v>
       </c>
       <c r="D173">
@@ -53280,7 +53287,7 @@
       <c r="A181" t="s">
         <v>382</v>
       </c>
-      <c r="B181" s="6">
+      <c r="B181" s="5">
         <v>8901073748</v>
       </c>
     </row>
@@ -53320,7 +53327,7 @@
       <c r="A186" t="s">
         <v>387</v>
       </c>
-      <c r="B186" s="6">
+      <c r="B186" s="5">
         <v>94440678</v>
       </c>
     </row>
@@ -53381,7 +53388,7 @@
       <c r="A191" t="s">
         <v>382</v>
       </c>
-      <c r="B191" s="6">
+      <c r="B191" s="5">
         <v>97866482</v>
       </c>
       <c r="D191">
@@ -53456,7 +53463,7 @@
       <c r="A196" t="s">
         <v>387</v>
       </c>
-      <c r="B196" s="6">
+      <c r="B196" s="5">
         <v>23155604</v>
       </c>
       <c r="D196">
@@ -53503,7 +53510,7 @@
       <c r="A201" t="s">
         <v>382</v>
       </c>
-      <c r="B201" s="6">
+      <c r="B201" s="5">
         <v>8878013174</v>
       </c>
     </row>
@@ -53543,7 +53550,7 @@
       <c r="A206" t="s">
         <v>387</v>
       </c>
-      <c r="B206" s="6">
+      <c r="B206" s="5">
         <v>88717726</v>
       </c>
     </row>
@@ -53607,7 +53614,7 @@
       <c r="A211" t="s">
         <v>382</v>
       </c>
-      <c r="B211" s="6">
+      <c r="B211" s="5">
         <v>86966014</v>
       </c>
       <c r="D211">
@@ -53682,7 +53689,7 @@
       <c r="A216" t="s">
         <v>387</v>
       </c>
-      <c r="B216" s="6">
+      <c r="B216" s="5">
         <v>14022799</v>
       </c>
       <c r="D216">
@@ -53741,7 +53748,7 @@
       <c r="A224" t="s">
         <v>382</v>
       </c>
-      <c r="B224" s="6">
+      <c r="B224" s="5">
         <v>41567957980</v>
       </c>
     </row>
@@ -53781,7 +53788,7 @@
       <c r="A229" t="s">
         <v>387</v>
       </c>
-      <c r="B229" s="6">
+      <c r="B229" s="5">
         <v>193476280</v>
       </c>
     </row>
@@ -53842,7 +53849,7 @@
       <c r="A234" t="s">
         <v>382</v>
       </c>
-      <c r="B234" s="6">
+      <c r="B234" s="5">
         <v>966633346</v>
       </c>
       <c r="D234">
@@ -53917,7 +53924,7 @@
       <c r="A239" t="s">
         <v>387</v>
       </c>
-      <c r="B239" s="6">
+      <c r="B239" s="5">
         <v>98125672</v>
       </c>
       <c r="D239">
@@ -53964,7 +53971,7 @@
       <c r="A244" t="s">
         <v>382</v>
       </c>
-      <c r="B244" s="6">
+      <c r="B244" s="5">
         <v>62819280237</v>
       </c>
     </row>
@@ -54004,7 +54011,7 @@
       <c r="A249" t="s">
         <v>387</v>
       </c>
-      <c r="B249" s="6">
+      <c r="B249" s="5">
         <v>759390978</v>
       </c>
     </row>
@@ -54068,7 +54075,7 @@
       <c r="A254" t="s">
         <v>382</v>
       </c>
-      <c r="B254" s="6">
+      <c r="B254" s="5">
         <v>98093236</v>
       </c>
       <c r="D254">
@@ -54143,7 +54150,7 @@
       <c r="A259" t="s">
         <v>387</v>
       </c>
-      <c r="B259" s="6">
+      <c r="B259" s="5">
         <v>47889800</v>
       </c>
       <c r="D259">
@@ -54202,7 +54209,7 @@
       <c r="A267" t="s">
         <v>382</v>
       </c>
-      <c r="B267" s="6">
+      <c r="B267" s="5">
         <v>24021219601</v>
       </c>
     </row>
@@ -54242,7 +54249,7 @@
       <c r="A272" t="s">
         <v>387</v>
       </c>
-      <c r="B272" s="6">
+      <c r="B272" s="5">
         <v>451906166</v>
       </c>
     </row>
@@ -54303,7 +54310,7 @@
       <c r="A277" t="s">
         <v>382</v>
       </c>
-      <c r="B277" s="6">
+      <c r="B277" s="5">
         <v>345070549</v>
       </c>
       <c r="D277">
@@ -54378,7 +54385,7 @@
       <c r="A282" t="s">
         <v>387</v>
       </c>
-      <c r="B282" s="6">
+      <c r="B282" s="5">
         <v>203807045</v>
       </c>
       <c r="D282">
@@ -54425,7 +54432,7 @@
       <c r="A287" t="s">
         <v>382</v>
       </c>
-      <c r="B287" s="6">
+      <c r="B287" s="5">
         <v>24827276138</v>
       </c>
     </row>
@@ -54465,7 +54472,7 @@
       <c r="A292" t="s">
         <v>387</v>
       </c>
-      <c r="B292" s="6">
+      <c r="B292" s="5">
         <v>610936613</v>
       </c>
     </row>
@@ -54529,7 +54536,7 @@
       <c r="A297" t="s">
         <v>382</v>
       </c>
-      <c r="B297" s="6">
+      <c r="B297" s="5">
         <v>92413777</v>
       </c>
       <c r="D297">
@@ -54604,7 +54611,7 @@
       <c r="A302" t="s">
         <v>387</v>
       </c>
-      <c r="B302" s="6">
+      <c r="B302" s="5">
         <v>64821850</v>
       </c>
       <c r="D302">
@@ -54663,7 +54670,7 @@
       <c r="A310" t="s">
         <v>382</v>
       </c>
-      <c r="B310" s="6">
+      <c r="B310" s="5">
         <v>24912704886</v>
       </c>
     </row>
@@ -54703,7 +54710,7 @@
       <c r="A315" t="s">
         <v>387</v>
       </c>
-      <c r="B315" s="6">
+      <c r="B315" s="5">
         <v>478187115</v>
       </c>
     </row>
@@ -54764,7 +54771,7 @@
       <c r="A320" t="s">
         <v>382</v>
       </c>
-      <c r="B320" s="6">
+      <c r="B320" s="5">
         <v>337725586</v>
       </c>
       <c r="D320">
@@ -54839,7 +54846,7 @@
       <c r="A325" t="s">
         <v>387</v>
       </c>
-      <c r="B325" s="6">
+      <c r="B325" s="5">
         <v>207848124</v>
       </c>
       <c r="D325">
@@ -54886,7 +54893,7 @@
       <c r="A330" t="s">
         <v>382</v>
       </c>
-      <c r="B330" s="6">
+      <c r="B330" s="5">
         <v>29360676887</v>
       </c>
     </row>
@@ -54926,7 +54933,7 @@
       <c r="A335" t="s">
         <v>387</v>
       </c>
-      <c r="B335" s="6">
+      <c r="B335" s="5">
         <v>690340737</v>
       </c>
     </row>
@@ -54990,7 +54997,7 @@
       <c r="A340" t="s">
         <v>382</v>
       </c>
-      <c r="B340" s="6">
+      <c r="B340" s="5">
         <v>93580797</v>
       </c>
       <c r="D340">
@@ -55065,7 +55072,7 @@
       <c r="A345" t="s">
         <v>387</v>
       </c>
-      <c r="B345" s="6">
+      <c r="B345" s="5">
         <v>28588680</v>
       </c>
       <c r="D345">
@@ -55124,7 +55131,7 @@
       <c r="A353" t="s">
         <v>382</v>
       </c>
-      <c r="B353" s="6">
+      <c r="B353" s="5">
         <v>23524849879</v>
       </c>
     </row>
@@ -55164,7 +55171,7 @@
       <c r="A358" t="s">
         <v>387</v>
       </c>
-      <c r="B358" s="6">
+      <c r="B358" s="5">
         <v>464137617</v>
       </c>
     </row>
@@ -55225,7 +55232,7 @@
       <c r="A363" t="s">
         <v>382</v>
       </c>
-      <c r="B363" s="6">
+      <c r="B363" s="5">
         <v>347411697</v>
       </c>
       <c r="D363">
@@ -55300,7 +55307,7 @@
       <c r="A368" t="s">
         <v>387</v>
       </c>
-      <c r="B368" s="6">
+      <c r="B368" s="5">
         <v>207150505</v>
       </c>
       <c r="D368">
@@ -55347,7 +55354,7 @@
       <c r="A373" t="s">
         <v>382</v>
       </c>
-      <c r="B373" s="6">
+      <c r="B373" s="5">
         <v>28624256011</v>
       </c>
     </row>
@@ -55387,7 +55394,7 @@
       <c r="A378" t="s">
         <v>387</v>
       </c>
-      <c r="B378" s="6">
+      <c r="B378" s="5">
         <v>717377380</v>
       </c>
     </row>
@@ -55451,7 +55458,7 @@
       <c r="A383" t="s">
         <v>382</v>
       </c>
-      <c r="B383" s="6">
+      <c r="B383" s="5">
         <v>88203377</v>
       </c>
       <c r="D383">
@@ -55526,7 +55533,7 @@
       <c r="A388" t="s">
         <v>387</v>
       </c>
-      <c r="B388" s="6">
+      <c r="B388" s="5">
         <v>17107313</v>
       </c>
       <c r="D388">
@@ -55585,7 +55592,7 @@
       <c r="A396" t="s">
         <v>382</v>
       </c>
-      <c r="B396" s="6">
+      <c r="B396" s="5">
         <v>8656138117</v>
       </c>
     </row>
@@ -55625,7 +55632,7 @@
       <c r="A401" t="s">
         <v>387</v>
       </c>
-      <c r="B401" s="6">
+      <c r="B401" s="5">
         <v>1072073612</v>
       </c>
     </row>
@@ -55686,7 +55693,7 @@
       <c r="A406" t="s">
         <v>382</v>
       </c>
-      <c r="B406" s="6">
+      <c r="B406" s="5">
         <v>355478944</v>
       </c>
       <c r="D406">
@@ -55761,7 +55768,7 @@
       <c r="A411" t="s">
         <v>387</v>
       </c>
-      <c r="B411" s="6">
+      <c r="B411" s="5">
         <v>38380840</v>
       </c>
       <c r="D411">
@@ -55808,7 +55815,7 @@
       <c r="A416" t="s">
         <v>382</v>
       </c>
-      <c r="B416" s="6">
+      <c r="B416" s="5">
         <v>8447092404</v>
       </c>
     </row>
@@ -55848,7 +55855,7 @@
       <c r="A421" t="s">
         <v>387</v>
       </c>
-      <c r="B421" s="6">
+      <c r="B421" s="5">
         <v>1136961729</v>
       </c>
     </row>
@@ -55912,7 +55919,7 @@
       <c r="A426" t="s">
         <v>382</v>
       </c>
-      <c r="B426" s="6">
+      <c r="B426" s="5">
         <v>90940563</v>
       </c>
       <c r="D426">
@@ -55987,7 +55994,7 @@
       <c r="A431" t="s">
         <v>387</v>
       </c>
-      <c r="B431" s="6">
+      <c r="B431" s="5">
         <v>10507197</v>
       </c>
       <c r="D431">
@@ -56046,7 +56053,7 @@
       <c r="A439" t="s">
         <v>382</v>
       </c>
-      <c r="B439" s="6">
+      <c r="B439" s="5">
         <v>46538713157</v>
       </c>
     </row>
@@ -56086,7 +56093,7 @@
       <c r="A444" t="s">
         <v>387</v>
       </c>
-      <c r="B444" s="6">
+      <c r="B444" s="5">
         <v>407875956</v>
       </c>
     </row>
@@ -56147,7 +56154,7 @@
       <c r="A449" t="s">
         <v>382</v>
       </c>
-      <c r="B449" s="6">
+      <c r="B449" s="5">
         <v>672977880</v>
       </c>
       <c r="D449">
@@ -56222,7 +56229,7 @@
       <c r="A454" t="s">
         <v>387</v>
       </c>
-      <c r="B454" s="6">
+      <c r="B454" s="5">
         <v>128935809</v>
       </c>
       <c r="D454">
@@ -56269,7 +56276,7 @@
       <c r="A459" t="s">
         <v>382</v>
       </c>
-      <c r="B459" s="6">
+      <c r="B459" s="5">
         <v>10921513482</v>
       </c>
     </row>
@@ -56309,7 +56316,7 @@
       <c r="A464" t="s">
         <v>387</v>
       </c>
-      <c r="B464" s="6">
+      <c r="B464" s="5">
         <v>553131292</v>
       </c>
     </row>
@@ -56373,7 +56380,7 @@
       <c r="A469" t="s">
         <v>382</v>
       </c>
-      <c r="B469" s="6">
+      <c r="B469" s="5">
         <v>92463326</v>
       </c>
       <c r="D469">
@@ -56448,7 +56455,7 @@
       <c r="A474" t="s">
         <v>387</v>
       </c>
-      <c r="B474" s="6">
+      <c r="B474" s="5">
         <v>23036661</v>
       </c>
       <c r="D474">
@@ -56507,7 +56514,7 @@
       <c r="A482" t="s">
         <v>382</v>
       </c>
-      <c r="B482" s="6">
+      <c r="B482" s="5">
         <v>24971846029</v>
       </c>
     </row>
@@ -56547,7 +56554,7 @@
       <c r="A487" t="s">
         <v>387</v>
       </c>
-      <c r="B487" s="6">
+      <c r="B487" s="5">
         <v>455540029</v>
       </c>
     </row>
@@ -56608,7 +56615,7 @@
       <c r="A492" t="s">
         <v>382</v>
       </c>
-      <c r="B492" s="6">
+      <c r="B492" s="5">
         <v>332544400</v>
       </c>
       <c r="D492">
@@ -56683,7 +56690,7 @@
       <c r="A497" t="s">
         <v>387</v>
       </c>
-      <c r="B497" s="6">
+      <c r="B497" s="5">
         <v>202807086</v>
       </c>
       <c r="D497">
@@ -56730,7 +56737,7 @@
       <c r="A502" t="s">
         <v>382</v>
       </c>
-      <c r="B502" s="6">
+      <c r="B502" s="5">
         <v>27866840459</v>
       </c>
     </row>
@@ -56770,7 +56777,7 @@
       <c r="A507" t="s">
         <v>387</v>
       </c>
-      <c r="B507" s="6">
+      <c r="B507" s="5">
         <v>655834579</v>
       </c>
     </row>
@@ -56834,7 +56841,7 @@
       <c r="A512" t="s">
         <v>382</v>
       </c>
-      <c r="B512" s="6">
+      <c r="B512" s="5">
         <v>91274910</v>
       </c>
       <c r="D512">
@@ -56909,7 +56916,7 @@
       <c r="A517" t="s">
         <v>387</v>
       </c>
-      <c r="B517" s="6">
+      <c r="B517" s="5">
         <v>23114956</v>
       </c>
       <c r="D517">
@@ -56968,7 +56975,7 @@
       <c r="A525" t="s">
         <v>382</v>
       </c>
-      <c r="B525" s="6">
+      <c r="B525" s="5">
         <v>24941823014</v>
       </c>
     </row>
@@ -57008,7 +57015,7 @@
       <c r="A530" t="s">
         <v>387</v>
       </c>
-      <c r="B530" s="6">
+      <c r="B530" s="5">
         <v>427387594</v>
       </c>
     </row>
@@ -57069,7 +57076,7 @@
       <c r="A535" t="s">
         <v>382</v>
       </c>
-      <c r="B535" s="6">
+      <c r="B535" s="5">
         <v>348692521</v>
       </c>
       <c r="D535">
@@ -57144,7 +57151,7 @@
       <c r="A540" t="s">
         <v>387</v>
       </c>
-      <c r="B540" s="6">
+      <c r="B540" s="5">
         <v>201201085</v>
       </c>
       <c r="D540">
@@ -57191,7 +57198,7 @@
       <c r="A545" t="s">
         <v>382</v>
       </c>
-      <c r="B545" s="6">
+      <c r="B545" s="5">
         <v>26058038910</v>
       </c>
     </row>
@@ -57231,7 +57238,7 @@
       <c r="A550" t="s">
         <v>387</v>
       </c>
-      <c r="B550" s="6">
+      <c r="B550" s="5">
         <v>720794254</v>
       </c>
     </row>
@@ -57295,7 +57302,7 @@
       <c r="A555" t="s">
         <v>382</v>
       </c>
-      <c r="B555" s="6">
+      <c r="B555" s="5">
         <v>95056287</v>
       </c>
       <c r="D555">
@@ -57370,7 +57377,7 @@
       <c r="A560" t="s">
         <v>387</v>
       </c>
-      <c r="B560" s="6">
+      <c r="B560" s="5">
         <v>32417970</v>
       </c>
       <c r="D560">
@@ -57429,7 +57436,7 @@
       <c r="A568" t="s">
         <v>382</v>
       </c>
-      <c r="B568" s="6">
+      <c r="B568" s="5">
         <v>22004097169</v>
       </c>
     </row>
@@ -57469,7 +57476,7 @@
       <c r="A573" t="s">
         <v>387</v>
       </c>
-      <c r="B573" s="6">
+      <c r="B573" s="5">
         <v>436706330</v>
       </c>
     </row>
@@ -57530,7 +57537,7 @@
       <c r="A578" t="s">
         <v>382</v>
       </c>
-      <c r="B578" s="6">
+      <c r="B578" s="5">
         <v>333795432</v>
       </c>
       <c r="D578">
@@ -57605,7 +57612,7 @@
       <c r="A583" t="s">
         <v>387</v>
       </c>
-      <c r="B583" s="6">
+      <c r="B583" s="5">
         <v>206471634</v>
       </c>
       <c r="D583">
@@ -57652,7 +57659,7 @@
       <c r="A588" t="s">
         <v>382</v>
       </c>
-      <c r="B588" s="6">
+      <c r="B588" s="5">
         <v>27784248353</v>
       </c>
     </row>
@@ -57692,7 +57699,7 @@
       <c r="A593" t="s">
         <v>387</v>
       </c>
-      <c r="B593" s="6">
+      <c r="B593" s="5">
         <v>709776415</v>
       </c>
     </row>
@@ -57756,7 +57763,7 @@
       <c r="A598" t="s">
         <v>382</v>
       </c>
-      <c r="B598" s="6">
+      <c r="B598" s="5">
         <v>91271352</v>
       </c>
       <c r="D598">
@@ -57831,7 +57838,7 @@
       <c r="A603" t="s">
         <v>387</v>
       </c>
-      <c r="B603" s="6">
+      <c r="B603" s="5">
         <v>15027046</v>
       </c>
       <c r="D603">
@@ -57890,7 +57897,7 @@
       <c r="A611" t="s">
         <v>382</v>
       </c>
-      <c r="B611" s="6">
+      <c r="B611" s="5">
         <v>49291675936</v>
       </c>
     </row>
@@ -57930,7 +57937,7 @@
       <c r="A616" t="s">
         <v>387</v>
       </c>
-      <c r="B616" s="6">
+      <c r="B616" s="5">
         <v>930921487</v>
       </c>
     </row>
@@ -57991,7 +57998,7 @@
       <c r="A621" t="s">
         <v>382</v>
       </c>
-      <c r="B621" s="6">
+      <c r="B621" s="5">
         <v>871181822</v>
       </c>
       <c r="D621">
@@ -58066,7 +58073,7 @@
       <c r="A626" t="s">
         <v>387</v>
       </c>
-      <c r="B626" s="6">
+      <c r="B626" s="5">
         <v>47801807</v>
       </c>
       <c r="D626">
@@ -58113,7 +58120,7 @@
       <c r="A631" t="s">
         <v>382</v>
       </c>
-      <c r="B631" s="6">
+      <c r="B631" s="5">
         <v>42302503453</v>
       </c>
     </row>
@@ -58153,7 +58160,7 @@
       <c r="A636" t="s">
         <v>387</v>
       </c>
-      <c r="B636" s="6">
+      <c r="B636" s="5">
         <v>181580965</v>
       </c>
     </row>
@@ -58217,7 +58224,7 @@
       <c r="A641" t="s">
         <v>382</v>
       </c>
-      <c r="B641" s="6">
+      <c r="B641" s="5">
         <v>88927097</v>
       </c>
       <c r="D641">
@@ -58292,7 +58299,7 @@
       <c r="A646" t="s">
         <v>387</v>
       </c>
-      <c r="B646" s="6">
+      <c r="B646" s="5">
         <v>34889217</v>
       </c>
       <c r="D646">
@@ -58318,7 +58325,7 @@
   <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -58330,7 +58337,7 @@
     <col min="5" max="5" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>370</v>
       </c>
@@ -58343,8 +58350,11 @@
       <c r="D1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>393</v>
       </c>
@@ -58357,8 +58367,12 @@
       <c r="D2">
         <v>59655557477</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="7">
+        <f>+(D2-C2)/C2</f>
+        <v>-0.38387281875812318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>380</v>
       </c>
@@ -58368,8 +58382,12 @@
       <c r="D3">
         <v>65515252443</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E10" si="0">+(D3-C3)/C3</f>
+        <v>-0.17878799405536577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>381</v>
       </c>
@@ -58379,8 +58397,12 @@
       <c r="D4">
         <v>21922349884</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.50903848456421774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>382</v>
       </c>
@@ -58390,8 +58412,12 @@
       <c r="D5">
         <v>43592902559</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.24101330228381426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>383</v>
       </c>
@@ -58401,8 +58427,12 @@
       <c r="D6">
         <v>1656647554</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.70871146080135294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>384</v>
       </c>
@@ -58412,8 +58442,12 @@
       <c r="D7">
         <v>240660405</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.22217470626403807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>385</v>
       </c>
@@ -58423,8 +58457,12 @@
       <c r="D8">
         <v>304661604</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.10117681553204143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>386</v>
       </c>
@@ -58434,8 +58472,12 @@
       <c r="D9">
         <v>470288218</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.97876205393123816</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>387</v>
       </c>
@@ -58445,8 +58487,12 @@
       <c r="D10">
         <v>641037327</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4819310242613601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>394</v>
       </c>
@@ -58459,8 +58505,12 @@
       <c r="D12">
         <v>14965064917</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="7">
+        <f>+(D12-C12)/C12</f>
+        <v>-2.3814206795224522E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>380</v>
       </c>
@@ -58470,8 +58520,12 @@
       <c r="D13">
         <v>11482700125</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="7">
+        <f t="shared" ref="E13:E20" si="1">+(D13-C13)/C13</f>
+        <v>-2.7417828017801498E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>381</v>
       </c>
@@ -58481,8 +58535,12 @@
       <c r="D14">
         <v>722154169</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.22810746835580353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>382</v>
       </c>
@@ -58492,8 +58550,12 @@
       <c r="D15">
         <v>10760545956</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="7">
+        <f t="shared" si="1"/>
+        <v>-1.0146138860095816E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="B16" t="s">
         <v>383</v>
       </c>
@@ -58502,6 +58564,10 @@
       </c>
       <c r="D16">
         <v>3275414789</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="1"/>
+        <v>-3.0618106425754452E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -58514,6 +58580,10 @@
       <c r="D17">
         <v>1496878521</v>
       </c>
+      <c r="E17" s="7">
+        <f t="shared" si="1"/>
+        <v>-2.5607409281081673E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" t="s">
@@ -58525,6 +58595,10 @@
       <c r="D18">
         <v>303577983</v>
       </c>
+      <c r="E18" s="7">
+        <f t="shared" si="1"/>
+        <v>7.9342669760418899E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="B19" t="s">
@@ -58536,6 +58610,10 @@
       <c r="D19">
         <v>213768200</v>
       </c>
+      <c r="E19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9909285464564368</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="B20" t="s">
@@ -58547,6 +58625,10 @@
       <c r="D20">
         <v>1261190085</v>
       </c>
+      <c r="E20" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.1326180532323927</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
@@ -58561,6 +58643,10 @@
       <c r="D22">
         <v>14724989219</v>
       </c>
+      <c r="E22" s="7">
+        <f>+(D22-C22)/C22</f>
+        <v>-1.5480145274010778E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
@@ -58572,6 +58658,10 @@
       <c r="D23">
         <v>11653254818</v>
       </c>
+      <c r="E23" s="7">
+        <f t="shared" ref="E23:E30" si="2">+(D23-C23)/C23</f>
+        <v>-1.2334921415967771E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" t="s">
@@ -58583,6 +58673,10 @@
       <c r="D24">
         <v>710675665</v>
       </c>
+      <c r="E24" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.10585536740872782</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
@@ -58594,6 +58688,10 @@
       <c r="D25">
         <v>10942579153</v>
       </c>
+      <c r="E25" s="7">
+        <f t="shared" si="2"/>
+        <v>-5.5799985505482529E-3</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" t="s">
@@ -58605,6 +58703,10 @@
       <c r="D26">
         <v>3187216172</v>
       </c>
+      <c r="E26" s="7">
+        <f t="shared" si="2"/>
+        <v>-3.9513398307099545E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" t="s">
@@ -58616,6 +58718,10 @@
       <c r="D27">
         <v>1563597947</v>
       </c>
+      <c r="E27" s="7">
+        <f t="shared" si="2"/>
+        <v>2.6367251105470398E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
@@ -58627,6 +58733,10 @@
       <c r="D28">
         <v>297999605</v>
       </c>
+      <c r="E28" s="7">
+        <f t="shared" si="2"/>
+        <v>6.8858452781293183E-2</v>
+      </c>
       <c r="H28" t="s">
         <v>405</v>
       </c>
@@ -58641,6 +58751,10 @@
       <c r="D29">
         <v>124234157</v>
       </c>
+      <c r="E29" s="7">
+        <f t="shared" si="2"/>
+        <v>6.2169133801028925E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
@@ -58652,6 +58766,10 @@
       <c r="D30">
         <v>1201384463</v>
       </c>
+      <c r="E30" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.14134146535650491</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
@@ -58666,8 +58784,12 @@
       <c r="D32">
         <v>70982477581</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="7">
+        <f>+(D32-C32)/C32</f>
+        <v>0.32816530409532135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
         <v>380</v>
       </c>
@@ -58677,8 +58799,12 @@
       <c r="D33">
         <v>69168831575</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="7">
+        <f t="shared" ref="E33:E40" si="3">+(D33-C33)/C33</f>
+        <v>0.30964176301586588</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="B34" t="s">
         <v>381</v>
       </c>
@@ -58688,8 +58814,12 @@
       <c r="D34">
         <v>42950624966</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="7">
+        <f t="shared" si="3"/>
+        <v>0.48875713907517143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="B35" t="s">
         <v>382</v>
       </c>
@@ -58699,8 +58829,12 @@
       <c r="D35">
         <v>26218206609</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="7">
+        <f t="shared" si="3"/>
+        <v>9.4016604486302613E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="B36" t="s">
         <v>383</v>
       </c>
@@ -58710,8 +58844,12 @@
       <c r="D36">
         <v>1325371393</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="7">
+        <f t="shared" si="3"/>
+        <v>0.78561115125110492</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="B37" t="s">
         <v>384</v>
       </c>
@@ -58721,8 +58859,12 @@
       <c r="D37">
         <v>100812372</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="7">
+        <f t="shared" si="3"/>
+        <v>-2.762559579920992E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="B38" t="s">
         <v>385</v>
       </c>
@@ -58732,8 +58874,12 @@
       <c r="D38">
         <v>327197827</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="7">
+        <f t="shared" si="3"/>
+        <v>0.32728146971696959</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="B39" t="s">
         <v>386</v>
       </c>
@@ -58743,8 +58889,12 @@
       <c r="D39">
         <v>175321570</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="7">
+        <f t="shared" si="3"/>
+        <v>0.30722611228030783</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="B40" t="s">
         <v>387</v>
       </c>
@@ -58754,8 +58904,12 @@
       <c r="D40">
         <v>722039624</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E40" s="7">
+        <f t="shared" si="3"/>
+        <v>1.799256179976495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>396</v>
       </c>
@@ -58768,8 +58922,12 @@
       <c r="D42">
         <v>11763313646</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="7">
+        <f>+(D42-C42)/C42</f>
+        <v>1.5029508263153236E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="B43" t="s">
         <v>380</v>
       </c>
@@ -58779,8 +58937,12 @@
       <c r="D43">
         <v>11109359710</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="7">
+        <f t="shared" ref="E43:E50" si="4">+(D43-C43)/C43</f>
+        <v>1.2092554005434134E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="B44" t="s">
         <v>381</v>
       </c>
@@ -58790,8 +58952,12 @@
       <c r="D44">
         <v>2318312550</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="7">
+        <f t="shared" si="4"/>
+        <v>6.6667154316600363E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="B45" t="s">
         <v>382</v>
       </c>
@@ -58801,8 +58967,12 @@
       <c r="D45">
         <v>8791047160</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.3813267860868289E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="B46" t="s">
         <v>383</v>
       </c>
@@ -58812,8 +58982,12 @@
       <c r="D46">
         <v>721744357</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="7">
+        <f t="shared" si="4"/>
+        <v>0.10206115371794365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="B47" t="s">
         <v>384</v>
       </c>
@@ -58823,8 +58997,12 @@
       <c r="D47">
         <v>566266312</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="7">
+        <f t="shared" si="4"/>
+        <v>0.11978403505156668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="B48" t="s">
         <v>385</v>
       </c>
@@ -58834,8 +59012,12 @@
       <c r="D48">
         <v>19656402</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="7">
+        <f t="shared" si="4"/>
+        <v>0.22391806790775748</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="B49" t="s">
         <v>386</v>
       </c>
@@ -58845,8 +59027,12 @@
       <c r="D49">
         <v>61126716</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.1955463936562485E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="B50" t="s">
         <v>387</v>
       </c>
@@ -58856,8 +59042,12 @@
       <c r="D50">
         <v>74694927</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E50" s="7">
+        <f t="shared" si="4"/>
+        <v>4.7834038862048456E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>397</v>
       </c>
@@ -58870,8 +59060,12 @@
       <c r="D52">
         <v>68296039986</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="7">
+        <f>+(D52-C52)/C52</f>
+        <v>-0.19626435398544659</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="B53" t="s">
         <v>380</v>
       </c>
@@ -58881,8 +59075,12 @@
       <c r="D53">
         <v>84677754491</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="7">
+        <f t="shared" ref="E53:E60" si="5">+(D53-C53)/C53</f>
+        <v>5.3589268758481405E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="B54" t="s">
         <v>381</v>
       </c>
@@ -58892,8 +59090,12 @@
       <c r="D54">
         <v>21956567490</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.4479032566074837</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="B55" t="s">
         <v>382</v>
       </c>
@@ -58903,8 +59105,12 @@
       <c r="D55">
         <v>62721187001</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="7">
+        <f t="shared" si="5"/>
+        <v>0.54480642113032396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="B56" t="s">
         <v>383</v>
       </c>
@@ -58914,8 +59120,12 @@
       <c r="D56">
         <v>1703931287</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="7">
+        <f t="shared" si="5"/>
+        <v>1.1497923084409802</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="B57" t="s">
         <v>384</v>
       </c>
@@ -58925,8 +59135,12 @@
       <c r="D57">
         <v>105032789</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.42578990552228707</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="B58" t="s">
         <v>385</v>
       </c>
@@ -58936,8 +59150,12 @@
       <c r="D58">
         <v>300189628</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="7">
+        <f t="shared" si="5"/>
+        <v>4.4728193346153772E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="B59" t="s">
         <v>386</v>
       </c>
@@ -58947,8 +59165,12 @@
       <c r="D59">
         <v>587207692</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="7">
+        <f t="shared" si="5"/>
+        <v>1.5868454105265264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="B60" t="s">
         <v>387</v>
       </c>
@@ -58958,8 +59180,12 @@
       <c r="D60">
         <v>711501178</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E60" s="7">
+        <f t="shared" si="5"/>
+        <v>6.4619469442711894</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>398</v>
       </c>
@@ -58972,8 +59198,12 @@
       <c r="D62">
         <v>67754833523</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" s="7">
+        <f>+(D62-C62)/C62</f>
+        <v>0.30760068893590037</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="B63" t="s">
         <v>380</v>
       </c>
@@ -58983,8 +59213,12 @@
       <c r="D63">
         <v>66115820405</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" s="7">
+        <f t="shared" ref="E63:E70" si="6">+(D63-C63)/C63</f>
+        <v>0.28451237295199011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="B64" t="s">
         <v>381</v>
       </c>
@@ -58994,8 +59228,12 @@
       <c r="D64">
         <v>41380958044</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" s="7">
+        <f t="shared" si="6"/>
+        <v>0.48877089819205799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="B65" t="s">
         <v>382</v>
       </c>
@@ -59005,8 +59243,12 @@
       <c r="D65">
         <v>24734862361</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" s="7">
+        <f t="shared" si="6"/>
+        <v>4.4716448890178243E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="B66" t="s">
         <v>383</v>
       </c>
@@ -59016,8 +59258,12 @@
       <c r="D66">
         <v>1139740303</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" s="7">
+        <f t="shared" si="6"/>
+        <v>0.60831797411290323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="B67" t="s">
         <v>384</v>
       </c>
@@ -59027,8 +59273,12 @@
       <c r="D67">
         <v>153626898</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" s="7">
+        <f t="shared" si="6"/>
+        <v>0.55686288196734524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="B68" t="s">
         <v>385</v>
       </c>
@@ -59038,8 +59288,12 @@
       <c r="D68">
         <v>296036920</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" s="7">
+        <f t="shared" si="6"/>
+        <v>0.23902388428377569</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="B69" t="s">
         <v>386</v>
       </c>
@@ -59049,8 +59303,12 @@
       <c r="D69">
         <v>143961722</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" s="7">
+        <f t="shared" si="6"/>
+        <v>0.17089918288221179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="B70" t="s">
         <v>387</v>
       </c>
@@ -59060,8 +59318,12 @@
       <c r="D70">
         <v>546114763</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E70" s="7">
+        <f t="shared" si="6"/>
+        <v>1.2011958800934244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>399</v>
       </c>
@@ -59074,8 +59336,12 @@
       <c r="D72">
         <v>74790930551</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" s="7">
+        <f>+(D72-C72)/C72</f>
+        <v>0.40035943287798692</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="B73" t="s">
         <v>380</v>
       </c>
@@ -59085,8 +59351,12 @@
       <c r="D73">
         <v>75177236176</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" s="7">
+        <f t="shared" ref="E73:E80" si="7">+(D73-C73)/C73</f>
+        <v>0.40304221865241024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="B74" t="s">
         <v>381</v>
       </c>
@@ -59096,8 +59366,12 @@
       <c r="D74">
         <v>45910140086</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" s="7">
+        <f t="shared" si="7"/>
+        <v>0.58274735643380937</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="B75" t="s">
         <v>382</v>
       </c>
@@ -59107,8 +59381,12 @@
       <c r="D75">
         <v>29267096090</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" s="7">
+        <f t="shared" si="7"/>
+        <v>0.19093065075338639</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="B76" t="s">
         <v>383</v>
       </c>
@@ -59118,8 +59396,12 @@
       <c r="D76">
         <v>1316875442</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" s="7">
+        <f t="shared" si="7"/>
+        <v>0.78994459369135839</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="B77" t="s">
         <v>384</v>
       </c>
@@ -59129,8 +59411,12 @@
       <c r="D77">
         <v>128422641</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" s="7">
+        <f t="shared" si="7"/>
+        <v>0.30784483213736191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="B78" t="s">
         <v>385</v>
       </c>
@@ -59140,8 +59426,12 @@
       <c r="D78">
         <v>328485626</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" s="7">
+        <f t="shared" si="7"/>
+        <v>0.40750916416400446</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="B79" t="s">
         <v>386</v>
       </c>
@@ -59151,8 +59441,12 @@
       <c r="D79">
         <v>198215118</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" s="7">
+        <f t="shared" si="7"/>
+        <v>0.48150055620796234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="B80" t="s">
         <v>387</v>
       </c>
@@ -59162,8 +59456,12 @@
       <c r="D80">
         <v>661752057</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E80" s="7">
+        <f t="shared" si="7"/>
+        <v>1.4478602015644868</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -59176,8 +59474,12 @@
       <c r="D82">
         <v>78209961199</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" s="7">
+        <f>+(D82-C82)/C82</f>
+        <v>0.44919484442667712</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="B83" t="s">
         <v>380</v>
       </c>
@@ -59187,8 +59489,12 @@
       <c r="D83">
         <v>75608838999</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" s="7">
+        <f t="shared" ref="E83:E90" si="8">+(D83-C83)/C83</f>
+        <v>0.44977063674646239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="B84" t="s">
         <v>381</v>
       </c>
@@ -59198,8 +59504,12 @@
       <c r="D84">
         <v>47072786365</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" s="7">
+        <f t="shared" si="8"/>
+        <v>0.62460911677382269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="B85" t="s">
         <v>382</v>
       </c>
@@ -59209,8 +59519,12 @@
       <c r="D85">
         <v>28536052634</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" s="7">
+        <f t="shared" si="8"/>
+        <v>0.23119960065998979</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="B86" t="s">
         <v>383</v>
       </c>
@@ -59220,8 +59534,12 @@
       <c r="D86">
         <v>1339213903</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" s="7">
+        <f t="shared" si="8"/>
+        <v>0.85200576053552191</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="B87" t="s">
         <v>384</v>
       </c>
@@ -59231,8 +59549,12 @@
       <c r="D87">
         <v>168751108</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" s="7">
+        <f t="shared" si="8"/>
+        <v>0.69917789027128618</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="B88" t="s">
         <v>385</v>
       </c>
@@ -59242,8 +59564,12 @@
       <c r="D88">
         <v>338217643</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" s="7">
+        <f t="shared" si="8"/>
+        <v>0.44683704766766247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="B89" t="s">
         <v>386</v>
       </c>
@@ -59253,8 +59579,12 @@
       <c r="D89">
         <v>131975085</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" s="7">
+        <f t="shared" si="8"/>
+        <v>-8.0898106135577057E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="B90" t="s">
         <v>387</v>
       </c>
@@ -59264,8 +59594,12 @@
       <c r="D90">
         <v>700270067</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E90" s="7">
+        <f t="shared" si="8"/>
+        <v>1.7249229019702748</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>400</v>
       </c>
@@ -59278,8 +59612,12 @@
       <c r="D92">
         <v>11676938139</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" s="7">
+        <f>+(D92-C92)/C92</f>
+        <v>-1.3494306970266781E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="B93" t="s">
         <v>380</v>
       </c>
@@ -59289,8 +59627,12 @@
       <c r="D93">
         <v>8632570910</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" s="7">
+        <f t="shared" ref="E93:E100" si="9">+(D93-C93)/C93</f>
+        <v>5.5916678900905618E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="B94" t="s">
         <v>381</v>
       </c>
@@ -59300,8 +59642,12 @@
       <c r="D94">
         <v>276419069</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" s="7">
+        <f t="shared" si="9"/>
+        <v>-2.6383778201517393E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="B95" t="s">
         <v>382</v>
       </c>
@@ -59311,8 +59657,12 @@
       <c r="D95">
         <v>8356151841</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" s="7">
+        <f t="shared" si="9"/>
+        <v>6.6853326758077218E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="B96" t="s">
         <v>383</v>
       </c>
@@ -59322,8 +59672,12 @@
       <c r="D96">
         <v>3112592305</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" s="7">
+        <f t="shared" si="9"/>
+        <v>-1.0843869685961134E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="B97" t="s">
         <v>384</v>
       </c>
@@ -59333,8 +59687,12 @@
       <c r="D97">
         <v>1564029501</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" s="7">
+        <f t="shared" si="9"/>
+        <v>-0.12831518611185364</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="B98" t="s">
         <v>385</v>
       </c>
@@ -59344,8 +59702,12 @@
       <c r="D98">
         <v>167029967</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" s="7">
+        <f t="shared" si="9"/>
+        <v>0.45669402097235146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="B99" t="s">
         <v>386</v>
       </c>
@@ -59355,8 +59717,12 @@
       <c r="D99">
         <v>255078305</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" s="7">
+        <f t="shared" si="9"/>
+        <v>0.24978334552085976</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="B100" t="s">
         <v>387</v>
       </c>
@@ -59366,8 +59732,12 @@
       <c r="D100">
         <v>1126454532</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E100" s="7">
+        <f t="shared" si="9"/>
+        <v>8.9738230267900135E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
         <v>401</v>
       </c>
@@ -59380,8 +59750,12 @@
       <c r="D102">
         <v>68200644646</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" s="7">
+        <f>+(D102-C102)/C102</f>
+        <v>-0.15062381620305787</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="2"/>
       <c r="B103" t="s">
         <v>380</v>
@@ -59392,8 +59766,12 @@
       <c r="D103">
         <v>43434705715</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" s="7">
+        <f t="shared" ref="E103:E110" si="10">+(D103-C103)/C103</f>
+        <v>-0.48658127523743228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="2"/>
       <c r="B104" t="s">
         <v>381</v>
@@ -59404,8 +59782,12 @@
       <c r="D104">
         <v>32605655559</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" s="7">
+        <f t="shared" si="10"/>
+        <v>-0.15819996172998632</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="2"/>
       <c r="B105" t="s">
         <v>382</v>
@@ -59416,8 +59798,12 @@
       <c r="D105">
         <v>10829050156</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" s="7">
+        <f t="shared" si="10"/>
+        <v>-0.7638967283398076</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="2"/>
       <c r="B106" t="s">
         <v>383</v>
@@ -59428,8 +59814,12 @@
       <c r="D106">
         <v>1385685293</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" s="7">
+        <f t="shared" si="10"/>
+        <v>0.44196796152733286</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="2"/>
       <c r="B107" t="s">
         <v>384</v>
@@ -59440,8 +59830,12 @@
       <c r="D107">
         <v>227379057</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" s="7">
+        <f t="shared" si="10"/>
+        <v>0.37471421871519445</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="2"/>
       <c r="B108" t="s">
         <v>385</v>
@@ -59452,8 +59846,12 @@
       <c r="D108">
         <v>318768647</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" s="7">
+        <f t="shared" si="10"/>
+        <v>0.15206705657949041</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="2"/>
       <c r="B109" t="s">
         <v>386</v>
@@ -59464,8 +59862,12 @@
       <c r="D109">
         <v>309442958</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109" s="7">
+        <f t="shared" si="10"/>
+        <v>0.28969894986566652</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="2"/>
       <c r="B110" t="s">
         <v>387</v>
@@ -59476,11 +59878,15 @@
       <c r="D110">
         <v>530094631</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110" s="7">
+        <f t="shared" si="10"/>
+        <v>0.90038844067863777</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="2"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
         <v>402</v>
       </c>
@@ -59493,8 +59899,12 @@
       <c r="D112">
         <v>69366081699</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112" s="7">
+        <f>+(D112-C112)/C112</f>
+        <v>0.29816313412242007</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="2"/>
       <c r="B113" t="s">
         <v>380</v>
@@ -59505,8 +59915,12 @@
       <c r="D113">
         <v>68985363063</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" s="7">
+        <f t="shared" ref="E113:E120" si="11">+(D113-C113)/C113</f>
+        <v>0.2977890724158147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="2"/>
       <c r="B114" t="s">
         <v>381</v>
@@ -59517,8 +59931,12 @@
       <c r="D114">
         <v>41209797514</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" s="7">
+        <f t="shared" si="11"/>
+        <v>0.44510770348197937</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="2"/>
       <c r="B115" t="s">
         <v>382</v>
@@ -59529,8 +59947,12 @@
       <c r="D115">
         <v>27775565549</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" s="7">
+        <f t="shared" si="11"/>
+        <v>0.127287046005747</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="2"/>
       <c r="B116" t="s">
         <v>383</v>
@@ -59541,8 +59963,12 @@
       <c r="D116">
         <v>1277191784</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" s="7">
+        <f t="shared" si="11"/>
+        <v>0.80647749685558168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="2"/>
       <c r="B117" t="s">
         <v>384</v>
@@ -59553,8 +59979,12 @@
       <c r="D117">
         <v>144920588</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" s="7">
+        <f t="shared" si="11"/>
+        <v>0.57423581274612678</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="2"/>
       <c r="B118" t="s">
         <v>385</v>
@@ -59565,8 +59995,12 @@
       <c r="D118">
         <v>321355951</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118" s="7">
+        <f t="shared" si="11"/>
+        <v>0.32019117591767426</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="2"/>
       <c r="B119" t="s">
         <v>386</v>
@@ -59577,8 +60011,12 @@
       <c r="D119">
         <v>178195622</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119" s="7">
+        <f t="shared" si="11"/>
+        <v>0.49996510517332748</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="2"/>
       <c r="B120" t="s">
         <v>387</v>
@@ -59589,11 +60027,15 @@
       <c r="D120">
         <v>632719623</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" s="7">
+        <f t="shared" si="11"/>
+        <v>1.503510684002916</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="2"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
         <v>403</v>
       </c>
@@ -59606,8 +60048,12 @@
       <c r="D122">
         <v>71049210305</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122" s="7">
+        <f>+(D122-C122)/C122</f>
+        <v>0.31206990826843156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="2"/>
       <c r="B123" t="s">
         <v>380</v>
@@ -59618,8 +60064,12 @@
       <c r="D123">
         <v>68147358853</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123" s="7">
+        <f t="shared" ref="E123:E130" si="12">+(D123-C123)/C123</f>
+        <v>0.26548180758875656</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="2"/>
       <c r="B124" t="s">
         <v>381</v>
@@ -59630,8 +60080,12 @@
       <c r="D124">
         <v>42184376230</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124" s="7">
+        <f t="shared" si="12"/>
+        <v>0.44181695785301378</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="2"/>
       <c r="B125" t="s">
         <v>382</v>
@@ -59642,8 +60096,12 @@
       <c r="D125">
         <v>25962982623</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" s="7">
+        <f t="shared" si="12"/>
+        <v>5.5700600230210798E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="2"/>
       <c r="B126" t="s">
         <v>383</v>
@@ -59654,8 +60112,12 @@
       <c r="D126">
         <v>1355399711</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126" s="7">
+        <f t="shared" si="12"/>
+        <v>0.96474155148631413</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="2"/>
       <c r="B127" t="s">
         <v>384</v>
@@ -59666,8 +60128,12 @@
       <c r="D127">
         <v>147286894</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127" s="7">
+        <f t="shared" si="12"/>
+        <v>0.38721740688741357</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="2"/>
       <c r="B128" t="s">
         <v>385</v>
@@ -59678,8 +60144,12 @@
       <c r="D128">
         <v>345013370</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128" s="7">
+        <f t="shared" si="12"/>
+        <v>0.46228912245106712</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="2"/>
       <c r="B129" t="s">
         <v>386</v>
@@ -59690,8 +60160,12 @@
       <c r="D129">
         <v>174723163</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129" s="7">
+        <f t="shared" si="12"/>
+        <v>0.43733936550842178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="2"/>
       <c r="B130" t="s">
         <v>387</v>
@@ -59702,11 +60176,15 @@
       <c r="D130">
         <v>688376284</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130" s="7">
+        <f t="shared" si="12"/>
+        <v>2.0434011605882296</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="2"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:5">
       <c r="A132" s="2" t="s">
         <v>33</v>
       </c>
@@ -59719,8 +60197,12 @@
       <c r="D132">
         <v>69513385821</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132" s="7">
+        <f>+(D132-C132)/C132</f>
+        <v>0.28724111345754083</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="2"/>
       <c r="B133" t="s">
         <v>380</v>
@@ -59731,8 +60213,12 @@
       <c r="D133">
         <v>69431872627</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133" s="7">
+        <f t="shared" ref="E133:E140" si="13">+(D133-C133)/C133</f>
+        <v>0.36508996835157809</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="2"/>
       <c r="B134" t="s">
         <v>381</v>
@@ -59743,8 +60229,12 @@
       <c r="D134">
         <v>41738895626</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134" s="7">
+        <f t="shared" si="13"/>
+        <v>0.42979682075904779</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="2"/>
       <c r="B135" t="s">
         <v>382</v>
@@ -59755,8 +60245,12 @@
       <c r="D135">
         <v>27692977001</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135" s="7">
+        <f t="shared" si="13"/>
+        <v>0.27792299973917062</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="2"/>
       <c r="B136" t="s">
         <v>383</v>
@@ -59767,8 +60261,12 @@
       <c r="D136">
         <v>1333703377</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136" s="7">
+        <f t="shared" si="13"/>
+        <v>0.91952006420509935</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="2"/>
       <c r="B137" t="s">
         <v>384</v>
@@ -59779,8 +60277,12 @@
       <c r="D137">
         <v>140466832</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137" s="7">
+        <f t="shared" si="13"/>
+        <v>0.4144456899764189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="2"/>
       <c r="B138" t="s">
         <v>385</v>
@@ -59791,8 +60293,12 @@
       <c r="D138">
         <v>301512528</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138" s="7">
+        <f t="shared" si="13"/>
+        <v>0.27863075845072388</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="2"/>
       <c r="B139" t="s">
         <v>386</v>
@@ -59803,8 +60309,12 @@
       <c r="D139">
         <v>196974648</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139" s="7">
+        <f t="shared" si="13"/>
+        <v>0.52152737010744554</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="2"/>
       <c r="B140" t="s">
         <v>387</v>
@@ -59815,11 +60325,15 @@
       <c r="D140">
         <v>694749369</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140" s="7">
+        <f t="shared" si="13"/>
+        <v>2.0175702492729419</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="2"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:5">
       <c r="A142" s="2" t="s">
         <v>404</v>
       </c>
@@ -59832,8 +60346,12 @@
       <c r="D142">
         <v>44776666110</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142" s="7">
+        <f>+(D142-C142)/C142</f>
+        <v>-0.29744917323041148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="2"/>
       <c r="B143" t="s">
         <v>380</v>
@@ -59844,8 +60362,12 @@
       <c r="D143">
         <v>45103734069</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143" s="7">
+        <f t="shared" ref="E143:E150" si="14">+(D143-C143)/C143</f>
+        <v>-0.28140148161793294</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="2"/>
       <c r="B144" t="s">
         <v>381</v>
@@ -59856,8 +60378,12 @@
       <c r="D144">
         <v>2890157713</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="E144" s="7">
+        <f t="shared" si="14"/>
+        <v>-0.79853569320817097</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="2"/>
       <c r="B145" t="s">
         <v>382</v>
@@ -59868,8 +60394,12 @@
       <c r="D145">
         <v>42213576356</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145" s="7">
+        <f t="shared" si="14"/>
+        <v>-0.12818782359772266</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="2"/>
       <c r="B146" t="s">
         <v>383</v>
@@ -59880,8 +60410,12 @@
       <c r="D146">
         <v>1634002706</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146" s="7">
+        <f t="shared" si="14"/>
+        <v>-0.36637317522742097</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="2"/>
       <c r="B147" t="s">
         <v>384</v>
@@ -59892,8 +60426,12 @@
       <c r="D147">
         <v>907772872</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147" s="7">
+        <f t="shared" si="14"/>
+        <v>-9.4903595817579067E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="2"/>
       <c r="B148" t="s">
         <v>385</v>
@@ -59904,8 +60442,12 @@
       <c r="D148">
         <v>425490701</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148" s="7">
+        <f t="shared" si="14"/>
+        <v>-2.7928816305622058E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="2"/>
       <c r="B149" t="s">
         <v>386</v>
@@ -59916,8 +60458,12 @@
       <c r="D149">
         <v>154047385</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149" s="7">
+        <f t="shared" si="14"/>
+        <v>-0.39593256157418233</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="2"/>
       <c r="B150" t="s">
         <v>387</v>
@@ -59928,32 +60474,36 @@
       <c r="D150">
         <v>146691748</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E150" s="7">
+        <f t="shared" si="14"/>
+        <v>-0.8338936937743251</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="2"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:5">
       <c r="A153" s="2"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:5">
       <c r="A154" s="2"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:5">
       <c r="A155" s="2"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:5">
       <c r="A156" s="2"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:5">
       <c r="A157" s="2"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:5">
       <c r="A158" s="2"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:5">
       <c r="A159" s="2"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:5">
       <c r="A160" s="2"/>
     </row>
     <row r="161" spans="1:1">
@@ -60078,7 +60628,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11555" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11557" uniqueCount="408">
   <si>
     <t>----------------------</t>
   </si>
@@ -1263,6 +1263,9 @@
   <si>
     <t>Improvement</t>
   </si>
+  <si>
+    <t>Comparison</t>
+  </si>
 </sst>
 </file>
 
@@ -1333,7 +1336,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="326">
+  <cellStyleXfs count="342">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1660,6 +1663,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1673,7 +1692,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="313" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="326">
+  <cellStyles count="342">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1836,6 +1855,14 @@
     <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1998,6 +2025,14 @@
     <cellStyle name="Hyperlink" xfId="320" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="322" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="313" builtinId="5"/>
   </cellStyles>
@@ -4156,6 +4191,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
@@ -4192,6 +4228,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4205,6 +4242,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4505,6 +4543,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
@@ -4541,6 +4580,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4554,6 +4594,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4899,6 +4940,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
@@ -4935,6 +4977,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -4948,6 +4991,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -50745,8 +50789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -58322,10 +58366,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -58335,6 +58379,7 @@
     <col min="3" max="3" width="39.6640625" customWidth="1"/>
     <col min="4" max="4" width="39.83203125" customWidth="1"/>
     <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -60149,7 +60194,7 @@
         <v>0.46228912245106712</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:9">
       <c r="A129" s="2"/>
       <c r="B129" t="s">
         <v>386</v>
@@ -60165,7 +60210,7 @@
         <v>0.43733936550842178</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:9">
       <c r="A130" s="2"/>
       <c r="B130" t="s">
         <v>387</v>
@@ -60181,10 +60226,16 @@
         <v>2.0434011605882296</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:9">
       <c r="A131" s="2"/>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="G131" t="s">
+        <v>28</v>
+      </c>
+      <c r="I131" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="2" t="s">
         <v>33</v>
       </c>
@@ -60201,8 +60252,15 @@
         <f>+(D132-C132)/C132</f>
         <v>0.28724111345754083</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="G132" s="7">
+        <v>0.44919484442667712</v>
+      </c>
+      <c r="I132" s="1">
+        <f>+G132-E132</f>
+        <v>0.16195373096913629</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="2"/>
       <c r="B133" t="s">
         <v>380</v>
@@ -60217,8 +60275,15 @@
         <f t="shared" ref="E133:E140" si="13">+(D133-C133)/C133</f>
         <v>0.36508996835157809</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="G133" s="7">
+        <v>0.44977063674646239</v>
+      </c>
+      <c r="I133" s="1">
+        <f t="shared" ref="I133:I140" si="14">+G133-E133</f>
+        <v>8.4680668394884306E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="2"/>
       <c r="B134" t="s">
         <v>381</v>
@@ -60233,8 +60298,15 @@
         <f t="shared" si="13"/>
         <v>0.42979682075904779</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="G134" s="7">
+        <v>0.62460911677382269</v>
+      </c>
+      <c r="I134" s="1">
+        <f t="shared" si="14"/>
+        <v>0.1948122960147749</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="2"/>
       <c r="B135" t="s">
         <v>382</v>
@@ -60249,8 +60321,15 @@
         <f t="shared" si="13"/>
         <v>0.27792299973917062</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="G135" s="7">
+        <v>0.23119960065998979</v>
+      </c>
+      <c r="I135" s="1">
+        <f t="shared" si="14"/>
+        <v>-4.6723399079180827E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="2"/>
       <c r="B136" t="s">
         <v>383</v>
@@ -60265,8 +60344,15 @@
         <f t="shared" si="13"/>
         <v>0.91952006420509935</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="G136" s="7">
+        <v>0.85200576053552191</v>
+      </c>
+      <c r="I136" s="1">
+        <f t="shared" si="14"/>
+        <v>-6.7514303669577447E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="2"/>
       <c r="B137" t="s">
         <v>384</v>
@@ -60281,8 +60367,15 @@
         <f t="shared" si="13"/>
         <v>0.4144456899764189</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="G137" s="7">
+        <v>0.69917789027128618</v>
+      </c>
+      <c r="I137" s="1">
+        <f t="shared" si="14"/>
+        <v>0.28473220029486729</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="2"/>
       <c r="B138" t="s">
         <v>385</v>
@@ -60297,8 +60390,15 @@
         <f t="shared" si="13"/>
         <v>0.27863075845072388</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="G138" s="7">
+        <v>0.44683704766766247</v>
+      </c>
+      <c r="I138" s="1">
+        <f t="shared" si="14"/>
+        <v>0.16820628921693859</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="2"/>
       <c r="B139" t="s">
         <v>386</v>
@@ -60313,8 +60413,15 @@
         <f t="shared" si="13"/>
         <v>0.52152737010744554</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="G139" s="7">
+        <v>-8.0898106135577057E-3</v>
+      </c>
+      <c r="I139" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.52961718072100328</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="2"/>
       <c r="B140" t="s">
         <v>387</v>
@@ -60329,11 +60436,18 @@
         <f t="shared" si="13"/>
         <v>2.0175702492729419</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="G140" s="7">
+        <v>1.7249229019702748</v>
+      </c>
+      <c r="I140" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.29264734730266717</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="2"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:9">
       <c r="A142" s="2" t="s">
         <v>404</v>
       </c>
@@ -60351,7 +60465,7 @@
         <v>-0.29744917323041148</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:9">
       <c r="A143" s="2"/>
       <c r="B143" t="s">
         <v>380</v>
@@ -60363,11 +60477,11 @@
         <v>45103734069</v>
       </c>
       <c r="E143" s="7">
-        <f t="shared" ref="E143:E150" si="14">+(D143-C143)/C143</f>
+        <f t="shared" ref="E143:E150" si="15">+(D143-C143)/C143</f>
         <v>-0.28140148161793294</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:9">
       <c r="A144" s="2"/>
       <c r="B144" t="s">
         <v>381</v>
@@ -60379,7 +60493,7 @@
         <v>2890157713</v>
       </c>
       <c r="E144" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.79853569320817097</v>
       </c>
     </row>
@@ -60395,7 +60509,7 @@
         <v>42213576356</v>
       </c>
       <c r="E145" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.12818782359772266</v>
       </c>
     </row>
@@ -60411,7 +60525,7 @@
         <v>1634002706</v>
       </c>
       <c r="E146" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.36637317522742097</v>
       </c>
     </row>
@@ -60427,7 +60541,7 @@
         <v>907772872</v>
       </c>
       <c r="E147" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.4903595817579067E-2</v>
       </c>
     </row>
@@ -60443,7 +60557,7 @@
         <v>425490701</v>
       </c>
       <c r="E148" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-2.7928816305622058E-2</v>
       </c>
     </row>
@@ -60459,7 +60573,7 @@
         <v>154047385</v>
       </c>
       <c r="E149" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.39593256157418233</v>
       </c>
     </row>
@@ -60475,7 +60589,7 @@
         <v>146691748</v>
       </c>
       <c r="E150" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.8338936937743251</v>
       </c>
     </row>

--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="20" windowWidth="32100" windowHeight="18040" tabRatio="798" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="798" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_timings.txt" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Comparing 10 and 20 THREADS" sheetId="5" r:id="rId5"/>
     <sheet name="HW_20_Analysis" sheetId="7" r:id="rId6"/>
     <sheet name="HW_20_Final" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="thread_mapping_experiments" localSheetId="3">'Thread Mappings'!$A$1:$B$5205</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11557" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11569" uniqueCount="418">
   <si>
     <t>----------------------</t>
   </si>
@@ -1266,6 +1267,36 @@
   <si>
     <t>Comparison</t>
   </si>
+  <si>
+    <t>(master, thread)</t>
+  </si>
+  <si>
+    <t>DCACHE_MISS</t>
+  </si>
+  <si>
+    <t>DMISS_L2L3</t>
+  </si>
+  <si>
+    <t>DMISS_L2L3_CONFLICT</t>
+  </si>
+  <si>
+    <t>DMISS_L2L3_NO_CONFLICT</t>
+  </si>
+  <si>
+    <t>DMISS_L3MISS</t>
+  </si>
+  <si>
+    <t>DMISS_LMEM</t>
+  </si>
+  <si>
+    <t>DMISS_L21_L31</t>
+  </si>
+  <si>
+    <t>DMISS_REMOTE</t>
+  </si>
+  <si>
+    <t>DMISS_DISTANT</t>
+  </si>
 </sst>
 </file>
 
@@ -1277,6 +1308,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1336,7 +1368,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="342">
+  <cellStyleXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1679,6 +1711,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1687,12 +1745,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="313" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="313" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="342">
+  <cellStyles count="368">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1863,6 +1921,19 @@
     <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2033,6 +2104,19 @@
     <cellStyle name="Hyperlink" xfId="336" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="338" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="313" builtinId="5"/>
   </cellStyles>
@@ -2348,11 +2432,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2128053976"/>
-        <c:axId val="-2128047048"/>
+        <c:axId val="2126290040"/>
+        <c:axId val="2125680856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2128053976"/>
+        <c:axId val="2126290040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,7 +2471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128047048"/>
+        <c:crossAx val="2125680856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2395,7 +2479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128047048"/>
+        <c:axId val="2125680856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,7 +2508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128053976"/>
+        <c:crossAx val="2126290040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2441,6 +2525,351 @@
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>DCACHE_MISS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DMISS_L2L3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DMISS_L2L3_CONFLICT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DMISS_L2L3_NO_CONFLICT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DMISS_L3MISS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DMISS_LMEM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DMISS_L21_L31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DMISS_REMOTE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DMISS_DISTANT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.287241113457541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.365089968351578</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.429796820759048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.277922999739171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.919520064205099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.414445689976419</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.278630758450724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.521527370107446</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.017570249272942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>DCACHE_MISS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DMISS_L2L3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DMISS_L2L3_CONFLICT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DMISS_L2L3_NO_CONFLICT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DMISS_L3MISS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DMISS_LMEM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DMISS_L21_L31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DMISS_REMOTE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DMISS_DISTANT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.449194844426677</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.449770636746462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.624609116773823</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23119960065999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.852005760535522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.699177890271286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.446837047667662</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.0080898106135577</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.724922901970275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(master, thread)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>DCACHE_MISS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DMISS_L2L3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DMISS_L2L3_CONFLICT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DMISS_L2L3_NO_CONFLICT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DMISS_L3MISS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DMISS_LMEM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DMISS_L21_L31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>DMISS_REMOTE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DMISS_DISTANT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0150295082631532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0120925540054341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0666671543166003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.00138132678608683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.102061153717944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.119784035051567</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.223918067907757</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.0119554639365625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0478340388620484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2095253800"/>
+        <c:axId val="2095115112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2095253800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2095115112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2095115112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2095253800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2630,11 +3059,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127974616"/>
-        <c:axId val="-2127969048"/>
+        <c:axId val="2126286392"/>
+        <c:axId val="2126295256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127974616"/>
+        <c:axId val="2126286392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,7 +3090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127969048"/>
+        <c:crossAx val="2126295256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2669,7 +3098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127969048"/>
+        <c:axId val="2126295256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,7 +3132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127974616"/>
+        <c:crossAx val="2126286392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2891,11 +3320,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127939784"/>
-        <c:axId val="-2127934296"/>
+        <c:axId val="2126139768"/>
+        <c:axId val="2125953560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127939784"/>
+        <c:axId val="2126139768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2922,7 +3351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127934296"/>
+        <c:crossAx val="2125953560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2930,7 +3359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127934296"/>
+        <c:axId val="2125953560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2959,7 +3388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127939784"/>
+        <c:crossAx val="2126139768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3256,11 +3685,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127887928"/>
-        <c:axId val="-2127882232"/>
+        <c:axId val="2125497320"/>
+        <c:axId val="2125511400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127887928"/>
+        <c:axId val="2125497320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3291,7 +3720,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127882232"/>
+        <c:crossAx val="2125511400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3299,7 +3728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127882232"/>
+        <c:axId val="2125511400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3333,7 +3762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127887928"/>
+        <c:crossAx val="2125497320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3539,11 +3968,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127851192"/>
-        <c:axId val="-2127845624"/>
+        <c:axId val="2126263208"/>
+        <c:axId val="2126267192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127851192"/>
+        <c:axId val="2126263208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3570,7 +3999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127845624"/>
+        <c:crossAx val="2126267192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3578,7 +4007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127845624"/>
+        <c:axId val="2126267192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3607,7 +4036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127851192"/>
+        <c:crossAx val="2126263208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3800,11 +4229,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127816168"/>
-        <c:axId val="-2127810664"/>
+        <c:axId val="2125677320"/>
+        <c:axId val="2070950776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127816168"/>
+        <c:axId val="2125677320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3831,7 +4260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127810664"/>
+        <c:crossAx val="2070950776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3839,7 +4268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127810664"/>
+        <c:axId val="2070950776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3868,7 +4297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127816168"/>
+        <c:crossAx val="2125677320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4165,11 +4594,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2129619928"/>
-        <c:axId val="-2129625496"/>
+        <c:axId val="2123870440"/>
+        <c:axId val="2123950136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2129619928"/>
+        <c:axId val="2123870440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4197,7 +4626,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129625496"/>
+        <c:crossAx val="2123950136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4205,7 +4634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129625496"/>
+        <c:axId val="2123950136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4235,7 +4664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129619928"/>
+        <c:crossAx val="2123870440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4517,11 +4946,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2129657800"/>
-        <c:axId val="-2126236328"/>
+        <c:axId val="2123983448"/>
+        <c:axId val="2123989032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2129657800"/>
+        <c:axId val="2123983448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4549,7 +4978,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126236328"/>
+        <c:crossAx val="2123989032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4557,7 +4986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126236328"/>
+        <c:axId val="2123989032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4587,7 +5016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129657800"/>
+        <c:crossAx val="2123983448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4885,11 +5314,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2126203656"/>
-        <c:axId val="-2126197512"/>
+        <c:axId val="2124022360"/>
+        <c:axId val="2124028504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126203656"/>
+        <c:axId val="2124022360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4946,7 +5375,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126197512"/>
+        <c:crossAx val="2124028504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4954,7 +5383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126197512"/>
+        <c:axId val="2124028504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4984,7 +5413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126203656"/>
+        <c:crossAx val="2124022360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5283,6 +5712,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -50790,7 +51254,7 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -51012,10 +51476,10 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
@@ -51194,10 +51658,10 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C44" s="6"/>
+      <c r="C44" s="7"/>
       <c r="N44" t="s">
         <v>367</v>
       </c>
@@ -58368,8 +58832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="I132" sqref="I132"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -58412,7 +58876,7 @@
       <c r="D2">
         <v>59655557477</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f>+(D2-C2)/C2</f>
         <v>-0.38387281875812318</v>
       </c>
@@ -58427,7 +58891,7 @@
       <c r="D3">
         <v>65515252443</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E10" si="0">+(D3-C3)/C3</f>
         <v>-0.17878799405536577</v>
       </c>
@@ -58442,7 +58906,7 @@
       <c r="D4">
         <v>21922349884</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f t="shared" si="0"/>
         <v>-0.50903848456421774</v>
       </c>
@@ -58457,7 +58921,7 @@
       <c r="D5">
         <v>43592902559</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>0.24101330228381426</v>
       </c>
@@ -58472,7 +58936,7 @@
       <c r="D6">
         <v>1656647554</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>0.70871146080135294</v>
       </c>
@@ -58487,7 +58951,7 @@
       <c r="D7">
         <v>240660405</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>0.22217470626403807</v>
       </c>
@@ -58502,7 +58966,7 @@
       <c r="D8">
         <v>304661604</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>0.10117681553204143</v>
       </c>
@@ -58517,7 +58981,7 @@
       <c r="D9">
         <v>470288218</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>0.97876205393123816</v>
       </c>
@@ -58532,7 +58996,7 @@
       <c r="D10">
         <v>641037327</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>1.4819310242613601</v>
       </c>
@@ -58550,7 +59014,7 @@
       <c r="D12">
         <v>14965064917</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f>+(D12-C12)/C12</f>
         <v>-2.3814206795224522E-3</v>
       </c>
@@ -58565,7 +59029,7 @@
       <c r="D13">
         <v>11482700125</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f t="shared" ref="E13:E20" si="1">+(D13-C13)/C13</f>
         <v>-2.7417828017801498E-2</v>
       </c>
@@ -58580,7 +59044,7 @@
       <c r="D14">
         <v>722154169</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f t="shared" si="1"/>
         <v>-0.22810746835580353</v>
       </c>
@@ -58595,7 +59059,7 @@
       <c r="D15">
         <v>10760545956</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f t="shared" si="1"/>
         <v>-1.0146138860095816E-2</v>
       </c>
@@ -58610,7 +59074,7 @@
       <c r="D16">
         <v>3275414789</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f t="shared" si="1"/>
         <v>-3.0618106425754452E-2</v>
       </c>
@@ -58625,7 +59089,7 @@
       <c r="D17">
         <v>1496878521</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <f t="shared" si="1"/>
         <v>-2.5607409281081673E-2</v>
       </c>
@@ -58640,7 +59104,7 @@
       <c r="D18">
         <v>303577983</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <f t="shared" si="1"/>
         <v>7.9342669760418899E-2</v>
       </c>
@@ -58655,7 +59119,7 @@
       <c r="D19">
         <v>213768200</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <f t="shared" si="1"/>
         <v>0.9909285464564368</v>
       </c>
@@ -58670,7 +59134,7 @@
       <c r="D20">
         <v>1261190085</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <f t="shared" si="1"/>
         <v>-0.1326180532323927</v>
       </c>
@@ -58688,7 +59152,7 @@
       <c r="D22">
         <v>14724989219</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <f>+(D22-C22)/C22</f>
         <v>-1.5480145274010778E-2</v>
       </c>
@@ -58703,7 +59167,7 @@
       <c r="D23">
         <v>11653254818</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <f t="shared" ref="E23:E30" si="2">+(D23-C23)/C23</f>
         <v>-1.2334921415967771E-2</v>
       </c>
@@ -58718,7 +59182,7 @@
       <c r="D24">
         <v>710675665</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <f t="shared" si="2"/>
         <v>-0.10585536740872782</v>
       </c>
@@ -58733,7 +59197,7 @@
       <c r="D25">
         <v>10942579153</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <f t="shared" si="2"/>
         <v>-5.5799985505482529E-3</v>
       </c>
@@ -58748,7 +59212,7 @@
       <c r="D26">
         <v>3187216172</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <f t="shared" si="2"/>
         <v>-3.9513398307099545E-2</v>
       </c>
@@ -58763,7 +59227,7 @@
       <c r="D27">
         <v>1563597947</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <f t="shared" si="2"/>
         <v>2.6367251105470398E-2</v>
       </c>
@@ -58778,7 +59242,7 @@
       <c r="D28">
         <v>297999605</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <f t="shared" si="2"/>
         <v>6.8858452781293183E-2</v>
       </c>
@@ -58796,7 +59260,7 @@
       <c r="D29">
         <v>124234157</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <f t="shared" si="2"/>
         <v>6.2169133801028925E-2</v>
       </c>
@@ -58811,7 +59275,7 @@
       <c r="D30">
         <v>1201384463</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <f t="shared" si="2"/>
         <v>-0.14134146535650491</v>
       </c>
@@ -58829,7 +59293,7 @@
       <c r="D32">
         <v>70982477581</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <f>+(D32-C32)/C32</f>
         <v>0.32816530409532135</v>
       </c>
@@ -58844,7 +59308,7 @@
       <c r="D33">
         <v>69168831575</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <f t="shared" ref="E33:E40" si="3">+(D33-C33)/C33</f>
         <v>0.30964176301586588</v>
       </c>
@@ -58859,7 +59323,7 @@
       <c r="D34">
         <v>42950624966</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <f t="shared" si="3"/>
         <v>0.48875713907517143</v>
       </c>
@@ -58874,7 +59338,7 @@
       <c r="D35">
         <v>26218206609</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <f t="shared" si="3"/>
         <v>9.4016604486302613E-2</v>
       </c>
@@ -58889,7 +59353,7 @@
       <c r="D36">
         <v>1325371393</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <f t="shared" si="3"/>
         <v>0.78561115125110492</v>
       </c>
@@ -58904,7 +59368,7 @@
       <c r="D37">
         <v>100812372</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <f t="shared" si="3"/>
         <v>-2.762559579920992E-2</v>
       </c>
@@ -58919,7 +59383,7 @@
       <c r="D38">
         <v>327197827</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <f t="shared" si="3"/>
         <v>0.32728146971696959</v>
       </c>
@@ -58934,7 +59398,7 @@
       <c r="D39">
         <v>175321570</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <f t="shared" si="3"/>
         <v>0.30722611228030783</v>
       </c>
@@ -58949,7 +59413,7 @@
       <c r="D40">
         <v>722039624</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <f t="shared" si="3"/>
         <v>1.799256179976495</v>
       </c>
@@ -58967,7 +59431,7 @@
       <c r="D42">
         <v>11763313646</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <f>+(D42-C42)/C42</f>
         <v>1.5029508263153236E-2</v>
       </c>
@@ -58982,7 +59446,7 @@
       <c r="D43">
         <v>11109359710</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <f t="shared" ref="E43:E50" si="4">+(D43-C43)/C43</f>
         <v>1.2092554005434134E-2</v>
       </c>
@@ -58997,7 +59461,7 @@
       <c r="D44">
         <v>2318312550</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <f t="shared" si="4"/>
         <v>6.6667154316600363E-2</v>
       </c>
@@ -59012,7 +59476,7 @@
       <c r="D45">
         <v>8791047160</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <f t="shared" si="4"/>
         <v>-1.3813267860868289E-3</v>
       </c>
@@ -59027,7 +59491,7 @@
       <c r="D46">
         <v>721744357</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <f t="shared" si="4"/>
         <v>0.10206115371794365</v>
       </c>
@@ -59042,7 +59506,7 @@
       <c r="D47">
         <v>566266312</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <f t="shared" si="4"/>
         <v>0.11978403505156668</v>
       </c>
@@ -59057,7 +59521,7 @@
       <c r="D48">
         <v>19656402</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <f t="shared" si="4"/>
         <v>0.22391806790775748</v>
       </c>
@@ -59072,7 +59536,7 @@
       <c r="D49">
         <v>61126716</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <f t="shared" si="4"/>
         <v>-1.1955463936562485E-2</v>
       </c>
@@ -59087,7 +59551,7 @@
       <c r="D50">
         <v>74694927</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <f t="shared" si="4"/>
         <v>4.7834038862048456E-2</v>
       </c>
@@ -59105,7 +59569,7 @@
       <c r="D52">
         <v>68296039986</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <f>+(D52-C52)/C52</f>
         <v>-0.19626435398544659</v>
       </c>
@@ -59120,7 +59584,7 @@
       <c r="D53">
         <v>84677754491</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <f t="shared" ref="E53:E60" si="5">+(D53-C53)/C53</f>
         <v>5.3589268758481405E-2</v>
       </c>
@@ -59135,7 +59599,7 @@
       <c r="D54">
         <v>21956567490</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="6">
         <f t="shared" si="5"/>
         <v>-0.4479032566074837</v>
       </c>
@@ -59150,7 +59614,7 @@
       <c r="D55">
         <v>62721187001</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <f t="shared" si="5"/>
         <v>0.54480642113032396</v>
       </c>
@@ -59165,7 +59629,7 @@
       <c r="D56">
         <v>1703931287</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <f t="shared" si="5"/>
         <v>1.1497923084409802</v>
       </c>
@@ -59180,7 +59644,7 @@
       <c r="D57">
         <v>105032789</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="6">
         <f t="shared" si="5"/>
         <v>-0.42578990552228707</v>
       </c>
@@ -59195,7 +59659,7 @@
       <c r="D58">
         <v>300189628</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="6">
         <f t="shared" si="5"/>
         <v>4.4728193346153772E-2</v>
       </c>
@@ -59210,7 +59674,7 @@
       <c r="D59">
         <v>587207692</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="6">
         <f t="shared" si="5"/>
         <v>1.5868454105265264</v>
       </c>
@@ -59225,7 +59689,7 @@
       <c r="D60">
         <v>711501178</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <f t="shared" si="5"/>
         <v>6.4619469442711894</v>
       </c>
@@ -59243,7 +59707,7 @@
       <c r="D62">
         <v>67754833523</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="6">
         <f>+(D62-C62)/C62</f>
         <v>0.30760068893590037</v>
       </c>
@@ -59258,7 +59722,7 @@
       <c r="D63">
         <v>66115820405</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="6">
         <f t="shared" ref="E63:E70" si="6">+(D63-C63)/C63</f>
         <v>0.28451237295199011</v>
       </c>
@@ -59273,7 +59737,7 @@
       <c r="D64">
         <v>41380958044</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="6">
         <f t="shared" si="6"/>
         <v>0.48877089819205799</v>
       </c>
@@ -59288,7 +59752,7 @@
       <c r="D65">
         <v>24734862361</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="6">
         <f t="shared" si="6"/>
         <v>4.4716448890178243E-2</v>
       </c>
@@ -59303,7 +59767,7 @@
       <c r="D66">
         <v>1139740303</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="6">
         <f t="shared" si="6"/>
         <v>0.60831797411290323</v>
       </c>
@@ -59318,7 +59782,7 @@
       <c r="D67">
         <v>153626898</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="6">
         <f t="shared" si="6"/>
         <v>0.55686288196734524</v>
       </c>
@@ -59333,7 +59797,7 @@
       <c r="D68">
         <v>296036920</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="6">
         <f t="shared" si="6"/>
         <v>0.23902388428377569</v>
       </c>
@@ -59348,7 +59812,7 @@
       <c r="D69">
         <v>143961722</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="6">
         <f t="shared" si="6"/>
         <v>0.17089918288221179</v>
       </c>
@@ -59363,7 +59827,7 @@
       <c r="D70">
         <v>546114763</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="6">
         <f t="shared" si="6"/>
         <v>1.2011958800934244</v>
       </c>
@@ -59381,7 +59845,7 @@
       <c r="D72">
         <v>74790930551</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="6">
         <f>+(D72-C72)/C72</f>
         <v>0.40035943287798692</v>
       </c>
@@ -59396,7 +59860,7 @@
       <c r="D73">
         <v>75177236176</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="6">
         <f t="shared" ref="E73:E80" si="7">+(D73-C73)/C73</f>
         <v>0.40304221865241024</v>
       </c>
@@ -59411,7 +59875,7 @@
       <c r="D74">
         <v>45910140086</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="6">
         <f t="shared" si="7"/>
         <v>0.58274735643380937</v>
       </c>
@@ -59426,7 +59890,7 @@
       <c r="D75">
         <v>29267096090</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="6">
         <f t="shared" si="7"/>
         <v>0.19093065075338639</v>
       </c>
@@ -59441,7 +59905,7 @@
       <c r="D76">
         <v>1316875442</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="6">
         <f t="shared" si="7"/>
         <v>0.78994459369135839</v>
       </c>
@@ -59456,7 +59920,7 @@
       <c r="D77">
         <v>128422641</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="6">
         <f t="shared" si="7"/>
         <v>0.30784483213736191</v>
       </c>
@@ -59471,7 +59935,7 @@
       <c r="D78">
         <v>328485626</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="6">
         <f t="shared" si="7"/>
         <v>0.40750916416400446</v>
       </c>
@@ -59486,7 +59950,7 @@
       <c r="D79">
         <v>198215118</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="6">
         <f t="shared" si="7"/>
         <v>0.48150055620796234</v>
       </c>
@@ -59501,7 +59965,7 @@
       <c r="D80">
         <v>661752057</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="6">
         <f t="shared" si="7"/>
         <v>1.4478602015644868</v>
       </c>
@@ -59519,7 +59983,7 @@
       <c r="D82">
         <v>78209961199</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="6">
         <f>+(D82-C82)/C82</f>
         <v>0.44919484442667712</v>
       </c>
@@ -59534,7 +59998,7 @@
       <c r="D83">
         <v>75608838999</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="6">
         <f t="shared" ref="E83:E90" si="8">+(D83-C83)/C83</f>
         <v>0.44977063674646239</v>
       </c>
@@ -59549,7 +60013,7 @@
       <c r="D84">
         <v>47072786365</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="6">
         <f t="shared" si="8"/>
         <v>0.62460911677382269</v>
       </c>
@@ -59564,7 +60028,7 @@
       <c r="D85">
         <v>28536052634</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="6">
         <f t="shared" si="8"/>
         <v>0.23119960065998979</v>
       </c>
@@ -59579,7 +60043,7 @@
       <c r="D86">
         <v>1339213903</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="6">
         <f t="shared" si="8"/>
         <v>0.85200576053552191</v>
       </c>
@@ -59594,7 +60058,7 @@
       <c r="D87">
         <v>168751108</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="6">
         <f t="shared" si="8"/>
         <v>0.69917789027128618</v>
       </c>
@@ -59609,7 +60073,7 @@
       <c r="D88">
         <v>338217643</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="6">
         <f t="shared" si="8"/>
         <v>0.44683704766766247</v>
       </c>
@@ -59624,7 +60088,7 @@
       <c r="D89">
         <v>131975085</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="6">
         <f t="shared" si="8"/>
         <v>-8.0898106135577057E-3</v>
       </c>
@@ -59639,7 +60103,7 @@
       <c r="D90">
         <v>700270067</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="6">
         <f t="shared" si="8"/>
         <v>1.7249229019702748</v>
       </c>
@@ -59657,7 +60121,7 @@
       <c r="D92">
         <v>11676938139</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="6">
         <f>+(D92-C92)/C92</f>
         <v>-1.3494306970266781E-2</v>
       </c>
@@ -59672,7 +60136,7 @@
       <c r="D93">
         <v>8632570910</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="6">
         <f t="shared" ref="E93:E100" si="9">+(D93-C93)/C93</f>
         <v>5.5916678900905618E-3</v>
       </c>
@@ -59687,7 +60151,7 @@
       <c r="D94">
         <v>276419069</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="6">
         <f t="shared" si="9"/>
         <v>-2.6383778201517393E-2</v>
       </c>
@@ -59702,7 +60166,7 @@
       <c r="D95">
         <v>8356151841</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="6">
         <f t="shared" si="9"/>
         <v>6.6853326758077218E-3</v>
       </c>
@@ -59717,7 +60181,7 @@
       <c r="D96">
         <v>3112592305</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="6">
         <f t="shared" si="9"/>
         <v>-1.0843869685961134E-2</v>
       </c>
@@ -59732,7 +60196,7 @@
       <c r="D97">
         <v>1564029501</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="6">
         <f t="shared" si="9"/>
         <v>-0.12831518611185364</v>
       </c>
@@ -59747,7 +60211,7 @@
       <c r="D98">
         <v>167029967</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="6">
         <f t="shared" si="9"/>
         <v>0.45669402097235146</v>
       </c>
@@ -59762,7 +60226,7 @@
       <c r="D99">
         <v>255078305</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="6">
         <f t="shared" si="9"/>
         <v>0.24978334552085976</v>
       </c>
@@ -59777,7 +60241,7 @@
       <c r="D100">
         <v>1126454532</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="6">
         <f t="shared" si="9"/>
         <v>8.9738230267900135E-2</v>
       </c>
@@ -59795,7 +60259,7 @@
       <c r="D102">
         <v>68200644646</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="6">
         <f>+(D102-C102)/C102</f>
         <v>-0.15062381620305787</v>
       </c>
@@ -59811,7 +60275,7 @@
       <c r="D103">
         <v>43434705715</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="6">
         <f t="shared" ref="E103:E110" si="10">+(D103-C103)/C103</f>
         <v>-0.48658127523743228</v>
       </c>
@@ -59827,7 +60291,7 @@
       <c r="D104">
         <v>32605655559</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="6">
         <f t="shared" si="10"/>
         <v>-0.15819996172998632</v>
       </c>
@@ -59843,7 +60307,7 @@
       <c r="D105">
         <v>10829050156</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="6">
         <f t="shared" si="10"/>
         <v>-0.7638967283398076</v>
       </c>
@@ -59859,7 +60323,7 @@
       <c r="D106">
         <v>1385685293</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="6">
         <f t="shared" si="10"/>
         <v>0.44196796152733286</v>
       </c>
@@ -59875,7 +60339,7 @@
       <c r="D107">
         <v>227379057</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="6">
         <f t="shared" si="10"/>
         <v>0.37471421871519445</v>
       </c>
@@ -59891,7 +60355,7 @@
       <c r="D108">
         <v>318768647</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="6">
         <f t="shared" si="10"/>
         <v>0.15206705657949041</v>
       </c>
@@ -59907,7 +60371,7 @@
       <c r="D109">
         <v>309442958</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="6">
         <f t="shared" si="10"/>
         <v>0.28969894986566652</v>
       </c>
@@ -59923,7 +60387,7 @@
       <c r="D110">
         <v>530094631</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="6">
         <f t="shared" si="10"/>
         <v>0.90038844067863777</v>
       </c>
@@ -59944,7 +60408,7 @@
       <c r="D112">
         <v>69366081699</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="6">
         <f>+(D112-C112)/C112</f>
         <v>0.29816313412242007</v>
       </c>
@@ -59960,7 +60424,7 @@
       <c r="D113">
         <v>68985363063</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="6">
         <f t="shared" ref="E113:E120" si="11">+(D113-C113)/C113</f>
         <v>0.2977890724158147</v>
       </c>
@@ -59976,7 +60440,7 @@
       <c r="D114">
         <v>41209797514</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="6">
         <f t="shared" si="11"/>
         <v>0.44510770348197937</v>
       </c>
@@ -59992,7 +60456,7 @@
       <c r="D115">
         <v>27775565549</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="6">
         <f t="shared" si="11"/>
         <v>0.127287046005747</v>
       </c>
@@ -60008,7 +60472,7 @@
       <c r="D116">
         <v>1277191784</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="6">
         <f t="shared" si="11"/>
         <v>0.80647749685558168</v>
       </c>
@@ -60024,7 +60488,7 @@
       <c r="D117">
         <v>144920588</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117" s="6">
         <f t="shared" si="11"/>
         <v>0.57423581274612678</v>
       </c>
@@ -60040,7 +60504,7 @@
       <c r="D118">
         <v>321355951</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118" s="6">
         <f t="shared" si="11"/>
         <v>0.32019117591767426</v>
       </c>
@@ -60056,7 +60520,7 @@
       <c r="D119">
         <v>178195622</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="6">
         <f t="shared" si="11"/>
         <v>0.49996510517332748</v>
       </c>
@@ -60072,7 +60536,7 @@
       <c r="D120">
         <v>632719623</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120" s="6">
         <f t="shared" si="11"/>
         <v>1.503510684002916</v>
       </c>
@@ -60093,7 +60557,7 @@
       <c r="D122">
         <v>71049210305</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="6">
         <f>+(D122-C122)/C122</f>
         <v>0.31206990826843156</v>
       </c>
@@ -60109,7 +60573,7 @@
       <c r="D123">
         <v>68147358853</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E123" s="6">
         <f t="shared" ref="E123:E130" si="12">+(D123-C123)/C123</f>
         <v>0.26548180758875656</v>
       </c>
@@ -60125,7 +60589,7 @@
       <c r="D124">
         <v>42184376230</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="6">
         <f t="shared" si="12"/>
         <v>0.44181695785301378</v>
       </c>
@@ -60141,7 +60605,7 @@
       <c r="D125">
         <v>25962982623</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="6">
         <f t="shared" si="12"/>
         <v>5.5700600230210798E-2</v>
       </c>
@@ -60157,7 +60621,7 @@
       <c r="D126">
         <v>1355399711</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="6">
         <f t="shared" si="12"/>
         <v>0.96474155148631413</v>
       </c>
@@ -60173,7 +60637,7 @@
       <c r="D127">
         <v>147286894</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E127" s="6">
         <f t="shared" si="12"/>
         <v>0.38721740688741357</v>
       </c>
@@ -60189,7 +60653,7 @@
       <c r="D128">
         <v>345013370</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E128" s="6">
         <f t="shared" si="12"/>
         <v>0.46228912245106712</v>
       </c>
@@ -60205,7 +60669,7 @@
       <c r="D129">
         <v>174723163</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E129" s="6">
         <f t="shared" si="12"/>
         <v>0.43733936550842178</v>
       </c>
@@ -60221,7 +60685,7 @@
       <c r="D130">
         <v>688376284</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E130" s="6">
         <f t="shared" si="12"/>
         <v>2.0434011605882296</v>
       </c>
@@ -60248,11 +60712,11 @@
       <c r="D132">
         <v>69513385821</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132" s="6">
         <f>+(D132-C132)/C132</f>
         <v>0.28724111345754083</v>
       </c>
-      <c r="G132" s="7">
+      <c r="G132" s="6">
         <v>0.44919484442667712</v>
       </c>
       <c r="I132" s="1">
@@ -60271,11 +60735,11 @@
       <c r="D133">
         <v>69431872627</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E133" s="6">
         <f t="shared" ref="E133:E140" si="13">+(D133-C133)/C133</f>
         <v>0.36508996835157809</v>
       </c>
-      <c r="G133" s="7">
+      <c r="G133" s="6">
         <v>0.44977063674646239</v>
       </c>
       <c r="I133" s="1">
@@ -60294,11 +60758,11 @@
       <c r="D134">
         <v>41738895626</v>
       </c>
-      <c r="E134" s="7">
+      <c r="E134" s="6">
         <f t="shared" si="13"/>
         <v>0.42979682075904779</v>
       </c>
-      <c r="G134" s="7">
+      <c r="G134" s="6">
         <v>0.62460911677382269</v>
       </c>
       <c r="I134" s="1">
@@ -60317,11 +60781,11 @@
       <c r="D135">
         <v>27692977001</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E135" s="6">
         <f t="shared" si="13"/>
         <v>0.27792299973917062</v>
       </c>
-      <c r="G135" s="7">
+      <c r="G135" s="6">
         <v>0.23119960065998979</v>
       </c>
       <c r="I135" s="1">
@@ -60340,11 +60804,11 @@
       <c r="D136">
         <v>1333703377</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E136" s="6">
         <f t="shared" si="13"/>
         <v>0.91952006420509935</v>
       </c>
-      <c r="G136" s="7">
+      <c r="G136" s="6">
         <v>0.85200576053552191</v>
       </c>
       <c r="I136" s="1">
@@ -60363,11 +60827,11 @@
       <c r="D137">
         <v>140466832</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E137" s="6">
         <f t="shared" si="13"/>
         <v>0.4144456899764189</v>
       </c>
-      <c r="G137" s="7">
+      <c r="G137" s="6">
         <v>0.69917789027128618</v>
       </c>
       <c r="I137" s="1">
@@ -60386,11 +60850,11 @@
       <c r="D138">
         <v>301512528</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E138" s="6">
         <f t="shared" si="13"/>
         <v>0.27863075845072388</v>
       </c>
-      <c r="G138" s="7">
+      <c r="G138" s="6">
         <v>0.44683704766766247</v>
       </c>
       <c r="I138" s="1">
@@ -60409,11 +60873,11 @@
       <c r="D139">
         <v>196974648</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E139" s="6">
         <f t="shared" si="13"/>
         <v>0.52152737010744554</v>
       </c>
-      <c r="G139" s="7">
+      <c r="G139" s="6">
         <v>-8.0898106135577057E-3</v>
       </c>
       <c r="I139" s="1">
@@ -60432,11 +60896,11 @@
       <c r="D140">
         <v>694749369</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E140" s="6">
         <f t="shared" si="13"/>
         <v>2.0175702492729419</v>
       </c>
-      <c r="G140" s="7">
+      <c r="G140" s="6">
         <v>1.7249229019702748</v>
       </c>
       <c r="I140" s="1">
@@ -60460,7 +60924,7 @@
       <c r="D142">
         <v>44776666110</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E142" s="6">
         <f>+(D142-C142)/C142</f>
         <v>-0.29744917323041148</v>
       </c>
@@ -60476,7 +60940,7 @@
       <c r="D143">
         <v>45103734069</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143" s="6">
         <f t="shared" ref="E143:E150" si="15">+(D143-C143)/C143</f>
         <v>-0.28140148161793294</v>
       </c>
@@ -60492,7 +60956,7 @@
       <c r="D144">
         <v>2890157713</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E144" s="6">
         <f t="shared" si="15"/>
         <v>-0.79853569320817097</v>
       </c>
@@ -60508,7 +60972,7 @@
       <c r="D145">
         <v>42213576356</v>
       </c>
-      <c r="E145" s="7">
+      <c r="E145" s="6">
         <f t="shared" si="15"/>
         <v>-0.12818782359772266</v>
       </c>
@@ -60524,7 +60988,7 @@
       <c r="D146">
         <v>1634002706</v>
       </c>
-      <c r="E146" s="7">
+      <c r="E146" s="6">
         <f t="shared" si="15"/>
         <v>-0.36637317522742097</v>
       </c>
@@ -60540,7 +61004,7 @@
       <c r="D147">
         <v>907772872</v>
       </c>
-      <c r="E147" s="7">
+      <c r="E147" s="6">
         <f t="shared" si="15"/>
         <v>-9.4903595817579067E-2</v>
       </c>
@@ -60556,7 +61020,7 @@
       <c r="D148">
         <v>425490701</v>
       </c>
-      <c r="E148" s="7">
+      <c r="E148" s="6">
         <f t="shared" si="15"/>
         <v>-2.7928816305622058E-2</v>
       </c>
@@ -60572,7 +61036,7 @@
       <c r="D149">
         <v>154047385</v>
       </c>
-      <c r="E149" s="7">
+      <c r="E149" s="6">
         <f t="shared" si="15"/>
         <v>-0.39593256157418233</v>
       </c>
@@ -60588,7 +61052,7 @@
       <c r="D150">
         <v>146691748</v>
       </c>
-      <c r="E150" s="7">
+      <c r="E150" s="6">
         <f t="shared" si="15"/>
         <v>-0.8338936937743251</v>
       </c>
@@ -60749,4 +61213,168 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.28724111345754083</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.44919484442667712</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1.5029508263153236E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.36508996835157809</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.44977063674646239</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.2092554005434134E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.42979682075904779</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.62460911677382269</v>
+      </c>
+      <c r="D4" s="6">
+        <v>6.6667154316600363E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.27792299973917062</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.23119960065998979</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-1.3813267860868289E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.91952006420509935</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.85200576053552191</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.10206115371794365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.4144456899764189</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.69917789027128618</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.11978403505156668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.27863075845072388</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.44683704766766247</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.22391806790775748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.52152737010744554</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-8.0898106135577057E-3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-1.1955463936562485E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2.0175702492729419</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.7249229019702748</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4.7834038862048456E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="798" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="40" yWindow="20" windowWidth="32100" windowHeight="18040" tabRatio="798" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_timings.txt" sheetId="1" r:id="rId1"/>
@@ -1308,7 +1308,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2168,6 +2167,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2432,11 +2432,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2126290040"/>
-        <c:axId val="2125680856"/>
+        <c:axId val="-2123365320"/>
+        <c:axId val="-2123359800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2126290040"/>
+        <c:axId val="-2123365320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2471,7 +2471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125680856"/>
+        <c:crossAx val="-2123359800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2479,7 +2479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125680856"/>
+        <c:axId val="-2123359800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,19 +2502,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126290040"/>
+        <c:crossAx val="-2123365320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2565,6 +2567,15 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$10</c:f>
@@ -2652,6 +2663,15 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$10</c:f>
@@ -2715,7 +2735,7 @@
                   <c:v>0.446837047667662</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.0080898106135577</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.724922901970275</c:v>
@@ -2739,6 +2759,15 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$10</c:f>
@@ -2802,7 +2831,7 @@
                   <c:v>0.223918067907757</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.0119554639365625</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.0478340388620484</c:v>
@@ -2820,11 +2849,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2095253800"/>
-        <c:axId val="2095115112"/>
+        <c:axId val="-2112299384"/>
+        <c:axId val="-2112296408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2095253800"/>
+        <c:axId val="-2112299384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2833,7 +2862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095115112"/>
+        <c:crossAx val="-2112296408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2841,7 +2870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095115112"/>
+        <c:axId val="-2112296408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,7 +2881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095253800"/>
+        <c:crossAx val="-2112299384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2909,6 +2938,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3059,11 +3089,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2126286392"/>
-        <c:axId val="2126295256"/>
+        <c:axId val="-2115258824"/>
+        <c:axId val="-2115253304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2126286392"/>
+        <c:axId val="-2115258824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3085,12 +3115,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126295256"/>
+        <c:crossAx val="-2115253304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3098,7 +3129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126295256"/>
+        <c:axId val="-2115253304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3126,13 +3157,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126286392"/>
+        <c:crossAx val="-2115258824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3179,6 +3211,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3320,11 +3353,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2126139768"/>
-        <c:axId val="2125953560"/>
+        <c:axId val="-2123303144"/>
+        <c:axId val="-2115783032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2126139768"/>
+        <c:axId val="-2123303144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3346,12 +3379,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125953560"/>
+        <c:crossAx val="-2115783032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3359,7 +3393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125953560"/>
+        <c:axId val="-2115783032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3382,19 +3416,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126139768"/>
+        <c:crossAx val="-2123303144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3685,11 +3721,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2125497320"/>
-        <c:axId val="2125511400"/>
+        <c:axId val="-2115683288"/>
+        <c:axId val="-2127130584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2125497320"/>
+        <c:axId val="-2115683288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3720,7 +3756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125511400"/>
+        <c:crossAx val="-2127130584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3728,7 +3764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125511400"/>
+        <c:axId val="-2127130584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3762,7 +3798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125497320"/>
+        <c:crossAx val="-2115683288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3968,11 +4004,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2126263208"/>
-        <c:axId val="2126267192"/>
+        <c:axId val="-2127027864"/>
+        <c:axId val="-2115710904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2126263208"/>
+        <c:axId val="-2127027864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3999,7 +4035,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126267192"/>
+        <c:crossAx val="-2115710904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4007,7 +4043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126267192"/>
+        <c:axId val="-2115710904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4036,7 +4072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126263208"/>
+        <c:crossAx val="-2127027864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4229,11 +4265,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2125677320"/>
-        <c:axId val="2070950776"/>
+        <c:axId val="-2115109432"/>
+        <c:axId val="-2127254808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2125677320"/>
+        <c:axId val="-2115109432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4260,7 +4296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070950776"/>
+        <c:crossAx val="-2127254808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4268,7 +4304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2070950776"/>
+        <c:axId val="-2127254808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4297,7 +4333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125677320"/>
+        <c:crossAx val="-2115109432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4594,11 +4630,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2123870440"/>
-        <c:axId val="2123950136"/>
+        <c:axId val="-2112438936"/>
+        <c:axId val="-2112433352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2123870440"/>
+        <c:axId val="-2112438936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4626,7 +4662,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123950136"/>
+        <c:crossAx val="-2112433352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4634,7 +4670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123950136"/>
+        <c:axId val="-2112433352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4664,7 +4700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123870440"/>
+        <c:crossAx val="-2112438936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4946,11 +4982,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2123983448"/>
-        <c:axId val="2123989032"/>
+        <c:axId val="-2112560504"/>
+        <c:axId val="-2112554920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2123983448"/>
+        <c:axId val="-2112560504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4978,7 +5014,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123989032"/>
+        <c:crossAx val="-2112554920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4986,7 +5022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123989032"/>
+        <c:axId val="-2112554920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5016,7 +5052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123983448"/>
+        <c:crossAx val="-2112560504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5074,6 +5110,15 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Comparing 10 and 20 THREADS'!$A$2:$A$16</c:f>
@@ -5197,6 +5242,15 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Comparing 10 and 20 THREADS'!$A$2:$A$16</c:f>
@@ -5314,11 +5368,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2124022360"/>
-        <c:axId val="2124028504"/>
+        <c:axId val="-2112364104"/>
+        <c:axId val="-2112357960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2124022360"/>
+        <c:axId val="-2112364104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5375,7 +5429,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124028504"/>
+        <c:crossAx val="-2112357960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5383,7 +5437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124028504"/>
+        <c:axId val="-2112357960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5413,7 +5467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124022360"/>
+        <c:crossAx val="-2112364104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10562,7 +10616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="E83" sqref="E83:E84"/>
     </sheetView>
   </sheetViews>
@@ -58832,8 +58886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I200"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:E50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -61220,7 +61274,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -61348,10 +61402,10 @@
         <v>0.52152737010744554</v>
       </c>
       <c r="C9" s="6">
-        <v>-8.0898106135577057E-3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6">
-        <v>-1.1955463936562485E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">

--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="20" windowWidth="32100" windowHeight="18040" tabRatio="798" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="798" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_timings.txt" sheetId="1" r:id="rId1"/>
@@ -1308,6 +1308,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2167,7 +2168,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2432,11 +2432,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2123365320"/>
-        <c:axId val="-2123359800"/>
+        <c:axId val="2068137288"/>
+        <c:axId val="2068148568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2123365320"/>
+        <c:axId val="2068137288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2471,7 +2471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123359800"/>
+        <c:crossAx val="2068148568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2479,7 +2479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123359800"/>
+        <c:axId val="2068148568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,21 +2502,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123365320"/>
+        <c:crossAx val="2068137288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2545,7 +2543,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2849,20 +2847,64 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2112299384"/>
-        <c:axId val="-2112296408"/>
+        <c:axId val="2066486824"/>
+        <c:axId val="2125898056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112299384"/>
+        <c:axId val="2066486824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000">
+                    <a:effectLst/>
+                    <a:latin typeface="CMR10"/>
+                  </a:rPr>
+                  <a:t>Data Cache Miss Stall Counters on POWER8</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112296408"/>
+        <c:crossAx val="2125898056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2870,18 +2912,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112296408"/>
+        <c:axId val="2125898056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Improvement (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112299384"/>
+        <c:crossAx val="2066486824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2938,7 +2999,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3089,11 +3149,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2115258824"/>
-        <c:axId val="-2115253304"/>
+        <c:axId val="2127469368"/>
+        <c:axId val="2127404680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2115258824"/>
+        <c:axId val="2127469368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3115,13 +3175,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115253304"/>
+        <c:crossAx val="2127404680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3129,7 +3188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115253304"/>
+        <c:axId val="2127404680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3157,14 +3216,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115258824"/>
+        <c:crossAx val="2127469368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3211,7 +3269,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3353,11 +3410,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2123303144"/>
-        <c:axId val="-2115783032"/>
+        <c:axId val="2127491496"/>
+        <c:axId val="2067405960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2123303144"/>
+        <c:axId val="2127491496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,13 +3436,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115783032"/>
+        <c:crossAx val="2067405960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3393,7 +3449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115783032"/>
+        <c:axId val="2067405960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3416,21 +3472,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123303144"/>
+        <c:crossAx val="2127491496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3721,11 +3775,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2115683288"/>
-        <c:axId val="-2127130584"/>
+        <c:axId val="2126579688"/>
+        <c:axId val="2126664136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2115683288"/>
+        <c:axId val="2126579688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3756,7 +3810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127130584"/>
+        <c:crossAx val="2126664136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3764,7 +3818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127130584"/>
+        <c:axId val="2126664136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3798,7 +3852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115683288"/>
+        <c:crossAx val="2126579688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4004,11 +4058,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127027864"/>
-        <c:axId val="-2115710904"/>
+        <c:axId val="2067394840"/>
+        <c:axId val="2127144344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127027864"/>
+        <c:axId val="2067394840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4035,7 +4089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115710904"/>
+        <c:crossAx val="2127144344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4043,7 +4097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115710904"/>
+        <c:axId val="2127144344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4072,7 +4126,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127027864"/>
+        <c:crossAx val="2067394840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4265,11 +4319,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2115109432"/>
-        <c:axId val="-2127254808"/>
+        <c:axId val="2067430120"/>
+        <c:axId val="2126957080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2115109432"/>
+        <c:axId val="2067430120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4296,7 +4350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127254808"/>
+        <c:crossAx val="2126957080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4304,7 +4358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127254808"/>
+        <c:axId val="2126957080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4333,7 +4387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115109432"/>
+        <c:crossAx val="2067430120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4630,11 +4684,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2112438936"/>
-        <c:axId val="-2112433352"/>
+        <c:axId val="2127167240"/>
+        <c:axId val="2126788392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112438936"/>
+        <c:axId val="2127167240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4662,7 +4716,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112433352"/>
+        <c:crossAx val="2126788392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4670,7 +4724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112433352"/>
+        <c:axId val="2126788392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4700,7 +4754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112438936"/>
+        <c:crossAx val="2127167240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4982,11 +5036,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2112560504"/>
-        <c:axId val="-2112554920"/>
+        <c:axId val="2127305128"/>
+        <c:axId val="2067993832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112560504"/>
+        <c:axId val="2127305128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5008,13 +5062,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112554920"/>
+        <c:crossAx val="2067993832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5022,7 +5075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112554920"/>
+        <c:axId val="2067993832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5045,21 +5098,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112560504"/>
+        <c:crossAx val="2127305128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5368,11 +5419,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2112364104"/>
-        <c:axId val="-2112357960"/>
+        <c:axId val="2123553864"/>
+        <c:axId val="2123527832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112364104"/>
+        <c:axId val="2123553864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5429,7 +5480,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112357960"/>
+        <c:crossAx val="2123527832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5437,7 +5488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112357960"/>
+        <c:axId val="2123527832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5467,7 +5518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112364104"/>
+        <c:crossAx val="2123553864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -51308,7 +51359,7 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="798" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="798" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_timings.txt" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11569" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11648" uniqueCount="421">
   <si>
     <t>----------------------</t>
   </si>
@@ -1297,6 +1297,15 @@
   <si>
     <t>DMISS_DISTANT</t>
   </si>
+  <si>
+    <t>40 Threads</t>
+  </si>
+  <si>
+    <t>80 Threads</t>
+  </si>
+  <si>
+    <t>160 Threads</t>
+  </si>
 </sst>
 </file>
 
@@ -1368,7 +1377,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="368">
+  <cellStyleXfs count="632">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1737,8 +1746,272 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1749,8 +2022,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="368">
+  <cellStyles count="632">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1934,6 +2208,138 @@
     <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="631" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2117,6 +2523,138 @@
     <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="498" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="504" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="524" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="526" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="562" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="564" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="578" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="580" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="582" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="592" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="594" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="596" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="598" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="600" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="602" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="604" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="606" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="608" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="610" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="612" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="614" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="616" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="618" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="620" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="622" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="624" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="626" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="628" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="630" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="313" builtinId="5"/>
   </cellStyles>
@@ -2168,6 +2706,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2502,6 +3041,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2515,6 +3055,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2530,6 +3071,1503 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$B$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$120:$A$134</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$B$120:$B$134</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.477305892055196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000318194949235261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17930777347908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.241462400522004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.192928487098745</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.187258725327052</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.192069560881187</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.273453281894179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.251941197444194</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.307821259520285</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.280313381861853</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$C$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$120:$A$134</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$C$120:$C$134</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.582626590456454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.377096545185983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00178289112392839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4671148487429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63514208985573</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.618635257248074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60479320761319</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.000728873528646939</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.414555996949805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.601252679534393</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65541422208192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.707499108179363</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$D$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$120:$A$134</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$D$120:$D$134</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.012</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0%">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0%">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0%">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0%">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0%">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0%">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0%">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0%">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0%">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0%">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0%">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0%">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$E$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$120:$A$134</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$E$120:$E$134</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$F$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>160 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$120:$A$134</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$F$120:$F$134</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2087851256"/>
+        <c:axId val="2095116792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2087851256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>OpenMP Affinity (OMP_PROC_BIND, OMP_PLACES)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2095116792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2095116792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Improvement (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2087851256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$B$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$120:$A$134</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$B$120:$B$134</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.477305892055196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000318194949235261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17930777347908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.241462400522004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.192928487098745</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.187258725327052</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.192069560881187</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.273453281894179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.251941197444194</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.307821259520285</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.280313381861853</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$C$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$120:$A$134</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$C$120:$C$134</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.582626590456454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.377096545185983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00178289112392839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4671148487429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63514208985573</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.618635257248074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60479320761319</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.000728873528646939</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.414555996949805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.601252679534393</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65541422208192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.707499108179363</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$D$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$120:$A$134</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$D$120:$D$134</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.012</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0%">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0%">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0%">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0%">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0%">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0%">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0%">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0%">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0%">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0%">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0%">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0%">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$E$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$120:$A$134</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$E$120:$E$134</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$F$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>160 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$A$120:$A$134</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparing 10 and 20 THREADS'!$F$120:$F$134</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2128859176"/>
+        <c:axId val="2128862264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2128859176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2128862264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2128862264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2128859176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2999,6 +5037,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3175,6 +5214,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3216,6 +5256,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -5062,6 +7103,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
@@ -5098,6 +7140,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5111,6 +7154,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5822,6 +7866,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6188,8 +8292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H720"/>
   <sheetViews>
-    <sheetView topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="D108" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A590" workbookViewId="0">
+      <selection activeCell="B606" sqref="B606:B720"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10667,8 +12771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83:E84"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10907,7 +13011,7 @@
         <v>2.8364563899813202</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f>+(C16-B16)/B16</f>
         <v>0.70749910817936301</v>
       </c>
     </row>
@@ -51356,17 +53460,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="D121" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="20.1640625" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>
   </cols>
@@ -51968,10 +54073,1190 @@
         <v>2.8364563899813202</v>
       </c>
     </row>
+    <row r="65" spans="1:5">
+      <c r="B65" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>370</v>
+      </c>
+      <c r="B66" t="s">
+        <v>374</v>
+      </c>
+      <c r="C66" t="s">
+        <v>375</v>
+      </c>
+      <c r="D66" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>393</v>
+      </c>
+      <c r="B67">
+        <v>2.8412012209882902</v>
+      </c>
+      <c r="C67">
+        <v>4.0655121710151398</v>
+      </c>
+      <c r="D67">
+        <f>+(B67-C67)/C67*-100</f>
+        <v>30.114556260721876</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>394</v>
+      </c>
+      <c r="B68">
+        <v>7.0246199970133603</v>
+      </c>
+      <c r="C68">
+        <v>7.1290223170071796</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D81" si="0">+(B68-C68)/C68*-100</f>
+        <v>1.4644689741643038</v>
+      </c>
+      <c r="E68" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>395</v>
+      </c>
+      <c r="B69">
+        <v>7.0378276430128599</v>
+      </c>
+      <c r="C69">
+        <v>7.1228695590107201</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>1.1939277463010489</v>
+      </c>
+      <c r="E69" s="8">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70">
+        <v>1.4609706659975901</v>
+      </c>
+      <c r="C70">
+        <v>2.2605971180018898</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="0"/>
+        <v>35.372355632793088</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>396</v>
+      </c>
+      <c r="B71">
+        <v>28.065820582007198</v>
+      </c>
+      <c r="C71">
+        <v>27.980276731977899</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="0"/>
+        <v>-0.30572910642993756</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>397</v>
+      </c>
+      <c r="B72">
+        <v>2.1907353679998698</v>
+      </c>
+      <c r="C72">
+        <v>4.1890189539990299</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="0"/>
+        <v>47.70290151328885</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>398</v>
+      </c>
+      <c r="B73">
+        <v>1.42632630301523</v>
+      </c>
+      <c r="C73">
+        <v>2.19185660799848</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="0"/>
+        <v>34.926112510722277</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>399</v>
+      </c>
+      <c r="B74">
+        <v>1.43530561999068</v>
+      </c>
+      <c r="C74">
+        <v>2.4637530859908998</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="0"/>
+        <v>41.743122387062883</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75">
+        <v>1.4283346269803501</v>
+      </c>
+      <c r="C75">
+        <v>2.5695100690063502</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="0"/>
+        <v>44.412180196954886</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>400</v>
+      </c>
+      <c r="B76">
+        <v>19.687062151002401</v>
+      </c>
+      <c r="C76">
+        <v>19.694321557995799</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="0"/>
+        <v>3.6860406549273382E-2</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>401</v>
+      </c>
+      <c r="B77">
+        <v>2.0511925369792099</v>
+      </c>
+      <c r="C77">
+        <v>3.2364424560219001</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="0"/>
+        <v>36.621998850538809</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>402</v>
+      </c>
+      <c r="B78">
+        <v>1.45835989000624</v>
+      </c>
+      <c r="C78">
+        <v>2.3144642760162202</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="0"/>
+        <v>36.989310869103278</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>403</v>
+      </c>
+      <c r="B79">
+        <v>1.4534579510218399</v>
+      </c>
+      <c r="C79">
+        <v>2.2565551779989601</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="0"/>
+        <v>35.589523128314582</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80">
+        <v>1.461812035006</v>
+      </c>
+      <c r="C80">
+        <v>2.27704119100235</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="0"/>
+        <v>35.802125987781864</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>404</v>
+      </c>
+      <c r="B81">
+        <v>7.0188462930091102</v>
+      </c>
+      <c r="C81">
+        <v>7.0273548509867299</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="0"/>
+        <v>0.12107767656595447</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>370</v>
+      </c>
+      <c r="B83" t="s">
+        <v>374</v>
+      </c>
+      <c r="C83" t="s">
+        <v>375</v>
+      </c>
+      <c r="D83" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>393</v>
+      </c>
+      <c r="B84">
+        <v>2.0515929629909802</v>
+      </c>
+      <c r="C84">
+        <v>3.2038086179818399</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ref="D84:D98" si="1">+(B84-C84)/C84*-100</f>
+        <v>35.963935190257075</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>394</v>
+      </c>
+      <c r="B85">
+        <v>2.5209673720237298</v>
+      </c>
+      <c r="C85">
+        <v>3.1601660300220802</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>20.226742896602946</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>395</v>
+      </c>
+      <c r="B86">
+        <v>2.5184595699829502</v>
+      </c>
+      <c r="C86">
+        <v>3.17293671701918</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>20.626857873518489</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87">
+        <v>1.3068449499842201</v>
+      </c>
+      <c r="C87">
+        <v>2.37446859499323</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>44.962634892716025</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>396</v>
+      </c>
+      <c r="B88">
+        <v>28.088116539001899</v>
+      </c>
+      <c r="C88">
+        <v>28.142784222</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>0.19425115357053313</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>397</v>
+      </c>
+      <c r="B89">
+        <v>2.1392993199988202</v>
+      </c>
+      <c r="C89">
+        <v>2.8411916889890501</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>24.704153954497048</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>398</v>
+      </c>
+      <c r="B90">
+        <v>1.3012911269906899</v>
+      </c>
+      <c r="C90">
+        <v>2.2828322279965501</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>42.996637640220989</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>399</v>
+      </c>
+      <c r="B91">
+        <v>1.30376060001435</v>
+      </c>
+      <c r="C91">
+        <v>2.29445118800504</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>43.177671121087009</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92">
+        <v>1.2981667450221701</v>
+      </c>
+      <c r="C92">
+        <v>2.3615508869988799</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>45.029058989623806</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>400</v>
+      </c>
+      <c r="B93">
+        <v>19.9084958250168</v>
+      </c>
+      <c r="C93">
+        <v>19.922896260977701</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>7.2280835940038451E-2</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>401</v>
+      </c>
+      <c r="B94">
+        <v>2.04276678399764</v>
+      </c>
+      <c r="C94">
+        <v>3.16350402700481</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>35.427084443078094</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>402</v>
+      </c>
+      <c r="B95">
+        <v>1.3191851479932599</v>
+      </c>
+      <c r="C95">
+        <v>2.1083383109944398</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>37.430101179016191</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>403</v>
+      </c>
+      <c r="B96">
+        <v>1.34740761198918</v>
+      </c>
+      <c r="C96">
+        <v>2.1917613639961901</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>38.523981938778157</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97">
+        <v>1.33311822399264</v>
+      </c>
+      <c r="C97">
+        <v>2.1469678999856101</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>37.906932655976128</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>404</v>
+      </c>
+      <c r="B98">
+        <v>6.9907048789900701</v>
+      </c>
+      <c r="C98">
+        <v>7.0450661309878297</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>0.77162159995419866</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>370</v>
+      </c>
+      <c r="B101" t="s">
+        <v>374</v>
+      </c>
+      <c r="C101" t="s">
+        <v>375</v>
+      </c>
+      <c r="D101" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>393</v>
+      </c>
+      <c r="B102">
+        <v>1.4010850719932899</v>
+      </c>
+      <c r="C102">
+        <v>2.7055133989779199</v>
+      </c>
+      <c r="D102">
+        <f t="shared" ref="D102:D116" si="2">+(B102-C102)/C102*-100</f>
+        <v>48.213707885439142</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>394</v>
+      </c>
+      <c r="B103">
+        <v>1.3153620709781499</v>
+      </c>
+      <c r="C103">
+        <v>2.27952616199036</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="2"/>
+        <v>42.296688982518795</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>395</v>
+      </c>
+      <c r="B104">
+        <v>1.3098165560222601</v>
+      </c>
+      <c r="C104">
+        <v>2.2629663080151601</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="2"/>
+        <v>42.119484882163547</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105">
+        <v>1.3161007649905501</v>
+      </c>
+      <c r="C105">
+        <v>2.27583923999918</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="2"/>
+        <v>42.17074994317155</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>396</v>
+      </c>
+      <c r="B106">
+        <v>28.300511869980198</v>
+      </c>
+      <c r="C106">
+        <v>28.285548279003699</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="2"/>
+        <v>-5.290189473755761E-2</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>397</v>
+      </c>
+      <c r="B107">
+        <v>1.4603680900181599</v>
+      </c>
+      <c r="C107">
+        <v>2.6303375889838199</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="2"/>
+        <v>44.479822813073014</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>398</v>
+      </c>
+      <c r="B108">
+        <v>1.3111044309916899</v>
+      </c>
+      <c r="C108">
+        <v>2.2638585729873699</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="2"/>
+        <v>42.085409104793733</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>399</v>
+      </c>
+      <c r="B109">
+        <v>1.3137250949803201</v>
+      </c>
+      <c r="C109">
+        <v>2.4445491940132298</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="2"/>
+        <v>46.259003574251231</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110">
+        <v>1.31390877399826</v>
+      </c>
+      <c r="C110">
+        <v>2.44662824500119</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="2"/>
+        <v>46.29716318027625</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>400</v>
+      </c>
+      <c r="B111">
+        <v>19.940691199997602</v>
+      </c>
+      <c r="C111">
+        <v>19.977155144995699</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="2"/>
+        <v>0.18252821652251763</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>401</v>
+      </c>
+      <c r="B112">
+        <v>1.42694719100836</v>
+      </c>
+      <c r="C112">
+        <v>2.3899737189931298</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="2"/>
+        <v>40.29444007403071</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>402</v>
+      </c>
+      <c r="B113">
+        <v>1.3162686940049699</v>
+      </c>
+      <c r="C113">
+        <v>2.1763586050074002</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="2"/>
+        <v>39.519677916292004</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>403</v>
+      </c>
+      <c r="B114">
+        <v>1.3079331069893601</v>
+      </c>
+      <c r="C114">
+        <v>2.2873152710089899</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="2"/>
+        <v>42.817978633422086</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115">
+        <v>1.3152178809977999</v>
+      </c>
+      <c r="C115">
+        <v>2.3207539879949701</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="2"/>
+        <v>43.327992204202111</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>404</v>
+      </c>
+      <c r="B116">
+        <v>6.9989121440157698</v>
+      </c>
+      <c r="C116">
+        <v>7.0143676970037596</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="2"/>
+        <v>0.22034135727717549</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>370</v>
+      </c>
+      <c r="B119" t="s">
+        <v>372</v>
+      </c>
+      <c r="C119" t="s">
+        <v>371</v>
+      </c>
+      <c r="D119" t="s">
+        <v>418</v>
+      </c>
+      <c r="E119" t="s">
+        <v>419</v>
+      </c>
+      <c r="F119" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>393</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0.47730589205519569</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.58262659045645404</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>394</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
+      <c r="D121" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>395</v>
+      </c>
+      <c r="B122" s="1">
+        <v>3.1819494923526081E-4</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0</v>
+      </c>
+      <c r="D122" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0.17930777347908008</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0.37709654518598323</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>396</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1.7828911239283866E-3</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>397</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0.24146240052200402</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.4671148487428996</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>398</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0.19292848709874541</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0.63514208985572995</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>399</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0.18725872532705251</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.61863525724807433</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0.19206956088118673</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.60479320761319022</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>400</v>
+      </c>
+      <c r="B129" s="1">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1">
+        <v>7.2887352864693937E-4</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>401</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0.27345328189417861</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0.41455599694980522</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>402</v>
+      </c>
+      <c r="B131" s="1">
+        <v>0.25194119744419363</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0.60125267953439354</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>403</v>
+      </c>
+      <c r="B132" s="1">
+        <v>0.30782125952028516</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0.65541422208192057</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>33</v>
+      </c>
+      <c r="B133" s="1">
+        <v>0.28031338186185306</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0.70749910817936301</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>404</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B65:D65"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -58938,7 +62223,7 @@
   <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+      <selection sqref="A1:A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -61324,7 +64609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="798" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="915" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_timings.txt" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="Comparing 10 and 20 THREADS" sheetId="5" r:id="rId5"/>
     <sheet name="HW_20_Analysis" sheetId="7" r:id="rId6"/>
     <sheet name="HW_20_Final" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
+    <sheet name="HW_Imp" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="thread_mapping_experiments" localSheetId="3">'Thread Mappings'!$A$1:$B$5205</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11648" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11654" uniqueCount="427">
   <si>
     <t>----------------------</t>
   </si>
@@ -1306,6 +1307,24 @@
   <si>
     <t>160 Threads</t>
   </si>
+  <si>
+    <t>spread,cores</t>
+  </si>
+  <si>
+    <t>true,cores</t>
+  </si>
+  <si>
+    <t>close,cores</t>
+  </si>
+  <si>
+    <t>spread,threads</t>
+  </si>
+  <si>
+    <t>close,socket</t>
+  </si>
+  <si>
+    <t>close,threads</t>
+  </si>
 </sst>
 </file>
 
@@ -1377,7 +1396,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="632">
+  <cellStyleXfs count="658">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2010,6 +2029,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2024,7 +2069,7 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="632">
+  <cellStyles count="658">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2340,6 +2385,19 @@
     <cellStyle name="Followed Hyperlink" xfId="627" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="629" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="657" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2655,6 +2713,19 @@
     <cellStyle name="Hyperlink" xfId="626" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="628" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="630" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="632" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="634" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="636" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="638" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="640" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="642" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="644" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="646" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="648" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="650" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="652" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="654" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="656" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="313" builtinId="5"/>
   </cellStyles>
@@ -3882,7 +3953,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -3904,6 +3975,15 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Comparing 10 and 20 THREADS'!$A$120:$A$134</c:f>
@@ -4027,6 +4107,15 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Comparing 10 and 20 THREADS'!$A$120:$A$134</c:f>
@@ -4150,6 +4239,15 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Comparing 10 and 20 THREADS'!$A$120:$A$134</c:f>
@@ -4273,6 +4371,15 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Comparing 10 and 20 THREADS'!$A$120:$A$134</c:f>
@@ -4396,6 +4503,15 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Comparing 10 and 20 THREADS'!$A$120:$A$134</c:f>
@@ -4523,7 +4639,33 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>OpenMP Affinity (OMP_PROC_BIND, OMP_PLACES)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2128862264"/>
@@ -4541,6 +4683,25 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Improvement (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4593,7 +4754,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>HW_Imp!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4614,7 +4775,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>HW_Imp!$A$2:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -4649,7 +4810,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>HW_Imp!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4689,7 +4850,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>HW_Imp!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4710,7 +4871,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>HW_Imp!$A$2:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -4745,7 +4906,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>HW_Imp!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4785,7 +4946,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>HW_Imp!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4806,7 +4967,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>HW_Imp!$A$2:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -4841,7 +5002,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>HW_Imp!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7778,16 +7939,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7904,10 +8065,10 @@
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -53462,8 +53623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D121" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:F134"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -62223,7 +62384,7 @@
   <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A142"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -64609,8 +64770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -64767,4 +64928,819 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C150"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>1.2981667450221701</v>
+      </c>
+      <c r="B1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1.3012911269906899</v>
+      </c>
+      <c r="B2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1.30376060001435</v>
+      </c>
+      <c r="B3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1.3068449499842201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1.3079331069893601</v>
+      </c>
+      <c r="B5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1.3098165560222601</v>
+      </c>
+      <c r="B6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1.3111044309916899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1.3137250949803201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1.31390877399826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1.3152178809977999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1.3153620709781499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1.3161007649905501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1.3162686940049699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1.3191851479932599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1.33311822399264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1.34740761198918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>1.4010850719932899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>1.42632630301523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>1.42694719100836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>1.4283346269803501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>1.43530561999068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>1.4534579510218399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>1.45835989000624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>1.4603680900181599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>1.4609706659975901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>1.461812035006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>1.6517432550026501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>1.65563546901103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>1.6557022299966699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>1.65830750600434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>1.6611759130028001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>1.6688668710121399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>1.6779178959841301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>2.04276678399764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>2.0511925369792099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>2.0515929629909802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>2.1083383109944398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>2.1392993199988202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>2.1469678999856101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>2.1763586050074002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>2.1907353679998698</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>2.1917613639961901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>2.19185660799848</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>2.2565551779989601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>2.2605971180018898</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>2.2629663080151601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>2.2638585729873699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>2.2746099299983999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>2.27583923999918</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>2.27704119100235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>2.27952616199036</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>2.2828322279965501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>2.2873152710089899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>2.29445118800504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>2.3144642760162202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>2.3207539879949701</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>2.33963019598741</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>2.3615508869988799</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>2.37446859499323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>2.3899737189931298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>2.3900795340014098</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>2.4445491940132298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>2.44662824500119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>2.4637530859908998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>2.5177050229976801</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>2.5184595699829502</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>2.5209673720237298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>2.5695100690063502</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>2.6303375889838199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>2.6781862190109602</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>2.6799780049768702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>2.6867705269833002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>2.7055133989779199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>2.7115684009913799</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>2.74076250198413</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>2.8364563899813202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>2.8411916889890501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>2.8412012209882902</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>2.92893046300741</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>2.9510225460107899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>2.97052923101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>2.9858596170088201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>3.0109970970079298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>3.03875824500573</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>3.1138515420025201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>3.12055050898925</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>3.1601660300220802</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>3.16350402700481</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>3.17293671701918</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>3.2038086179818399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>3.2364424560219001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>3.3212179240072102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>3.3304895180044598</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>3.3809013380086901</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>3.4541104630043198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>3.54107747599482</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>3.69376242399448</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>3.7027609600045199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>3.73803968401625</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>3.80434663599589</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>3.8228360240172998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>3.85941002299659</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>3.9431449589901599</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>3.97303582201129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>3.97387528698891</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>4.0655121710151398</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>4.1890189539990299</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>4.6001112299854796</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>6.1467810659960298</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>6.38375211699167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>6.6855504900158804</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>6.74924854998243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>6.9907048789900701</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>6.9989121440157698</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>7.0143676970037596</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>7.0188462930091102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>7.0246199970133603</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>7.0273548509867299</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>7.0378276430128599</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>7.0450661309878297</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>7.1228695590107201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>7.1290223170071796</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>8.8345967940113006</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>8.8366083370056003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>8.8572307410067808</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>8.9924809829972201</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>15.9599736139934</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>15.963452338997699</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>15.965051996987301</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>15.967569817003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>19.687062151002401</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>19.694321557995799</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>19.737864591006598</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>19.752250998019001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>19.778372072003499</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>19.879682635975701</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>19.9084958250168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>19.922896260977701</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>19.940691199997602</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>19.977155144995699</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>27.961290691018799</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>27.980276731977899</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>28.011142628005398</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>28.065820582007198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>28.088116539001899</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>28.142784222</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>28.2745326239964</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>28.285548279003699</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>28.300511869980198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>28.3149772839969</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A150">
+    <sortCondition ref="A150"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="915" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="915" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_timings.txt" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,10 @@
     <sheet name="Thread Mappings" sheetId="3" r:id="rId4"/>
     <sheet name="Comparing 10 and 20 THREADS" sheetId="5" r:id="rId5"/>
     <sheet name="HW_20_Analysis" sheetId="7" r:id="rId6"/>
-    <sheet name="HW_20_Final" sheetId="8" r:id="rId7"/>
-    <sheet name="HW_Imp" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId7"/>
+    <sheet name="HW_20_Final" sheetId="8" r:id="rId8"/>
+    <sheet name="HW_Imp" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="thread_mapping_experiments" localSheetId="3">'Thread Mappings'!$A$1:$B$5205</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11654" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11699" uniqueCount="431">
   <si>
     <t>----------------------</t>
   </si>
@@ -1260,13 +1261,7 @@
     <t>(master,sockets)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Improvement</t>
-  </si>
-  <si>
-    <t>Comparison</t>
   </si>
   <si>
     <t>(master, thread)</t>
@@ -1324,6 +1319,24 @@
   </si>
   <si>
     <t>close,threads</t>
+  </si>
+  <si>
+    <t>Time in sec</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>1 Th</t>
+  </si>
+  <si>
+    <t>Speed up</t>
+  </si>
+  <si>
+    <t>Hardware Counters</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1409,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="658">
+  <cellStyleXfs count="794">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2055,8 +2068,144 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2067,9 +2216,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="658">
+  <cellStyles count="794">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2398,6 +2550,74 @@
     <cellStyle name="Followed Hyperlink" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="655" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="763" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="765" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="767" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="769" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="771" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="773" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="775" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="777" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="779" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="781" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="783" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="785" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="787" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="789" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="791" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="793" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2726,6 +2946,74 @@
     <cellStyle name="Hyperlink" xfId="652" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="654" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="656" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="658" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="660" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="662" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="664" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="666" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="668" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="670" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="672" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="674" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="676" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="678" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="680" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="682" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="684" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="686" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="688" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="690" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="692" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="694" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="696" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="698" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="700" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="702" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="704" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="706" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="708" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="710" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="712" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="714" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="716" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="718" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="720" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="722" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="724" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="726" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="728" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="730" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="732" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="734" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="736" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="756" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="758" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="760" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="762" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="764" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="766" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="768" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="770" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="772" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="774" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="776" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="778" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="780" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="782" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="784" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="786" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="788" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="790" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="792" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="313" builtinId="5"/>
   </cellStyles>
@@ -4729,6 +5017,1197 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DCACHE_MISS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$147:$W$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>9.6823446998E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5000788104E10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4956518295E10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3444008334E10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1589134651E10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4973262446E10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1816150065E10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3408381302E10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3967871539E10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.183666574E10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0294981125E10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3434025259E10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4150476173E10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4001837802E10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.3734415225E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$148</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_L2L3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$148:$W$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.9778731885E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1806406138E10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.179879199E10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2815077778E10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0976624288E10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0370745035E10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1471532542E10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3581592326E10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2152276424E10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.584568852E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4598990298E10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3156067137E10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3850919424E10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0862488361E10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.2766249742E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$149</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_L2L3_CONFLICT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$149:$W$149</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.4651870248E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.35563099E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.94810637E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8849987576E10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.173417022E9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9769420401E10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.779538349E10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9006613026E10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8974838242E10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.83909679E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8733255021E10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8516765508E10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9257788931E10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9192186624E10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4345755628E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$150</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_L2L3_NO_CONFLICT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$150:$W$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.5126861637E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0870843039E10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1003981353E10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3965090202E10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.803207266E9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0601324634E10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3676149052E10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.45749793E10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3177438182E10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.300659173E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5865735277E10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4639301629E10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4593130493E10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1670301737E10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8420494114E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$151</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_L3MISS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$151:$W$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>9.69530311E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.378869371E9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.318334859E9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.42250849E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5490409E8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.92602746E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.08653588E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.35707377E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.23115409E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.146714871E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.60968156E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0700675E8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.8986158E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.94810855E8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.578809233E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$152</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_LMEM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$152:$W$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.96911623E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.53621706E9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.523429304E9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.03676497E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.05692432E8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.82917002E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8677218E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8194096E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9313385E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.794260352E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.65400964E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.2057738E7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.06174341E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9308749E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.002957108E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$153</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_L21_L31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$153:$W$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.76669105E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.81261912E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.78801748E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.46517287E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6060227E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.87337539E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.38927533E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.33380808E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.33763466E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.14663728E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.76692789E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.43416224E8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.35940598E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.35808912E8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.37715579E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$154</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_REMOTE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$154:$W$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.37667898E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.07371106E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.16962688E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34117249E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1866357E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.26997597E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.22949716E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.33793482E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.33051446E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.04098019E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.39934256E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.18799845E8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.21560132E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.29458498E8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.55016866E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$155</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_DISTANT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$155:$W$155</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.58281685E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.454019293E9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.399141119E9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.57939816E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1285074E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5350608E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.48099121E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.70338991E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.56987112E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.033692772E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.78940147E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.52732943E8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.26186509E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.30234696E8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.8311968E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2129884104"/>
+        <c:axId val="2096915128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2129884104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2096915128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2096915128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2129884104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5471,6 +6950,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5638,6 +7118,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -5674,6 +7155,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -5687,6 +7169,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8094,6 +9577,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1092200</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -8453,8 +9971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H720"/>
   <sheetViews>
-    <sheetView topLeftCell="A590" workbookViewId="0">
-      <selection activeCell="B606" sqref="B606:B720"/>
+    <sheetView topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12920,6 +14438,922 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1">
+        <v>1.2981667450221701</v>
+      </c>
+      <c r="B1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1">
+        <v>80</v>
+      </c>
+      <c r="D1">
+        <v>27.946470272989199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>1.3012911269906899</v>
+      </c>
+      <c r="B2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>1.30376060001435</v>
+      </c>
+      <c r="B3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>1.3068449499842201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>1.3079331069893601</v>
+      </c>
+      <c r="B5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>1.3098165560222601</v>
+      </c>
+      <c r="B6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>1.3111044309916899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>1.3137250949803201</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>1.31390877399826</v>
+      </c>
+      <c r="G9">
+        <v>1.2981667450221701</v>
+      </c>
+      <c r="H9" t="s">
+        <v>419</v>
+      </c>
+      <c r="I9">
+        <v>80</v>
+      </c>
+      <c r="J9">
+        <v>27.946470272989199</v>
+      </c>
+      <c r="K9">
+        <f>J9/G9</f>
+        <v>21.527643024403563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>1.3152178809977999</v>
+      </c>
+      <c r="G10">
+        <v>1.3012911269906899</v>
+      </c>
+      <c r="H10" t="s">
+        <v>420</v>
+      </c>
+      <c r="I10">
+        <v>80</v>
+      </c>
+      <c r="J10">
+        <v>27.957779031013999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>1.3153620709781499</v>
+      </c>
+      <c r="G11">
+        <v>1.30376060001435</v>
+      </c>
+      <c r="H11" t="s">
+        <v>421</v>
+      </c>
+      <c r="I11">
+        <v>80</v>
+      </c>
+      <c r="J11">
+        <v>27.937298382021201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>1.3161007649905501</v>
+      </c>
+      <c r="G12">
+        <v>1.3068449499842201</v>
+      </c>
+      <c r="H12" t="s">
+        <v>422</v>
+      </c>
+      <c r="I12">
+        <v>80</v>
+      </c>
+      <c r="J12">
+        <v>2.92893046300741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>1.3162686940049699</v>
+      </c>
+      <c r="G13">
+        <v>1.3079331069893601</v>
+      </c>
+      <c r="H13" t="s">
+        <v>423</v>
+      </c>
+      <c r="I13">
+        <v>160</v>
+      </c>
+      <c r="J13">
+        <v>2.9510225460107899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>1.3191851479932599</v>
+      </c>
+      <c r="G14">
+        <v>1.3098165560222601</v>
+      </c>
+      <c r="H14" t="s">
+        <v>424</v>
+      </c>
+      <c r="I14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>1.33311822399264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>1.34740761198918</v>
+      </c>
+      <c r="M16">
+        <v>1.6517432550026501</v>
+      </c>
+      <c r="N16">
+        <v>27.946470272989199</v>
+      </c>
+      <c r="O16">
+        <f>N16/M16</f>
+        <v>16.919379079253066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>1.4010850719932899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>1.42632630301523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>1.42694719100836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>1.4283346269803501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>1.43530561999068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>1.4534579510218399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>1.45835989000624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>1.4603680900181599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>1.4609706659975901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>1.461812035006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>1.6517432550026501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>1.65563546901103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>1.6557022299966699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>1.65830750600434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>1.6611759130028001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>1.6688668710121399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>1.6779178959841301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>2.04276678399764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>2.0511925369792099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>2.0515929629909802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>2.1083383109944398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>2.1392993199988202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>2.1469678999856101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>2.1763586050074002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>2.1907353679998698</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>2.1917613639961901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>2.19185660799848</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>2.2565551779989601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>2.2605971180018898</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>2.2629663080151601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>2.2638585729873699</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>2.2746099299983999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>2.27583923999918</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>2.27704119100235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>2.27952616199036</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>2.2828322279965501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>2.2873152710089899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>2.29445118800504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>2.3144642760162202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>2.3207539879949701</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>2.33963019598741</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>2.3615508869988799</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>2.37446859499323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>2.3899737189931298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>2.3900795340014098</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>2.4445491940132298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>2.44662824500119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>2.4637530859908998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>2.5177050229976801</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>2.5184595699829502</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>2.5209673720237298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>2.5695100690063502</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>2.6303375889838199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>2.6781862190109602</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>2.6799780049768702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>2.6867705269833002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>2.7055133989779199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>2.7115684009913799</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>2.74076250198413</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>2.8364563899813202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>2.8411916889890501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>2.8412012209882902</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>2.92893046300741</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>2.9510225460107899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>2.97052923101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>2.9858596170088201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>3.0109970970079298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>3.03875824500573</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>3.1138515420025201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>3.12055050898925</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>3.1601660300220802</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>3.16350402700481</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>3.17293671701918</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>3.2038086179818399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>3.2364424560219001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>3.3212179240072102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>3.3304895180044598</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>3.3809013380086901</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>3.4541104630043198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>3.54107747599482</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>3.69376242399448</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>3.7027609600045199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>3.73803968401625</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>3.80434663599589</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>3.8228360240172998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>3.85941002299659</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>3.9431449589901599</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>3.97303582201129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>3.97387528698891</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>4.0655121710151398</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>4.1890189539990299</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>4.6001112299854796</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>6.1467810659960298</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>6.38375211699167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>6.6855504900158804</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>6.74924854998243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>6.9907048789900701</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>6.9989121440157698</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>7.0143676970037596</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>7.0188462930091102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>7.0246199970133603</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>7.0273548509867299</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>7.0378276430128599</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>7.0450661309878297</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>7.1228695590107201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>7.1290223170071796</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>8.8345967940113006</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>8.8366083370056003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>8.8572307410067808</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>8.9924809829972201</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>15.9599736139934</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>15.963452338997699</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>15.965051996987301</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>15.967569817003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>19.687062151002401</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>19.694321557995799</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>19.737864591006598</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>19.752250998019001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>19.778372072003499</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>19.879682635975701</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>19.9084958250168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>19.922896260977701</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>19.940691199997602</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>19.977155144995699</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>27.961290691018799</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>27.980276731977899</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>28.011142628005398</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>28.065820582007198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>28.088116539001899</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>28.142784222</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>28.2745326239964</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>28.285548279003699</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>28.300511869980198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>28.3149772839969</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A150">
+    <sortCondition ref="A150"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -12932,8 +15366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -53623,8 +56057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -53847,10 +56281,10 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
@@ -54029,10 +56463,10 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="8"/>
       <c r="N44" t="s">
         <v>367</v>
       </c>
@@ -54235,11 +56669,11 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="B65" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
+      <c r="B65" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
@@ -54252,7 +56686,7 @@
         <v>375</v>
       </c>
       <c r="D66" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -54287,7 +56721,7 @@
         <f t="shared" ref="D68:D81" si="0">+(B68-C68)/C68*-100</f>
         <v>1.4644689741643038</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="9">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -54305,7 +56739,7 @@
         <f t="shared" si="0"/>
         <v>1.1939277463010489</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="9">
         <v>1.2E-2</v>
       </c>
     </row>
@@ -54536,7 +56970,7 @@
         <v>375</v>
       </c>
       <c r="D83" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -54820,7 +57254,7 @@
         <v>375</v>
       </c>
       <c r="D101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -55104,13 +57538,13 @@
         <v>371</v>
       </c>
       <c r="D119" t="s">
+        <v>416</v>
+      </c>
+      <c r="E119" t="s">
+        <v>417</v>
+      </c>
+      <c r="F119" t="s">
         <v>418</v>
-      </c>
-      <c r="E119" t="s">
-        <v>419</v>
-      </c>
-      <c r="F119" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -55143,7 +57577,7 @@
       <c r="C121" s="1">
         <v>0</v>
       </c>
-      <c r="D121" s="8">
+      <c r="D121" s="9">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E121" s="1">
@@ -55163,7 +57597,7 @@
       <c r="C122" s="1">
         <v>0</v>
       </c>
-      <c r="D122" s="8">
+      <c r="D122" s="9">
         <v>1.2E-2</v>
       </c>
       <c r="E122" s="1">
@@ -55434,7 +57868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E646"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L12" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -62381,10 +64815,29 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J132" workbookViewId="0">
+      <selection activeCell="H146" sqref="H146:W155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -62395,9 +64848,25 @@
     <col min="4" max="4" width="39.83203125" customWidth="1"/>
     <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="41" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" customWidth="1"/>
+    <col min="23" max="23" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>370</v>
       </c>
@@ -62411,10 +64880,13 @@
         <v>378</v>
       </c>
       <c r="E1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>405</v>
+      </c>
+      <c r="F1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>393</v>
       </c>
@@ -62431,8 +64903,11 @@
         <f>+(D2-C2)/C2</f>
         <v>-0.38387281875812318</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1">
+        <v>-0.38387281875812318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>380</v>
       </c>
@@ -62443,11 +64918,14 @@
         <v>65515252443</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E10" si="0">+(D3-C3)/C3</f>
+        <f t="shared" ref="E3:F10" si="0">+(D3-C3)/C3</f>
         <v>-0.17878799405536577</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1">
+        <v>-0.17878799405536577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>381</v>
       </c>
@@ -62461,8 +64939,11 @@
         <f t="shared" si="0"/>
         <v>-0.50903848456421774</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1">
+        <v>-0.50903848456421774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>382</v>
       </c>
@@ -62476,8 +64957,11 @@
         <f t="shared" si="0"/>
         <v>0.24101330228381426</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1">
+        <v>0.24101330228381426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>383</v>
       </c>
@@ -62491,8 +64975,11 @@
         <f t="shared" si="0"/>
         <v>0.70871146080135294</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1">
+        <v>0.70871146080135294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>384</v>
       </c>
@@ -62506,8 +64993,11 @@
         <f t="shared" si="0"/>
         <v>0.22217470626403807</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1">
+        <v>0.22217470626403807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>385</v>
       </c>
@@ -62521,8 +65011,11 @@
         <f t="shared" si="0"/>
         <v>0.10117681553204143</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1">
+        <v>0.10117681553204143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>386</v>
       </c>
@@ -62536,8 +65029,11 @@
         <f t="shared" si="0"/>
         <v>0.97876205393123816</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1">
+        <v>0.97876205393123816</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>387</v>
       </c>
@@ -62551,8 +65047,11 @@
         <f t="shared" si="0"/>
         <v>1.4819310242613601</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F10" s="1">
+        <v>1.4819310242613601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>394</v>
       </c>
@@ -62569,8 +65068,11 @@
         <f>+(D12-C12)/C12</f>
         <v>-2.3814206795224522E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="1">
+        <v>-2.3814206795224522E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="B13" t="s">
         <v>380</v>
       </c>
@@ -62581,11 +65083,14 @@
         <v>11482700125</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" ref="E13:E20" si="1">+(D13-C13)/C13</f>
+        <f t="shared" ref="E13:F20" si="1">+(D13-C13)/C13</f>
         <v>-2.7417828017801498E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="1">
+        <v>-2.7417828017801498E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="B14" t="s">
         <v>381</v>
       </c>
@@ -62599,8 +65104,11 @@
         <f t="shared" si="1"/>
         <v>-0.22810746835580353</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1">
+        <v>-0.22810746835580353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>382</v>
       </c>
@@ -62614,8 +65122,11 @@
         <f t="shared" si="1"/>
         <v>-1.0146138860095816E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1">
+        <v>-1.0146138860095816E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="B16" t="s">
         <v>383</v>
       </c>
@@ -62629,8 +65140,11 @@
         <f t="shared" si="1"/>
         <v>-3.0618106425754452E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="F16" s="1">
+        <v>-3.0618106425754452E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>384</v>
       </c>
@@ -62644,8 +65158,11 @@
         <f t="shared" si="1"/>
         <v>-2.5607409281081673E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="F17" s="1">
+        <v>-2.5607409281081673E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
         <v>385</v>
       </c>
@@ -62659,8 +65176,11 @@
         <f t="shared" si="1"/>
         <v>7.9342669760418899E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="F18" s="1">
+        <v>7.9342669760418899E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="B19" t="s">
         <v>386</v>
       </c>
@@ -62674,8 +65194,11 @@
         <f t="shared" si="1"/>
         <v>0.9909285464564368</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="F19" s="1">
+        <v>0.9909285464564368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="B20" t="s">
         <v>387</v>
       </c>
@@ -62689,8 +65212,11 @@
         <f t="shared" si="1"/>
         <v>-0.1326180532323927</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="F20" s="1">
+        <v>-0.1326180532323927</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>395</v>
       </c>
@@ -62707,8 +65233,11 @@
         <f>+(D22-C22)/C22</f>
         <v>-1.5480145274010778E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="F22" s="1">
+        <v>-1.5480145274010778E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="B23" t="s">
         <v>380</v>
       </c>
@@ -62719,11 +65248,14 @@
         <v>11653254818</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" ref="E23:E30" si="2">+(D23-C23)/C23</f>
+        <f t="shared" ref="E23:F30" si="2">+(D23-C23)/C23</f>
         <v>-1.2334921415967771E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="F23" s="1">
+        <v>-1.2334921415967771E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="B24" t="s">
         <v>381</v>
       </c>
@@ -62737,8 +65269,11 @@
         <f t="shared" si="2"/>
         <v>-0.10585536740872782</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="F24" s="1">
+        <v>-0.10585536740872782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="B25" t="s">
         <v>382</v>
       </c>
@@ -62752,8 +65287,11 @@
         <f t="shared" si="2"/>
         <v>-5.5799985505482529E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="F25" s="1">
+        <v>-5.5799985505482529E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
         <v>383</v>
       </c>
@@ -62767,8 +65305,11 @@
         <f t="shared" si="2"/>
         <v>-3.9513398307099545E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="F26" s="1">
+        <v>-3.9513398307099545E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="B27" t="s">
         <v>384</v>
       </c>
@@ -62782,8 +65323,11 @@
         <f t="shared" si="2"/>
         <v>2.6367251105470398E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="F27" s="1">
+        <v>2.6367251105470398E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="B28" t="s">
         <v>385</v>
       </c>
@@ -62797,11 +65341,11 @@
         <f t="shared" si="2"/>
         <v>6.8858452781293183E-2</v>
       </c>
-      <c r="H28" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="F28" s="1">
+        <v>6.8858452781293183E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="B29" t="s">
         <v>386</v>
       </c>
@@ -62815,8 +65359,11 @@
         <f t="shared" si="2"/>
         <v>6.2169133801028925E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="F29" s="1">
+        <v>6.2169133801028925E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="B30" t="s">
         <v>387</v>
       </c>
@@ -62830,8 +65377,11 @@
         <f t="shared" si="2"/>
         <v>-0.14134146535650491</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="F30" s="1">
+        <v>-0.14134146535650491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -62848,8 +65398,11 @@
         <f>+(D32-C32)/C32</f>
         <v>0.32816530409532135</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="1">
+        <v>0.32816530409532135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="B33" t="s">
         <v>380</v>
       </c>
@@ -62860,11 +65413,14 @@
         <v>69168831575</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" ref="E33:E40" si="3">+(D33-C33)/C33</f>
+        <f t="shared" ref="E33:F40" si="3">+(D33-C33)/C33</f>
         <v>0.30964176301586588</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="1">
+        <v>0.30964176301586588</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="B34" t="s">
         <v>381</v>
       </c>
@@ -62878,8 +65434,11 @@
         <f t="shared" si="3"/>
         <v>0.48875713907517143</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="1">
+        <v>0.48875713907517143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="B35" t="s">
         <v>382</v>
       </c>
@@ -62893,8 +65452,11 @@
         <f t="shared" si="3"/>
         <v>9.4016604486302613E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="1">
+        <v>9.4016604486302613E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="B36" t="s">
         <v>383</v>
       </c>
@@ -62908,8 +65470,11 @@
         <f t="shared" si="3"/>
         <v>0.78561115125110492</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="1">
+        <v>0.78561115125110492</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="B37" t="s">
         <v>384</v>
       </c>
@@ -62923,8 +65488,11 @@
         <f t="shared" si="3"/>
         <v>-2.762559579920992E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="1">
+        <v>-2.762559579920992E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="B38" t="s">
         <v>385</v>
       </c>
@@ -62938,8 +65506,11 @@
         <f t="shared" si="3"/>
         <v>0.32728146971696959</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" s="1">
+        <v>0.32728146971696959</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="B39" t="s">
         <v>386</v>
       </c>
@@ -62953,8 +65524,11 @@
         <f t="shared" si="3"/>
         <v>0.30722611228030783</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="1">
+        <v>0.30722611228030783</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="B40" t="s">
         <v>387</v>
       </c>
@@ -62968,8 +65542,11 @@
         <f t="shared" si="3"/>
         <v>1.799256179976495</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F40" s="1">
+        <v>1.799256179976495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>396</v>
       </c>
@@ -62986,8 +65563,11 @@
         <f>+(D42-C42)/C42</f>
         <v>1.5029508263153236E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" s="1">
+        <v>1.5029508263153236E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="B43" t="s">
         <v>380</v>
       </c>
@@ -62998,11 +65578,14 @@
         <v>11109359710</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" ref="E43:E50" si="4">+(D43-C43)/C43</f>
+        <f t="shared" ref="E43:F50" si="4">+(D43-C43)/C43</f>
         <v>1.2092554005434134E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="1">
+        <v>1.2092554005434134E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="B44" t="s">
         <v>381</v>
       </c>
@@ -63016,8 +65599,11 @@
         <f t="shared" si="4"/>
         <v>6.6667154316600363E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="1">
+        <v>6.6667154316600363E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="B45" t="s">
         <v>382</v>
       </c>
@@ -63031,8 +65617,11 @@
         <f t="shared" si="4"/>
         <v>-1.3813267860868289E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="1">
+        <v>-1.3813267860868289E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="B46" t="s">
         <v>383</v>
       </c>
@@ -63046,8 +65635,11 @@
         <f t="shared" si="4"/>
         <v>0.10206115371794365</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="1">
+        <v>0.10206115371794365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="B47" t="s">
         <v>384</v>
       </c>
@@ -63061,8 +65653,11 @@
         <f t="shared" si="4"/>
         <v>0.11978403505156668</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="1">
+        <v>0.11978403505156668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="B48" t="s">
         <v>385</v>
       </c>
@@ -63076,8 +65671,11 @@
         <f t="shared" si="4"/>
         <v>0.22391806790775748</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="1">
+        <v>0.22391806790775748</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="B49" t="s">
         <v>386</v>
       </c>
@@ -63091,8 +65689,11 @@
         <f t="shared" si="4"/>
         <v>-1.1955463936562485E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="1">
+        <v>-1.1955463936562485E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="B50" t="s">
         <v>387</v>
       </c>
@@ -63106,8 +65707,11 @@
         <f t="shared" si="4"/>
         <v>4.7834038862048456E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F50" s="1">
+        <v>4.7834038862048456E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>397</v>
       </c>
@@ -63124,8 +65728,11 @@
         <f>+(D52-C52)/C52</f>
         <v>-0.19626435398544659</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="1">
+        <v>-0.19626435398544659</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="B53" t="s">
         <v>380</v>
       </c>
@@ -63136,11 +65743,14 @@
         <v>84677754491</v>
       </c>
       <c r="E53" s="6">
-        <f t="shared" ref="E53:E60" si="5">+(D53-C53)/C53</f>
+        <f t="shared" ref="E53:F60" si="5">+(D53-C53)/C53</f>
         <v>5.3589268758481405E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="1">
+        <v>5.3589268758481405E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="B54" t="s">
         <v>381</v>
       </c>
@@ -63154,8 +65764,11 @@
         <f t="shared" si="5"/>
         <v>-0.4479032566074837</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="1">
+        <v>-0.4479032566074837</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="B55" t="s">
         <v>382</v>
       </c>
@@ -63169,8 +65782,11 @@
         <f t="shared" si="5"/>
         <v>0.54480642113032396</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="1">
+        <v>0.54480642113032396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="B56" t="s">
         <v>383</v>
       </c>
@@ -63184,8 +65800,11 @@
         <f t="shared" si="5"/>
         <v>1.1497923084409802</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="1">
+        <v>1.1497923084409802</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="B57" t="s">
         <v>384</v>
       </c>
@@ -63199,8 +65818,11 @@
         <f t="shared" si="5"/>
         <v>-0.42578990552228707</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="1">
+        <v>-0.42578990552228707</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="B58" t="s">
         <v>385</v>
       </c>
@@ -63214,8 +65836,11 @@
         <f t="shared" si="5"/>
         <v>4.4728193346153772E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="1">
+        <v>4.4728193346153772E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="B59" t="s">
         <v>386</v>
       </c>
@@ -63229,8 +65854,11 @@
         <f t="shared" si="5"/>
         <v>1.5868454105265264</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="1">
+        <v>1.5868454105265264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="B60" t="s">
         <v>387</v>
       </c>
@@ -63244,8 +65872,11 @@
         <f t="shared" si="5"/>
         <v>6.4619469442711894</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F60" s="1">
+        <v>6.4619469442711894</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>398</v>
       </c>
@@ -63262,8 +65893,11 @@
         <f>+(D62-C62)/C62</f>
         <v>0.30760068893590037</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" s="1">
+        <v>0.30760068893590037</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="B63" t="s">
         <v>380</v>
       </c>
@@ -63274,11 +65908,14 @@
         <v>66115820405</v>
       </c>
       <c r="E63" s="6">
-        <f t="shared" ref="E63:E70" si="6">+(D63-C63)/C63</f>
+        <f t="shared" ref="E63:F70" si="6">+(D63-C63)/C63</f>
         <v>0.28451237295199011</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" s="1">
+        <v>0.28451237295199011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="B64" t="s">
         <v>381</v>
       </c>
@@ -63292,8 +65929,11 @@
         <f t="shared" si="6"/>
         <v>0.48877089819205799</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" s="1">
+        <v>0.48877089819205799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="B65" t="s">
         <v>382</v>
       </c>
@@ -63307,8 +65947,11 @@
         <f t="shared" si="6"/>
         <v>4.4716448890178243E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" s="1">
+        <v>4.4716448890178243E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="B66" t="s">
         <v>383</v>
       </c>
@@ -63322,8 +65965,11 @@
         <f t="shared" si="6"/>
         <v>0.60831797411290323</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" s="1">
+        <v>0.60831797411290323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="B67" t="s">
         <v>384</v>
       </c>
@@ -63337,8 +65983,11 @@
         <f t="shared" si="6"/>
         <v>0.55686288196734524</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" s="1">
+        <v>0.55686288196734524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="B68" t="s">
         <v>385</v>
       </c>
@@ -63352,8 +66001,11 @@
         <f t="shared" si="6"/>
         <v>0.23902388428377569</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" s="1">
+        <v>0.23902388428377569</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="B69" t="s">
         <v>386</v>
       </c>
@@ -63367,8 +66019,11 @@
         <f t="shared" si="6"/>
         <v>0.17089918288221179</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" s="1">
+        <v>0.17089918288221179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="B70" t="s">
         <v>387</v>
       </c>
@@ -63382,8 +66037,11 @@
         <f t="shared" si="6"/>
         <v>1.2011958800934244</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F70" s="1">
+        <v>1.2011958800934244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>399</v>
       </c>
@@ -63400,8 +66058,11 @@
         <f>+(D72-C72)/C72</f>
         <v>0.40035943287798692</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" s="1">
+        <v>0.40035943287798692</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="B73" t="s">
         <v>380</v>
       </c>
@@ -63412,11 +66073,14 @@
         <v>75177236176</v>
       </c>
       <c r="E73" s="6">
-        <f t="shared" ref="E73:E80" si="7">+(D73-C73)/C73</f>
+        <f t="shared" ref="E73:F80" si="7">+(D73-C73)/C73</f>
         <v>0.40304221865241024</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" s="1">
+        <v>0.40304221865241024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="B74" t="s">
         <v>381</v>
       </c>
@@ -63430,8 +66094,11 @@
         <f t="shared" si="7"/>
         <v>0.58274735643380937</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" s="1">
+        <v>0.58274735643380937</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="B75" t="s">
         <v>382</v>
       </c>
@@ -63445,8 +66112,11 @@
         <f t="shared" si="7"/>
         <v>0.19093065075338639</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" s="1">
+        <v>0.19093065075338639</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="B76" t="s">
         <v>383</v>
       </c>
@@ -63460,8 +66130,11 @@
         <f t="shared" si="7"/>
         <v>0.78994459369135839</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" s="1">
+        <v>0.78994459369135839</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="B77" t="s">
         <v>384</v>
       </c>
@@ -63475,8 +66148,11 @@
         <f t="shared" si="7"/>
         <v>0.30784483213736191</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" s="1">
+        <v>0.30784483213736191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="B78" t="s">
         <v>385</v>
       </c>
@@ -63490,8 +66166,11 @@
         <f t="shared" si="7"/>
         <v>0.40750916416400446</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" s="1">
+        <v>0.40750916416400446</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="B79" t="s">
         <v>386</v>
       </c>
@@ -63505,8 +66184,11 @@
         <f t="shared" si="7"/>
         <v>0.48150055620796234</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" s="1">
+        <v>0.48150055620796234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="B80" t="s">
         <v>387</v>
       </c>
@@ -63520,8 +66202,11 @@
         <f t="shared" si="7"/>
         <v>1.4478602015644868</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F80" s="1">
+        <v>1.4478602015644868</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -63538,8 +66223,11 @@
         <f>+(D82-C82)/C82</f>
         <v>0.44919484442667712</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" s="1">
+        <v>0.44919484442667712</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="B83" t="s">
         <v>380</v>
       </c>
@@ -63550,11 +66238,14 @@
         <v>75608838999</v>
       </c>
       <c r="E83" s="6">
-        <f t="shared" ref="E83:E90" si="8">+(D83-C83)/C83</f>
+        <f t="shared" ref="E83:F90" si="8">+(D83-C83)/C83</f>
         <v>0.44977063674646239</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" s="1">
+        <v>0.44977063674646239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="B84" t="s">
         <v>381</v>
       </c>
@@ -63568,8 +66259,11 @@
         <f t="shared" si="8"/>
         <v>0.62460911677382269</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" s="1">
+        <v>0.62460911677382269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="B85" t="s">
         <v>382</v>
       </c>
@@ -63583,8 +66277,11 @@
         <f t="shared" si="8"/>
         <v>0.23119960065998979</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" s="1">
+        <v>0.23119960065998979</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="B86" t="s">
         <v>383</v>
       </c>
@@ -63598,8 +66295,11 @@
         <f t="shared" si="8"/>
         <v>0.85200576053552191</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" s="1">
+        <v>0.85200576053552191</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="B87" t="s">
         <v>384</v>
       </c>
@@ -63613,8 +66313,11 @@
         <f t="shared" si="8"/>
         <v>0.69917789027128618</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" s="1">
+        <v>0.69917789027128618</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="B88" t="s">
         <v>385</v>
       </c>
@@ -63628,8 +66331,11 @@
         <f t="shared" si="8"/>
         <v>0.44683704766766247</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" s="1">
+        <v>0.44683704766766247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="B89" t="s">
         <v>386</v>
       </c>
@@ -63643,8 +66349,11 @@
         <f t="shared" si="8"/>
         <v>-8.0898106135577057E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" s="1">
+        <v>-8.0898106135577057E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="B90" t="s">
         <v>387</v>
       </c>
@@ -63658,8 +66367,16 @@
         <f t="shared" si="8"/>
         <v>1.7249229019702748</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F90" s="1">
+        <v>1.7249229019702748</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="H91" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" t="s">
         <v>400</v>
       </c>
@@ -63676,8 +66393,59 @@
         <f>+(D92-C92)/C92</f>
         <v>-1.3494306970266781E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" s="1">
+        <v>-1.3494306970266781E-2</v>
+      </c>
+      <c r="H92" t="s">
+        <v>379</v>
+      </c>
+      <c r="I92" s="1">
+        <v>-0.38387281875812318</v>
+      </c>
+      <c r="J92" s="1">
+        <v>-2.3814206795224522E-3</v>
+      </c>
+      <c r="K92" s="1">
+        <v>-1.5480145274010778E-2</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0.32816530409532135</v>
+      </c>
+      <c r="M92" s="1">
+        <v>1.5029508263153236E-2</v>
+      </c>
+      <c r="N92" s="1">
+        <v>-0.19626435398544659</v>
+      </c>
+      <c r="O92" s="1">
+        <v>0.30760068893590037</v>
+      </c>
+      <c r="P92" s="1">
+        <v>0.40035943287798692</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>0.44919484442667712</v>
+      </c>
+      <c r="R92" s="1">
+        <v>-1.3494306970266781E-2</v>
+      </c>
+      <c r="S92" s="1">
+        <v>-0.15062381620305787</v>
+      </c>
+      <c r="T92" s="1">
+        <v>0.29816313412242007</v>
+      </c>
+      <c r="U92" s="1">
+        <v>0.31206990826843156</v>
+      </c>
+      <c r="V92" s="1">
+        <v>0.28724111345754083</v>
+      </c>
+      <c r="W92" s="1">
+        <v>-0.29744917323041148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="B93" t="s">
         <v>380</v>
       </c>
@@ -63688,11 +66456,62 @@
         <v>8632570910</v>
       </c>
       <c r="E93" s="6">
-        <f t="shared" ref="E93:E100" si="9">+(D93-C93)/C93</f>
+        <f t="shared" ref="E93:F100" si="9">+(D93-C93)/C93</f>
         <v>5.5916678900905618E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93" s="1">
+        <v>5.5916678900905618E-3</v>
+      </c>
+      <c r="H93" t="s">
+        <v>380</v>
+      </c>
+      <c r="I93" s="1">
+        <v>-0.17878799405536577</v>
+      </c>
+      <c r="J93" s="1">
+        <v>-2.7417828017801498E-2</v>
+      </c>
+      <c r="K93" s="1">
+        <v>-1.2334921415967771E-2</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0.30964176301586588</v>
+      </c>
+      <c r="M93" s="1">
+        <v>1.2092554005434134E-2</v>
+      </c>
+      <c r="N93" s="1">
+        <v>5.3589268758481405E-2</v>
+      </c>
+      <c r="O93" s="1">
+        <v>0.28451237295199011</v>
+      </c>
+      <c r="P93" s="1">
+        <v>0.40304221865241024</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>0.44977063674646239</v>
+      </c>
+      <c r="R93" s="1">
+        <v>5.5916678900905618E-3</v>
+      </c>
+      <c r="S93" s="1">
+        <v>-0.48658127523743228</v>
+      </c>
+      <c r="T93" s="1">
+        <v>0.2977890724158147</v>
+      </c>
+      <c r="U93" s="1">
+        <v>0.26548180758875656</v>
+      </c>
+      <c r="V93" s="1">
+        <v>0.36508996835157809</v>
+      </c>
+      <c r="W93" s="1">
+        <v>-0.28140148161793294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
       <c r="B94" t="s">
         <v>381</v>
       </c>
@@ -63706,8 +66525,59 @@
         <f t="shared" si="9"/>
         <v>-2.6383778201517393E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94" s="1">
+        <v>-2.6383778201517393E-2</v>
+      </c>
+      <c r="H94" t="s">
+        <v>381</v>
+      </c>
+      <c r="I94" s="1">
+        <v>-0.50903848456421774</v>
+      </c>
+      <c r="J94" s="1">
+        <v>-0.22810746835580353</v>
+      </c>
+      <c r="K94" s="1">
+        <v>-0.10585536740872782</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0.48875713907517143</v>
+      </c>
+      <c r="M94" s="1">
+        <v>6.6667154316600363E-2</v>
+      </c>
+      <c r="N94" s="1">
+        <v>-0.4479032566074837</v>
+      </c>
+      <c r="O94" s="1">
+        <v>0.48877089819205799</v>
+      </c>
+      <c r="P94" s="1">
+        <v>0.58274735643380937</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>0.62460911677382269</v>
+      </c>
+      <c r="R94" s="1">
+        <v>-2.6383778201517393E-2</v>
+      </c>
+      <c r="S94" s="1">
+        <v>-0.15819996172998632</v>
+      </c>
+      <c r="T94" s="1">
+        <v>0.44510770348197937</v>
+      </c>
+      <c r="U94" s="1">
+        <v>0.44181695785301378</v>
+      </c>
+      <c r="V94" s="1">
+        <v>0.42979682075904779</v>
+      </c>
+      <c r="W94" s="1">
+        <v>-0.79853569320817097</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="B95" t="s">
         <v>382</v>
       </c>
@@ -63721,8 +66591,59 @@
         <f t="shared" si="9"/>
         <v>6.6853326758077218E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" s="1">
+        <v>6.6853326758077218E-3</v>
+      </c>
+      <c r="H95" t="s">
+        <v>382</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.24101330228381426</v>
+      </c>
+      <c r="J95" s="1">
+        <v>-1.0146138860095816E-2</v>
+      </c>
+      <c r="K95" s="1">
+        <v>-5.5799985505482529E-3</v>
+      </c>
+      <c r="L95" s="1">
+        <v>9.4016604486302613E-2</v>
+      </c>
+      <c r="M95" s="1">
+        <v>-1.3813267860868289E-3</v>
+      </c>
+      <c r="N95" s="1">
+        <v>0.54480642113032396</v>
+      </c>
+      <c r="O95" s="1">
+        <v>4.4716448890178243E-2</v>
+      </c>
+      <c r="P95" s="1">
+        <v>0.19093065075338639</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>0.23119960065998979</v>
+      </c>
+      <c r="R95" s="1">
+        <v>6.6853326758077218E-3</v>
+      </c>
+      <c r="S95" s="1">
+        <v>-0.7638967283398076</v>
+      </c>
+      <c r="T95" s="1">
+        <v>0.127287046005747</v>
+      </c>
+      <c r="U95" s="1">
+        <v>5.5700600230210798E-2</v>
+      </c>
+      <c r="V95" s="1">
+        <v>0.27792299973917062</v>
+      </c>
+      <c r="W95" s="1">
+        <v>-0.12818782359772266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
       <c r="B96" t="s">
         <v>383</v>
       </c>
@@ -63736,8 +66657,59 @@
         <f t="shared" si="9"/>
         <v>-1.0843869685961134E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96" s="1">
+        <v>-1.0843869685961134E-2</v>
+      </c>
+      <c r="H96" t="s">
+        <v>383</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0.70871146080135294</v>
+      </c>
+      <c r="J96" s="1">
+        <v>-3.0618106425754452E-2</v>
+      </c>
+      <c r="K96" s="1">
+        <v>-3.9513398307099545E-2</v>
+      </c>
+      <c r="L96" s="1">
+        <v>0.78561115125110492</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0.10206115371794365</v>
+      </c>
+      <c r="N96" s="1">
+        <v>1.1497923084409802</v>
+      </c>
+      <c r="O96" s="1">
+        <v>0.60831797411290323</v>
+      </c>
+      <c r="P96" s="1">
+        <v>0.78994459369135839</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>0.85200576053552191</v>
+      </c>
+      <c r="R96" s="1">
+        <v>-1.0843869685961134E-2</v>
+      </c>
+      <c r="S96" s="1">
+        <v>0.44196796152733286</v>
+      </c>
+      <c r="T96" s="1">
+        <v>0.80647749685558168</v>
+      </c>
+      <c r="U96" s="1">
+        <v>0.96474155148631413</v>
+      </c>
+      <c r="V96" s="1">
+        <v>0.91952006420509935</v>
+      </c>
+      <c r="W96" s="1">
+        <v>-0.36637317522742097</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
       <c r="B97" t="s">
         <v>384</v>
       </c>
@@ -63751,8 +66723,59 @@
         <f t="shared" si="9"/>
         <v>-0.12831518611185364</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" s="1">
+        <v>-0.12831518611185364</v>
+      </c>
+      <c r="H97" t="s">
+        <v>384</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0.22217470626403807</v>
+      </c>
+      <c r="J97" s="1">
+        <v>-2.5607409281081673E-2</v>
+      </c>
+      <c r="K97" s="1">
+        <v>2.6367251105470398E-2</v>
+      </c>
+      <c r="L97" s="1">
+        <v>-2.762559579920992E-2</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0.11978403505156668</v>
+      </c>
+      <c r="N97" s="1">
+        <v>-0.42578990552228707</v>
+      </c>
+      <c r="O97" s="1">
+        <v>0.55686288196734524</v>
+      </c>
+      <c r="P97" s="1">
+        <v>0.30784483213736191</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>0.69917789027128618</v>
+      </c>
+      <c r="R97" s="1">
+        <v>-0.12831518611185364</v>
+      </c>
+      <c r="S97" s="1">
+        <v>0.37471421871519445</v>
+      </c>
+      <c r="T97" s="1">
+        <v>0.57423581274612678</v>
+      </c>
+      <c r="U97" s="1">
+        <v>0.38721740688741357</v>
+      </c>
+      <c r="V97" s="1">
+        <v>0.4144456899764189</v>
+      </c>
+      <c r="W97" s="1">
+        <v>-9.4903595817579067E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
       <c r="B98" t="s">
         <v>385</v>
       </c>
@@ -63766,8 +66789,59 @@
         <f t="shared" si="9"/>
         <v>0.45669402097235146</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" s="1">
+        <v>0.45669402097235146</v>
+      </c>
+      <c r="H98" t="s">
+        <v>385</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0.10117681553204143</v>
+      </c>
+      <c r="J98" s="1">
+        <v>7.9342669760418899E-2</v>
+      </c>
+      <c r="K98" s="1">
+        <v>6.8858452781293183E-2</v>
+      </c>
+      <c r="L98" s="1">
+        <v>0.32728146971696959</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0.22391806790775748</v>
+      </c>
+      <c r="N98" s="1">
+        <v>4.4728193346153772E-2</v>
+      </c>
+      <c r="O98" s="1">
+        <v>0.23902388428377569</v>
+      </c>
+      <c r="P98" s="1">
+        <v>0.40750916416400446</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>0.44683704766766247</v>
+      </c>
+      <c r="R98" s="1">
+        <v>0.45669402097235146</v>
+      </c>
+      <c r="S98" s="1">
+        <v>0.15206705657949041</v>
+      </c>
+      <c r="T98" s="1">
+        <v>0.32019117591767426</v>
+      </c>
+      <c r="U98" s="1">
+        <v>0.46228912245106712</v>
+      </c>
+      <c r="V98" s="1">
+        <v>0.27863075845072388</v>
+      </c>
+      <c r="W98" s="1">
+        <v>-2.7928816305622058E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
       <c r="B99" t="s">
         <v>386</v>
       </c>
@@ -63781,8 +66855,59 @@
         <f t="shared" si="9"/>
         <v>0.24978334552085976</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" s="1">
+        <v>0.24978334552085976</v>
+      </c>
+      <c r="H99" t="s">
+        <v>386</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0.97876205393123816</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0.9909285464564368</v>
+      </c>
+      <c r="K99" s="1">
+        <v>6.2169133801028925E-2</v>
+      </c>
+      <c r="L99" s="1">
+        <v>0.30722611228030783</v>
+      </c>
+      <c r="M99" s="1">
+        <v>-1.1955463936562485E-2</v>
+      </c>
+      <c r="N99" s="1">
+        <v>1.5868454105265264</v>
+      </c>
+      <c r="O99" s="1">
+        <v>0.17089918288221179</v>
+      </c>
+      <c r="P99" s="1">
+        <v>0.48150055620796234</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>-8.0898106135577057E-3</v>
+      </c>
+      <c r="R99" s="1">
+        <v>0.24978334552085976</v>
+      </c>
+      <c r="S99" s="1">
+        <v>0.28969894986566652</v>
+      </c>
+      <c r="T99" s="1">
+        <v>0.49996510517332748</v>
+      </c>
+      <c r="U99" s="1">
+        <v>0.43733936550842178</v>
+      </c>
+      <c r="V99" s="1">
+        <v>0.52152737010744554</v>
+      </c>
+      <c r="W99" s="1">
+        <v>-0.39593256157418233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
       <c r="B100" t="s">
         <v>387</v>
       </c>
@@ -63796,8 +66921,59 @@
         <f t="shared" si="9"/>
         <v>8.9738230267900135E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F100" s="1">
+        <v>8.9738230267900135E-2</v>
+      </c>
+      <c r="H100" t="s">
+        <v>387</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1.4819310242613601</v>
+      </c>
+      <c r="J100" s="1">
+        <v>-0.1326180532323927</v>
+      </c>
+      <c r="K100" s="1">
+        <v>-0.14134146535650491</v>
+      </c>
+      <c r="L100" s="1">
+        <v>1.799256179976495</v>
+      </c>
+      <c r="M100" s="1">
+        <v>4.7834038862048456E-2</v>
+      </c>
+      <c r="N100" s="1">
+        <v>6.4619469442711894</v>
+      </c>
+      <c r="O100" s="1">
+        <v>1.2011958800934244</v>
+      </c>
+      <c r="P100" s="1">
+        <v>1.4478602015644868</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>1.7249229019702748</v>
+      </c>
+      <c r="R100" s="1">
+        <v>8.9738230267900135E-2</v>
+      </c>
+      <c r="S100" s="1">
+        <v>0.90038844067863777</v>
+      </c>
+      <c r="T100" s="1">
+        <v>1.503510684002916</v>
+      </c>
+      <c r="U100" s="1">
+        <v>2.0434011605882296</v>
+      </c>
+      <c r="V100" s="1">
+        <v>2.0175702492729419</v>
+      </c>
+      <c r="W100" s="1">
+        <v>-0.8338936937743251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" s="2" t="s">
         <v>401</v>
       </c>
@@ -63814,8 +66990,11 @@
         <f>+(D102-C102)/C102</f>
         <v>-0.15062381620305787</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" s="1">
+        <v>-0.15062381620305787</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" s="2"/>
       <c r="B103" t="s">
         <v>380</v>
@@ -63827,11 +67006,14 @@
         <v>43434705715</v>
       </c>
       <c r="E103" s="6">
-        <f t="shared" ref="E103:E110" si="10">+(D103-C103)/C103</f>
+        <f t="shared" ref="E103:F110" si="10">+(D103-C103)/C103</f>
         <v>-0.48658127523743228</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103" s="1">
+        <v>-0.48658127523743228</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" s="2"/>
       <c r="B104" t="s">
         <v>381</v>
@@ -63846,8 +67028,11 @@
         <f t="shared" si="10"/>
         <v>-0.15819996172998632</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104" s="1">
+        <v>-0.15819996172998632</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105" s="2"/>
       <c r="B105" t="s">
         <v>382</v>
@@ -63862,8 +67047,11 @@
         <f t="shared" si="10"/>
         <v>-0.7638967283398076</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105" s="1">
+        <v>-0.7638967283398076</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" s="2"/>
       <c r="B106" t="s">
         <v>383</v>
@@ -63878,8 +67066,11 @@
         <f t="shared" si="10"/>
         <v>0.44196796152733286</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106" s="1">
+        <v>0.44196796152733286</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
       <c r="A107" s="2"/>
       <c r="B107" t="s">
         <v>384</v>
@@ -63894,8 +67085,11 @@
         <f t="shared" si="10"/>
         <v>0.37471421871519445</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107" s="1">
+        <v>0.37471421871519445</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
       <c r="A108" s="2"/>
       <c r="B108" t="s">
         <v>385</v>
@@ -63910,8 +67104,11 @@
         <f t="shared" si="10"/>
         <v>0.15206705657949041</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108" s="1">
+        <v>0.15206705657949041</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109" s="2"/>
       <c r="B109" t="s">
         <v>386</v>
@@ -63926,8 +67123,11 @@
         <f t="shared" si="10"/>
         <v>0.28969894986566652</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109" s="1">
+        <v>0.28969894986566652</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" s="2"/>
       <c r="B110" t="s">
         <v>387</v>
@@ -63942,11 +67142,14 @@
         <f t="shared" si="10"/>
         <v>0.90038844067863777</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110" s="1">
+        <v>0.90038844067863777</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" s="2"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:23">
       <c r="A112" s="2" t="s">
         <v>402</v>
       </c>
@@ -63963,8 +67166,11 @@
         <f>+(D112-C112)/C112</f>
         <v>0.29816313412242007</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112" s="1">
+        <v>0.29816313412242007</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="2"/>
       <c r="B113" t="s">
         <v>380</v>
@@ -63976,11 +67182,14 @@
         <v>68985363063</v>
       </c>
       <c r="E113" s="6">
-        <f t="shared" ref="E113:E120" si="11">+(D113-C113)/C113</f>
+        <f t="shared" ref="E113:F120" si="11">+(D113-C113)/C113</f>
         <v>0.2977890724158147</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113" s="1">
+        <v>0.2977890724158147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="2"/>
       <c r="B114" t="s">
         <v>381</v>
@@ -63995,8 +67204,11 @@
         <f t="shared" si="11"/>
         <v>0.44510770348197937</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114" s="1">
+        <v>0.44510770348197937</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="2"/>
       <c r="B115" t="s">
         <v>382</v>
@@ -64011,8 +67223,11 @@
         <f t="shared" si="11"/>
         <v>0.127287046005747</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115" s="1">
+        <v>0.127287046005747</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="2"/>
       <c r="B116" t="s">
         <v>383</v>
@@ -64027,8 +67242,11 @@
         <f t="shared" si="11"/>
         <v>0.80647749685558168</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116" s="1">
+        <v>0.80647749685558168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="2"/>
       <c r="B117" t="s">
         <v>384</v>
@@ -64043,8 +67261,11 @@
         <f t="shared" si="11"/>
         <v>0.57423581274612678</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117" s="1">
+        <v>0.57423581274612678</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="2"/>
       <c r="B118" t="s">
         <v>385</v>
@@ -64059,8 +67280,11 @@
         <f t="shared" si="11"/>
         <v>0.32019117591767426</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118" s="1">
+        <v>0.32019117591767426</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="2"/>
       <c r="B119" t="s">
         <v>386</v>
@@ -64075,8 +67299,11 @@
         <f t="shared" si="11"/>
         <v>0.49996510517332748</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119" s="1">
+        <v>0.49996510517332748</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="2"/>
       <c r="B120" t="s">
         <v>387</v>
@@ -64091,11 +67318,14 @@
         <f t="shared" si="11"/>
         <v>1.503510684002916</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120" s="1">
+        <v>1.503510684002916</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="2"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:6">
       <c r="A122" s="2" t="s">
         <v>403</v>
       </c>
@@ -64112,8 +67342,11 @@
         <f>+(D122-C122)/C122</f>
         <v>0.31206990826843156</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122" s="1">
+        <v>0.31206990826843156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="2"/>
       <c r="B123" t="s">
         <v>380</v>
@@ -64125,11 +67358,14 @@
         <v>68147358853</v>
       </c>
       <c r="E123" s="6">
-        <f t="shared" ref="E123:E130" si="12">+(D123-C123)/C123</f>
+        <f t="shared" ref="E123:F130" si="12">+(D123-C123)/C123</f>
         <v>0.26548180758875656</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123" s="1">
+        <v>0.26548180758875656</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="2"/>
       <c r="B124" t="s">
         <v>381</v>
@@ -64144,8 +67380,11 @@
         <f t="shared" si="12"/>
         <v>0.44181695785301378</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124" s="1">
+        <v>0.44181695785301378</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="2"/>
       <c r="B125" t="s">
         <v>382</v>
@@ -64160,8 +67399,11 @@
         <f t="shared" si="12"/>
         <v>5.5700600230210798E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125" s="1">
+        <v>5.5700600230210798E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="2"/>
       <c r="B126" t="s">
         <v>383</v>
@@ -64176,8 +67418,11 @@
         <f t="shared" si="12"/>
         <v>0.96474155148631413</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126" s="1">
+        <v>0.96474155148631413</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="2"/>
       <c r="B127" t="s">
         <v>384</v>
@@ -64192,8 +67437,11 @@
         <f t="shared" si="12"/>
         <v>0.38721740688741357</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127" s="1">
+        <v>0.38721740688741357</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="2"/>
       <c r="B128" t="s">
         <v>385</v>
@@ -64208,8 +67456,11 @@
         <f t="shared" si="12"/>
         <v>0.46228912245106712</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="F128" s="1">
+        <v>0.46228912245106712</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="2"/>
       <c r="B129" t="s">
         <v>386</v>
@@ -64224,8 +67475,11 @@
         <f t="shared" si="12"/>
         <v>0.43733936550842178</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="F129" s="1">
+        <v>0.43733936550842178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="2"/>
       <c r="B130" t="s">
         <v>387</v>
@@ -64240,17 +67494,17 @@
         <f t="shared" si="12"/>
         <v>2.0434011605882296</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="F130" s="1">
+        <v>2.0434011605882296</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="2"/>
       <c r="G131" t="s">
         <v>28</v>
       </c>
-      <c r="I131" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="2" t="s">
         <v>33</v>
       </c>
@@ -64267,15 +67521,14 @@
         <f>+(D132-C132)/C132</f>
         <v>0.28724111345754083</v>
       </c>
+      <c r="F132" s="1">
+        <v>0.28724111345754083</v>
+      </c>
       <c r="G132" s="6">
         <v>0.44919484442667712</v>
       </c>
-      <c r="I132" s="1">
-        <f>+G132-E132</f>
-        <v>0.16195373096913629</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="2"/>
       <c r="B133" t="s">
         <v>380</v>
@@ -64287,18 +67540,17 @@
         <v>69431872627</v>
       </c>
       <c r="E133" s="6">
-        <f t="shared" ref="E133:E140" si="13">+(D133-C133)/C133</f>
+        <f t="shared" ref="E133:F140" si="13">+(D133-C133)/C133</f>
+        <v>0.36508996835157809</v>
+      </c>
+      <c r="F133" s="1">
         <v>0.36508996835157809</v>
       </c>
       <c r="G133" s="6">
         <v>0.44977063674646239</v>
       </c>
-      <c r="I133" s="1">
-        <f t="shared" ref="I133:I140" si="14">+G133-E133</f>
-        <v>8.4680668394884306E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="2"/>
       <c r="B134" t="s">
         <v>381</v>
@@ -64313,15 +67565,14 @@
         <f t="shared" si="13"/>
         <v>0.42979682075904779</v>
       </c>
+      <c r="F134" s="1">
+        <v>0.42979682075904779</v>
+      </c>
       <c r="G134" s="6">
         <v>0.62460911677382269</v>
       </c>
-      <c r="I134" s="1">
-        <f t="shared" si="14"/>
-        <v>0.1948122960147749</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="2"/>
       <c r="B135" t="s">
         <v>382</v>
@@ -64336,15 +67587,14 @@
         <f t="shared" si="13"/>
         <v>0.27792299973917062</v>
       </c>
+      <c r="F135" s="1">
+        <v>0.27792299973917062</v>
+      </c>
       <c r="G135" s="6">
         <v>0.23119960065998979</v>
       </c>
-      <c r="I135" s="1">
-        <f t="shared" si="14"/>
-        <v>-4.6723399079180827E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="2"/>
       <c r="B136" t="s">
         <v>383</v>
@@ -64359,15 +67609,14 @@
         <f t="shared" si="13"/>
         <v>0.91952006420509935</v>
       </c>
+      <c r="F136" s="1">
+        <v>0.91952006420509935</v>
+      </c>
       <c r="G136" s="6">
         <v>0.85200576053552191</v>
       </c>
-      <c r="I136" s="1">
-        <f t="shared" si="14"/>
-        <v>-6.7514303669577447E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="2"/>
       <c r="B137" t="s">
         <v>384</v>
@@ -64382,15 +67631,14 @@
         <f t="shared" si="13"/>
         <v>0.4144456899764189</v>
       </c>
+      <c r="F137" s="1">
+        <v>0.4144456899764189</v>
+      </c>
       <c r="G137" s="6">
         <v>0.69917789027128618</v>
       </c>
-      <c r="I137" s="1">
-        <f t="shared" si="14"/>
-        <v>0.28473220029486729</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="2"/>
       <c r="B138" t="s">
         <v>385</v>
@@ -64405,15 +67653,14 @@
         <f t="shared" si="13"/>
         <v>0.27863075845072388</v>
       </c>
+      <c r="F138" s="1">
+        <v>0.27863075845072388</v>
+      </c>
       <c r="G138" s="6">
         <v>0.44683704766766247</v>
       </c>
-      <c r="I138" s="1">
-        <f t="shared" si="14"/>
-        <v>0.16820628921693859</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="2"/>
       <c r="B139" t="s">
         <v>386</v>
@@ -64428,15 +67675,14 @@
         <f t="shared" si="13"/>
         <v>0.52152737010744554</v>
       </c>
+      <c r="F139" s="1">
+        <v>0.52152737010744554</v>
+      </c>
       <c r="G139" s="6">
         <v>-8.0898106135577057E-3</v>
       </c>
-      <c r="I139" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.52961718072100328</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="2"/>
       <c r="B140" t="s">
         <v>387</v>
@@ -64451,18 +67697,17 @@
         <f t="shared" si="13"/>
         <v>2.0175702492729419</v>
       </c>
+      <c r="F140" s="1">
+        <v>2.0175702492729419</v>
+      </c>
       <c r="G140" s="6">
         <v>1.7249229019702748</v>
       </c>
-      <c r="I140" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.29264734730266717</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="2"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:7">
       <c r="A142" s="2" t="s">
         <v>404</v>
       </c>
@@ -64479,8 +67724,11 @@
         <f>+(D142-C142)/C142</f>
         <v>-0.29744917323041148</v>
       </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="F142" s="1">
+        <v>-0.29744917323041148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="2"/>
       <c r="B143" t="s">
         <v>380</v>
@@ -64492,11 +67740,14 @@
         <v>45103734069</v>
       </c>
       <c r="E143" s="6">
-        <f t="shared" ref="E143:E150" si="15">+(D143-C143)/C143</f>
+        <f t="shared" ref="E143:F150" si="14">+(D143-C143)/C143</f>
         <v>-0.28140148161793294</v>
       </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="F143" s="1">
+        <v>-0.28140148161793294</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="2"/>
       <c r="B144" t="s">
         <v>381</v>
@@ -64508,11 +67759,14 @@
         <v>2890157713</v>
       </c>
       <c r="E144" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-0.79853569320817097</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144" s="1">
+        <v>-0.79853569320817097</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
       <c r="A145" s="2"/>
       <c r="B145" t="s">
         <v>382</v>
@@ -64524,11 +67778,14 @@
         <v>42213576356</v>
       </c>
       <c r="E145" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-0.12818782359772266</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145" s="1">
+        <v>-0.12818782359772266</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23">
       <c r="A146" s="2"/>
       <c r="B146" t="s">
         <v>383</v>
@@ -64540,11 +67797,62 @@
         <v>1634002706</v>
       </c>
       <c r="E146" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-0.36637317522742097</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146" s="1">
+        <v>-0.36637317522742097</v>
+      </c>
+      <c r="H146" t="s">
+        <v>430</v>
+      </c>
+      <c r="I146" t="s">
+        <v>393</v>
+      </c>
+      <c r="J146" t="s">
+        <v>394</v>
+      </c>
+      <c r="K146" t="s">
+        <v>395</v>
+      </c>
+      <c r="L146" t="s">
+        <v>23</v>
+      </c>
+      <c r="M146" t="s">
+        <v>396</v>
+      </c>
+      <c r="N146" t="s">
+        <v>397</v>
+      </c>
+      <c r="O146" t="s">
+        <v>398</v>
+      </c>
+      <c r="P146" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>28</v>
+      </c>
+      <c r="R146" t="s">
+        <v>400</v>
+      </c>
+      <c r="S146" t="s">
+        <v>401</v>
+      </c>
+      <c r="T146" t="s">
+        <v>402</v>
+      </c>
+      <c r="U146" t="s">
+        <v>403</v>
+      </c>
+      <c r="V146" t="s">
+        <v>33</v>
+      </c>
+      <c r="W146" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23">
       <c r="A147" s="2"/>
       <c r="B147" t="s">
         <v>384</v>
@@ -64556,11 +67864,62 @@
         <v>907772872</v>
       </c>
       <c r="E147" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-9.4903595817579067E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147" s="1">
+        <v>-9.4903595817579067E-2</v>
+      </c>
+      <c r="H147" t="s">
+        <v>379</v>
+      </c>
+      <c r="I147">
+        <v>96823446998</v>
+      </c>
+      <c r="J147">
+        <v>15000788104</v>
+      </c>
+      <c r="K147">
+        <v>14956518295</v>
+      </c>
+      <c r="L147">
+        <v>53444008334</v>
+      </c>
+      <c r="M147">
+        <v>11589134651</v>
+      </c>
+      <c r="N147">
+        <v>84973262446</v>
+      </c>
+      <c r="O147">
+        <v>51816150065</v>
+      </c>
+      <c r="P147">
+        <v>53408381302</v>
+      </c>
+      <c r="Q147">
+        <v>53967871539</v>
+      </c>
+      <c r="R147">
+        <v>11836665740</v>
+      </c>
+      <c r="S147">
+        <v>80294981125</v>
+      </c>
+      <c r="T147">
+        <v>53434025259</v>
+      </c>
+      <c r="U147">
+        <v>54150476173</v>
+      </c>
+      <c r="V147">
+        <v>54001837802</v>
+      </c>
+      <c r="W147">
+        <v>63734415225</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23">
       <c r="A148" s="2"/>
       <c r="B148" t="s">
         <v>385</v>
@@ -64572,11 +67931,62 @@
         <v>425490701</v>
       </c>
       <c r="E148" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-2.7928816305622058E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148" s="1">
+        <v>-2.7928816305622058E-2</v>
+      </c>
+      <c r="H148" t="s">
+        <v>380</v>
+      </c>
+      <c r="I148">
+        <v>79778731885</v>
+      </c>
+      <c r="J148">
+        <v>11806406138</v>
+      </c>
+      <c r="K148">
+        <v>11798791990</v>
+      </c>
+      <c r="L148">
+        <v>52815077778</v>
+      </c>
+      <c r="M148">
+        <v>10976624288</v>
+      </c>
+      <c r="N148">
+        <v>80370745035</v>
+      </c>
+      <c r="O148">
+        <v>51471532542</v>
+      </c>
+      <c r="P148">
+        <v>53581592326</v>
+      </c>
+      <c r="Q148">
+        <v>52152276424</v>
+      </c>
+      <c r="R148">
+        <v>8584568852</v>
+      </c>
+      <c r="S148">
+        <v>84598990298</v>
+      </c>
+      <c r="T148">
+        <v>53156067137</v>
+      </c>
+      <c r="U148">
+        <v>53850919424</v>
+      </c>
+      <c r="V148">
+        <v>50862488361</v>
+      </c>
+      <c r="W148">
+        <v>62766249742</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23">
       <c r="A149" s="2"/>
       <c r="B149" t="s">
         <v>386</v>
@@ -64588,11 +67998,62 @@
         <v>154047385</v>
       </c>
       <c r="E149" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-0.39593256157418233</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149" s="1">
+        <v>-0.39593256157418233</v>
+      </c>
+      <c r="H149" t="s">
+        <v>381</v>
+      </c>
+      <c r="I149">
+        <v>44651870248</v>
+      </c>
+      <c r="J149">
+        <v>935563099</v>
+      </c>
+      <c r="K149">
+        <v>794810637</v>
+      </c>
+      <c r="L149">
+        <v>28849987576</v>
+      </c>
+      <c r="M149">
+        <v>2173417022</v>
+      </c>
+      <c r="N149">
+        <v>39769420401</v>
+      </c>
+      <c r="O149">
+        <v>27795383490</v>
+      </c>
+      <c r="P149">
+        <v>29006613026</v>
+      </c>
+      <c r="Q149">
+        <v>28974838242</v>
+      </c>
+      <c r="R149">
+        <v>283909679</v>
+      </c>
+      <c r="S149">
+        <v>38733255021</v>
+      </c>
+      <c r="T149">
+        <v>28516765508</v>
+      </c>
+      <c r="U149">
+        <v>29257788931</v>
+      </c>
+      <c r="V149">
+        <v>29192186624</v>
+      </c>
+      <c r="W149">
+        <v>14345755628</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23">
       <c r="A150" s="2"/>
       <c r="B150" t="s">
         <v>387</v>
@@ -64604,35 +68065,328 @@
         <v>146691748</v>
       </c>
       <c r="E150" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-0.8338936937743251</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F150" s="1">
+        <v>-0.8338936937743251</v>
+      </c>
+      <c r="H150" t="s">
+        <v>382</v>
+      </c>
+      <c r="I150">
+        <v>35126861637</v>
+      </c>
+      <c r="J150">
+        <v>10870843039</v>
+      </c>
+      <c r="K150">
+        <v>11003981353</v>
+      </c>
+      <c r="L150">
+        <v>23965090202</v>
+      </c>
+      <c r="M150">
+        <v>8803207266</v>
+      </c>
+      <c r="N150">
+        <v>40601324634</v>
+      </c>
+      <c r="O150">
+        <v>23676149052</v>
+      </c>
+      <c r="P150">
+        <v>24574979300</v>
+      </c>
+      <c r="Q150">
+        <v>23177438182</v>
+      </c>
+      <c r="R150">
+        <v>8300659173</v>
+      </c>
+      <c r="S150">
+        <v>45865735277</v>
+      </c>
+      <c r="T150">
+        <v>24639301629</v>
+      </c>
+      <c r="U150">
+        <v>24593130493</v>
+      </c>
+      <c r="V150">
+        <v>21670301737</v>
+      </c>
+      <c r="W150">
+        <v>48420494114</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23">
+      <c r="H151" t="s">
+        <v>383</v>
+      </c>
+      <c r="I151">
+        <v>969530311</v>
+      </c>
+      <c r="J151">
+        <v>3378869371</v>
+      </c>
+      <c r="K151">
+        <v>3318334859</v>
+      </c>
+      <c r="L151">
+        <v>742250849</v>
+      </c>
+      <c r="M151">
+        <v>654904090</v>
+      </c>
+      <c r="N151">
+        <v>792602746</v>
+      </c>
+      <c r="O151">
+        <v>708653588</v>
+      </c>
+      <c r="P151">
+        <v>735707377</v>
+      </c>
+      <c r="Q151">
+        <v>723115409</v>
+      </c>
+      <c r="R151">
+        <v>3146714871</v>
+      </c>
+      <c r="S151">
+        <v>960968156</v>
+      </c>
+      <c r="T151">
+        <v>707006750</v>
+      </c>
+      <c r="U151">
+        <v>689861580</v>
+      </c>
+      <c r="V151">
+        <v>694810855</v>
+      </c>
+      <c r="W151">
+        <v>2578809233</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23">
       <c r="A152" s="2"/>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="H152" t="s">
+        <v>384</v>
+      </c>
+      <c r="I152">
+        <v>196911623</v>
+      </c>
+      <c r="J152">
+        <v>1536217060</v>
+      </c>
+      <c r="K152">
+        <v>1523429304</v>
+      </c>
+      <c r="L152">
+        <v>103676497</v>
+      </c>
+      <c r="M152">
+        <v>505692432</v>
+      </c>
+      <c r="N152">
+        <v>182917002</v>
+      </c>
+      <c r="O152">
+        <v>98677218</v>
+      </c>
+      <c r="P152">
+        <v>98194096</v>
+      </c>
+      <c r="Q152">
+        <v>99313385</v>
+      </c>
+      <c r="R152">
+        <v>1794260352</v>
+      </c>
+      <c r="S152">
+        <v>165400964</v>
+      </c>
+      <c r="T152">
+        <v>92057738</v>
+      </c>
+      <c r="U152">
+        <v>106174341</v>
+      </c>
+      <c r="V152">
+        <v>99308749</v>
+      </c>
+      <c r="W152">
+        <v>1002957108</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23">
       <c r="A153" s="2"/>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="H153" t="s">
+        <v>385</v>
+      </c>
+      <c r="I153">
+        <v>276669105</v>
+      </c>
+      <c r="J153">
+        <v>281261912</v>
+      </c>
+      <c r="K153">
+        <v>278801748</v>
+      </c>
+      <c r="L153">
+        <v>246517287</v>
+      </c>
+      <c r="M153">
+        <v>16060227</v>
+      </c>
+      <c r="N153">
+        <v>287337539</v>
+      </c>
+      <c r="O153">
+        <v>238927533</v>
+      </c>
+      <c r="P153">
+        <v>233380808</v>
+      </c>
+      <c r="Q153">
+        <v>233763466</v>
+      </c>
+      <c r="R153">
+        <v>114663728</v>
+      </c>
+      <c r="S153">
+        <v>276692789</v>
+      </c>
+      <c r="T153">
+        <v>243416224</v>
+      </c>
+      <c r="U153">
+        <v>235940598</v>
+      </c>
+      <c r="V153">
+        <v>235808912</v>
+      </c>
+      <c r="W153">
+        <v>437715579</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23">
       <c r="A154" s="2"/>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="H154" t="s">
+        <v>386</v>
+      </c>
+      <c r="I154">
+        <v>237667898</v>
+      </c>
+      <c r="J154">
+        <v>107371106</v>
+      </c>
+      <c r="K154">
+        <v>116962688</v>
+      </c>
+      <c r="L154">
+        <v>134117249</v>
+      </c>
+      <c r="M154">
+        <v>61866357</v>
+      </c>
+      <c r="N154">
+        <v>226997597</v>
+      </c>
+      <c r="O154">
+        <v>122949716</v>
+      </c>
+      <c r="P154">
+        <v>133793482</v>
+      </c>
+      <c r="Q154">
+        <v>133051446</v>
+      </c>
+      <c r="R154">
+        <v>204098019</v>
+      </c>
+      <c r="S154">
+        <v>239934256</v>
+      </c>
+      <c r="T154">
+        <v>118799845</v>
+      </c>
+      <c r="U154">
+        <v>121560132</v>
+      </c>
+      <c r="V154">
+        <v>129458498</v>
+      </c>
+      <c r="W154">
+        <v>255016866</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23">
       <c r="A155" s="2"/>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="H155" t="s">
+        <v>387</v>
+      </c>
+      <c r="I155">
+        <v>258281685</v>
+      </c>
+      <c r="J155">
+        <v>1454019293</v>
+      </c>
+      <c r="K155">
+        <v>1399141119</v>
+      </c>
+      <c r="L155">
+        <v>257939816</v>
+      </c>
+      <c r="M155">
+        <v>71285074</v>
+      </c>
+      <c r="N155">
+        <v>95350608</v>
+      </c>
+      <c r="O155">
+        <v>248099121</v>
+      </c>
+      <c r="P155">
+        <v>270338991</v>
+      </c>
+      <c r="Q155">
+        <v>256987112</v>
+      </c>
+      <c r="R155">
+        <v>1033692772</v>
+      </c>
+      <c r="S155">
+        <v>278940147</v>
+      </c>
+      <c r="T155">
+        <v>252732943</v>
+      </c>
+      <c r="U155">
+        <v>226186509</v>
+      </c>
+      <c r="V155">
+        <v>230234696</v>
+      </c>
+      <c r="W155">
+        <v>883119680</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23">
       <c r="A156" s="2"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:23">
       <c r="A157" s="2"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:23">
       <c r="A158" s="2"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:23">
       <c r="A159" s="2"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:23">
       <c r="A160" s="2"/>
     </row>
     <row r="161" spans="1:1">
@@ -64758,6 +68512,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -64766,7 +68521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -64790,12 +68545,12 @@
         <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B2" s="6">
         <v>0.28724111345754083</v>
@@ -64809,7 +68564,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B3" s="6">
         <v>0.36508996835157809</v>
@@ -64823,7 +68578,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B4" s="6">
         <v>0.42979682075904779</v>
@@ -64837,7 +68592,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B5" s="6">
         <v>0.27792299973917062</v>
@@ -64851,7 +68606,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B6" s="6">
         <v>0.91952006420509935</v>
@@ -64865,7 +68620,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B7" s="6">
         <v>0.4144456899764189</v>
@@ -64879,7 +68634,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B8" s="6">
         <v>0.27863075845072388</v>
@@ -64893,7 +68648,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B9" s="6">
         <v>0.52152737010744554</v>
@@ -64907,7 +68662,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B10" s="6">
         <v>2.0175702492729419</v>
@@ -64928,819 +68683,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C150"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
-        <v>1.2981667450221701</v>
-      </c>
-      <c r="B1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1.3012911269906899</v>
-      </c>
-      <c r="B2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1.30376060001435</v>
-      </c>
-      <c r="B3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1.3068449499842201</v>
-      </c>
-      <c r="B4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>1.3079331069893601</v>
-      </c>
-      <c r="B5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C5">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>1.3098165560222601</v>
-      </c>
-      <c r="B6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>1.3111044309916899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>1.3137250949803201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>1.31390877399826</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>1.3152178809977999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>1.3153620709781499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>1.3161007649905501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>1.3162686940049699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>1.3191851479932599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>1.33311822399264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>1.34740761198918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>1.4010850719932899</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>1.42632630301523</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>1.42694719100836</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>1.4283346269803501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>1.43530561999068</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>1.4534579510218399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>1.45835989000624</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <v>1.4603680900181599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>1.4609706659975901</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>1.461812035006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>1.6517432550026501</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <v>1.65563546901103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <v>1.6557022299966699</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <v>1.65830750600434</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <v>1.6611759130028001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <v>1.6688668710121399</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <v>1.6779178959841301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>2.04276678399764</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <v>2.0511925369792099</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <v>2.0515929629909802</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <v>2.1083383109944398</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
-        <v>2.1392993199988202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
-        <v>2.1469678999856101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
-        <v>2.1763586050074002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
-        <v>2.1907353679998698</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
-        <v>2.1917613639961901</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
-        <v>2.19185660799848</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
-        <v>2.2565551779989601</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
-        <v>2.2605971180018898</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
-        <v>2.2629663080151601</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
-        <v>2.2638585729873699</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
-        <v>2.2746099299983999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
-        <v>2.27583923999918</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
-        <v>2.27704119100235</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
-        <v>2.27952616199036</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52">
-        <v>2.2828322279965501</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
-        <v>2.2873152710089899</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
-        <v>2.29445118800504</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
-        <v>2.3144642760162202</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
-        <v>2.3207539879949701</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
-        <v>2.33963019598741</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
-        <v>2.3615508869988799</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
-        <v>2.37446859499323</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
-        <v>2.3899737189931298</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
-        <v>2.3900795340014098</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
-        <v>2.4445491940132298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63">
-        <v>2.44662824500119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64">
-        <v>2.4637530859908998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65">
-        <v>2.5177050229976801</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66">
-        <v>2.5184595699829502</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67">
-        <v>2.5209673720237298</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68">
-        <v>2.5695100690063502</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69">
-        <v>2.6303375889838199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70">
-        <v>2.6781862190109602</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71">
-        <v>2.6799780049768702</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72">
-        <v>2.6867705269833002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73">
-        <v>2.7055133989779199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
-        <v>2.7115684009913799</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
-        <v>2.74076250198413</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76">
-        <v>2.8364563899813202</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77">
-        <v>2.8411916889890501</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78">
-        <v>2.8412012209882902</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79">
-        <v>2.92893046300741</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80">
-        <v>2.9510225460107899</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81">
-        <v>2.97052923101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82">
-        <v>2.9858596170088201</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83">
-        <v>3.0109970970079298</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84">
-        <v>3.03875824500573</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85">
-        <v>3.1138515420025201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86">
-        <v>3.12055050898925</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87">
-        <v>3.1601660300220802</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88">
-        <v>3.16350402700481</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89">
-        <v>3.17293671701918</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90">
-        <v>3.2038086179818399</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91">
-        <v>3.2364424560219001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92">
-        <v>3.3212179240072102</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93">
-        <v>3.3304895180044598</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94">
-        <v>3.3809013380086901</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95">
-        <v>3.4541104630043198</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96">
-        <v>3.54107747599482</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97">
-        <v>3.69376242399448</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98">
-        <v>3.7027609600045199</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99">
-        <v>3.73803968401625</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100">
-        <v>3.80434663599589</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101">
-        <v>3.8228360240172998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102">
-        <v>3.85941002299659</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103">
-        <v>3.9431449589901599</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104">
-        <v>3.97303582201129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105">
-        <v>3.97387528698891</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106">
-        <v>4.0655121710151398</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107">
-        <v>4.1890189539990299</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108">
-        <v>4.6001112299854796</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109">
-        <v>6.1467810659960298</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110">
-        <v>6.38375211699167</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111">
-        <v>6.6855504900158804</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112">
-        <v>6.74924854998243</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113">
-        <v>6.9907048789900701</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114">
-        <v>6.9989121440157698</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115">
-        <v>7.0143676970037596</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116">
-        <v>7.0188462930091102</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117">
-        <v>7.0246199970133603</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118">
-        <v>7.0273548509867299</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119">
-        <v>7.0378276430128599</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120">
-        <v>7.0450661309878297</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121">
-        <v>7.1228695590107201</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122">
-        <v>7.1290223170071796</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123">
-        <v>8.8345967940113006</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124">
-        <v>8.8366083370056003</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125">
-        <v>8.8572307410067808</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126">
-        <v>8.9924809829972201</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127">
-        <v>15.9599736139934</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128">
-        <v>15.963452338997699</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129">
-        <v>15.965051996987301</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130">
-        <v>15.967569817003</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131">
-        <v>19.687062151002401</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132">
-        <v>19.694321557995799</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133">
-        <v>19.737864591006598</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134">
-        <v>19.752250998019001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135">
-        <v>19.778372072003499</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136">
-        <v>19.879682635975701</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137">
-        <v>19.9084958250168</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138">
-        <v>19.922896260977701</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139">
-        <v>19.940691199997602</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140">
-        <v>19.977155144995699</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141">
-        <v>27.961290691018799</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142">
-        <v>27.980276731977899</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143">
-        <v>28.011142628005398</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144">
-        <v>28.065820582007198</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145">
-        <v>28.088116539001899</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146">
-        <v>28.142784222</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147">
-        <v>28.2745326239964</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148">
-        <v>28.285548279003699</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149">
-        <v>28.300511869980198</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150">
-        <v>28.3149772839969</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:A150">
-    <sortCondition ref="A150"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="915" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27520" windowHeight="18080" tabRatio="915" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_timings.txt" sheetId="1" r:id="rId1"/>
@@ -1349,7 +1349,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2216,10 +2215,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="794">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3065,7 +3064,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3330,11 +3328,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2068137288"/>
-        <c:axId val="2068148568"/>
+        <c:axId val="-2145648968"/>
+        <c:axId val="-2145642040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2068137288"/>
+        <c:axId val="-2145648968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3369,7 +3367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068148568"/>
+        <c:crossAx val="-2145642040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3377,7 +3375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2068148568"/>
+        <c:axId val="-2145642040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3400,21 +3398,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068137288"/>
+        <c:crossAx val="-2145648968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4128,11 +4124,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2087851256"/>
-        <c:axId val="2095116792"/>
+        <c:axId val="2063563240"/>
+        <c:axId val="2063569112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2087851256"/>
+        <c:axId val="2063563240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4167,7 +4163,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095116792"/>
+        <c:crossAx val="2063569112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4175,7 +4171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095116792"/>
+        <c:axId val="2063569112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4205,7 +4201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087851256"/>
+        <c:crossAx val="2063563240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4917,11 +4913,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2128859176"/>
-        <c:axId val="2128862264"/>
+        <c:axId val="-2144689032"/>
+        <c:axId val="-2144683112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2128859176"/>
+        <c:axId val="-2144689032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4956,7 +4952,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128862264"/>
+        <c:crossAx val="-2144683112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4964,7 +4960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128862264"/>
+        <c:axId val="-2144683112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4994,7 +4990,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128859176"/>
+        <c:crossAx val="-2144689032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5034,7 +5030,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -6153,20 +6149,20 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2129884104"/>
-        <c:axId val="2096915128"/>
+        <c:axId val="-2144585928"/>
+        <c:axId val="-2144583016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2129884104"/>
+        <c:axId val="-2144585928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096915128"/>
+        <c:crossAx val="-2144583016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6174,18 +6170,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096915128"/>
+        <c:axId val="-2144583016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Stall Cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129884104"/>
+        <c:crossAx val="-2144585928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6525,11 +6540,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2066486824"/>
-        <c:axId val="2125898056"/>
+        <c:axId val="-2144536360"/>
+        <c:axId val="-2144530264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2066486824"/>
+        <c:axId val="-2144536360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6582,7 +6597,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125898056"/>
+        <c:crossAx val="-2144530264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6590,7 +6605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125898056"/>
+        <c:axId val="-2144530264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6620,7 +6635,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2066486824"/>
+        <c:crossAx val="-2144536360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6677,7 +6692,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6828,11 +6842,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2127469368"/>
-        <c:axId val="2127404680"/>
+        <c:axId val="-2144828488"/>
+        <c:axId val="-2144822920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2127469368"/>
+        <c:axId val="-2144828488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6854,13 +6868,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127404680"/>
+        <c:crossAx val="-2144822920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6868,7 +6881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127404680"/>
+        <c:axId val="-2144822920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6896,14 +6909,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127469368"/>
+        <c:crossAx val="-2144828488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6950,7 +6962,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7092,11 +7103,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2127491496"/>
-        <c:axId val="2067405960"/>
+        <c:axId val="-2146592168"/>
+        <c:axId val="-2146586632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2127491496"/>
+        <c:axId val="-2146592168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7118,13 +7129,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067405960"/>
+        <c:crossAx val="-2146586632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7132,7 +7142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2067405960"/>
+        <c:axId val="-2146586632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7155,21 +7165,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127491496"/>
+        <c:crossAx val="-2146592168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7460,11 +7468,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2126579688"/>
-        <c:axId val="2126664136"/>
+        <c:axId val="-2146525848"/>
+        <c:axId val="-2146520216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2126579688"/>
+        <c:axId val="-2146525848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7495,7 +7503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126664136"/>
+        <c:crossAx val="-2146520216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7503,7 +7511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126664136"/>
+        <c:axId val="-2146520216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7537,7 +7545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126579688"/>
+        <c:crossAx val="-2146525848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7743,11 +7751,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2067394840"/>
-        <c:axId val="2127144344"/>
+        <c:axId val="-2146489176"/>
+        <c:axId val="-2146483608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2067394840"/>
+        <c:axId val="-2146489176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7774,7 +7782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127144344"/>
+        <c:crossAx val="-2146483608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7782,7 +7790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127144344"/>
+        <c:axId val="-2146483608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7811,7 +7819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067394840"/>
+        <c:crossAx val="-2146489176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8004,11 +8012,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2067430120"/>
-        <c:axId val="2126957080"/>
+        <c:axId val="-2146454104"/>
+        <c:axId val="-2147453160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2067430120"/>
+        <c:axId val="-2146454104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8035,7 +8043,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126957080"/>
+        <c:crossAx val="-2147453160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8043,7 +8051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126957080"/>
+        <c:axId val="-2147453160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8072,7 +8080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067430120"/>
+        <c:crossAx val="-2146454104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8369,11 +8377,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2127167240"/>
-        <c:axId val="2126788392"/>
+        <c:axId val="-2144763912"/>
+        <c:axId val="-2144758344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2127167240"/>
+        <c:axId val="-2144763912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8395,13 +8403,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126788392"/>
+        <c:crossAx val="-2144758344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8409,7 +8416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126788392"/>
+        <c:axId val="-2144758344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8432,21 +8439,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127167240"/>
+        <c:crossAx val="-2144763912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8721,11 +8726,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2127305128"/>
-        <c:axId val="2067993832"/>
+        <c:axId val="-2144726024"/>
+        <c:axId val="-2144720456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2127305128"/>
+        <c:axId val="-2144726024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8747,13 +8752,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067993832"/>
+        <c:crossAx val="-2144720456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8761,7 +8765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2067993832"/>
+        <c:axId val="-2144720456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8784,21 +8788,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127305128"/>
+        <c:crossAx val="-2144726024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9107,11 +9109,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2123553864"/>
-        <c:axId val="2123527832"/>
+        <c:axId val="2063484792"/>
+        <c:axId val="2063490936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2123553864"/>
+        <c:axId val="2063484792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9162,13 +9164,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123527832"/>
+        <c:crossAx val="2063490936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9176,7 +9177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123527832"/>
+        <c:axId val="2063490936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9199,21 +9200,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123553864"/>
+        <c:crossAx val="2063484792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9578,15 +9577,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15441,7 +15440,7 @@
         <v>19.752250998019001</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D16" si="0">+(C5-B5)/B5</f>
+        <f t="shared" ref="D5:D15" si="0">+(C5-B5)/B5</f>
         <v>7.2887352864693937E-4</v>
       </c>
     </row>
@@ -56057,7 +56056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
+    <sheetView topLeftCell="A138" workbookViewId="0">
       <selection activeCell="A102" sqref="A102:A116"/>
     </sheetView>
   </sheetViews>
@@ -56281,10 +56280,10 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
@@ -56463,10 +56462,10 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C44" s="8"/>
+      <c r="C44" s="9"/>
       <c r="N44" t="s">
         <v>367</v>
       </c>
@@ -56669,11 +56668,11 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
@@ -56721,7 +56720,7 @@
         <f t="shared" ref="D68:D81" si="0">+(B68-C68)/C68*-100</f>
         <v>1.4644689741643038</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -56739,7 +56738,7 @@
         <f t="shared" si="0"/>
         <v>1.1939277463010489</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="8">
         <v>1.2E-2</v>
       </c>
     </row>
@@ -57577,7 +57576,7 @@
       <c r="C121" s="1">
         <v>0</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D121" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E121" s="1">
@@ -57597,7 +57596,7 @@
       <c r="C122" s="1">
         <v>0</v>
       </c>
-      <c r="D122" s="9">
+      <c r="D122" s="8">
         <v>1.2E-2</v>
       </c>
       <c r="E122" s="1">
@@ -57868,7 +57867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E646"/>
   <sheetViews>
-    <sheetView topLeftCell="L12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -64836,8 +64835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J132" workbookViewId="0">
-      <selection activeCell="H146" sqref="H146:W155"/>
+    <sheetView tabSelected="1" topLeftCell="J120" workbookViewId="0">
+      <selection activeCell="L130" sqref="L130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -64918,7 +64917,7 @@
         <v>65515252443</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:F10" si="0">+(D3-C3)/C3</f>
+        <f t="shared" ref="E3:E10" si="0">+(D3-C3)/C3</f>
         <v>-0.17878799405536577</v>
       </c>
       <c r="F3" s="1">
@@ -65083,7 +65082,7 @@
         <v>11482700125</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" ref="E13:F20" si="1">+(D13-C13)/C13</f>
+        <f t="shared" ref="E13:E20" si="1">+(D13-C13)/C13</f>
         <v>-2.7417828017801498E-2</v>
       </c>
       <c r="F13" s="1">
@@ -65248,7 +65247,7 @@
         <v>11653254818</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" ref="E23:F30" si="2">+(D23-C23)/C23</f>
+        <f t="shared" ref="E23:E30" si="2">+(D23-C23)/C23</f>
         <v>-1.2334921415967771E-2</v>
       </c>
       <c r="F23" s="1">
@@ -65413,7 +65412,7 @@
         <v>69168831575</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" ref="E33:F40" si="3">+(D33-C33)/C33</f>
+        <f t="shared" ref="E33:E40" si="3">+(D33-C33)/C33</f>
         <v>0.30964176301586588</v>
       </c>
       <c r="F33" s="1">
@@ -65578,7 +65577,7 @@
         <v>11109359710</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" ref="E43:F50" si="4">+(D43-C43)/C43</f>
+        <f t="shared" ref="E43:E50" si="4">+(D43-C43)/C43</f>
         <v>1.2092554005434134E-2</v>
       </c>
       <c r="F43" s="1">
@@ -65743,7 +65742,7 @@
         <v>84677754491</v>
       </c>
       <c r="E53" s="6">
-        <f t="shared" ref="E53:F60" si="5">+(D53-C53)/C53</f>
+        <f t="shared" ref="E53:E60" si="5">+(D53-C53)/C53</f>
         <v>5.3589268758481405E-2</v>
       </c>
       <c r="F53" s="1">
@@ -65908,7 +65907,7 @@
         <v>66115820405</v>
       </c>
       <c r="E63" s="6">
-        <f t="shared" ref="E63:F70" si="6">+(D63-C63)/C63</f>
+        <f t="shared" ref="E63:E70" si="6">+(D63-C63)/C63</f>
         <v>0.28451237295199011</v>
       </c>
       <c r="F63" s="1">
@@ -66073,7 +66072,7 @@
         <v>75177236176</v>
       </c>
       <c r="E73" s="6">
-        <f t="shared" ref="E73:F80" si="7">+(D73-C73)/C73</f>
+        <f t="shared" ref="E73:E80" si="7">+(D73-C73)/C73</f>
         <v>0.40304221865241024</v>
       </c>
       <c r="F73" s="1">
@@ -66238,7 +66237,7 @@
         <v>75608838999</v>
       </c>
       <c r="E83" s="6">
-        <f t="shared" ref="E83:F90" si="8">+(D83-C83)/C83</f>
+        <f t="shared" ref="E83:E90" si="8">+(D83-C83)/C83</f>
         <v>0.44977063674646239</v>
       </c>
       <c r="F83" s="1">
@@ -66456,7 +66455,7 @@
         <v>8632570910</v>
       </c>
       <c r="E93" s="6">
-        <f t="shared" ref="E93:F100" si="9">+(D93-C93)/C93</f>
+        <f t="shared" ref="E93:E100" si="9">+(D93-C93)/C93</f>
         <v>5.5916678900905618E-3</v>
       </c>
       <c r="F93" s="1">
@@ -67006,7 +67005,7 @@
         <v>43434705715</v>
       </c>
       <c r="E103" s="6">
-        <f t="shared" ref="E103:F110" si="10">+(D103-C103)/C103</f>
+        <f t="shared" ref="E103:E110" si="10">+(D103-C103)/C103</f>
         <v>-0.48658127523743228</v>
       </c>
       <c r="F103" s="1">
@@ -67182,7 +67181,7 @@
         <v>68985363063</v>
       </c>
       <c r="E113" s="6">
-        <f t="shared" ref="E113:F120" si="11">+(D113-C113)/C113</f>
+        <f t="shared" ref="E113:E120" si="11">+(D113-C113)/C113</f>
         <v>0.2977890724158147</v>
       </c>
       <c r="F113" s="1">
@@ -67358,7 +67357,7 @@
         <v>68147358853</v>
       </c>
       <c r="E123" s="6">
-        <f t="shared" ref="E123:F130" si="12">+(D123-C123)/C123</f>
+        <f t="shared" ref="E123:E130" si="12">+(D123-C123)/C123</f>
         <v>0.26548180758875656</v>
       </c>
       <c r="F123" s="1">
@@ -67540,7 +67539,7 @@
         <v>69431872627</v>
       </c>
       <c r="E133" s="6">
-        <f t="shared" ref="E133:F140" si="13">+(D133-C133)/C133</f>
+        <f t="shared" ref="E133:E140" si="13">+(D133-C133)/C133</f>
         <v>0.36508996835157809</v>
       </c>
       <c r="F133" s="1">
@@ -67740,7 +67739,7 @@
         <v>45103734069</v>
       </c>
       <c r="E143" s="6">
-        <f t="shared" ref="E143:F150" si="14">+(D143-C143)/C143</f>
+        <f t="shared" ref="E143:E150" si="14">+(D143-C143)/C143</f>
         <v>-0.28140148161793294</v>
       </c>
       <c r="F143" s="1">

--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27520" windowHeight="18080" tabRatio="915" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="915" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_timings.txt" sheetId="1" r:id="rId1"/>
@@ -1349,6 +1349,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1408,7 +1409,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="794">
+  <cellStyleXfs count="796">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2203,6 +2204,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2220,7 +2223,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="794">
+  <cellStyles count="796">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2617,6 +2620,7 @@
     <cellStyle name="Followed Hyperlink" xfId="789" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="791" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="793" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="795" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3013,6 +3017,7 @@
     <cellStyle name="Hyperlink" xfId="788" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="790" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="792" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="794" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="313" builtinId="5"/>
   </cellStyles>
@@ -3328,11 +3333,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2145648968"/>
-        <c:axId val="-2145642040"/>
+        <c:axId val="2068212248"/>
+        <c:axId val="2067319080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2145648968"/>
+        <c:axId val="2068212248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3367,7 +3372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145642040"/>
+        <c:crossAx val="2067319080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3375,7 +3380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145642040"/>
+        <c:axId val="2067319080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3404,7 +3409,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145648968"/>
+        <c:crossAx val="2068212248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3728,7 +3733,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -4124,11 +4128,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2063563240"/>
-        <c:axId val="2063569112"/>
+        <c:axId val="-2125046456"/>
+        <c:axId val="-2125040568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2063563240"/>
+        <c:axId val="-2125046456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4157,13 +4161,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063569112"/>
+        <c:crossAx val="-2125040568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4171,7 +4174,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2063569112"/>
+        <c:axId val="-2125040568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4194,21 +4197,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063563240"/>
+        <c:crossAx val="-2125046456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4913,11 +4914,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144689032"/>
-        <c:axId val="-2144683112"/>
+        <c:axId val="-2124982744"/>
+        <c:axId val="-2124976856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144689032"/>
+        <c:axId val="-2124982744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4946,13 +4947,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144683112"/>
+        <c:crossAx val="-2124976856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4960,7 +4960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144683112"/>
+        <c:axId val="-2124976856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4983,21 +4983,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144689032"/>
+        <c:crossAx val="-2124982744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5026,7 +5024,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -6149,20 +6147,92 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144585928"/>
-        <c:axId val="-2144583016"/>
+        <c:axId val="-2124880392"/>
+        <c:axId val="-2124877480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144585928"/>
+        <c:axId val="-2124880392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>OpenMP Affinity (OMP_PROC_BIND, OMP_PLACES)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144583016"/>
+        <c:crossAx val="-2124877480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6170,7 +6240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144583016"/>
+        <c:axId val="-2124877480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6200,7 +6270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144585928"/>
+        <c:crossAx val="-2124880392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6240,6 +6310,1242 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DCACHE_MISS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$147:$W$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>9.6823446998E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5000788104E10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4956518295E10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3444008334E10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1589134651E10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4973262446E10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1816150065E10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3408381302E10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3967871539E10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.183666574E10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0294981125E10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3434025259E10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4150476173E10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4001837802E10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.3734415225E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$148</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_L2L3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$148:$W$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.9778731885E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1806406138E10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.179879199E10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2815077778E10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0976624288E10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0370745035E10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1471532542E10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3581592326E10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2152276424E10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.584568852E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4598990298E10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3156067137E10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3850919424E10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0862488361E10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.2766249742E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$149</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_L2L3_CONFLICT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$149:$W$149</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.4651870248E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.35563099E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.94810637E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8849987576E10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.173417022E9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9769420401E10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.779538349E10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9006613026E10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8974838242E10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.83909679E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8733255021E10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8516765508E10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9257788931E10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9192186624E10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4345755628E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$150</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_L2L3_NO_CONFLICT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$150:$W$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.5126861637E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0870843039E10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1003981353E10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3965090202E10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.803207266E9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0601324634E10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3676149052E10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.45749793E10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3177438182E10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.300659173E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5865735277E10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4639301629E10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4593130493E10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1670301737E10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8420494114E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$151</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_L3MISS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$151:$W$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>9.69530311E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.378869371E9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.318334859E9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.42250849E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5490409E8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.92602746E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.08653588E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.35707377E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.23115409E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.146714871E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.60968156E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0700675E8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.8986158E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.94810855E8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.578809233E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$152</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_LMEM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$152:$W$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.96911623E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.53621706E9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.523429304E9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.03676497E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.05692432E8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.82917002E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8677218E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8194096E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9313385E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.794260352E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.65400964E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.2057738E7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.06174341E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9308749E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.002957108E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$153</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_L21_L31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$153:$W$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.76669105E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.81261912E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.78801748E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.46517287E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6060227E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.87337539E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.38927533E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.33380808E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.33763466E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.14663728E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.76692789E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.43416224E8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.35940598E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.35808912E8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.37715579E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$154</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_REMOTE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$154:$W$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.37667898E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.07371106E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.16962688E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34117249E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1866357E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.26997597E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.22949716E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.33793482E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.33051446E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.04098019E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.39934256E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.18799845E8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.21560132E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.29458498E8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.55016866E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$155</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_DISTANT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$146:$W$146</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$155:$W$155</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.58281685E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.454019293E9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.399141119E9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.57939816E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1285074E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5350608E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.48099121E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.70338991E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.56987112E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.033692772E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.78940147E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.52732943E8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.26186509E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.30234696E8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.8311968E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2125564936"/>
+        <c:axId val="2079890264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2125564936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>OpenMP Affinity (OMP_PROC_BIND, OMP_PLACES)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2079890264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2079890264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Stall Cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125564936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
@@ -6540,11 +7846,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144536360"/>
-        <c:axId val="-2144530264"/>
+        <c:axId val="-2124828072"/>
+        <c:axId val="-2124821976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144536360"/>
+        <c:axId val="-2124828072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6597,7 +7903,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144530264"/>
+        <c:crossAx val="-2124821976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6605,7 +7911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144530264"/>
+        <c:axId val="-2124821976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6635,7 +7941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144536360"/>
+        <c:crossAx val="-2124828072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6842,11 +8148,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144828488"/>
-        <c:axId val="-2144822920"/>
+        <c:axId val="2085993000"/>
+        <c:axId val="2066955240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144828488"/>
+        <c:axId val="2085993000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6873,7 +8179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144822920"/>
+        <c:crossAx val="2066955240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6881,7 +8187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144822920"/>
+        <c:axId val="2066955240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6915,7 +8221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144828488"/>
+        <c:crossAx val="2085993000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7103,11 +8409,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2146592168"/>
-        <c:axId val="-2146586632"/>
+        <c:axId val="2124235336"/>
+        <c:axId val="2124240872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146592168"/>
+        <c:axId val="2124235336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7134,7 +8440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146586632"/>
+        <c:crossAx val="2124240872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7142,7 +8448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146586632"/>
+        <c:axId val="2124240872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7171,7 +8477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146592168"/>
+        <c:crossAx val="2124235336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7468,11 +8774,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2146525848"/>
-        <c:axId val="-2146520216"/>
+        <c:axId val="-2125213960"/>
+        <c:axId val="-2125208280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146525848"/>
+        <c:axId val="-2125213960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7498,12 +8804,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146520216"/>
+        <c:crossAx val="-2125208280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7511,7 +8818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146520216"/>
+        <c:axId val="-2125208280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7539,19 +8846,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146525848"/>
+        <c:crossAx val="-2125213960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7751,11 +9060,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2146489176"/>
-        <c:axId val="-2146483608"/>
+        <c:axId val="-2125176888"/>
+        <c:axId val="-2125171304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146489176"/>
+        <c:axId val="-2125176888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7782,7 +9091,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146483608"/>
+        <c:crossAx val="-2125171304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7790,7 +9099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146483608"/>
+        <c:axId val="-2125171304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7819,7 +9128,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146489176"/>
+        <c:crossAx val="-2125176888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8012,11 +9321,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2146454104"/>
-        <c:axId val="-2147453160"/>
+        <c:axId val="-2125142264"/>
+        <c:axId val="-2125136712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146454104"/>
+        <c:axId val="-2125142264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8043,7 +9352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147453160"/>
+        <c:crossAx val="-2125136712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8051,7 +9360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147453160"/>
+        <c:axId val="-2125136712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8080,7 +9389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146454104"/>
+        <c:crossAx val="-2125142264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8377,11 +9686,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144763912"/>
-        <c:axId val="-2144758344"/>
+        <c:axId val="2085955336"/>
+        <c:axId val="2068222792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144763912"/>
+        <c:axId val="2085955336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8408,7 +9717,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144758344"/>
+        <c:crossAx val="2068222792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8416,7 +9725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144758344"/>
+        <c:axId val="2068222792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8445,7 +9754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144763912"/>
+        <c:crossAx val="2085955336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8726,11 +10035,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144726024"/>
-        <c:axId val="-2144720456"/>
+        <c:axId val="2086165768"/>
+        <c:axId val="2085749832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144726024"/>
+        <c:axId val="2086165768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8757,7 +10066,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144720456"/>
+        <c:crossAx val="2085749832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8765,7 +10074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144720456"/>
+        <c:axId val="2085749832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8794,7 +10103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144726024"/>
+        <c:crossAx val="2086165768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9109,11 +10418,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2063484792"/>
-        <c:axId val="2063490936"/>
+        <c:axId val="-2125126136"/>
+        <c:axId val="-2125120072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2063484792"/>
+        <c:axId val="-2125126136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9169,7 +10478,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063490936"/>
+        <c:crossAx val="-2125120072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9177,7 +10486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2063490936"/>
+        <c:axId val="-2125120072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9206,7 +10515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063484792"/>
+        <c:crossAx val="-2125126136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9604,6 +10913,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15964,7 +17303,7 @@
   <dimension ref="J1:M86"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -64835,8 +66174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J120" workbookViewId="0">
-      <selection activeCell="L130" sqref="L130"/>
+    <sheetView tabSelected="1" topLeftCell="R127" workbookViewId="0">
+      <selection activeCell="H146" sqref="H146:W155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="915" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17960" tabRatio="915" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_timings.txt" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11699" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11717" uniqueCount="431">
   <si>
     <t>----------------------</t>
   </si>
@@ -1349,7 +1349,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1409,7 +1408,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="796">
+  <cellStyleXfs count="798">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2206,6 +2205,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2223,7 +2224,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="796">
+  <cellStyles count="798">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2621,6 +2622,7 @@
     <cellStyle name="Followed Hyperlink" xfId="791" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="793" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="795" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="797" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3018,6 +3020,7 @@
     <cellStyle name="Hyperlink" xfId="790" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="792" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="794" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="796" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="313" builtinId="5"/>
   </cellStyles>
@@ -3333,11 +3336,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2068212248"/>
-        <c:axId val="2067319080"/>
+        <c:axId val="-2136466840"/>
+        <c:axId val="-2136461256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2068212248"/>
+        <c:axId val="-2136466840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3372,7 +3375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067319080"/>
+        <c:crossAx val="-2136461256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3380,7 +3383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2067319080"/>
+        <c:axId val="-2136461256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3409,7 +3412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068212248"/>
+        <c:crossAx val="-2136466840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4128,11 +4131,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2125046456"/>
-        <c:axId val="-2125040568"/>
+        <c:axId val="-2146549000"/>
+        <c:axId val="-2146497480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2125046456"/>
+        <c:axId val="-2146549000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4166,7 +4169,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125040568"/>
+        <c:crossAx val="-2146497480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4174,7 +4177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125040568"/>
+        <c:axId val="-2146497480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4203,7 +4206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125046456"/>
+        <c:crossAx val="-2146549000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4914,11 +4917,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124982744"/>
-        <c:axId val="-2124976856"/>
+        <c:axId val="-2146614120"/>
+        <c:axId val="-2146608232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124982744"/>
+        <c:axId val="-2146614120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4952,7 +4955,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124976856"/>
+        <c:crossAx val="-2146608232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4960,7 +4963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124976856"/>
+        <c:axId val="-2146608232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4989,7 +4992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124982744"/>
+        <c:crossAx val="-2146614120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6147,11 +6150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124880392"/>
-        <c:axId val="-2124877480"/>
+        <c:axId val="-2123812312"/>
+        <c:axId val="-2123806200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124880392"/>
+        <c:axId val="-2123812312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6232,7 +6235,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124877480"/>
+        <c:crossAx val="-2123806200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6240,7 +6243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124877480"/>
+        <c:axId val="-2123806200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6270,7 +6273,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124880392"/>
+        <c:crossAx val="-2123812312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6308,7 +6311,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.158813839875855"/>
+          <c:y val="0.0244821092278719"/>
+          <c:w val="0.782665905094524"/>
+          <c:h val="0.910835001557009"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -7429,11 +7442,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2125564936"/>
-        <c:axId val="2079890264"/>
+        <c:axId val="-2123740616"/>
+        <c:axId val="-2123734792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2125564936"/>
+        <c:axId val="-2123740616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7468,7 +7481,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079890264"/>
+        <c:crossAx val="-2123734792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7476,13 +7489,19 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079890264"/>
+        <c:axId val="-2123734792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -7506,14 +7525,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125564936"/>
+        <c:crossAx val="-2123740616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.583291385257095"/>
+          <c:y val="0.366509784640316"/>
+          <c:w val="0.338884349524451"/>
+          <c:h val="0.229728187786632"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7529,6 +7557,410 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0719743695373597"/>
+          <c:y val="0.0279647816204172"/>
+          <c:w val="0.922817418672505"/>
+          <c:h val="0.832055817853061"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$168</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_REMOTE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$167:$W$167</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$168:$W$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.37667898E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.07371106E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.16962688E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34117249E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1866357E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.26997597E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.22949716E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.33793482E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.33051446E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.04098019E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.39934256E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.18799845E8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.21560132E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.29458498E8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.55016866E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$H$169</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>_PM_CMPLU_STALL_DMISS_DISTANT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$167:$W$167</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$I$169:$W$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.58281685E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.454019293E9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.399141119E9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.57939816E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1285074E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5350608E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.48099121E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.70338991E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.56987112E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.033692772E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.78940147E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.52732943E8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.26186509E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.30234696E8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.8311968E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2141762408"/>
+        <c:axId val="-2119254696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2141762408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>OpenMP</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> Affinity (OMP_PROC_BIND, OMP_PLACES)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.356203627194879"/>
+              <c:y val="0.92604959746748"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2119254696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2119254696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Stall</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> Cycles</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141762408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.694728208714915"/>
+          <c:y val="0.258513392131451"/>
+          <c:w val="0.149468146809102"/>
+          <c:h val="0.0741979594564776"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7846,11 +8278,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124828072"/>
-        <c:axId val="-2124821976"/>
+        <c:axId val="-2123692216"/>
+        <c:axId val="-2123686120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124828072"/>
+        <c:axId val="-2123692216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7897,13 +8329,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124821976"/>
+        <c:crossAx val="-2123686120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7911,7 +8342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124821976"/>
+        <c:axId val="-2123686120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7934,21 +8365,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124828072"/>
+        <c:crossAx val="-2123692216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8148,11 +8577,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2085993000"/>
-        <c:axId val="2066955240"/>
+        <c:axId val="-2124331304"/>
+        <c:axId val="-2124325720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2085993000"/>
+        <c:axId val="-2124331304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8179,7 +8608,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2066955240"/>
+        <c:crossAx val="-2124325720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8187,7 +8616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2066955240"/>
+        <c:axId val="-2124325720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8221,7 +8650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085993000"/>
+        <c:crossAx val="-2124331304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8409,11 +8838,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2124235336"/>
-        <c:axId val="2124240872"/>
+        <c:axId val="-2124223320"/>
+        <c:axId val="-2124041672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2124235336"/>
+        <c:axId val="-2124223320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8440,7 +8869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124240872"/>
+        <c:crossAx val="-2124041672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8448,7 +8877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124240872"/>
+        <c:axId val="-2124041672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8477,7 +8906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124235336"/>
+        <c:crossAx val="-2124223320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8774,11 +9203,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2125213960"/>
-        <c:axId val="-2125208280"/>
+        <c:axId val="-2124178616"/>
+        <c:axId val="-2124184552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2125213960"/>
+        <c:axId val="-2124178616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8804,13 +9233,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125208280"/>
+        <c:crossAx val="-2124184552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8818,7 +9246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125208280"/>
+        <c:axId val="-2124184552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8846,21 +9274,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125213960"/>
+        <c:crossAx val="-2124178616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9060,11 +9486,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2125176888"/>
-        <c:axId val="-2125171304"/>
+        <c:axId val="-2124026232"/>
+        <c:axId val="-2124020648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2125176888"/>
+        <c:axId val="-2124026232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9091,7 +9517,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125171304"/>
+        <c:crossAx val="-2124020648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9099,7 +9525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125171304"/>
+        <c:axId val="-2124020648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9128,7 +9554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125176888"/>
+        <c:crossAx val="-2124026232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9321,11 +9747,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2125142264"/>
-        <c:axId val="-2125136712"/>
+        <c:axId val="-2123952152"/>
+        <c:axId val="-2123946600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2125142264"/>
+        <c:axId val="-2123952152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9352,7 +9778,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125136712"/>
+        <c:crossAx val="-2123946600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9360,7 +9786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125136712"/>
+        <c:axId val="-2123946600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9389,7 +9815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125142264"/>
+        <c:crossAx val="-2123952152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9686,11 +10112,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2085955336"/>
-        <c:axId val="2068222792"/>
+        <c:axId val="-2124306792"/>
+        <c:axId val="-2124301256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2085955336"/>
+        <c:axId val="-2124306792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9717,7 +10143,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068222792"/>
+        <c:crossAx val="-2124301256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9725,7 +10151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2068222792"/>
+        <c:axId val="-2124301256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9754,7 +10180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085955336"/>
+        <c:crossAx val="-2124306792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10035,11 +10461,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2086165768"/>
-        <c:axId val="2085749832"/>
+        <c:axId val="-2124236088"/>
+        <c:axId val="-2124230504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2086165768"/>
+        <c:axId val="-2124236088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10066,7 +10492,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085749832"/>
+        <c:crossAx val="-2124230504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10074,7 +10500,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085749832"/>
+        <c:axId val="-2124230504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10103,7 +10529,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086165768"/>
+        <c:crossAx val="-2124236088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10418,11 +10844,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2125126136"/>
-        <c:axId val="-2125120072"/>
+        <c:axId val="-2124263240"/>
+        <c:axId val="-2124340040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2125126136"/>
+        <c:axId val="-2124263240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10478,7 +10904,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125120072"/>
+        <c:crossAx val="-2124340040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10486,7 +10912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125120072"/>
+        <c:axId val="-2124340040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10515,7 +10941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125126136"/>
+        <c:crossAx val="-2124263240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10915,16 +11341,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>465666</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>626533</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10938,6 +11364,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1100665</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>186265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>169332</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -66174,8 +66630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R127" workbookViewId="0">
-      <selection activeCell="H146" sqref="H146:W155"/>
+    <sheetView tabSelected="1" topLeftCell="F128" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="H167" sqref="H167:W169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -69727,52 +70183,196 @@
     <row r="160" spans="1:23">
       <c r="A160" s="2"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:23">
       <c r="A161" s="2"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:23">
       <c r="A162" s="2"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:23">
       <c r="A163" s="2"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:23">
       <c r="A164" s="2"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:23">
       <c r="A165" s="2"/>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:23">
       <c r="A166" s="2"/>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:23">
       <c r="A167" s="2"/>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="H167" t="s">
+        <v>430</v>
+      </c>
+      <c r="I167" t="s">
+        <v>393</v>
+      </c>
+      <c r="J167" t="s">
+        <v>394</v>
+      </c>
+      <c r="K167" t="s">
+        <v>395</v>
+      </c>
+      <c r="L167" t="s">
+        <v>23</v>
+      </c>
+      <c r="M167" t="s">
+        <v>396</v>
+      </c>
+      <c r="N167" t="s">
+        <v>397</v>
+      </c>
+      <c r="O167" t="s">
+        <v>398</v>
+      </c>
+      <c r="P167" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>28</v>
+      </c>
+      <c r="R167" t="s">
+        <v>400</v>
+      </c>
+      <c r="S167" t="s">
+        <v>401</v>
+      </c>
+      <c r="T167" t="s">
+        <v>402</v>
+      </c>
+      <c r="U167" t="s">
+        <v>403</v>
+      </c>
+      <c r="V167" t="s">
+        <v>33</v>
+      </c>
+      <c r="W167" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23">
       <c r="A168" s="2"/>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="H168" t="s">
+        <v>386</v>
+      </c>
+      <c r="I168">
+        <v>237667898</v>
+      </c>
+      <c r="J168">
+        <v>107371106</v>
+      </c>
+      <c r="K168">
+        <v>116962688</v>
+      </c>
+      <c r="L168">
+        <v>134117249</v>
+      </c>
+      <c r="M168">
+        <v>61866357</v>
+      </c>
+      <c r="N168">
+        <v>226997597</v>
+      </c>
+      <c r="O168">
+        <v>122949716</v>
+      </c>
+      <c r="P168">
+        <v>133793482</v>
+      </c>
+      <c r="Q168">
+        <v>133051446</v>
+      </c>
+      <c r="R168">
+        <v>204098019</v>
+      </c>
+      <c r="S168">
+        <v>239934256</v>
+      </c>
+      <c r="T168">
+        <v>118799845</v>
+      </c>
+      <c r="U168">
+        <v>121560132</v>
+      </c>
+      <c r="V168">
+        <v>129458498</v>
+      </c>
+      <c r="W168">
+        <v>255016866</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23">
       <c r="A169" s="2"/>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="H169" t="s">
+        <v>387</v>
+      </c>
+      <c r="I169">
+        <v>258281685</v>
+      </c>
+      <c r="J169">
+        <v>1454019293</v>
+      </c>
+      <c r="K169">
+        <v>1399141119</v>
+      </c>
+      <c r="L169">
+        <v>257939816</v>
+      </c>
+      <c r="M169">
+        <v>71285074</v>
+      </c>
+      <c r="N169">
+        <v>95350608</v>
+      </c>
+      <c r="O169">
+        <v>248099121</v>
+      </c>
+      <c r="P169">
+        <v>270338991</v>
+      </c>
+      <c r="Q169">
+        <v>256987112</v>
+      </c>
+      <c r="R169">
+        <v>1033692772</v>
+      </c>
+      <c r="S169">
+        <v>278940147</v>
+      </c>
+      <c r="T169">
+        <v>252732943</v>
+      </c>
+      <c r="U169">
+        <v>226186509</v>
+      </c>
+      <c r="V169">
+        <v>230234696</v>
+      </c>
+      <c r="W169">
+        <v>883119680</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23">
       <c r="A170" s="2"/>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:23">
       <c r="A171" s="2"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:23">
       <c r="A172" s="2"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:23">
       <c r="A173" s="2"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:23">
       <c r="A174" s="2"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:23">
       <c r="A175" s="2"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:23">
       <c r="A176" s="2"/>
     </row>
     <row r="177" spans="1:1">

--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17960" tabRatio="915" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="915" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="experiment_timings.txt" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11717" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11751" uniqueCount="433">
   <si>
     <t>----------------------</t>
   </si>
@@ -1338,6 +1338,12 @@
   <si>
     <t>Hardware Counters</t>
   </si>
+  <si>
+    <t>Bad data locality</t>
+  </si>
+  <si>
+    <t>Good data locality</t>
+  </si>
 </sst>
 </file>
 
@@ -1349,6 +1355,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1408,7 +1415,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="798">
+  <cellStyleXfs count="874">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2207,6 +2214,82 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2224,7 +2307,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="798">
+  <cellStyles count="874">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2623,6 +2706,44 @@
     <cellStyle name="Followed Hyperlink" xfId="793" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="795" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="797" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="799" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="801" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="803" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="805" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="807" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="809" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="811" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="813" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="815" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="817" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="819" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="821" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="823" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="825" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="827" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="829" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="831" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="833" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="835" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="837" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="839" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="841" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="843" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="845" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="847" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="849" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="851" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="853" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="855" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="857" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="859" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="861" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="863" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="865" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="867" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="869" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="871" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="873" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3021,6 +3142,44 @@
     <cellStyle name="Hyperlink" xfId="792" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="794" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="796" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="798" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="800" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="802" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="804" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="806" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="808" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="810" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="812" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="814" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="816" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="818" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="820" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="822" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="824" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="826" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="828" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="830" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="832" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="834" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="836" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="838" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="840" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="842" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="844" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="846" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="848" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="850" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="852" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="854" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="856" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="858" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="860" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="862" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="864" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="866" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="868" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="870" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="872" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="313" builtinId="5"/>
   </cellStyles>
@@ -3336,11 +3495,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2136466840"/>
-        <c:axId val="-2136461256"/>
+        <c:axId val="2082277640"/>
+        <c:axId val="2081571592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2136466840"/>
+        <c:axId val="2082277640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3375,7 +3534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136461256"/>
+        <c:crossAx val="2081571592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3383,7 +3542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136461256"/>
+        <c:axId val="2081571592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3412,7 +3571,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136466840"/>
+        <c:crossAx val="2082277640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3736,6 +3895,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -4131,11 +4291,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2146549000"/>
-        <c:axId val="-2146497480"/>
+        <c:axId val="2124365928"/>
+        <c:axId val="2124624904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146549000"/>
+        <c:axId val="2124365928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4164,12 +4324,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146497480"/>
+        <c:crossAx val="2124624904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4177,7 +4338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146497480"/>
+        <c:axId val="2124624904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4200,19 +4361,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146549000"/>
+        <c:crossAx val="2124365928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4917,11 +5080,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2146614120"/>
-        <c:axId val="-2146608232"/>
+        <c:axId val="2124665272"/>
+        <c:axId val="2124671064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146614120"/>
+        <c:axId val="2124665272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4950,12 +5113,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146608232"/>
+        <c:crossAx val="2124671064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4963,7 +5127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146608232"/>
+        <c:axId val="2124671064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4986,19 +5150,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146614120"/>
+        <c:crossAx val="2124665272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6150,11 +6316,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2123812312"/>
-        <c:axId val="-2123806200"/>
+        <c:axId val="-2123904664"/>
+        <c:axId val="-2123898552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2123812312"/>
+        <c:axId val="-2123904664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6235,7 +6401,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123806200"/>
+        <c:crossAx val="-2123898552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6243,7 +6409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123806200"/>
+        <c:axId val="-2123898552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6273,7 +6439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123812312"/>
+        <c:crossAx val="-2123904664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7442,11 +7608,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2123740616"/>
-        <c:axId val="-2123734792"/>
+        <c:axId val="2123527416"/>
+        <c:axId val="2123487784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2123740616"/>
+        <c:axId val="2123527416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7481,7 +7647,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123734792"/>
+        <c:crossAx val="2123487784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7489,7 +7655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123734792"/>
+        <c:axId val="2123487784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7525,7 +7691,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123740616"/>
+        <c:crossAx val="2123527416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7570,19 +7736,9 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0719743695373597"/>
-          <c:y val="0.0279647816204172"/>
-          <c:w val="0.922817418672505"/>
-          <c:h val="0.832055817853061"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -7842,11 +7998,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2141762408"/>
-        <c:axId val="-2119254696"/>
+        <c:axId val="2123866440"/>
+        <c:axId val="2125324968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2141762408"/>
+        <c:axId val="2123866440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7873,20 +8029,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.356203627194879"/>
-              <c:y val="0.92604959746748"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119254696"/>
+        <c:crossAx val="2125324968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7894,7 +8043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119254696"/>
+        <c:axId val="2125324968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7929,23 +8078,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141762408"/>
+        <c:crossAx val="2123866440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.694728208714915"/>
-          <c:y val="0.258513392131451"/>
-          <c:w val="0.149468146809102"/>
-          <c:h val="0.0741979594564776"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7986,6 +8126,374 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>HW_20_Final!$J$120</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Good data locality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$121:$I$135</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$J$121:$J$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.37667898E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.07371106E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.16962688E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34117249E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1866357E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.26997597E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.22949716E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.33793482E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.33051446E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.04098019E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.39934256E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.18799845E8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.21560132E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.29458498E8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.55016866E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$K$120</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bad data locality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$121:$I$135</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$K$121:$K$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.70288218E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.137682E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.24234157E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7532157E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1126716E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.87207692E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.43961722E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98215118E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.31975085E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.55078305E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.09442958E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.78195622E8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.74723163E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.96974648E8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.54047385E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2095255288"/>
+        <c:axId val="-2127754488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2095255288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>OpenMP Affinity (OMP_PROC_BIND, OMP_PLACES)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2127754488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2127754488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PM_CMPLU_STALL_DMISS_REMOTE Stall Cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2095255288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>HW_Imp!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -8278,11 +8786,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2123692216"/>
-        <c:axId val="-2123686120"/>
+        <c:axId val="2124030776"/>
+        <c:axId val="2123510632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2123692216"/>
+        <c:axId val="2124030776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8329,12 +8837,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123686120"/>
+        <c:crossAx val="2123510632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8342,7 +8851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123686120"/>
+        <c:axId val="2123510632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8365,19 +8874,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123692216"/>
+        <c:crossAx val="2124030776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8577,11 +9088,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124331304"/>
-        <c:axId val="-2124325720"/>
+        <c:axId val="2123515608"/>
+        <c:axId val="2123488552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124331304"/>
+        <c:axId val="2123515608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8608,7 +9119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124325720"/>
+        <c:crossAx val="2123488552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8616,7 +9127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124325720"/>
+        <c:axId val="2123488552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8650,7 +9161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124331304"/>
+        <c:crossAx val="2123515608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8838,11 +9349,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124223320"/>
-        <c:axId val="-2124041672"/>
+        <c:axId val="2124179608"/>
+        <c:axId val="2124170344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124223320"/>
+        <c:axId val="2124179608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8869,7 +9380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124041672"/>
+        <c:crossAx val="2124170344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8877,7 +9388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124041672"/>
+        <c:axId val="2124170344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8906,7 +9417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124223320"/>
+        <c:crossAx val="2124179608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9203,11 +9714,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124178616"/>
-        <c:axId val="-2124184552"/>
+        <c:axId val="-2124216712"/>
+        <c:axId val="-2124229864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124178616"/>
+        <c:axId val="-2124216712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9238,7 +9749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124184552"/>
+        <c:crossAx val="-2124229864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9246,7 +9757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124184552"/>
+        <c:axId val="-2124229864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9280,7 +9791,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124178616"/>
+        <c:crossAx val="-2124216712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9486,11 +9997,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124026232"/>
-        <c:axId val="-2124020648"/>
+        <c:axId val="-2124168248"/>
+        <c:axId val="-2124162728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124026232"/>
+        <c:axId val="-2124168248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9517,7 +10028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124020648"/>
+        <c:crossAx val="-2124162728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9525,7 +10036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124020648"/>
+        <c:axId val="-2124162728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9554,7 +10065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124026232"/>
+        <c:crossAx val="-2124168248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9747,11 +10258,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2123952152"/>
-        <c:axId val="-2123946600"/>
+        <c:axId val="-2124133000"/>
+        <c:axId val="-2124127512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2123952152"/>
+        <c:axId val="-2124133000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9778,7 +10289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123946600"/>
+        <c:crossAx val="-2124127512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9786,7 +10297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123946600"/>
+        <c:axId val="-2124127512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9815,7 +10326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123952152"/>
+        <c:crossAx val="-2124133000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10112,11 +10623,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124306792"/>
-        <c:axId val="-2124301256"/>
+        <c:axId val="-2124103400"/>
+        <c:axId val="-2124097912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124306792"/>
+        <c:axId val="-2124103400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10138,12 +10649,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124301256"/>
+        <c:crossAx val="-2124097912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10151,7 +10663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124301256"/>
+        <c:axId val="-2124097912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10174,19 +10686,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124306792"/>
+        <c:crossAx val="-2124103400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10461,11 +10975,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124236088"/>
-        <c:axId val="-2124230504"/>
+        <c:axId val="-2124061816"/>
+        <c:axId val="-2124056264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124236088"/>
+        <c:axId val="-2124061816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10487,12 +11001,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124230504"/>
+        <c:crossAx val="-2124056264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10500,7 +11015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124230504"/>
+        <c:axId val="-2124056264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10523,19 +11038,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124236088"/>
+        <c:crossAx val="-2124061816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10844,11 +11361,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124263240"/>
-        <c:axId val="-2124340040"/>
+        <c:axId val="-2124017656"/>
+        <c:axId val="-2124011512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124263240"/>
+        <c:axId val="-2124017656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10899,12 +11416,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124340040"/>
+        <c:crossAx val="-2124011512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10912,7 +11430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124340040"/>
+        <c:axId val="-2124011512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10935,19 +11453,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124263240"/>
+        <c:crossAx val="-2124017656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11311,16 +11831,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>931333</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>110068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1096433</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>46567</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11394,6 +11914,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>135466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1015999</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>135466</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -57851,7 +58401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="A102" sqref="A102:A116"/>
     </sheetView>
   </sheetViews>
@@ -66630,8 +67180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F128" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167:W169"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86:K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -66642,9 +67192,9 @@
     <col min="4" max="4" width="39.83203125" customWidth="1"/>
     <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="41" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="27.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
     <col min="11" max="11" width="15.83203125" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" customWidth="1"/>
     <col min="13" max="13" width="14.6640625" customWidth="1"/>
@@ -67727,7 +68277,7 @@
         <v>0.48877089819205799</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:11">
       <c r="B65" t="s">
         <v>382</v>
       </c>
@@ -67745,7 +68295,7 @@
         <v>4.4716448890178243E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:11">
       <c r="B66" t="s">
         <v>383</v>
       </c>
@@ -67763,7 +68313,7 @@
         <v>0.60831797411290323</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:11">
       <c r="B67" t="s">
         <v>384</v>
       </c>
@@ -67781,7 +68331,7 @@
         <v>0.55686288196734524</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:11">
       <c r="B68" t="s">
         <v>385</v>
       </c>
@@ -67799,7 +68349,7 @@
         <v>0.23902388428377569</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:11">
       <c r="B69" t="s">
         <v>386</v>
       </c>
@@ -67817,7 +68367,7 @@
         <v>0.17089918288221179</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:11">
       <c r="B70" t="s">
         <v>387</v>
       </c>
@@ -67835,7 +68385,7 @@
         <v>1.2011958800934244</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>399</v>
       </c>
@@ -67855,8 +68405,14 @@
       <c r="F72" s="1">
         <v>0.40035943287798692</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="J72" t="s">
+        <v>432</v>
+      </c>
+      <c r="K72" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="B73" t="s">
         <v>380</v>
       </c>
@@ -67873,8 +68429,17 @@
       <c r="F73" s="1">
         <v>0.40304221865241024</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="I73" t="s">
+        <v>393</v>
+      </c>
+      <c r="J73">
+        <v>258281685</v>
+      </c>
+      <c r="K73">
+        <v>641037327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="B74" t="s">
         <v>381</v>
       </c>
@@ -67891,8 +68456,17 @@
       <c r="F74" s="1">
         <v>0.58274735643380937</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="I74" t="s">
+        <v>394</v>
+      </c>
+      <c r="J74">
+        <v>1454019293</v>
+      </c>
+      <c r="K74">
+        <v>1261190085</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="B75" t="s">
         <v>382</v>
       </c>
@@ -67909,8 +68483,17 @@
       <c r="F75" s="1">
         <v>0.19093065075338639</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="I75" t="s">
+        <v>395</v>
+      </c>
+      <c r="J75">
+        <v>1399141119</v>
+      </c>
+      <c r="K75">
+        <v>1201384463</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="B76" t="s">
         <v>383</v>
       </c>
@@ -67927,8 +68510,17 @@
       <c r="F76" s="1">
         <v>0.78994459369135839</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="I76" t="s">
+        <v>23</v>
+      </c>
+      <c r="J76">
+        <v>257939816</v>
+      </c>
+      <c r="K76">
+        <v>722039624</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="B77" t="s">
         <v>384</v>
       </c>
@@ -67945,8 +68537,17 @@
       <c r="F77" s="1">
         <v>0.30784483213736191</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="I77" t="s">
+        <v>396</v>
+      </c>
+      <c r="J77">
+        <v>71285074</v>
+      </c>
+      <c r="K77">
+        <v>74694927</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="B78" t="s">
         <v>385</v>
       </c>
@@ -67963,8 +68564,17 @@
       <c r="F78" s="1">
         <v>0.40750916416400446</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="I78" t="s">
+        <v>397</v>
+      </c>
+      <c r="J78">
+        <v>95350608</v>
+      </c>
+      <c r="K78">
+        <v>711501178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="B79" t="s">
         <v>386</v>
       </c>
@@ -67981,8 +68591,17 @@
       <c r="F79" s="1">
         <v>0.48150055620796234</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="I79" t="s">
+        <v>398</v>
+      </c>
+      <c r="J79">
+        <v>248099121</v>
+      </c>
+      <c r="K79">
+        <v>546114763</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="B80" t="s">
         <v>387</v>
       </c>
@@ -67999,6 +68618,26 @@
       <c r="F80" s="1">
         <v>1.4478602015644868</v>
       </c>
+      <c r="I80" t="s">
+        <v>399</v>
+      </c>
+      <c r="J80">
+        <v>270338991</v>
+      </c>
+      <c r="K80">
+        <v>661752057</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="I81" t="s">
+        <v>28</v>
+      </c>
+      <c r="J81">
+        <v>256987112</v>
+      </c>
+      <c r="K81">
+        <v>700270067</v>
+      </c>
     </row>
     <row r="82" spans="1:23">
       <c r="A82" t="s">
@@ -68020,6 +68659,15 @@
       <c r="F82" s="1">
         <v>0.44919484442667712</v>
       </c>
+      <c r="I82" t="s">
+        <v>400</v>
+      </c>
+      <c r="J82">
+        <v>1033692772</v>
+      </c>
+      <c r="K82">
+        <v>1126454532</v>
+      </c>
     </row>
     <row r="83" spans="1:23">
       <c r="B83" t="s">
@@ -68038,6 +68686,15 @@
       <c r="F83" s="1">
         <v>0.44977063674646239</v>
       </c>
+      <c r="I83" t="s">
+        <v>401</v>
+      </c>
+      <c r="J83">
+        <v>278940147</v>
+      </c>
+      <c r="K83">
+        <v>530094631</v>
+      </c>
     </row>
     <row r="84" spans="1:23">
       <c r="B84" t="s">
@@ -68056,6 +68713,15 @@
       <c r="F84" s="1">
         <v>0.62460911677382269</v>
       </c>
+      <c r="I84" t="s">
+        <v>402</v>
+      </c>
+      <c r="J84">
+        <v>252732943</v>
+      </c>
+      <c r="K84">
+        <v>632719623</v>
+      </c>
     </row>
     <row r="85" spans="1:23">
       <c r="B85" t="s">
@@ -68074,6 +68740,15 @@
       <c r="F85" s="1">
         <v>0.23119960065998979</v>
       </c>
+      <c r="I85" t="s">
+        <v>403</v>
+      </c>
+      <c r="J85">
+        <v>226186509</v>
+      </c>
+      <c r="K85">
+        <v>688376284</v>
+      </c>
     </row>
     <row r="86" spans="1:23">
       <c r="B86" t="s">
@@ -68092,6 +68767,15 @@
       <c r="F86" s="1">
         <v>0.85200576053552191</v>
       </c>
+      <c r="I86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J86">
+        <v>230234696</v>
+      </c>
+      <c r="K86">
+        <v>694749369</v>
+      </c>
     </row>
     <row r="87" spans="1:23">
       <c r="B87" t="s">
@@ -68109,6 +68793,9 @@
       </c>
       <c r="F87" s="1">
         <v>0.69917789027128618</v>
+      </c>
+      <c r="I87" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -68964,7 +69651,7 @@
         <v>0.29816313412242007</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:11">
       <c r="A113" s="2"/>
       <c r="B113" t="s">
         <v>380</v>
@@ -68983,7 +69670,7 @@
         <v>0.2977890724158147</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:11">
       <c r="A114" s="2"/>
       <c r="B114" t="s">
         <v>381</v>
@@ -69002,7 +69689,7 @@
         <v>0.44510770348197937</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:11">
       <c r="A115" s="2"/>
       <c r="B115" t="s">
         <v>382</v>
@@ -69021,7 +69708,7 @@
         <v>0.127287046005747</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:11">
       <c r="A116" s="2"/>
       <c r="B116" t="s">
         <v>383</v>
@@ -69040,7 +69727,7 @@
         <v>0.80647749685558168</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:11">
       <c r="A117" s="2"/>
       <c r="B117" t="s">
         <v>384</v>
@@ -69059,7 +69746,7 @@
         <v>0.57423581274612678</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:11">
       <c r="A118" s="2"/>
       <c r="B118" t="s">
         <v>385</v>
@@ -69078,7 +69765,7 @@
         <v>0.32019117591767426</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:11">
       <c r="A119" s="2"/>
       <c r="B119" t="s">
         <v>386</v>
@@ -69097,7 +69784,7 @@
         <v>0.49996510517332748</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:11">
       <c r="A120" s="2"/>
       <c r="B120" t="s">
         <v>387</v>
@@ -69115,11 +69802,26 @@
       <c r="F120" s="1">
         <v>1.503510684002916</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="J120" t="s">
+        <v>432</v>
+      </c>
+      <c r="K120" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2"/>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="I121" t="s">
+        <v>393</v>
+      </c>
+      <c r="J121">
+        <v>237667898</v>
+      </c>
+      <c r="K121">
+        <v>470288218</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2" t="s">
         <v>403</v>
       </c>
@@ -69139,8 +69841,17 @@
       <c r="F122" s="1">
         <v>0.31206990826843156</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="I122" t="s">
+        <v>394</v>
+      </c>
+      <c r="J122">
+        <v>107371106</v>
+      </c>
+      <c r="K122">
+        <v>213768200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2"/>
       <c r="B123" t="s">
         <v>380</v>
@@ -69158,8 +69869,17 @@
       <c r="F123" s="1">
         <v>0.26548180758875656</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="I123" t="s">
+        <v>395</v>
+      </c>
+      <c r="J123">
+        <v>116962688</v>
+      </c>
+      <c r="K123">
+        <v>124234157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2"/>
       <c r="B124" t="s">
         <v>381</v>
@@ -69177,8 +69897,17 @@
       <c r="F124" s="1">
         <v>0.44181695785301378</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="I124" t="s">
+        <v>23</v>
+      </c>
+      <c r="J124">
+        <v>134117249</v>
+      </c>
+      <c r="K124">
+        <v>175321570</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2"/>
       <c r="B125" t="s">
         <v>382</v>
@@ -69196,8 +69925,17 @@
       <c r="F125" s="1">
         <v>5.5700600230210798E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="I125" t="s">
+        <v>396</v>
+      </c>
+      <c r="J125">
+        <v>61866357</v>
+      </c>
+      <c r="K125">
+        <v>61126716</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2"/>
       <c r="B126" t="s">
         <v>383</v>
@@ -69215,8 +69953,17 @@
       <c r="F126" s="1">
         <v>0.96474155148631413</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="I126" t="s">
+        <v>397</v>
+      </c>
+      <c r="J126">
+        <v>226997597</v>
+      </c>
+      <c r="K126">
+        <v>587207692</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2"/>
       <c r="B127" t="s">
         <v>384</v>
@@ -69234,8 +69981,17 @@
       <c r="F127" s="1">
         <v>0.38721740688741357</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="I127" t="s">
+        <v>398</v>
+      </c>
+      <c r="J127">
+        <v>122949716</v>
+      </c>
+      <c r="K127">
+        <v>143961722</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2"/>
       <c r="B128" t="s">
         <v>385</v>
@@ -69253,8 +70009,17 @@
       <c r="F128" s="1">
         <v>0.46228912245106712</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="I128" t="s">
+        <v>399</v>
+      </c>
+      <c r="J128">
+        <v>133793482</v>
+      </c>
+      <c r="K128">
+        <v>198215118</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2"/>
       <c r="B129" t="s">
         <v>386</v>
@@ -69272,8 +70037,17 @@
       <c r="F129" s="1">
         <v>0.43733936550842178</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="I129" t="s">
+        <v>28</v>
+      </c>
+      <c r="J129">
+        <v>133051446</v>
+      </c>
+      <c r="K129">
+        <v>131975085</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2"/>
       <c r="B130" t="s">
         <v>387</v>
@@ -69291,14 +70065,32 @@
       <c r="F130" s="1">
         <v>2.0434011605882296</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="I130" t="s">
+        <v>400</v>
+      </c>
+      <c r="J130">
+        <v>204098019</v>
+      </c>
+      <c r="K130">
+        <v>255078305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2"/>
       <c r="G131" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="I131" t="s">
+        <v>401</v>
+      </c>
+      <c r="J131">
+        <v>239934256</v>
+      </c>
+      <c r="K131">
+        <v>309442958</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2" t="s">
         <v>33</v>
       </c>
@@ -69321,8 +70113,17 @@
       <c r="G132" s="6">
         <v>0.44919484442667712</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="I132" t="s">
+        <v>402</v>
+      </c>
+      <c r="J132">
+        <v>118799845</v>
+      </c>
+      <c r="K132">
+        <v>178195622</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2"/>
       <c r="B133" t="s">
         <v>380</v>
@@ -69343,8 +70144,17 @@
       <c r="G133" s="6">
         <v>0.44977063674646239</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="I133" t="s">
+        <v>403</v>
+      </c>
+      <c r="J133">
+        <v>121560132</v>
+      </c>
+      <c r="K133">
+        <v>174723163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2"/>
       <c r="B134" t="s">
         <v>381</v>
@@ -69365,8 +70175,17 @@
       <c r="G134" s="6">
         <v>0.62460911677382269</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="I134" t="s">
+        <v>33</v>
+      </c>
+      <c r="J134">
+        <v>129458498</v>
+      </c>
+      <c r="K134">
+        <v>196974648</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2"/>
       <c r="B135" t="s">
         <v>382</v>
@@ -69387,8 +70206,17 @@
       <c r="G135" s="6">
         <v>0.23119960065998979</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="I135" t="s">
+        <v>404</v>
+      </c>
+      <c r="J135">
+        <v>255016866</v>
+      </c>
+      <c r="K135">
+        <v>154047385</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2"/>
       <c r="B136" t="s">
         <v>383</v>
@@ -69410,7 +70238,7 @@
         <v>0.85200576053552191</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:11">
       <c r="A137" s="2"/>
       <c r="B137" t="s">
         <v>384</v>
@@ -69432,7 +70260,7 @@
         <v>0.69917789027128618</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:11">
       <c r="A138" s="2"/>
       <c r="B138" t="s">
         <v>385</v>
@@ -69454,7 +70282,7 @@
         <v>0.44683704766766247</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:11">
       <c r="A139" s="2"/>
       <c r="B139" t="s">
         <v>386</v>
@@ -69476,7 +70304,7 @@
         <v>-8.0898106135577057E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:11">
       <c r="A140" s="2"/>
       <c r="B140" t="s">
         <v>387</v>
@@ -69498,10 +70326,10 @@
         <v>1.7249229019702748</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:11">
       <c r="A141" s="2"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:11">
       <c r="A142" s="2" t="s">
         <v>404</v>
       </c>
@@ -69522,7 +70350,7 @@
         <v>-0.29744917323041148</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:11">
       <c r="A143" s="2"/>
       <c r="B143" t="s">
         <v>380</v>
@@ -69541,7 +70369,7 @@
         <v>-0.28140148161793294</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:11">
       <c r="A144" s="2"/>
       <c r="B144" t="s">
         <v>381</v>

--- a/Data/graphs_experiments.xlsx
+++ b/Data/graphs_experiments.xlsx
@@ -1415,7 +1415,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="874">
+  <cellStyleXfs count="876">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2290,6 +2290,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2307,7 +2309,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="874">
+  <cellStyles count="876">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2744,6 +2746,7 @@
     <cellStyle name="Followed Hyperlink" xfId="869" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="871" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="873" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="875" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3180,6 +3183,7 @@
     <cellStyle name="Hyperlink" xfId="868" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="870" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="872" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="874" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="313" builtinId="5"/>
   </cellStyles>
@@ -8469,6 +8473,336 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$J$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Good data locality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$73:$I$87</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$J$73:$J$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.58281685E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.454019293E9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.399141119E9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.57939816E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1285074E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5350608E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.48099121E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.70338991E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.56987112E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.033692772E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.78940147E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.52732943E8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.26186509E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.30234696E8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.8311968E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HW_20_Final!$K$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bad data locality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HW_20_Final!$I$73:$I$87</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>(false,threads)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(true,threads)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(close,threads)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(spread, threads)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(master,threads)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>(false,cores)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>(true,cores)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>(close,cores)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(spread, cores)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>(master,cores)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(false,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(true,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(close,sockets)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>(spread, sockets)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>(master,sockets)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HW_20_Final!$K$73:$K$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.41037327E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.261190085E9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.201384463E9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.22039624E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4694927E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.11501178E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.46114763E8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.61752057E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.00270067E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.126454532E9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.30094631E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.32719623E8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.88376284E8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.94749369E8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.46691748E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2125354424"/>
+        <c:axId val="-2128678920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2125354424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2128678920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2128678920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2125354424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11949,6 +12283,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1443566</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>897466</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -67180,8 +67544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86:K86"/>
+    <sheetView tabSelected="1" topLeftCell="D86" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72:K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -68797,6 +69161,12 @@
       <c r="I87" t="s">
         <v>404</v>
       </c>
+      <c r="J87">
+        <v>883119680</v>
+      </c>
+      <c r="K87">
+        <v>146691748</v>
+      </c>
     </row>
     <row r="88" spans="1:23">
       <c r="B88" t="s">
